--- a/Compass.Wpf/bin/Release/net6.0-windows/publish/JobCard.xlsx
+++ b/Compass.Wpf/bin/Release/net6.0-windows/publish/JobCard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\repos\Compass.Wasm\Compass.Wpf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296EB611-C7E3-40E8-B1AD-DF21880F188D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EBBE7E-C010-4B40-99A0-46DD7434893F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JobCard" sheetId="1" r:id="rId1"/>
@@ -1769,11 +1769,249 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1781,11 +2019,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1808,303 +2043,68 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2691,8 +2691,8 @@
   </sheetPr>
   <dimension ref="A1:H273"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A223" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A220" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A222" sqref="A222:XFD226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2711,94 +2711,94 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="45"/>
       <c r="B1" s="45"/>
-      <c r="C1" s="116" t="s">
+      <c r="C1" s="78" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="45"/>
       <c r="B2" s="45"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="158" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="155"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="80"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="127" t="s">
+      <c r="A4" s="76" t="s">
         <v>185</v>
       </c>
-      <c r="B4" s="134"/>
-      <c r="C4" s="158" t="s">
+      <c r="B4" s="77"/>
+      <c r="C4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="156"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="81"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="127" t="s">
+      <c r="A5" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="158" t="s">
+      <c r="B5" s="77"/>
+      <c r="C5" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="156"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="81"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="127" t="s">
+      <c r="A6" s="76" t="s">
         <v>187</v>
       </c>
-      <c r="B6" s="134"/>
-      <c r="C6" s="158" t="s">
+      <c r="B6" s="77"/>
+      <c r="C6" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="159"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="157"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="82"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="127" t="s">
+      <c r="A7" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="B7" s="134"/>
-      <c r="C7" s="149" t="s">
+      <c r="B7" s="77"/>
+      <c r="C7" s="90" t="s">
         <v>180</v>
       </c>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
@@ -2827,24 +2827,24 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="132" t="s">
+      <c r="A9" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="150"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="132" t="s">
+      <c r="D9" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="128"/>
+      <c r="E9" s="87"/>
       <c r="F9" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="152"/>
+      <c r="H9" s="94"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
@@ -2856,50 +2856,50 @@
       <c r="C10" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="127" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="128"/>
+      <c r="D10" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="87"/>
       <c r="F10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="153" t="s">
+      <c r="G10" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="154"/>
+      <c r="H10" s="96"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="127" t="s">
+      <c r="A11" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="146"/>
+      <c r="B11" s="86"/>
       <c r="C11" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="127" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="128"/>
+      <c r="D11" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="87"/>
       <c r="F11" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="147">
+      <c r="G11" s="88">
         <v>43826</v>
       </c>
-      <c r="H11" s="148"/>
+      <c r="H11" s="89"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="127" t="s">
+      <c r="A12" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="128"/>
+      <c r="B12" s="87"/>
       <c r="C12" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="127" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="128"/>
+      <c r="D12" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="87"/>
       <c r="F12" s="24" t="s">
         <v>12</v>
       </c>
@@ -2920,10 +2920,10 @@
       <c r="C13" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="127" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="128"/>
+      <c r="D13" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="87"/>
       <c r="F13" s="24" t="s">
         <v>12</v>
       </c>
@@ -2942,10 +2942,10 @@
       <c r="C14" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="127" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="128"/>
+      <c r="D14" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="87"/>
       <c r="F14" s="24" t="s">
         <v>12</v>
       </c>
@@ -2964,10 +2964,10 @@
       <c r="C15" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="127" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="128"/>
+      <c r="D15" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="87"/>
       <c r="F15" s="24" t="s">
         <v>12</v>
       </c>
@@ -3003,10 +3003,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A17" s="133" t="s">
+      <c r="A17" s="100" t="s">
         <v>189</v>
       </c>
-      <c r="B17" s="134"/>
+      <c r="B17" s="77"/>
       <c r="C17" s="48" t="s">
         <v>27</v>
       </c>
@@ -3055,272 +3055,272 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="135" t="s">
+      <c r="A19" s="101" t="s">
         <v>181</v>
       </c>
-      <c r="B19" s="136"/>
-      <c r="C19" s="127" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="134"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="134"/>
-      <c r="G19" s="134"/>
-      <c r="H19" s="137"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="103"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="135" t="s">
+      <c r="A20" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="136"/>
-      <c r="C20" s="127" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="134"/>
-      <c r="E20" s="134"/>
-      <c r="F20" s="134"/>
-      <c r="G20" s="134"/>
-      <c r="H20" s="137"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="103"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="138" t="s">
+      <c r="A21" s="104" t="s">
         <v>178</v>
       </c>
-      <c r="B21" s="140" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="140"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="140"/>
-      <c r="F21" s="140"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="141"/>
+      <c r="B21" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="107"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="139"/>
-      <c r="B22" s="142"/>
-      <c r="C22" s="142"/>
-      <c r="D22" s="142"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="143"/>
+      <c r="A22" s="105"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="109"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="139"/>
-      <c r="B23" s="142"/>
-      <c r="C23" s="142"/>
-      <c r="D23" s="142"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="143"/>
+      <c r="A23" s="105"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="109"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="139"/>
-      <c r="B24" s="142"/>
-      <c r="C24" s="142"/>
-      <c r="D24" s="142"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="143"/>
+      <c r="A24" s="105"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="109"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="139" t="s">
+      <c r="A25" s="105" t="s">
         <v>179</v>
       </c>
-      <c r="B25" s="142"/>
-      <c r="C25" s="142"/>
-      <c r="D25" s="142"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="143"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="109"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="139"/>
-      <c r="B26" s="142"/>
-      <c r="C26" s="142"/>
-      <c r="D26" s="142"/>
-      <c r="E26" s="142"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="142"/>
-      <c r="H26" s="143"/>
+      <c r="A26" s="105"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="109"/>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="139"/>
-      <c r="B27" s="142"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="142"/>
-      <c r="E27" s="142"/>
-      <c r="F27" s="142"/>
-      <c r="G27" s="142"/>
-      <c r="H27" s="143"/>
+      <c r="A27" s="105"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="108"/>
+      <c r="H27" s="109"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="59"/>
-      <c r="B28" s="142"/>
-      <c r="C28" s="142"/>
-      <c r="D28" s="142"/>
-      <c r="E28" s="142"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="142"/>
-      <c r="H28" s="143"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="109"/>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="59"/>
-      <c r="B29" s="142"/>
-      <c r="C29" s="142"/>
-      <c r="D29" s="142"/>
-      <c r="E29" s="142"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="142"/>
-      <c r="H29" s="143"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="109"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="59"/>
-      <c r="B30" s="142"/>
-      <c r="C30" s="142"/>
-      <c r="D30" s="142"/>
-      <c r="E30" s="142"/>
-      <c r="F30" s="142"/>
-      <c r="G30" s="142"/>
-      <c r="H30" s="143"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="109"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="59"/>
-      <c r="B31" s="142"/>
-      <c r="C31" s="142"/>
-      <c r="D31" s="142"/>
-      <c r="E31" s="142"/>
-      <c r="F31" s="142"/>
-      <c r="G31" s="142"/>
-      <c r="H31" s="143"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="108"/>
+      <c r="G31" s="108"/>
+      <c r="H31" s="109"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="60"/>
-      <c r="B32" s="142"/>
-      <c r="C32" s="142"/>
-      <c r="D32" s="142"/>
-      <c r="E32" s="142"/>
-      <c r="F32" s="142"/>
-      <c r="G32" s="142"/>
-      <c r="H32" s="143"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="109"/>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="60"/>
-      <c r="B33" s="142"/>
-      <c r="C33" s="142"/>
-      <c r="D33" s="142"/>
-      <c r="E33" s="142"/>
-      <c r="F33" s="142"/>
-      <c r="G33" s="142"/>
-      <c r="H33" s="143"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="108"/>
+      <c r="H33" s="109"/>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="60"/>
-      <c r="B34" s="142"/>
-      <c r="C34" s="142"/>
-      <c r="D34" s="142"/>
-      <c r="E34" s="142"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="142"/>
-      <c r="H34" s="143"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="108"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="109"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="60"/>
-      <c r="B35" s="142"/>
-      <c r="C35" s="142"/>
-      <c r="D35" s="142"/>
-      <c r="E35" s="142"/>
-      <c r="F35" s="142"/>
-      <c r="G35" s="142"/>
-      <c r="H35" s="143"/>
+      <c r="B35" s="108"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="108"/>
+      <c r="E35" s="108"/>
+      <c r="F35" s="108"/>
+      <c r="G35" s="108"/>
+      <c r="H35" s="109"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="60"/>
-      <c r="B36" s="142"/>
-      <c r="C36" s="142"/>
-      <c r="D36" s="142"/>
-      <c r="E36" s="142"/>
-      <c r="F36" s="142"/>
-      <c r="G36" s="142"/>
-      <c r="H36" s="143"/>
+      <c r="B36" s="108"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="108"/>
+      <c r="G36" s="108"/>
+      <c r="H36" s="109"/>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="60"/>
-      <c r="B37" s="142"/>
-      <c r="C37" s="142"/>
-      <c r="D37" s="142"/>
-      <c r="E37" s="142"/>
-      <c r="F37" s="142"/>
-      <c r="G37" s="142"/>
-      <c r="H37" s="143"/>
+      <c r="B37" s="108"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="108"/>
+      <c r="G37" s="108"/>
+      <c r="H37" s="109"/>
     </row>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="60"/>
-      <c r="B38" s="142"/>
-      <c r="C38" s="142"/>
-      <c r="D38" s="142"/>
-      <c r="E38" s="142"/>
-      <c r="F38" s="142"/>
-      <c r="G38" s="142"/>
-      <c r="H38" s="143"/>
+      <c r="B38" s="108"/>
+      <c r="C38" s="108"/>
+      <c r="D38" s="108"/>
+      <c r="E38" s="108"/>
+      <c r="F38" s="108"/>
+      <c r="G38" s="108"/>
+      <c r="H38" s="109"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="60"/>
-      <c r="B39" s="142"/>
-      <c r="C39" s="142"/>
-      <c r="D39" s="142"/>
-      <c r="E39" s="142"/>
-      <c r="F39" s="142"/>
-      <c r="G39" s="142"/>
-      <c r="H39" s="143"/>
+      <c r="B39" s="108"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="108"/>
+      <c r="G39" s="108"/>
+      <c r="H39" s="109"/>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="60"/>
-      <c r="B40" s="142"/>
-      <c r="C40" s="142"/>
-      <c r="D40" s="142"/>
-      <c r="E40" s="142"/>
-      <c r="F40" s="142"/>
-      <c r="G40" s="142"/>
-      <c r="H40" s="143"/>
+      <c r="B40" s="108"/>
+      <c r="C40" s="108"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="108"/>
+      <c r="H40" s="109"/>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="60"/>
-      <c r="B41" s="142"/>
-      <c r="C41" s="142"/>
-      <c r="D41" s="142"/>
-      <c r="E41" s="142"/>
-      <c r="F41" s="142"/>
-      <c r="G41" s="142"/>
-      <c r="H41" s="143"/>
+      <c r="B41" s="108"/>
+      <c r="C41" s="108"/>
+      <c r="D41" s="108"/>
+      <c r="E41" s="108"/>
+      <c r="F41" s="108"/>
+      <c r="G41" s="108"/>
+      <c r="H41" s="109"/>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="61"/>
-      <c r="B42" s="144"/>
-      <c r="C42" s="144"/>
-      <c r="D42" s="144"/>
-      <c r="E42" s="144"/>
-      <c r="F42" s="144"/>
-      <c r="G42" s="144"/>
-      <c r="H42" s="145"/>
+      <c r="B42" s="110"/>
+      <c r="C42" s="110"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="110"/>
+      <c r="H42" s="111"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="132" t="s">
+      <c r="A43" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="128"/>
+      <c r="B43" s="87"/>
       <c r="C43" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="129" t="s">
+      <c r="D43" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="130"/>
-      <c r="F43" s="130"/>
+      <c r="E43" s="98"/>
+      <c r="F43" s="98"/>
       <c r="G43" s="43" t="s">
         <v>38</v>
       </c>
@@ -3329,198 +3329,198 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="127" t="s">
+      <c r="A44" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="128"/>
+      <c r="B44" s="87"/>
       <c r="C44" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="129" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="130"/>
-      <c r="F44" s="131"/>
+      <c r="D44" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="98"/>
+      <c r="F44" s="99"/>
       <c r="G44" s="44"/>
       <c r="H44" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="127" t="s">
+      <c r="A45" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="128"/>
+      <c r="B45" s="87"/>
       <c r="C45" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="129" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="130"/>
-      <c r="F45" s="131"/>
+      <c r="D45" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="98"/>
+      <c r="F45" s="99"/>
       <c r="G45" s="44"/>
       <c r="H45" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="127" t="s">
+      <c r="A46" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="128"/>
+      <c r="B46" s="87"/>
       <c r="C46" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="129" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="130"/>
-      <c r="F46" s="131"/>
+      <c r="D46" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="98"/>
+      <c r="F46" s="99"/>
       <c r="G46" s="44"/>
       <c r="H46" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="127" t="s">
+      <c r="A47" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="128"/>
+      <c r="B47" s="87"/>
       <c r="C47" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="129" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="130"/>
-      <c r="F47" s="131"/>
+      <c r="D47" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="98"/>
+      <c r="F47" s="99"/>
       <c r="G47" s="44"/>
       <c r="H47" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="127" t="s">
+      <c r="A48" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="128"/>
+      <c r="B48" s="87"/>
       <c r="C48" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="129" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="130"/>
-      <c r="F48" s="131"/>
+      <c r="D48" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="98"/>
+      <c r="F48" s="99"/>
       <c r="G48" s="44"/>
       <c r="H48" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="127" t="s">
+      <c r="A49" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="128"/>
+      <c r="B49" s="87"/>
       <c r="C49" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="129" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="130"/>
-      <c r="F49" s="131"/>
+      <c r="D49" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="98"/>
+      <c r="F49" s="99"/>
       <c r="G49" s="44"/>
       <c r="H49" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="127" t="s">
+      <c r="A50" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="128"/>
+      <c r="B50" s="87"/>
       <c r="C50" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="129" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="130"/>
-      <c r="F50" s="131"/>
+      <c r="D50" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="98"/>
+      <c r="F50" s="99"/>
       <c r="G50" s="44"/>
       <c r="H50" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="127" t="s">
+      <c r="A51" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="128"/>
+      <c r="B51" s="87"/>
       <c r="C51" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="129" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="130"/>
-      <c r="F51" s="131"/>
+      <c r="D51" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="98"/>
+      <c r="F51" s="99"/>
       <c r="G51" s="44"/>
       <c r="H51" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="127" t="s">
+      <c r="A52" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="128"/>
+      <c r="B52" s="87"/>
       <c r="C52" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="129" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="130"/>
-      <c r="F52" s="131"/>
+      <c r="D52" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="98"/>
+      <c r="F52" s="99"/>
       <c r="G52" s="44"/>
       <c r="H52" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="127" t="s">
+      <c r="A53" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="128"/>
+      <c r="B53" s="87"/>
       <c r="C53" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="129" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" s="130"/>
-      <c r="F53" s="131"/>
+      <c r="D53" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="98"/>
+      <c r="F53" s="99"/>
       <c r="G53" s="44"/>
       <c r="H53" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="127" t="s">
+      <c r="A54" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="128"/>
+      <c r="B54" s="87"/>
       <c r="C54" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="129" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="130"/>
-      <c r="F54" s="131"/>
+      <c r="D54" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="98"/>
+      <c r="F54" s="99"/>
       <c r="G54" s="44"/>
       <c r="H54" s="32" t="s">
         <v>12</v>
@@ -3539,91 +3539,91 @@
     <row r="56" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="45"/>
       <c r="B56" s="45"/>
-      <c r="C56" s="116" t="s">
+      <c r="C56" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="D56" s="116"/>
-      <c r="E56" s="116"/>
-      <c r="F56" s="116"/>
-      <c r="G56" s="116"/>
-      <c r="H56" s="116"/>
+      <c r="D56" s="78"/>
+      <c r="E56" s="78"/>
+      <c r="F56" s="78"/>
+      <c r="G56" s="78"/>
+      <c r="H56" s="78"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="45"/>
       <c r="B57" s="45"/>
-      <c r="C57" s="117"/>
-      <c r="D57" s="117"/>
-      <c r="E57" s="117"/>
-      <c r="F57" s="117"/>
-      <c r="G57" s="117"/>
-      <c r="H57" s="117"/>
+      <c r="C57" s="79"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="79"/>
+      <c r="G57" s="79"/>
+      <c r="H57" s="79"/>
     </row>
     <row r="58" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="78" t="s">
+      <c r="A58" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="79"/>
-      <c r="C58" s="110" t="str">
+      <c r="B58" s="113"/>
+      <c r="C58" s="122" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D58" s="111"/>
-      <c r="E58" s="111"/>
-      <c r="F58" s="111"/>
-      <c r="G58" s="111"/>
-      <c r="H58" s="107"/>
+      <c r="D58" s="123"/>
+      <c r="E58" s="123"/>
+      <c r="F58" s="123"/>
+      <c r="G58" s="123"/>
+      <c r="H58" s="119"/>
     </row>
     <row r="59" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="78" t="s">
+      <c r="A59" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="79"/>
-      <c r="C59" s="118" t="str">
+      <c r="B59" s="113"/>
+      <c r="C59" s="124" t="str">
         <f>$C$4</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D59" s="119"/>
-      <c r="E59" s="119"/>
-      <c r="F59" s="119"/>
-      <c r="G59" s="119"/>
-      <c r="H59" s="108"/>
+      <c r="D59" s="125"/>
+      <c r="E59" s="125"/>
+      <c r="F59" s="125"/>
+      <c r="G59" s="125"/>
+      <c r="H59" s="120"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="78" t="s">
+      <c r="A60" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="79"/>
-      <c r="C60" s="118" t="str">
+      <c r="B60" s="113"/>
+      <c r="C60" s="124" t="str">
         <f>$C$5</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D60" s="119"/>
-      <c r="E60" s="119"/>
-      <c r="F60" s="119"/>
-      <c r="G60" s="119"/>
-      <c r="H60" s="108"/>
+      <c r="D60" s="125"/>
+      <c r="E60" s="125"/>
+      <c r="F60" s="125"/>
+      <c r="G60" s="125"/>
+      <c r="H60" s="120"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="125" t="s">
+      <c r="A61" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="126"/>
-      <c r="C61" s="121" t="str">
+      <c r="B61" s="115"/>
+      <c r="C61" s="126" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
-      <c r="D61" s="122"/>
-      <c r="E61" s="122"/>
-      <c r="F61" s="122"/>
-      <c r="G61" s="122"/>
-      <c r="H61" s="109"/>
+      <c r="D61" s="127"/>
+      <c r="E61" s="127"/>
+      <c r="F61" s="127"/>
+      <c r="G61" s="127"/>
+      <c r="H61" s="121"/>
     </row>
     <row r="62" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A62" s="106"/>
-      <c r="B62" s="106"/>
-      <c r="C62" s="106"/>
-      <c r="D62" s="106"/>
-      <c r="E62" s="106"/>
+      <c r="A62" s="116"/>
+      <c r="B62" s="116"/>
+      <c r="C62" s="116"/>
+      <c r="D62" s="116"/>
+      <c r="E62" s="116"/>
       <c r="F62" s="47" t="s">
         <v>52</v>
       </c>
@@ -3635,25 +3635,25 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="124" t="s">
+      <c r="A63" s="117" t="s">
         <v>194</v>
       </c>
-      <c r="B63" s="124"/>
-      <c r="C63" s="124"/>
-      <c r="D63" s="124"/>
-      <c r="E63" s="124"/>
+      <c r="B63" s="117"/>
+      <c r="C63" s="117"/>
+      <c r="D63" s="117"/>
+      <c r="E63" s="117"/>
       <c r="F63" s="33"/>
       <c r="G63" s="33"/>
       <c r="H63" s="33"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="113" t="s">
+      <c r="A64" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="B64" s="113"/>
-      <c r="C64" s="113"/>
-      <c r="D64" s="113"/>
-      <c r="E64" s="113"/>
+      <c r="B64" s="118"/>
+      <c r="C64" s="118"/>
+      <c r="D64" s="118"/>
+      <c r="E64" s="118"/>
       <c r="F64" s="34" t="s">
         <v>12</v>
       </c>
@@ -3663,13 +3663,13 @@
       <c r="H64" s="34"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="113" t="s">
+      <c r="A65" s="118" t="s">
         <v>56</v>
       </c>
-      <c r="B65" s="113"/>
-      <c r="C65" s="113"/>
-      <c r="D65" s="113"/>
-      <c r="E65" s="113"/>
+      <c r="B65" s="118"/>
+      <c r="C65" s="118"/>
+      <c r="D65" s="118"/>
+      <c r="E65" s="118"/>
       <c r="F65" s="34" t="s">
         <v>12</v>
       </c>
@@ -3679,13 +3679,13 @@
       <c r="H65" s="34"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="113" t="s">
+      <c r="A66" s="118" t="s">
         <v>57</v>
       </c>
-      <c r="B66" s="113"/>
-      <c r="C66" s="113"/>
-      <c r="D66" s="113"/>
-      <c r="E66" s="113"/>
+      <c r="B66" s="118"/>
+      <c r="C66" s="118"/>
+      <c r="D66" s="118"/>
+      <c r="E66" s="118"/>
       <c r="F66" s="34" t="s">
         <v>12</v>
       </c>
@@ -3695,13 +3695,13 @@
       <c r="H66" s="34"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="113" t="s">
+      <c r="A67" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="B67" s="113"/>
-      <c r="C67" s="113"/>
-      <c r="D67" s="113"/>
-      <c r="E67" s="113"/>
+      <c r="B67" s="118"/>
+      <c r="C67" s="118"/>
+      <c r="D67" s="118"/>
+      <c r="E67" s="118"/>
       <c r="F67" s="34" t="s">
         <v>12</v>
       </c>
@@ -3711,13 +3711,13 @@
       <c r="H67" s="34"/>
     </row>
     <row r="68" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="113" t="s">
+      <c r="A68" s="118" t="s">
         <v>59</v>
       </c>
-      <c r="B68" s="113"/>
-      <c r="C68" s="113"/>
-      <c r="D68" s="113"/>
-      <c r="E68" s="113"/>
+      <c r="B68" s="118"/>
+      <c r="C68" s="118"/>
+      <c r="D68" s="118"/>
+      <c r="E68" s="118"/>
       <c r="F68" s="34" t="s">
         <v>12</v>
       </c>
@@ -3727,13 +3727,13 @@
       <c r="H68" s="34"/>
     </row>
     <row r="69" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="124" t="s">
+      <c r="A69" s="117" t="s">
         <v>191</v>
       </c>
-      <c r="B69" s="124"/>
-      <c r="C69" s="124"/>
-      <c r="D69" s="124"/>
-      <c r="E69" s="124"/>
+      <c r="B69" s="117"/>
+      <c r="C69" s="117"/>
+      <c r="D69" s="117"/>
+      <c r="E69" s="117"/>
       <c r="F69" s="33"/>
       <c r="G69" s="33" t="s">
         <v>12</v>
@@ -3741,13 +3741,13 @@
       <c r="H69" s="33"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="113" t="s">
+      <c r="A70" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="B70" s="113"/>
-      <c r="C70" s="113"/>
-      <c r="D70" s="113"/>
-      <c r="E70" s="113"/>
+      <c r="B70" s="118"/>
+      <c r="C70" s="118"/>
+      <c r="D70" s="118"/>
+      <c r="E70" s="118"/>
       <c r="F70" s="34" t="s">
         <v>12</v>
       </c>
@@ -3757,13 +3757,13 @@
       <c r="H70" s="34"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="113" t="s">
+      <c r="A71" s="118" t="s">
         <v>61</v>
       </c>
-      <c r="B71" s="113"/>
-      <c r="C71" s="113"/>
-      <c r="D71" s="113"/>
-      <c r="E71" s="113"/>
+      <c r="B71" s="118"/>
+      <c r="C71" s="118"/>
+      <c r="D71" s="118"/>
+      <c r="E71" s="118"/>
       <c r="F71" s="34" t="s">
         <v>12</v>
       </c>
@@ -3773,13 +3773,13 @@
       <c r="H71" s="34"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="113" t="s">
+      <c r="A72" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="B72" s="113"/>
-      <c r="C72" s="113"/>
-      <c r="D72" s="113"/>
-      <c r="E72" s="113"/>
+      <c r="B72" s="118"/>
+      <c r="C72" s="118"/>
+      <c r="D72" s="118"/>
+      <c r="E72" s="118"/>
       <c r="F72" s="34" t="s">
         <v>12</v>
       </c>
@@ -3789,13 +3789,13 @@
       <c r="H72" s="34"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="113" t="s">
+      <c r="A73" s="118" t="s">
         <v>57</v>
       </c>
-      <c r="B73" s="113"/>
-      <c r="C73" s="113"/>
-      <c r="D73" s="113"/>
-      <c r="E73" s="113"/>
+      <c r="B73" s="118"/>
+      <c r="C73" s="118"/>
+      <c r="D73" s="118"/>
+      <c r="E73" s="118"/>
       <c r="F73" s="34" t="s">
         <v>12</v>
       </c>
@@ -3805,13 +3805,13 @@
       <c r="H73" s="34"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="113" t="s">
+      <c r="A74" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="B74" s="113"/>
-      <c r="C74" s="113"/>
-      <c r="D74" s="113"/>
-      <c r="E74" s="113"/>
+      <c r="B74" s="118"/>
+      <c r="C74" s="118"/>
+      <c r="D74" s="118"/>
+      <c r="E74" s="118"/>
       <c r="F74" s="34" t="s">
         <v>12</v>
       </c>
@@ -3821,13 +3821,13 @@
       <c r="H74" s="34"/>
     </row>
     <row r="75" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="113" t="s">
+      <c r="A75" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="B75" s="113"/>
-      <c r="C75" s="113"/>
-      <c r="D75" s="113"/>
-      <c r="E75" s="113"/>
+      <c r="B75" s="118"/>
+      <c r="C75" s="118"/>
+      <c r="D75" s="118"/>
+      <c r="E75" s="118"/>
       <c r="F75" s="34" t="s">
         <v>12</v>
       </c>
@@ -3837,13 +3837,13 @@
       <c r="H75" s="34"/>
     </row>
     <row r="76" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="124" t="s">
+      <c r="A76" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="B76" s="124"/>
-      <c r="C76" s="124"/>
-      <c r="D76" s="124"/>
-      <c r="E76" s="124"/>
+      <c r="B76" s="117"/>
+      <c r="C76" s="117"/>
+      <c r="D76" s="117"/>
+      <c r="E76" s="117"/>
       <c r="F76" s="33"/>
       <c r="G76" s="33" t="s">
         <v>12</v>
@@ -3851,13 +3851,13 @@
       <c r="H76" s="33"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="113" t="s">
+      <c r="A77" s="118" t="s">
         <v>57</v>
       </c>
-      <c r="B77" s="113"/>
-      <c r="C77" s="113"/>
-      <c r="D77" s="113"/>
-      <c r="E77" s="113"/>
+      <c r="B77" s="118"/>
+      <c r="C77" s="118"/>
+      <c r="D77" s="118"/>
+      <c r="E77" s="118"/>
       <c r="F77" s="34" t="s">
         <v>12</v>
       </c>
@@ -3867,13 +3867,13 @@
       <c r="H77" s="34"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="113" t="s">
+      <c r="A78" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="B78" s="113"/>
-      <c r="C78" s="113"/>
-      <c r="D78" s="113"/>
-      <c r="E78" s="113"/>
+      <c r="B78" s="118"/>
+      <c r="C78" s="118"/>
+      <c r="D78" s="118"/>
+      <c r="E78" s="118"/>
       <c r="F78" s="34" t="s">
         <v>12</v>
       </c>
@@ -3883,13 +3883,13 @@
       <c r="H78" s="34"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="113" t="s">
+      <c r="A79" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="B79" s="113"/>
-      <c r="C79" s="113"/>
-      <c r="D79" s="113"/>
-      <c r="E79" s="113"/>
+      <c r="B79" s="118"/>
+      <c r="C79" s="118"/>
+      <c r="D79" s="118"/>
+      <c r="E79" s="118"/>
       <c r="F79" s="34" t="s">
         <v>12</v>
       </c>
@@ -3899,13 +3899,13 @@
       <c r="H79" s="34"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="113" t="s">
+      <c r="A80" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="B80" s="113"/>
-      <c r="C80" s="113"/>
-      <c r="D80" s="113"/>
-      <c r="E80" s="113"/>
+      <c r="B80" s="118"/>
+      <c r="C80" s="118"/>
+      <c r="D80" s="118"/>
+      <c r="E80" s="118"/>
       <c r="F80" s="34" t="s">
         <v>12</v>
       </c>
@@ -3915,13 +3915,13 @@
       <c r="H80" s="34"/>
     </row>
     <row r="81" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="124" t="s">
+      <c r="A81" s="117" t="s">
         <v>190</v>
       </c>
-      <c r="B81" s="124"/>
-      <c r="C81" s="124"/>
-      <c r="D81" s="124"/>
-      <c r="E81" s="124"/>
+      <c r="B81" s="117"/>
+      <c r="C81" s="117"/>
+      <c r="D81" s="117"/>
+      <c r="E81" s="117"/>
       <c r="F81" s="33"/>
       <c r="G81" s="33" t="s">
         <v>12</v>
@@ -3929,13 +3929,13 @@
       <c r="H81" s="33"/>
     </row>
     <row r="82" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="113" t="s">
+      <c r="A82" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="B82" s="113"/>
-      <c r="C82" s="113"/>
-      <c r="D82" s="113"/>
-      <c r="E82" s="113"/>
+      <c r="B82" s="118"/>
+      <c r="C82" s="118"/>
+      <c r="D82" s="118"/>
+      <c r="E82" s="118"/>
       <c r="F82" s="34" t="s">
         <v>12</v>
       </c>
@@ -3945,13 +3945,13 @@
       <c r="H82" s="34"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="113" t="s">
+      <c r="A83" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="B83" s="113"/>
-      <c r="C83" s="113"/>
-      <c r="D83" s="113"/>
-      <c r="E83" s="113"/>
+      <c r="B83" s="118"/>
+      <c r="C83" s="118"/>
+      <c r="D83" s="118"/>
+      <c r="E83" s="118"/>
       <c r="F83" s="34" t="s">
         <v>12</v>
       </c>
@@ -3961,13 +3961,13 @@
       <c r="H83" s="34"/>
     </row>
     <row r="84" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="113" t="s">
+      <c r="A84" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="B84" s="113"/>
-      <c r="C84" s="113"/>
-      <c r="D84" s="113"/>
-      <c r="E84" s="113"/>
+      <c r="B84" s="118"/>
+      <c r="C84" s="118"/>
+      <c r="D84" s="118"/>
+      <c r="E84" s="118"/>
       <c r="F84" s="34" t="s">
         <v>12</v>
       </c>
@@ -3977,13 +3977,13 @@
       <c r="H84" s="34"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="113" t="s">
+      <c r="A85" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="B85" s="113"/>
-      <c r="C85" s="113"/>
-      <c r="D85" s="113"/>
-      <c r="E85" s="113"/>
+      <c r="B85" s="118"/>
+      <c r="C85" s="118"/>
+      <c r="D85" s="118"/>
+      <c r="E85" s="118"/>
       <c r="F85" s="34" t="s">
         <v>12</v>
       </c>
@@ -3993,13 +3993,13 @@
       <c r="H85" s="34"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="113" t="s">
+      <c r="A86" s="118" t="s">
         <v>71</v>
       </c>
-      <c r="B86" s="113"/>
-      <c r="C86" s="113"/>
-      <c r="D86" s="113"/>
-      <c r="E86" s="113"/>
+      <c r="B86" s="118"/>
+      <c r="C86" s="118"/>
+      <c r="D86" s="118"/>
+      <c r="E86" s="118"/>
       <c r="F86" s="34" t="s">
         <v>12</v>
       </c>
@@ -4009,13 +4009,13 @@
       <c r="H86" s="34"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="113" t="s">
+      <c r="A87" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="B87" s="113"/>
-      <c r="C87" s="113"/>
-      <c r="D87" s="113"/>
-      <c r="E87" s="113"/>
+      <c r="B87" s="118"/>
+      <c r="C87" s="118"/>
+      <c r="D87" s="118"/>
+      <c r="E87" s="118"/>
       <c r="F87" s="34" t="s">
         <v>12</v>
       </c>
@@ -4025,13 +4025,13 @@
       <c r="H87" s="34"/>
     </row>
     <row r="88" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="113" t="s">
+      <c r="A88" s="118" t="s">
         <v>73</v>
       </c>
-      <c r="B88" s="113"/>
-      <c r="C88" s="113"/>
-      <c r="D88" s="113"/>
-      <c r="E88" s="113"/>
+      <c r="B88" s="118"/>
+      <c r="C88" s="118"/>
+      <c r="D88" s="118"/>
+      <c r="E88" s="118"/>
       <c r="F88" s="34" t="s">
         <v>12</v>
       </c>
@@ -4041,13 +4041,13 @@
       <c r="H88" s="34"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="113" t="s">
+      <c r="A89" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="B89" s="113"/>
-      <c r="C89" s="113"/>
-      <c r="D89" s="113"/>
-      <c r="E89" s="113"/>
+      <c r="B89" s="118"/>
+      <c r="C89" s="118"/>
+      <c r="D89" s="118"/>
+      <c r="E89" s="118"/>
       <c r="F89" s="34" t="s">
         <v>12</v>
       </c>
@@ -4057,13 +4057,13 @@
       <c r="H89" s="34"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="113" t="s">
+      <c r="A90" s="118" t="s">
         <v>75</v>
       </c>
-      <c r="B90" s="113"/>
-      <c r="C90" s="113"/>
-      <c r="D90" s="113"/>
-      <c r="E90" s="113"/>
+      <c r="B90" s="118"/>
+      <c r="C90" s="118"/>
+      <c r="D90" s="118"/>
+      <c r="E90" s="118"/>
       <c r="F90" s="34" t="s">
         <v>12</v>
       </c>
@@ -4073,13 +4073,13 @@
       <c r="H90" s="34"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="113" t="s">
+      <c r="A91" s="118" t="s">
         <v>76</v>
       </c>
-      <c r="B91" s="113"/>
-      <c r="C91" s="113"/>
-      <c r="D91" s="113"/>
-      <c r="E91" s="113"/>
+      <c r="B91" s="118"/>
+      <c r="C91" s="118"/>
+      <c r="D91" s="118"/>
+      <c r="E91" s="118"/>
       <c r="F91" s="34" t="s">
         <v>12</v>
       </c>
@@ -4089,13 +4089,13 @@
       <c r="H91" s="34"/>
     </row>
     <row r="92" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="113" t="s">
+      <c r="A92" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="B92" s="113"/>
-      <c r="C92" s="113"/>
-      <c r="D92" s="113"/>
-      <c r="E92" s="113"/>
+      <c r="B92" s="118"/>
+      <c r="C92" s="118"/>
+      <c r="D92" s="118"/>
+      <c r="E92" s="118"/>
       <c r="F92" s="34" t="s">
         <v>12</v>
       </c>
@@ -4105,13 +4105,13 @@
       <c r="H92" s="34"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="113" t="s">
+      <c r="A93" s="118" t="s">
         <v>78</v>
       </c>
-      <c r="B93" s="113"/>
-      <c r="C93" s="113"/>
-      <c r="D93" s="113"/>
-      <c r="E93" s="113"/>
+      <c r="B93" s="118"/>
+      <c r="C93" s="118"/>
+      <c r="D93" s="118"/>
+      <c r="E93" s="118"/>
       <c r="F93" s="34" t="s">
         <v>12</v>
       </c>
@@ -4133,91 +4133,91 @@
     <row r="95" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="45"/>
       <c r="B95" s="45"/>
-      <c r="C95" s="116" t="s">
+      <c r="C95" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="D95" s="116"/>
-      <c r="E95" s="116"/>
-      <c r="F95" s="116"/>
-      <c r="G95" s="116"/>
-      <c r="H95" s="116"/>
+      <c r="D95" s="78"/>
+      <c r="E95" s="78"/>
+      <c r="F95" s="78"/>
+      <c r="G95" s="78"/>
+      <c r="H95" s="78"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="45"/>
       <c r="B96" s="45"/>
-      <c r="C96" s="117"/>
-      <c r="D96" s="117"/>
-      <c r="E96" s="117"/>
-      <c r="F96" s="117"/>
-      <c r="G96" s="117"/>
-      <c r="H96" s="117"/>
+      <c r="C96" s="79"/>
+      <c r="D96" s="79"/>
+      <c r="E96" s="79"/>
+      <c r="F96" s="79"/>
+      <c r="G96" s="79"/>
+      <c r="H96" s="79"/>
     </row>
     <row r="97" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="78" t="s">
+      <c r="A97" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B97" s="79"/>
-      <c r="C97" s="110" t="str">
+      <c r="B97" s="113"/>
+      <c r="C97" s="122" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D97" s="111"/>
-      <c r="E97" s="111"/>
-      <c r="F97" s="111"/>
-      <c r="G97" s="112"/>
-      <c r="H97" s="107"/>
+      <c r="D97" s="123"/>
+      <c r="E97" s="123"/>
+      <c r="F97" s="123"/>
+      <c r="G97" s="128"/>
+      <c r="H97" s="119"/>
     </row>
     <row r="98" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="78" t="s">
+      <c r="A98" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="B98" s="79"/>
-      <c r="C98" s="118" t="str">
+      <c r="B98" s="113"/>
+      <c r="C98" s="124" t="str">
         <f>$C$4</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D98" s="119"/>
-      <c r="E98" s="119"/>
-      <c r="F98" s="119"/>
-      <c r="G98" s="120"/>
-      <c r="H98" s="108"/>
+      <c r="D98" s="125"/>
+      <c r="E98" s="125"/>
+      <c r="F98" s="125"/>
+      <c r="G98" s="129"/>
+      <c r="H98" s="120"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="78" t="s">
+      <c r="A99" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="B99" s="79"/>
-      <c r="C99" s="118" t="str">
+      <c r="B99" s="113"/>
+      <c r="C99" s="124" t="str">
         <f>$C$5</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D99" s="119"/>
-      <c r="E99" s="119"/>
-      <c r="F99" s="119"/>
-      <c r="G99" s="120"/>
-      <c r="H99" s="108"/>
+      <c r="D99" s="125"/>
+      <c r="E99" s="125"/>
+      <c r="F99" s="125"/>
+      <c r="G99" s="129"/>
+      <c r="H99" s="120"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="125" t="s">
+      <c r="A100" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="B100" s="126"/>
-      <c r="C100" s="121" t="str">
+      <c r="B100" s="115"/>
+      <c r="C100" s="126" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
-      <c r="D100" s="122"/>
-      <c r="E100" s="122"/>
-      <c r="F100" s="122"/>
-      <c r="G100" s="123"/>
-      <c r="H100" s="109"/>
+      <c r="D100" s="127"/>
+      <c r="E100" s="127"/>
+      <c r="F100" s="127"/>
+      <c r="G100" s="130"/>
+      <c r="H100" s="121"/>
     </row>
     <row r="101" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A101" s="106"/>
-      <c r="B101" s="106"/>
-      <c r="C101" s="106"/>
-      <c r="D101" s="106"/>
-      <c r="E101" s="106"/>
+      <c r="A101" s="116"/>
+      <c r="B101" s="116"/>
+      <c r="C101" s="116"/>
+      <c r="D101" s="116"/>
+      <c r="E101" s="116"/>
       <c r="F101" s="47" t="s">
         <v>52</v>
       </c>
@@ -4229,13 +4229,13 @@
       </c>
     </row>
     <row r="102" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="124" t="s">
+      <c r="A102" s="117" t="s">
         <v>193</v>
       </c>
-      <c r="B102" s="124"/>
-      <c r="C102" s="124"/>
-      <c r="D102" s="124"/>
-      <c r="E102" s="124"/>
+      <c r="B102" s="117"/>
+      <c r="C102" s="117"/>
+      <c r="D102" s="117"/>
+      <c r="E102" s="117"/>
       <c r="F102" s="33"/>
       <c r="G102" s="33" t="s">
         <v>12</v>
@@ -4243,13 +4243,13 @@
       <c r="H102" s="33"/>
     </row>
     <row r="103" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="113" t="s">
+      <c r="A103" s="118" t="s">
         <v>80</v>
       </c>
-      <c r="B103" s="113"/>
-      <c r="C103" s="113"/>
-      <c r="D103" s="113"/>
-      <c r="E103" s="113"/>
+      <c r="B103" s="118"/>
+      <c r="C103" s="118"/>
+      <c r="D103" s="118"/>
+      <c r="E103" s="118"/>
       <c r="F103" s="34" t="s">
         <v>12</v>
       </c>
@@ -4259,13 +4259,13 @@
       <c r="H103" s="34"/>
     </row>
     <row r="104" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="113" t="s">
+      <c r="A104" s="118" t="s">
         <v>81</v>
       </c>
-      <c r="B104" s="113"/>
-      <c r="C104" s="113"/>
-      <c r="D104" s="113"/>
-      <c r="E104" s="113"/>
+      <c r="B104" s="118"/>
+      <c r="C104" s="118"/>
+      <c r="D104" s="118"/>
+      <c r="E104" s="118"/>
       <c r="F104" s="34" t="s">
         <v>12</v>
       </c>
@@ -4275,13 +4275,13 @@
       <c r="H104" s="34"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="113" t="s">
+      <c r="A105" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="B105" s="113"/>
-      <c r="C105" s="113"/>
-      <c r="D105" s="113"/>
-      <c r="E105" s="113"/>
+      <c r="B105" s="118"/>
+      <c r="C105" s="118"/>
+      <c r="D105" s="118"/>
+      <c r="E105" s="118"/>
       <c r="F105" s="34" t="s">
         <v>12</v>
       </c>
@@ -4291,13 +4291,13 @@
       <c r="H105" s="34"/>
     </row>
     <row r="106" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="124" t="s">
+      <c r="A106" s="117" t="s">
         <v>192</v>
       </c>
-      <c r="B106" s="124"/>
-      <c r="C106" s="124"/>
-      <c r="D106" s="124"/>
-      <c r="E106" s="124"/>
+      <c r="B106" s="117"/>
+      <c r="C106" s="117"/>
+      <c r="D106" s="117"/>
+      <c r="E106" s="117"/>
       <c r="F106" s="33"/>
       <c r="G106" s="33" t="s">
         <v>12</v>
@@ -4305,13 +4305,13 @@
       <c r="H106" s="33"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="113" t="s">
+      <c r="A107" s="118" t="s">
         <v>83</v>
       </c>
-      <c r="B107" s="113"/>
-      <c r="C107" s="113"/>
-      <c r="D107" s="113"/>
-      <c r="E107" s="113"/>
+      <c r="B107" s="118"/>
+      <c r="C107" s="118"/>
+      <c r="D107" s="118"/>
+      <c r="E107" s="118"/>
       <c r="F107" s="34" t="s">
         <v>12</v>
       </c>
@@ -4321,13 +4321,13 @@
       <c r="H107" s="34"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="113" t="s">
+      <c r="A108" s="118" t="s">
         <v>84</v>
       </c>
-      <c r="B108" s="113"/>
-      <c r="C108" s="113"/>
-      <c r="D108" s="113"/>
-      <c r="E108" s="113"/>
+      <c r="B108" s="118"/>
+      <c r="C108" s="118"/>
+      <c r="D108" s="118"/>
+      <c r="E108" s="118"/>
       <c r="F108" s="34" t="s">
         <v>12</v>
       </c>
@@ -4337,13 +4337,13 @@
       <c r="H108" s="34"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="113" t="s">
+      <c r="A109" s="118" t="s">
         <v>85</v>
       </c>
-      <c r="B109" s="113"/>
-      <c r="C109" s="113"/>
-      <c r="D109" s="113"/>
-      <c r="E109" s="113"/>
+      <c r="B109" s="118"/>
+      <c r="C109" s="118"/>
+      <c r="D109" s="118"/>
+      <c r="E109" s="118"/>
       <c r="F109" s="34" t="s">
         <v>12</v>
       </c>
@@ -4353,13 +4353,13 @@
       <c r="H109" s="34"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" s="113" t="s">
+      <c r="A110" s="118" t="s">
         <v>86</v>
       </c>
-      <c r="B110" s="113"/>
-      <c r="C110" s="113"/>
-      <c r="D110" s="113"/>
-      <c r="E110" s="113"/>
+      <c r="B110" s="118"/>
+      <c r="C110" s="118"/>
+      <c r="D110" s="118"/>
+      <c r="E110" s="118"/>
       <c r="F110" s="34" t="s">
         <v>12</v>
       </c>
@@ -4369,13 +4369,13 @@
       <c r="H110" s="34"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="113" t="s">
+      <c r="A111" s="118" t="s">
         <v>87</v>
       </c>
-      <c r="B111" s="113"/>
-      <c r="C111" s="113"/>
-      <c r="D111" s="113"/>
-      <c r="E111" s="113"/>
+      <c r="B111" s="118"/>
+      <c r="C111" s="118"/>
+      <c r="D111" s="118"/>
+      <c r="E111" s="118"/>
       <c r="F111" s="34" t="s">
         <v>12</v>
       </c>
@@ -4385,13 +4385,13 @@
       <c r="H111" s="34"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="113" t="s">
+      <c r="A112" s="118" t="s">
         <v>88</v>
       </c>
-      <c r="B112" s="113"/>
-      <c r="C112" s="113"/>
-      <c r="D112" s="113"/>
-      <c r="E112" s="113"/>
+      <c r="B112" s="118"/>
+      <c r="C112" s="118"/>
+      <c r="D112" s="118"/>
+      <c r="E112" s="118"/>
       <c r="F112" s="34" t="s">
         <v>12</v>
       </c>
@@ -4401,13 +4401,13 @@
       <c r="H112" s="34"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="113" t="s">
+      <c r="A113" s="118" t="s">
         <v>89</v>
       </c>
-      <c r="B113" s="113"/>
-      <c r="C113" s="113"/>
-      <c r="D113" s="113"/>
-      <c r="E113" s="113"/>
+      <c r="B113" s="118"/>
+      <c r="C113" s="118"/>
+      <c r="D113" s="118"/>
+      <c r="E113" s="118"/>
       <c r="F113" s="34" t="s">
         <v>12</v>
       </c>
@@ -4417,13 +4417,13 @@
       <c r="H113" s="34"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="113" t="s">
+      <c r="A114" s="118" t="s">
         <v>90</v>
       </c>
-      <c r="B114" s="113"/>
-      <c r="C114" s="113"/>
-      <c r="D114" s="113"/>
-      <c r="E114" s="113"/>
+      <c r="B114" s="118"/>
+      <c r="C114" s="118"/>
+      <c r="D114" s="118"/>
+      <c r="E114" s="118"/>
       <c r="F114" s="34" t="s">
         <v>12</v>
       </c>
@@ -4433,13 +4433,13 @@
       <c r="H114" s="34"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="113" t="s">
+      <c r="A115" s="118" t="s">
         <v>91</v>
       </c>
-      <c r="B115" s="113"/>
-      <c r="C115" s="113"/>
-      <c r="D115" s="113"/>
-      <c r="E115" s="113"/>
+      <c r="B115" s="118"/>
+      <c r="C115" s="118"/>
+      <c r="D115" s="118"/>
+      <c r="E115" s="118"/>
       <c r="F115" s="34" t="s">
         <v>12</v>
       </c>
@@ -4449,13 +4449,13 @@
       <c r="H115" s="34"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="113" t="s">
+      <c r="A116" s="118" t="s">
         <v>92</v>
       </c>
-      <c r="B116" s="113"/>
-      <c r="C116" s="113"/>
-      <c r="D116" s="113"/>
-      <c r="E116" s="113"/>
+      <c r="B116" s="118"/>
+      <c r="C116" s="118"/>
+      <c r="D116" s="118"/>
+      <c r="E116" s="118"/>
       <c r="F116" s="34" t="s">
         <v>12</v>
       </c>
@@ -4465,13 +4465,13 @@
       <c r="H116" s="34"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="113" t="s">
+      <c r="A117" s="118" t="s">
         <v>93</v>
       </c>
-      <c r="B117" s="113"/>
-      <c r="C117" s="113"/>
-      <c r="D117" s="113"/>
-      <c r="E117" s="113"/>
+      <c r="B117" s="118"/>
+      <c r="C117" s="118"/>
+      <c r="D117" s="118"/>
+      <c r="E117" s="118"/>
       <c r="F117" s="34" t="s">
         <v>12</v>
       </c>
@@ -4481,13 +4481,13 @@
       <c r="H117" s="34"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="113" t="s">
+      <c r="A118" s="118" t="s">
         <v>94</v>
       </c>
-      <c r="B118" s="113"/>
-      <c r="C118" s="113"/>
-      <c r="D118" s="113"/>
-      <c r="E118" s="113"/>
+      <c r="B118" s="118"/>
+      <c r="C118" s="118"/>
+      <c r="D118" s="118"/>
+      <c r="E118" s="118"/>
       <c r="F118" s="34" t="s">
         <v>12</v>
       </c>
@@ -4497,13 +4497,13 @@
       <c r="H118" s="34"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="113" t="s">
+      <c r="A119" s="118" t="s">
         <v>95</v>
       </c>
-      <c r="B119" s="113"/>
-      <c r="C119" s="113"/>
-      <c r="D119" s="113"/>
-      <c r="E119" s="113"/>
+      <c r="B119" s="118"/>
+      <c r="C119" s="118"/>
+      <c r="D119" s="118"/>
+      <c r="E119" s="118"/>
       <c r="F119" s="34" t="s">
         <v>12</v>
       </c>
@@ -4513,13 +4513,13 @@
       <c r="H119" s="34"/>
     </row>
     <row r="120" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="113" t="s">
+      <c r="A120" s="118" t="s">
         <v>96</v>
       </c>
-      <c r="B120" s="113"/>
-      <c r="C120" s="113"/>
-      <c r="D120" s="113"/>
-      <c r="E120" s="113"/>
+      <c r="B120" s="118"/>
+      <c r="C120" s="118"/>
+      <c r="D120" s="118"/>
+      <c r="E120" s="118"/>
       <c r="F120" s="34" t="s">
         <v>12</v>
       </c>
@@ -4529,13 +4529,13 @@
       <c r="H120" s="34"/>
     </row>
     <row r="121" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="113" t="s">
+      <c r="A121" s="118" t="s">
         <v>97</v>
       </c>
-      <c r="B121" s="113"/>
-      <c r="C121" s="113"/>
-      <c r="D121" s="113"/>
-      <c r="E121" s="113"/>
+      <c r="B121" s="118"/>
+      <c r="C121" s="118"/>
+      <c r="D121" s="118"/>
+      <c r="E121" s="118"/>
       <c r="F121" s="34" t="s">
         <v>12</v>
       </c>
@@ -4545,13 +4545,13 @@
       <c r="H121" s="34"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="113" t="s">
+      <c r="A122" s="118" t="s">
         <v>98</v>
       </c>
-      <c r="B122" s="113"/>
-      <c r="C122" s="113"/>
-      <c r="D122" s="113"/>
-      <c r="E122" s="113"/>
+      <c r="B122" s="118"/>
+      <c r="C122" s="118"/>
+      <c r="D122" s="118"/>
+      <c r="E122" s="118"/>
       <c r="F122" s="34" t="s">
         <v>12</v>
       </c>
@@ -4561,13 +4561,13 @@
       <c r="H122" s="34"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="113" t="s">
+      <c r="A123" s="118" t="s">
         <v>99</v>
       </c>
-      <c r="B123" s="113"/>
-      <c r="C123" s="113"/>
-      <c r="D123" s="113"/>
-      <c r="E123" s="113"/>
+      <c r="B123" s="118"/>
+      <c r="C123" s="118"/>
+      <c r="D123" s="118"/>
+      <c r="E123" s="118"/>
       <c r="F123" s="34" t="s">
         <v>12</v>
       </c>
@@ -4577,13 +4577,13 @@
       <c r="H123" s="34"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="113" t="s">
+      <c r="A124" s="118" t="s">
         <v>100</v>
       </c>
-      <c r="B124" s="113"/>
-      <c r="C124" s="113"/>
-      <c r="D124" s="113"/>
-      <c r="E124" s="113"/>
+      <c r="B124" s="118"/>
+      <c r="C124" s="118"/>
+      <c r="D124" s="118"/>
+      <c r="E124" s="118"/>
       <c r="F124" s="34" t="s">
         <v>12</v>
       </c>
@@ -4593,13 +4593,13 @@
       <c r="H124" s="34"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" s="113" t="s">
+      <c r="A125" s="118" t="s">
         <v>101</v>
       </c>
-      <c r="B125" s="113"/>
-      <c r="C125" s="113"/>
-      <c r="D125" s="113"/>
-      <c r="E125" s="113"/>
+      <c r="B125" s="118"/>
+      <c r="C125" s="118"/>
+      <c r="D125" s="118"/>
+      <c r="E125" s="118"/>
       <c r="F125" s="34" t="s">
         <v>12</v>
       </c>
@@ -4609,13 +4609,13 @@
       <c r="H125" s="34"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="113" t="s">
+      <c r="A126" s="118" t="s">
         <v>102</v>
       </c>
-      <c r="B126" s="113"/>
-      <c r="C126" s="113"/>
-      <c r="D126" s="113"/>
-      <c r="E126" s="113"/>
+      <c r="B126" s="118"/>
+      <c r="C126" s="118"/>
+      <c r="D126" s="118"/>
+      <c r="E126" s="118"/>
       <c r="F126" s="34" t="s">
         <v>12</v>
       </c>
@@ -4625,13 +4625,13 @@
       <c r="H126" s="34"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="113" t="s">
+      <c r="A127" s="118" t="s">
         <v>103</v>
       </c>
-      <c r="B127" s="113"/>
-      <c r="C127" s="113"/>
-      <c r="D127" s="113"/>
-      <c r="E127" s="113"/>
+      <c r="B127" s="118"/>
+      <c r="C127" s="118"/>
+      <c r="D127" s="118"/>
+      <c r="E127" s="118"/>
       <c r="F127" s="34" t="s">
         <v>12</v>
       </c>
@@ -4641,13 +4641,13 @@
       <c r="H127" s="34"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="113" t="s">
+      <c r="A128" s="118" t="s">
         <v>104</v>
       </c>
-      <c r="B128" s="113"/>
-      <c r="C128" s="113"/>
-      <c r="D128" s="113"/>
-      <c r="E128" s="113"/>
+      <c r="B128" s="118"/>
+      <c r="C128" s="118"/>
+      <c r="D128" s="118"/>
+      <c r="E128" s="118"/>
       <c r="F128" s="34" t="s">
         <v>12</v>
       </c>
@@ -4657,13 +4657,13 @@
       <c r="H128" s="34"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="113" t="s">
+      <c r="A129" s="118" t="s">
         <v>105</v>
       </c>
-      <c r="B129" s="113"/>
-      <c r="C129" s="113"/>
-      <c r="D129" s="113"/>
-      <c r="E129" s="113"/>
+      <c r="B129" s="118"/>
+      <c r="C129" s="118"/>
+      <c r="D129" s="118"/>
+      <c r="E129" s="118"/>
       <c r="F129" s="34" t="s">
         <v>12</v>
       </c>
@@ -4673,13 +4673,13 @@
       <c r="H129" s="34"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="113" t="s">
+      <c r="A130" s="118" t="s">
         <v>106</v>
       </c>
-      <c r="B130" s="113"/>
-      <c r="C130" s="113"/>
-      <c r="D130" s="113"/>
-      <c r="E130" s="113"/>
+      <c r="B130" s="118"/>
+      <c r="C130" s="118"/>
+      <c r="D130" s="118"/>
+      <c r="E130" s="118"/>
       <c r="F130" s="34" t="s">
         <v>12</v>
       </c>
@@ -4689,13 +4689,13 @@
       <c r="H130" s="34"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="113" t="s">
+      <c r="A131" s="118" t="s">
         <v>107</v>
       </c>
-      <c r="B131" s="113"/>
-      <c r="C131" s="113"/>
-      <c r="D131" s="113"/>
-      <c r="E131" s="113"/>
+      <c r="B131" s="118"/>
+      <c r="C131" s="118"/>
+      <c r="D131" s="118"/>
+      <c r="E131" s="118"/>
       <c r="F131" s="34" t="s">
         <v>12</v>
       </c>
@@ -4705,13 +4705,13 @@
       <c r="H131" s="34"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="113" t="s">
+      <c r="A132" s="118" t="s">
         <v>108</v>
       </c>
-      <c r="B132" s="113"/>
-      <c r="C132" s="113"/>
-      <c r="D132" s="113"/>
-      <c r="E132" s="113"/>
+      <c r="B132" s="118"/>
+      <c r="C132" s="118"/>
+      <c r="D132" s="118"/>
+      <c r="E132" s="118"/>
       <c r="F132" s="34" t="s">
         <v>12</v>
       </c>
@@ -4721,13 +4721,13 @@
       <c r="H132" s="34"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" s="113" t="s">
+      <c r="A133" s="118" t="s">
         <v>109</v>
       </c>
-      <c r="B133" s="113"/>
-      <c r="C133" s="113"/>
-      <c r="D133" s="113"/>
-      <c r="E133" s="113"/>
+      <c r="B133" s="118"/>
+      <c r="C133" s="118"/>
+      <c r="D133" s="118"/>
+      <c r="E133" s="118"/>
       <c r="F133" s="34" t="s">
         <v>12</v>
       </c>
@@ -4737,13 +4737,13 @@
       <c r="H133" s="34"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="113" t="s">
+      <c r="A134" s="118" t="s">
         <v>110</v>
       </c>
-      <c r="B134" s="113"/>
-      <c r="C134" s="113"/>
-      <c r="D134" s="113"/>
-      <c r="E134" s="113"/>
+      <c r="B134" s="118"/>
+      <c r="C134" s="118"/>
+      <c r="D134" s="118"/>
+      <c r="E134" s="118"/>
       <c r="F134" s="34" t="s">
         <v>12</v>
       </c>
@@ -4753,16 +4753,16 @@
       <c r="H134" s="34"/>
     </row>
     <row r="135" spans="1:8" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="114" t="s">
+      <c r="A135" s="131" t="s">
         <v>111</v>
       </c>
-      <c r="B135" s="114"/>
-      <c r="C135" s="115"/>
-      <c r="D135" s="115"/>
-      <c r="E135" s="115"/>
-      <c r="F135" s="115"/>
-      <c r="G135" s="115"/>
-      <c r="H135" s="115"/>
+      <c r="B135" s="131"/>
+      <c r="C135" s="132"/>
+      <c r="D135" s="132"/>
+      <c r="E135" s="132"/>
+      <c r="F135" s="132"/>
+      <c r="G135" s="132"/>
+      <c r="H135" s="132"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="55"/>
@@ -4777,634 +4777,634 @@
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="45"/>
       <c r="B137" s="45"/>
-      <c r="C137" s="116" t="s">
+      <c r="C137" s="78" t="s">
         <v>183</v>
       </c>
-      <c r="D137" s="116"/>
-      <c r="E137" s="116"/>
-      <c r="F137" s="116"/>
-      <c r="G137" s="116"/>
-      <c r="H137" s="116"/>
+      <c r="D137" s="78"/>
+      <c r="E137" s="78"/>
+      <c r="F137" s="78"/>
+      <c r="G137" s="78"/>
+      <c r="H137" s="78"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="45"/>
       <c r="B138" s="45"/>
-      <c r="C138" s="117"/>
-      <c r="D138" s="117"/>
-      <c r="E138" s="117"/>
-      <c r="F138" s="117"/>
-      <c r="G138" s="117"/>
-      <c r="H138" s="117"/>
+      <c r="C138" s="79"/>
+      <c r="D138" s="79"/>
+      <c r="E138" s="79"/>
+      <c r="F138" s="79"/>
+      <c r="G138" s="79"/>
+      <c r="H138" s="79"/>
     </row>
     <row r="139" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="78" t="s">
+      <c r="A139" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B139" s="79"/>
-      <c r="C139" s="110" t="str">
+      <c r="B139" s="113"/>
+      <c r="C139" s="122" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D139" s="111"/>
-      <c r="E139" s="111"/>
-      <c r="F139" s="111"/>
-      <c r="G139" s="112"/>
-      <c r="H139" s="107"/>
+      <c r="D139" s="123"/>
+      <c r="E139" s="123"/>
+      <c r="F139" s="123"/>
+      <c r="G139" s="128"/>
+      <c r="H139" s="119"/>
     </row>
     <row r="140" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="78" t="s">
+      <c r="A140" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="B140" s="79"/>
-      <c r="C140" s="110" t="str">
+      <c r="B140" s="113"/>
+      <c r="C140" s="122" t="str">
         <f>$C$4</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D140" s="111"/>
-      <c r="E140" s="111"/>
-      <c r="F140" s="111"/>
-      <c r="G140" s="112"/>
-      <c r="H140" s="108"/>
+      <c r="D140" s="123"/>
+      <c r="E140" s="123"/>
+      <c r="F140" s="123"/>
+      <c r="G140" s="128"/>
+      <c r="H140" s="120"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="78" t="s">
+      <c r="A141" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="B141" s="79"/>
-      <c r="C141" s="110" t="str">
+      <c r="B141" s="113"/>
+      <c r="C141" s="122" t="str">
         <f>$C$5</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D141" s="111"/>
-      <c r="E141" s="111"/>
-      <c r="F141" s="111"/>
-      <c r="G141" s="112"/>
-      <c r="H141" s="108"/>
+      <c r="D141" s="123"/>
+      <c r="E141" s="123"/>
+      <c r="F141" s="123"/>
+      <c r="G141" s="128"/>
+      <c r="H141" s="120"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="78" t="s">
+      <c r="A142" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="B142" s="79"/>
-      <c r="C142" s="110" t="str">
+      <c r="B142" s="113"/>
+      <c r="C142" s="122" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
-      <c r="D142" s="111"/>
-      <c r="E142" s="111"/>
-      <c r="F142" s="111"/>
-      <c r="G142" s="112"/>
-      <c r="H142" s="109"/>
+      <c r="D142" s="123"/>
+      <c r="E142" s="123"/>
+      <c r="F142" s="123"/>
+      <c r="G142" s="128"/>
+      <c r="H142" s="121"/>
     </row>
     <row r="143" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="103" t="s">
+      <c r="A143" s="141" t="s">
         <v>112</v>
       </c>
-      <c r="B143" s="104"/>
-      <c r="C143" s="103" t="s">
+      <c r="B143" s="142"/>
+      <c r="C143" s="141" t="s">
         <v>113</v>
       </c>
-      <c r="D143" s="105"/>
-      <c r="E143" s="105"/>
+      <c r="D143" s="143"/>
+      <c r="E143" s="143"/>
       <c r="F143" s="35"/>
-      <c r="G143" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="H143" s="106"/>
+      <c r="G143" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="H143" s="116"/>
     </row>
     <row r="144" spans="1:8" s="37" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="99" t="s">
+      <c r="A144" s="133" t="s">
         <v>114</v>
       </c>
-      <c r="B144" s="100"/>
-      <c r="C144" s="100"/>
-      <c r="D144" s="100"/>
-      <c r="E144" s="101"/>
+      <c r="B144" s="134"/>
+      <c r="C144" s="134"/>
+      <c r="D144" s="134"/>
+      <c r="E144" s="135"/>
       <c r="F144" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="G144" s="102" t="s">
+      <c r="G144" s="136" t="s">
         <v>116</v>
       </c>
-      <c r="H144" s="102"/>
+      <c r="H144" s="136"/>
     </row>
     <row r="145" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="87" t="s">
+      <c r="A145" s="137" t="s">
         <v>117</v>
       </c>
-      <c r="B145" s="88"/>
-      <c r="C145" s="88"/>
-      <c r="D145" s="88"/>
-      <c r="E145" s="89"/>
+      <c r="B145" s="138"/>
+      <c r="C145" s="138"/>
+      <c r="D145" s="138"/>
+      <c r="E145" s="139"/>
       <c r="F145" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G145" s="90" t="s">
+      <c r="G145" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="H145" s="90"/>
+      <c r="H145" s="140"/>
     </row>
     <row r="146" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="87" t="s">
+      <c r="A146" s="137" t="s">
         <v>119</v>
       </c>
-      <c r="B146" s="88"/>
-      <c r="C146" s="88"/>
-      <c r="D146" s="88"/>
-      <c r="E146" s="89"/>
+      <c r="B146" s="138"/>
+      <c r="C146" s="138"/>
+      <c r="D146" s="138"/>
+      <c r="E146" s="139"/>
       <c r="F146" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G146" s="90" t="s">
+      <c r="G146" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="H146" s="90"/>
+      <c r="H146" s="140"/>
     </row>
     <row r="147" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="87" t="s">
+      <c r="A147" s="137" t="s">
         <v>120</v>
       </c>
-      <c r="B147" s="88"/>
-      <c r="C147" s="88"/>
-      <c r="D147" s="88"/>
-      <c r="E147" s="89"/>
+      <c r="B147" s="138"/>
+      <c r="C147" s="138"/>
+      <c r="D147" s="138"/>
+      <c r="E147" s="139"/>
       <c r="F147" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G147" s="90" t="s">
+      <c r="G147" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="H147" s="90"/>
+      <c r="H147" s="140"/>
     </row>
     <row r="148" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="87" t="s">
+      <c r="A148" s="137" t="s">
         <v>121</v>
       </c>
-      <c r="B148" s="88"/>
-      <c r="C148" s="88"/>
-      <c r="D148" s="88"/>
-      <c r="E148" s="89"/>
+      <c r="B148" s="138"/>
+      <c r="C148" s="138"/>
+      <c r="D148" s="138"/>
+      <c r="E148" s="139"/>
       <c r="F148" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G148" s="90" t="s">
+      <c r="G148" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="H148" s="90"/>
+      <c r="H148" s="140"/>
     </row>
     <row r="149" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="87" t="s">
+      <c r="A149" s="137" t="s">
         <v>122</v>
       </c>
-      <c r="B149" s="88"/>
-      <c r="C149" s="88"/>
-      <c r="D149" s="88"/>
-      <c r="E149" s="89"/>
+      <c r="B149" s="138"/>
+      <c r="C149" s="138"/>
+      <c r="D149" s="138"/>
+      <c r="E149" s="139"/>
       <c r="F149" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G149" s="90" t="s">
+      <c r="G149" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="H149" s="90"/>
+      <c r="H149" s="140"/>
     </row>
     <row r="150" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="87" t="s">
+      <c r="A150" s="137" t="s">
         <v>123</v>
       </c>
-      <c r="B150" s="88"/>
-      <c r="C150" s="88"/>
-      <c r="D150" s="88"/>
-      <c r="E150" s="89"/>
+      <c r="B150" s="138"/>
+      <c r="C150" s="138"/>
+      <c r="D150" s="138"/>
+      <c r="E150" s="139"/>
       <c r="F150" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G150" s="90" t="s">
+      <c r="G150" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="H150" s="90"/>
+      <c r="H150" s="140"/>
     </row>
     <row r="151" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="87" t="s">
+      <c r="A151" s="137" t="s">
         <v>124</v>
       </c>
-      <c r="B151" s="88"/>
-      <c r="C151" s="88"/>
-      <c r="D151" s="88"/>
-      <c r="E151" s="89"/>
+      <c r="B151" s="138"/>
+      <c r="C151" s="138"/>
+      <c r="D151" s="138"/>
+      <c r="E151" s="139"/>
       <c r="F151" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G151" s="90" t="s">
+      <c r="G151" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="H151" s="90"/>
+      <c r="H151" s="140"/>
     </row>
     <row r="152" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="87" t="s">
+      <c r="A152" s="137" t="s">
         <v>174</v>
       </c>
-      <c r="B152" s="88"/>
-      <c r="C152" s="88"/>
-      <c r="D152" s="88"/>
-      <c r="E152" s="89"/>
+      <c r="B152" s="138"/>
+      <c r="C152" s="138"/>
+      <c r="D152" s="138"/>
+      <c r="E152" s="139"/>
       <c r="F152" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G152" s="90" t="s">
+      <c r="G152" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="H152" s="90"/>
+      <c r="H152" s="140"/>
     </row>
     <row r="153" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="87" t="s">
+      <c r="A153" s="137" t="s">
         <v>125</v>
       </c>
-      <c r="B153" s="88"/>
-      <c r="C153" s="88"/>
-      <c r="D153" s="88"/>
-      <c r="E153" s="89"/>
+      <c r="B153" s="138"/>
+      <c r="C153" s="138"/>
+      <c r="D153" s="138"/>
+      <c r="E153" s="139"/>
       <c r="F153" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G153" s="90" t="s">
+      <c r="G153" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="H153" s="90"/>
+      <c r="H153" s="140"/>
     </row>
     <row r="154" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="87" t="s">
+      <c r="A154" s="137" t="s">
         <v>126</v>
       </c>
-      <c r="B154" s="88"/>
-      <c r="C154" s="88"/>
-      <c r="D154" s="88"/>
-      <c r="E154" s="89"/>
+      <c r="B154" s="138"/>
+      <c r="C154" s="138"/>
+      <c r="D154" s="138"/>
+      <c r="E154" s="139"/>
       <c r="F154" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G154" s="90" t="s">
+      <c r="G154" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="H154" s="90"/>
+      <c r="H154" s="140"/>
     </row>
     <row r="155" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="87" t="s">
+      <c r="A155" s="137" t="s">
         <v>127</v>
       </c>
-      <c r="B155" s="88"/>
-      <c r="C155" s="88"/>
-      <c r="D155" s="88"/>
-      <c r="E155" s="89"/>
+      <c r="B155" s="138"/>
+      <c r="C155" s="138"/>
+      <c r="D155" s="138"/>
+      <c r="E155" s="139"/>
       <c r="F155" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G155" s="90" t="s">
+      <c r="G155" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="H155" s="90"/>
+      <c r="H155" s="140"/>
     </row>
     <row r="156" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="87" t="s">
+      <c r="A156" s="137" t="s">
         <v>128</v>
       </c>
-      <c r="B156" s="88"/>
-      <c r="C156" s="88"/>
-      <c r="D156" s="88"/>
-      <c r="E156" s="89"/>
+      <c r="B156" s="138"/>
+      <c r="C156" s="138"/>
+      <c r="D156" s="138"/>
+      <c r="E156" s="139"/>
       <c r="F156" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G156" s="90" t="s">
+      <c r="G156" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="H156" s="90"/>
+      <c r="H156" s="140"/>
     </row>
     <row r="157" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="87" t="s">
+      <c r="A157" s="137" t="s">
         <v>129</v>
       </c>
-      <c r="B157" s="88"/>
-      <c r="C157" s="88"/>
-      <c r="D157" s="88"/>
-      <c r="E157" s="89"/>
+      <c r="B157" s="138"/>
+      <c r="C157" s="138"/>
+      <c r="D157" s="138"/>
+      <c r="E157" s="139"/>
       <c r="F157" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G157" s="90" t="s">
+      <c r="G157" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="H157" s="90"/>
+      <c r="H157" s="140"/>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="87" t="s">
+      <c r="A158" s="137" t="s">
         <v>130</v>
       </c>
-      <c r="B158" s="88"/>
-      <c r="C158" s="88"/>
-      <c r="D158" s="88"/>
-      <c r="E158" s="89"/>
+      <c r="B158" s="138"/>
+      <c r="C158" s="138"/>
+      <c r="D158" s="138"/>
+      <c r="E158" s="139"/>
       <c r="F158" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G158" s="90" t="s">
+      <c r="G158" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="H158" s="90"/>
+      <c r="H158" s="140"/>
     </row>
     <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="87" t="s">
+      <c r="A159" s="137" t="s">
         <v>131</v>
       </c>
-      <c r="B159" s="88"/>
-      <c r="C159" s="88"/>
-      <c r="D159" s="88"/>
-      <c r="E159" s="89"/>
+      <c r="B159" s="138"/>
+      <c r="C159" s="138"/>
+      <c r="D159" s="138"/>
+      <c r="E159" s="139"/>
       <c r="F159" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G159" s="90" t="s">
+      <c r="G159" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="H159" s="90"/>
+      <c r="H159" s="140"/>
     </row>
     <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="87" t="s">
+      <c r="A160" s="137" t="s">
         <v>132</v>
       </c>
-      <c r="B160" s="88"/>
-      <c r="C160" s="88"/>
-      <c r="D160" s="88"/>
-      <c r="E160" s="89"/>
+      <c r="B160" s="138"/>
+      <c r="C160" s="138"/>
+      <c r="D160" s="138"/>
+      <c r="E160" s="139"/>
       <c r="F160" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G160" s="90" t="s">
+      <c r="G160" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="H160" s="90"/>
+      <c r="H160" s="140"/>
     </row>
     <row r="161" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="87" t="s">
+      <c r="A161" s="137" t="s">
         <v>133</v>
       </c>
-      <c r="B161" s="88"/>
-      <c r="C161" s="88"/>
-      <c r="D161" s="88"/>
-      <c r="E161" s="89"/>
+      <c r="B161" s="138"/>
+      <c r="C161" s="138"/>
+      <c r="D161" s="138"/>
+      <c r="E161" s="139"/>
       <c r="F161" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G161" s="90" t="s">
+      <c r="G161" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="H161" s="90"/>
+      <c r="H161" s="140"/>
     </row>
     <row r="162" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="87" t="s">
+      <c r="A162" s="137" t="s">
         <v>134</v>
       </c>
-      <c r="B162" s="88"/>
-      <c r="C162" s="88"/>
-      <c r="D162" s="88"/>
-      <c r="E162" s="89"/>
+      <c r="B162" s="138"/>
+      <c r="C162" s="138"/>
+      <c r="D162" s="138"/>
+      <c r="E162" s="139"/>
       <c r="F162" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G162" s="90" t="s">
+      <c r="G162" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="H162" s="90"/>
+      <c r="H162" s="140"/>
     </row>
     <row r="163" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="87" t="s">
+      <c r="A163" s="137" t="s">
         <v>177</v>
       </c>
-      <c r="B163" s="88"/>
-      <c r="C163" s="88"/>
-      <c r="D163" s="88"/>
-      <c r="E163" s="89"/>
+      <c r="B163" s="138"/>
+      <c r="C163" s="138"/>
+      <c r="D163" s="138"/>
+      <c r="E163" s="139"/>
       <c r="F163" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G163" s="90" t="s">
+      <c r="G163" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="H163" s="90"/>
+      <c r="H163" s="140"/>
     </row>
     <row r="164" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="87" t="s">
+      <c r="A164" s="137" t="s">
         <v>135</v>
       </c>
-      <c r="B164" s="88"/>
-      <c r="C164" s="88"/>
-      <c r="D164" s="88"/>
-      <c r="E164" s="89"/>
+      <c r="B164" s="138"/>
+      <c r="C164" s="138"/>
+      <c r="D164" s="138"/>
+      <c r="E164" s="139"/>
       <c r="F164" s="25"/>
-      <c r="G164" s="90" t="s">
+      <c r="G164" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="H164" s="90"/>
+      <c r="H164" s="140"/>
     </row>
     <row r="165" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="87" t="s">
+      <c r="A165" s="137" t="s">
         <v>175</v>
       </c>
-      <c r="B165" s="88"/>
-      <c r="C165" s="88"/>
-      <c r="D165" s="88"/>
-      <c r="E165" s="89"/>
+      <c r="B165" s="138"/>
+      <c r="C165" s="138"/>
+      <c r="D165" s="138"/>
+      <c r="E165" s="139"/>
       <c r="F165" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G165" s="90" t="s">
+      <c r="G165" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="H165" s="90"/>
+      <c r="H165" s="140"/>
     </row>
     <row r="166" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="87" t="s">
+      <c r="A166" s="137" t="s">
         <v>136</v>
       </c>
-      <c r="B166" s="88"/>
-      <c r="C166" s="88"/>
-      <c r="D166" s="88"/>
-      <c r="E166" s="89"/>
+      <c r="B166" s="138"/>
+      <c r="C166" s="138"/>
+      <c r="D166" s="138"/>
+      <c r="E166" s="139"/>
       <c r="F166" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G166" s="90" t="s">
+      <c r="G166" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="H166" s="90"/>
+      <c r="H166" s="140"/>
     </row>
     <row r="167" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="87" t="s">
+      <c r="A167" s="137" t="s">
         <v>137</v>
       </c>
-      <c r="B167" s="88"/>
-      <c r="C167" s="88"/>
-      <c r="D167" s="88"/>
-      <c r="E167" s="89"/>
+      <c r="B167" s="138"/>
+      <c r="C167" s="138"/>
+      <c r="D167" s="138"/>
+      <c r="E167" s="139"/>
       <c r="F167" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G167" s="90" t="s">
+      <c r="G167" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="H167" s="90"/>
+      <c r="H167" s="140"/>
     </row>
     <row r="168" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="87" t="s">
+      <c r="A168" s="137" t="s">
         <v>176</v>
       </c>
-      <c r="B168" s="88"/>
-      <c r="C168" s="88"/>
-      <c r="D168" s="88"/>
-      <c r="E168" s="89"/>
+      <c r="B168" s="138"/>
+      <c r="C168" s="138"/>
+      <c r="D168" s="138"/>
+      <c r="E168" s="139"/>
       <c r="F168" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G168" s="90" t="s">
+      <c r="G168" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="H168" s="90"/>
+      <c r="H168" s="140"/>
     </row>
     <row r="169" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="87" t="s">
+      <c r="A169" s="137" t="s">
         <v>138</v>
       </c>
-      <c r="B169" s="88"/>
-      <c r="C169" s="88"/>
-      <c r="D169" s="88"/>
-      <c r="E169" s="89"/>
+      <c r="B169" s="138"/>
+      <c r="C169" s="138"/>
+      <c r="D169" s="138"/>
+      <c r="E169" s="139"/>
       <c r="F169" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G169" s="90" t="s">
+      <c r="G169" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="H169" s="90"/>
+      <c r="H169" s="140"/>
     </row>
     <row r="170" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="96" t="s">
+      <c r="A170" s="144" t="s">
         <v>139</v>
       </c>
-      <c r="B170" s="97"/>
-      <c r="C170" s="97"/>
-      <c r="D170" s="97"/>
-      <c r="E170" s="98"/>
+      <c r="B170" s="145"/>
+      <c r="C170" s="145"/>
+      <c r="D170" s="145"/>
+      <c r="E170" s="146"/>
       <c r="F170" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G170" s="90" t="s">
+      <c r="G170" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="H170" s="90"/>
+      <c r="H170" s="140"/>
     </row>
     <row r="171" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="87" t="s">
+      <c r="A171" s="137" t="s">
         <v>140</v>
       </c>
-      <c r="B171" s="88"/>
-      <c r="C171" s="88"/>
-      <c r="D171" s="88"/>
-      <c r="E171" s="89"/>
+      <c r="B171" s="138"/>
+      <c r="C171" s="138"/>
+      <c r="D171" s="138"/>
+      <c r="E171" s="139"/>
       <c r="F171" s="25"/>
-      <c r="G171" s="90" t="s">
+      <c r="G171" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="H171" s="90"/>
+      <c r="H171" s="140"/>
     </row>
     <row r="172" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="87" t="s">
+      <c r="A172" s="137" t="s">
         <v>141</v>
       </c>
-      <c r="B172" s="88"/>
-      <c r="C172" s="88"/>
-      <c r="D172" s="88"/>
-      <c r="E172" s="89"/>
+      <c r="B172" s="138"/>
+      <c r="C172" s="138"/>
+      <c r="D172" s="138"/>
+      <c r="E172" s="139"/>
       <c r="F172" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="G172" s="90" t="s">
+      <c r="G172" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="H172" s="90"/>
+      <c r="H172" s="140"/>
     </row>
     <row r="173" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="87" t="s">
+      <c r="A173" s="137" t="s">
         <v>172</v>
       </c>
-      <c r="B173" s="88"/>
-      <c r="C173" s="88"/>
-      <c r="D173" s="88"/>
-      <c r="E173" s="89"/>
+      <c r="B173" s="138"/>
+      <c r="C173" s="138"/>
+      <c r="D173" s="138"/>
+      <c r="E173" s="139"/>
       <c r="F173" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="G173" s="90" t="s">
+      <c r="G173" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="H173" s="90"/>
+      <c r="H173" s="140"/>
     </row>
     <row r="174" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="87" t="s">
+      <c r="A174" s="137" t="s">
         <v>173</v>
       </c>
-      <c r="B174" s="88"/>
-      <c r="C174" s="88"/>
-      <c r="D174" s="88"/>
-      <c r="E174" s="89"/>
+      <c r="B174" s="138"/>
+      <c r="C174" s="138"/>
+      <c r="D174" s="138"/>
+      <c r="E174" s="139"/>
       <c r="F174" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="G174" s="90" t="s">
+      <c r="G174" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="H174" s="90"/>
+      <c r="H174" s="140"/>
     </row>
     <row r="175" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="87" t="s">
+      <c r="A175" s="137" t="s">
         <v>143</v>
       </c>
-      <c r="B175" s="88"/>
-      <c r="C175" s="88"/>
-      <c r="D175" s="88"/>
-      <c r="E175" s="89"/>
+      <c r="B175" s="138"/>
+      <c r="C175" s="138"/>
+      <c r="D175" s="138"/>
+      <c r="E175" s="139"/>
       <c r="F175" s="25"/>
-      <c r="G175" s="90" t="s">
+      <c r="G175" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="H175" s="90"/>
+      <c r="H175" s="140"/>
     </row>
     <row r="176" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="87" t="s">
+      <c r="A176" s="137" t="s">
         <v>144</v>
       </c>
-      <c r="B176" s="88"/>
-      <c r="C176" s="88"/>
-      <c r="D176" s="88"/>
-      <c r="E176" s="89"/>
+      <c r="B176" s="138"/>
+      <c r="C176" s="138"/>
+      <c r="D176" s="138"/>
+      <c r="E176" s="139"/>
       <c r="F176" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G176" s="90" t="s">
+      <c r="G176" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="H176" s="90"/>
+      <c r="H176" s="140"/>
     </row>
     <row r="177" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="91" t="s">
+      <c r="A177" s="147" t="s">
         <v>145</v>
       </c>
-      <c r="B177" s="92"/>
-      <c r="C177" s="92"/>
-      <c r="D177" s="92"/>
-      <c r="E177" s="92"/>
-      <c r="F177" s="92"/>
-      <c r="G177" s="92"/>
-      <c r="H177" s="93"/>
+      <c r="B177" s="148"/>
+      <c r="C177" s="148"/>
+      <c r="D177" s="148"/>
+      <c r="E177" s="148"/>
+      <c r="F177" s="148"/>
+      <c r="G177" s="148"/>
+      <c r="H177" s="149"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="55"/>
@@ -5419,94 +5419,94 @@
     <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" s="45"/>
       <c r="B179" s="45"/>
-      <c r="C179" s="94" t="s">
+      <c r="C179" s="150" t="s">
         <v>146</v>
       </c>
-      <c r="D179" s="94"/>
-      <c r="E179" s="94"/>
-      <c r="F179" s="94"/>
-      <c r="G179" s="94"/>
-      <c r="H179" s="94"/>
+      <c r="D179" s="150"/>
+      <c r="E179" s="150"/>
+      <c r="F179" s="150"/>
+      <c r="G179" s="150"/>
+      <c r="H179" s="150"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" s="45"/>
       <c r="B180" s="45"/>
-      <c r="C180" s="95"/>
-      <c r="D180" s="95"/>
-      <c r="E180" s="95"/>
-      <c r="F180" s="95"/>
-      <c r="G180" s="95"/>
-      <c r="H180" s="95"/>
+      <c r="C180" s="151"/>
+      <c r="D180" s="151"/>
+      <c r="E180" s="151"/>
+      <c r="F180" s="151"/>
+      <c r="G180" s="151"/>
+      <c r="H180" s="151"/>
     </row>
     <row r="181" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="78" t="s">
+      <c r="A181" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B181" s="79"/>
-      <c r="C181" s="84" t="str">
+      <c r="B181" s="113"/>
+      <c r="C181" s="163" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D181" s="85"/>
-      <c r="E181" s="85"/>
-      <c r="F181" s="85"/>
-      <c r="G181" s="86"/>
-      <c r="H181" s="81"/>
+      <c r="D181" s="164"/>
+      <c r="E181" s="164"/>
+      <c r="F181" s="164"/>
+      <c r="G181" s="165"/>
+      <c r="H181" s="160"/>
     </row>
     <row r="182" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="78" t="s">
+      <c r="A182" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="B182" s="79"/>
-      <c r="C182" s="84" t="str">
+      <c r="B182" s="113"/>
+      <c r="C182" s="163" t="str">
         <f>$C$4</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D182" s="85"/>
-      <c r="E182" s="85"/>
-      <c r="F182" s="85"/>
-      <c r="G182" s="86"/>
-      <c r="H182" s="82"/>
+      <c r="D182" s="164"/>
+      <c r="E182" s="164"/>
+      <c r="F182" s="164"/>
+      <c r="G182" s="165"/>
+      <c r="H182" s="161"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A183" s="78" t="s">
+      <c r="A183" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="B183" s="79"/>
-      <c r="C183" s="84" t="str">
+      <c r="B183" s="113"/>
+      <c r="C183" s="163" t="str">
         <f>$C$5</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D183" s="85"/>
-      <c r="E183" s="85"/>
-      <c r="F183" s="85"/>
-      <c r="G183" s="86"/>
-      <c r="H183" s="82"/>
+      <c r="D183" s="164"/>
+      <c r="E183" s="164"/>
+      <c r="F183" s="164"/>
+      <c r="G183" s="165"/>
+      <c r="H183" s="161"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A184" s="78" t="s">
+      <c r="A184" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="B184" s="80"/>
-      <c r="C184" s="84" t="str">
+      <c r="B184" s="159"/>
+      <c r="C184" s="163" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
-      <c r="D184" s="85"/>
-      <c r="E184" s="85"/>
-      <c r="F184" s="85"/>
-      <c r="G184" s="86"/>
-      <c r="H184" s="83"/>
+      <c r="D184" s="164"/>
+      <c r="E184" s="164"/>
+      <c r="F184" s="164"/>
+      <c r="G184" s="165"/>
+      <c r="H184" s="162"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A186" s="72" t="s">
+      <c r="A186" s="152" t="s">
         <v>147</v>
       </c>
-      <c r="B186" s="73"/>
-      <c r="C186" s="74" t="s">
+      <c r="B186" s="153"/>
+      <c r="C186" s="154" t="s">
         <v>148</v>
       </c>
-      <c r="D186" s="74"/>
+      <c r="D186" s="154"/>
       <c r="E186" s="49" t="s">
         <v>149</v>
       </c>
@@ -5521,14 +5521,14 @@
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A187" s="75" t="s">
+      <c r="A187" s="155" t="s">
         <v>153</v>
       </c>
-      <c r="B187" s="76"/>
-      <c r="C187" s="77" t="s">
+      <c r="B187" s="156"/>
+      <c r="C187" s="157" t="s">
         <v>154</v>
       </c>
-      <c r="D187" s="77"/>
+      <c r="D187" s="157"/>
       <c r="E187" s="50" t="s">
         <v>155</v>
       </c>
@@ -5543,358 +5543,358 @@
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A188" s="71" t="s">
+      <c r="A188" s="158" t="s">
         <v>159</v>
       </c>
-      <c r="B188" s="71"/>
-      <c r="C188" s="71" t="s">
+      <c r="B188" s="158"/>
+      <c r="C188" s="158" t="s">
         <v>160</v>
       </c>
-      <c r="D188" s="71"/>
+      <c r="D188" s="158"/>
       <c r="E188" s="33"/>
       <c r="F188" s="33"/>
       <c r="G188" s="33"/>
       <c r="H188" s="33"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A189" s="71" t="s">
+      <c r="A189" s="158" t="s">
         <v>161</v>
       </c>
-      <c r="B189" s="71"/>
-      <c r="C189" s="71" t="s">
+      <c r="B189" s="158"/>
+      <c r="C189" s="158" t="s">
         <v>160</v>
       </c>
-      <c r="D189" s="71"/>
+      <c r="D189" s="158"/>
       <c r="E189" s="33"/>
       <c r="F189" s="33"/>
       <c r="G189" s="33"/>
       <c r="H189" s="33"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A190" s="71" t="s">
+      <c r="A190" s="158" t="s">
         <v>162</v>
       </c>
-      <c r="B190" s="71"/>
-      <c r="C190" s="71" t="s">
+      <c r="B190" s="158"/>
+      <c r="C190" s="158" t="s">
         <v>160</v>
       </c>
-      <c r="D190" s="71"/>
+      <c r="D190" s="158"/>
       <c r="E190" s="33"/>
       <c r="F190" s="33"/>
       <c r="G190" s="33"/>
       <c r="H190" s="33"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A191" s="71" t="s">
+      <c r="A191" s="158" t="s">
         <v>163</v>
       </c>
-      <c r="B191" s="71"/>
-      <c r="C191" s="71" t="s">
+      <c r="B191" s="158"/>
+      <c r="C191" s="158" t="s">
         <v>160</v>
       </c>
-      <c r="D191" s="71"/>
+      <c r="D191" s="158"/>
       <c r="E191" s="33"/>
       <c r="F191" s="33"/>
       <c r="G191" s="33"/>
       <c r="H191" s="33"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A192" s="71" t="s">
+      <c r="A192" s="158" t="s">
         <v>164</v>
       </c>
-      <c r="B192" s="71"/>
-      <c r="C192" s="71" t="s">
+      <c r="B192" s="158"/>
+      <c r="C192" s="158" t="s">
         <v>160</v>
       </c>
-      <c r="D192" s="71"/>
+      <c r="D192" s="158"/>
       <c r="E192" s="33"/>
       <c r="F192" s="33"/>
       <c r="G192" s="33"/>
       <c r="H192" s="33"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A193" s="71" t="s">
+      <c r="A193" s="158" t="s">
         <v>165</v>
       </c>
-      <c r="B193" s="71"/>
-      <c r="C193" s="71" t="s">
+      <c r="B193" s="158"/>
+      <c r="C193" s="158" t="s">
         <v>160</v>
       </c>
-      <c r="D193" s="71"/>
+      <c r="D193" s="158"/>
       <c r="E193" s="33"/>
       <c r="F193" s="33"/>
       <c r="G193" s="33"/>
       <c r="H193" s="33"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A194" s="71" t="s">
+      <c r="A194" s="158" t="s">
         <v>163</v>
       </c>
-      <c r="B194" s="71"/>
-      <c r="C194" s="71" t="s">
+      <c r="B194" s="158"/>
+      <c r="C194" s="158" t="s">
         <v>166</v>
       </c>
-      <c r="D194" s="71"/>
+      <c r="D194" s="158"/>
       <c r="E194" s="33"/>
       <c r="F194" s="33"/>
       <c r="G194" s="33"/>
       <c r="H194" s="33"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A195" s="71" t="s">
+      <c r="A195" s="158" t="s">
         <v>167</v>
       </c>
-      <c r="B195" s="71"/>
-      <c r="C195" s="71" t="s">
+      <c r="B195" s="158"/>
+      <c r="C195" s="158" t="s">
         <v>166</v>
       </c>
-      <c r="D195" s="71"/>
+      <c r="D195" s="158"/>
       <c r="E195" s="33"/>
       <c r="F195" s="33"/>
       <c r="G195" s="33"/>
       <c r="H195" s="33"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A196" s="71" t="s">
+      <c r="A196" s="158" t="s">
         <v>168</v>
       </c>
-      <c r="B196" s="71"/>
-      <c r="C196" s="71" t="s">
+      <c r="B196" s="158"/>
+      <c r="C196" s="158" t="s">
         <v>166</v>
       </c>
-      <c r="D196" s="71"/>
+      <c r="D196" s="158"/>
       <c r="E196" s="33"/>
       <c r="F196" s="33"/>
       <c r="G196" s="33"/>
       <c r="H196" s="33"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A197" s="71" t="s">
+      <c r="A197" s="158" t="s">
         <v>169</v>
       </c>
-      <c r="B197" s="71"/>
-      <c r="C197" s="71" t="s">
+      <c r="B197" s="158"/>
+      <c r="C197" s="158" t="s">
         <v>166</v>
       </c>
-      <c r="D197" s="71"/>
+      <c r="D197" s="158"/>
       <c r="E197" s="33"/>
       <c r="F197" s="33"/>
       <c r="G197" s="33"/>
       <c r="H197" s="33"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A198" s="71" t="s">
+      <c r="A198" s="158" t="s">
         <v>170</v>
       </c>
-      <c r="B198" s="71"/>
-      <c r="C198" s="71" t="s">
+      <c r="B198" s="158"/>
+      <c r="C198" s="158" t="s">
         <v>166</v>
       </c>
-      <c r="D198" s="71"/>
+      <c r="D198" s="158"/>
       <c r="E198" s="33"/>
       <c r="F198" s="33"/>
       <c r="G198" s="33"/>
       <c r="H198" s="33"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A199" s="71" t="s">
+      <c r="A199" s="158" t="s">
         <v>171</v>
       </c>
-      <c r="B199" s="71"/>
-      <c r="C199" s="71" t="s">
+      <c r="B199" s="158"/>
+      <c r="C199" s="158" t="s">
         <v>166</v>
       </c>
-      <c r="D199" s="71"/>
+      <c r="D199" s="158"/>
       <c r="E199" s="33"/>
       <c r="F199" s="33"/>
       <c r="G199" s="33"/>
       <c r="H199" s="33"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A200" s="70"/>
-      <c r="B200" s="70"/>
-      <c r="C200" s="70"/>
-      <c r="D200" s="70"/>
+      <c r="A200" s="166"/>
+      <c r="B200" s="166"/>
+      <c r="C200" s="166"/>
+      <c r="D200" s="166"/>
       <c r="E200" s="33"/>
       <c r="F200" s="33"/>
       <c r="G200" s="33"/>
       <c r="H200" s="33"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A201" s="70"/>
-      <c r="B201" s="70"/>
-      <c r="C201" s="70"/>
-      <c r="D201" s="70"/>
+      <c r="A201" s="166"/>
+      <c r="B201" s="166"/>
+      <c r="C201" s="166"/>
+      <c r="D201" s="166"/>
       <c r="E201" s="33"/>
       <c r="F201" s="33"/>
       <c r="G201" s="33"/>
       <c r="H201" s="33"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A202" s="70"/>
-      <c r="B202" s="70"/>
-      <c r="C202" s="70"/>
-      <c r="D202" s="70"/>
+      <c r="A202" s="166"/>
+      <c r="B202" s="166"/>
+      <c r="C202" s="166"/>
+      <c r="D202" s="166"/>
       <c r="E202" s="33"/>
       <c r="F202" s="33"/>
       <c r="G202" s="33"/>
       <c r="H202" s="33"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A203" s="70"/>
-      <c r="B203" s="70"/>
-      <c r="C203" s="70"/>
-      <c r="D203" s="70"/>
+      <c r="A203" s="166"/>
+      <c r="B203" s="166"/>
+      <c r="C203" s="166"/>
+      <c r="D203" s="166"/>
       <c r="E203" s="33"/>
       <c r="F203" s="33"/>
       <c r="G203" s="33"/>
       <c r="H203" s="33"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A204" s="70"/>
-      <c r="B204" s="70"/>
-      <c r="C204" s="70"/>
-      <c r="D204" s="70"/>
+      <c r="A204" s="166"/>
+      <c r="B204" s="166"/>
+      <c r="C204" s="166"/>
+      <c r="D204" s="166"/>
       <c r="E204" s="33"/>
       <c r="F204" s="33"/>
       <c r="G204" s="33"/>
       <c r="H204" s="33"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A205" s="70"/>
-      <c r="B205" s="70"/>
-      <c r="C205" s="70"/>
-      <c r="D205" s="70"/>
+      <c r="A205" s="166"/>
+      <c r="B205" s="166"/>
+      <c r="C205" s="166"/>
+      <c r="D205" s="166"/>
       <c r="E205" s="33"/>
       <c r="F205" s="33"/>
       <c r="G205" s="33"/>
       <c r="H205" s="33"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A206" s="70"/>
-      <c r="B206" s="70"/>
-      <c r="C206" s="70"/>
-      <c r="D206" s="70"/>
+      <c r="A206" s="166"/>
+      <c r="B206" s="166"/>
+      <c r="C206" s="166"/>
+      <c r="D206" s="166"/>
       <c r="E206" s="33"/>
       <c r="F206" s="33"/>
       <c r="G206" s="33"/>
       <c r="H206" s="33"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A207" s="70"/>
-      <c r="B207" s="70"/>
-      <c r="C207" s="70"/>
-      <c r="D207" s="70"/>
+      <c r="A207" s="166"/>
+      <c r="B207" s="166"/>
+      <c r="C207" s="166"/>
+      <c r="D207" s="166"/>
       <c r="E207" s="33"/>
       <c r="F207" s="33"/>
       <c r="G207" s="33"/>
       <c r="H207" s="33"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A208" s="70"/>
-      <c r="B208" s="70"/>
-      <c r="C208" s="70"/>
-      <c r="D208" s="70"/>
+      <c r="A208" s="166"/>
+      <c r="B208" s="166"/>
+      <c r="C208" s="166"/>
+      <c r="D208" s="166"/>
       <c r="E208" s="33"/>
       <c r="F208" s="33"/>
       <c r="G208" s="33"/>
       <c r="H208" s="33"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A209" s="70"/>
-      <c r="B209" s="70"/>
-      <c r="C209" s="70"/>
-      <c r="D209" s="70"/>
+      <c r="A209" s="166"/>
+      <c r="B209" s="166"/>
+      <c r="C209" s="166"/>
+      <c r="D209" s="166"/>
       <c r="E209" s="33"/>
       <c r="F209" s="33"/>
       <c r="G209" s="33"/>
       <c r="H209" s="33"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A210" s="70"/>
-      <c r="B210" s="70"/>
-      <c r="C210" s="70"/>
-      <c r="D210" s="70"/>
+      <c r="A210" s="166"/>
+      <c r="B210" s="166"/>
+      <c r="C210" s="166"/>
+      <c r="D210" s="166"/>
       <c r="E210" s="33"/>
       <c r="F210" s="33"/>
       <c r="G210" s="33"/>
       <c r="H210" s="33"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A211" s="70"/>
-      <c r="B211" s="70"/>
-      <c r="C211" s="70"/>
-      <c r="D211" s="70"/>
+      <c r="A211" s="166"/>
+      <c r="B211" s="166"/>
+      <c r="C211" s="166"/>
+      <c r="D211" s="166"/>
       <c r="E211" s="33"/>
       <c r="F211" s="33"/>
       <c r="G211" s="33"/>
       <c r="H211" s="33"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A212" s="70"/>
-      <c r="B212" s="70"/>
-      <c r="C212" s="70"/>
-      <c r="D212" s="70"/>
+      <c r="A212" s="166"/>
+      <c r="B212" s="166"/>
+      <c r="C212" s="166"/>
+      <c r="D212" s="166"/>
       <c r="E212" s="33"/>
       <c r="F212" s="33"/>
       <c r="G212" s="33"/>
       <c r="H212" s="33"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A213" s="70"/>
-      <c r="B213" s="70"/>
-      <c r="C213" s="70"/>
-      <c r="D213" s="70"/>
+      <c r="A213" s="166"/>
+      <c r="B213" s="166"/>
+      <c r="C213" s="166"/>
+      <c r="D213" s="166"/>
       <c r="E213" s="33"/>
       <c r="F213" s="33"/>
       <c r="G213" s="33"/>
       <c r="H213" s="33"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A214" s="70"/>
-      <c r="B214" s="70"/>
-      <c r="C214" s="70"/>
-      <c r="D214" s="70"/>
+      <c r="A214" s="166"/>
+      <c r="B214" s="166"/>
+      <c r="C214" s="166"/>
+      <c r="D214" s="166"/>
       <c r="E214" s="33"/>
       <c r="F214" s="33"/>
       <c r="G214" s="33"/>
       <c r="H214" s="33"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A215" s="70"/>
-      <c r="B215" s="70"/>
-      <c r="C215" s="70"/>
-      <c r="D215" s="70"/>
+      <c r="A215" s="166"/>
+      <c r="B215" s="166"/>
+      <c r="C215" s="166"/>
+      <c r="D215" s="166"/>
       <c r="E215" s="33"/>
       <c r="F215" s="33"/>
       <c r="G215" s="33"/>
       <c r="H215" s="33"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A216" s="70"/>
-      <c r="B216" s="70"/>
-      <c r="C216" s="70"/>
-      <c r="D216" s="70"/>
+      <c r="A216" s="166"/>
+      <c r="B216" s="166"/>
+      <c r="C216" s="166"/>
+      <c r="D216" s="166"/>
       <c r="E216" s="33"/>
       <c r="F216" s="33"/>
       <c r="G216" s="33"/>
       <c r="H216" s="33"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A217" s="70"/>
-      <c r="B217" s="70"/>
-      <c r="C217" s="70"/>
-      <c r="D217" s="70"/>
+      <c r="A217" s="166"/>
+      <c r="B217" s="166"/>
+      <c r="C217" s="166"/>
+      <c r="D217" s="166"/>
       <c r="E217" s="33"/>
       <c r="F217" s="33"/>
       <c r="G217" s="33"/>
       <c r="H217" s="33"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A218" s="70"/>
-      <c r="B218" s="70"/>
-      <c r="C218" s="70"/>
-      <c r="D218" s="70"/>
+      <c r="A218" s="166"/>
+      <c r="B218" s="166"/>
+      <c r="C218" s="166"/>
+      <c r="D218" s="166"/>
       <c r="E218" s="33"/>
       <c r="F218" s="33"/>
       <c r="G218" s="33"/>
@@ -5903,71 +5903,71 @@
     <row r="221" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="H221" s="67"/>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A222" s="171" t="s">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A222" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B222" s="172"/>
-      <c r="C222" s="176" t="str">
+      <c r="B222" s="168"/>
+      <c r="C222" s="169" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D222" s="172"/>
-      <c r="E222" s="172"/>
-      <c r="F222" s="172"/>
-      <c r="G222" s="177"/>
+      <c r="D222" s="168"/>
+      <c r="E222" s="168"/>
+      <c r="F222" s="168"/>
+      <c r="G222" s="170"/>
       <c r="H222" s="185"/>
     </row>
-    <row r="223" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A223" s="161" t="s">
+    <row r="223" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="172" t="s">
         <v>1</v>
       </c>
-      <c r="B223" s="162"/>
-      <c r="C223" s="178" t="str">
+      <c r="B223" s="173"/>
+      <c r="C223" s="174" t="str">
         <f>$C$4</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D223" s="179"/>
-      <c r="E223" s="179"/>
-      <c r="F223" s="179"/>
-      <c r="G223" s="180"/>
+      <c r="D223" s="175"/>
+      <c r="E223" s="175"/>
+      <c r="F223" s="175"/>
+      <c r="G223" s="176"/>
       <c r="H223" s="185"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A224" s="161" t="s">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A224" s="172" t="s">
         <v>2</v>
       </c>
-      <c r="B224" s="162"/>
-      <c r="C224" s="181" t="str">
+      <c r="B224" s="173"/>
+      <c r="C224" s="178" t="str">
         <f>$C$5</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D224" s="162"/>
-      <c r="E224" s="162"/>
-      <c r="F224" s="162"/>
-      <c r="G224" s="182"/>
+      <c r="D224" s="173"/>
+      <c r="E224" s="173"/>
+      <c r="F224" s="173"/>
+      <c r="G224" s="179"/>
       <c r="H224" s="185"/>
     </row>
-    <row r="225" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A225" s="163" t="s">
+    <row r="225" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="B225" s="164"/>
-      <c r="C225" s="183" t="str">
+      <c r="B225" s="181"/>
+      <c r="C225" s="182" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
-      <c r="D225" s="164"/>
-      <c r="E225" s="164"/>
-      <c r="F225" s="164"/>
-      <c r="G225" s="184"/>
+      <c r="D225" s="181"/>
+      <c r="E225" s="181"/>
+      <c r="F225" s="181"/>
+      <c r="G225" s="183"/>
       <c r="H225" s="186"/>
     </row>
     <row r="226" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="165" t="s">
+      <c r="A226" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="B226" s="166"/>
+      <c r="B226" s="71"/>
       <c r="C226" s="3">
         <f>$E$18</f>
         <v>2050</v>
@@ -5991,14 +5991,14 @@
       </c>
     </row>
     <row r="227" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A227" s="167"/>
-      <c r="B227" s="168"/>
-      <c r="C227" s="168"/>
-      <c r="D227" s="169"/>
-      <c r="E227" s="169"/>
-      <c r="F227" s="169"/>
-      <c r="G227" s="169"/>
-      <c r="H227" s="170"/>
+      <c r="A227" s="72"/>
+      <c r="B227" s="73"/>
+      <c r="C227" s="73"/>
+      <c r="D227" s="74"/>
+      <c r="E227" s="74"/>
+      <c r="F227" s="74"/>
+      <c r="G227" s="74"/>
+      <c r="H227" s="75"/>
     </row>
     <row r="228" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A228" s="5"/>
@@ -6193,71 +6193,71 @@
     <row r="248" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="H248" s="68"/>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A249" s="171" t="s">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A249" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B249" s="172"/>
-      <c r="C249" s="176" t="str">
+      <c r="B249" s="168"/>
+      <c r="C249" s="169" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D249" s="172"/>
-      <c r="E249" s="172"/>
-      <c r="F249" s="172"/>
-      <c r="G249" s="177"/>
-      <c r="H249" s="173"/>
-    </row>
-    <row r="250" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A250" s="161" t="s">
+      <c r="D249" s="168"/>
+      <c r="E249" s="168"/>
+      <c r="F249" s="168"/>
+      <c r="G249" s="170"/>
+      <c r="H249" s="171"/>
+    </row>
+    <row r="250" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="172" t="s">
         <v>1</v>
       </c>
-      <c r="B250" s="162"/>
-      <c r="C250" s="178" t="str">
+      <c r="B250" s="173"/>
+      <c r="C250" s="174" t="str">
         <f>$C$4</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D250" s="179"/>
-      <c r="E250" s="179"/>
-      <c r="F250" s="179"/>
-      <c r="G250" s="180"/>
-      <c r="H250" s="174"/>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A251" s="161" t="s">
+      <c r="D250" s="175"/>
+      <c r="E250" s="175"/>
+      <c r="F250" s="175"/>
+      <c r="G250" s="176"/>
+      <c r="H250" s="177"/>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A251" s="172" t="s">
         <v>2</v>
       </c>
-      <c r="B251" s="162"/>
-      <c r="C251" s="181" t="str">
+      <c r="B251" s="173"/>
+      <c r="C251" s="178" t="str">
         <f>$C$5</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D251" s="162"/>
-      <c r="E251" s="162"/>
-      <c r="F251" s="162"/>
-      <c r="G251" s="182"/>
-      <c r="H251" s="174"/>
-    </row>
-    <row r="252" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A252" s="163" t="s">
+      <c r="D251" s="173"/>
+      <c r="E251" s="173"/>
+      <c r="F251" s="173"/>
+      <c r="G251" s="179"/>
+      <c r="H251" s="177"/>
+    </row>
+    <row r="252" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="B252" s="164"/>
-      <c r="C252" s="183" t="str">
+      <c r="B252" s="181"/>
+      <c r="C252" s="182" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
-      <c r="D252" s="164"/>
-      <c r="E252" s="164"/>
-      <c r="F252" s="164"/>
-      <c r="G252" s="184"/>
-      <c r="H252" s="175"/>
+      <c r="D252" s="181"/>
+      <c r="E252" s="181"/>
+      <c r="F252" s="181"/>
+      <c r="G252" s="183"/>
+      <c r="H252" s="184"/>
     </row>
     <row r="253" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="165" t="s">
+      <c r="A253" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="B253" s="166"/>
+      <c r="B253" s="71"/>
       <c r="C253" s="3">
         <f>$E$18</f>
         <v>2050</v>
@@ -6281,14 +6281,14 @@
       </c>
     </row>
     <row r="254" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A254" s="167"/>
-      <c r="B254" s="168"/>
-      <c r="C254" s="168"/>
-      <c r="D254" s="169"/>
-      <c r="E254" s="169"/>
-      <c r="F254" s="169"/>
-      <c r="G254" s="169"/>
-      <c r="H254" s="170"/>
+      <c r="A254" s="72"/>
+      <c r="B254" s="73"/>
+      <c r="C254" s="73"/>
+      <c r="D254" s="74"/>
+      <c r="E254" s="74"/>
+      <c r="F254" s="74"/>
+      <c r="G254" s="74"/>
+      <c r="H254" s="75"/>
     </row>
     <row r="255" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A255" s="5"/>
@@ -6482,124 +6482,188 @@
     </row>
   </sheetData>
   <mergeCells count="323">
-    <mergeCell ref="A224:B224"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="A226:B226"/>
-    <mergeCell ref="A227:H227"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="H222:H225"/>
-    <mergeCell ref="C222:G222"/>
-    <mergeCell ref="C223:G223"/>
-    <mergeCell ref="C224:G224"/>
-    <mergeCell ref="C225:G225"/>
-    <mergeCell ref="A251:B251"/>
-    <mergeCell ref="A252:B252"/>
-    <mergeCell ref="A253:B253"/>
-    <mergeCell ref="A254:H254"/>
-    <mergeCell ref="A249:B249"/>
-    <mergeCell ref="A250:B250"/>
-    <mergeCell ref="H249:H252"/>
-    <mergeCell ref="C249:G249"/>
-    <mergeCell ref="C250:G250"/>
-    <mergeCell ref="C251:G251"/>
-    <mergeCell ref="C252:G252"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B21:H22"/>
-    <mergeCell ref="B23:H42"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="C56:H57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A64:E64"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="A75:E75"/>
-    <mergeCell ref="A76:E76"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A216:B216"/>
+    <mergeCell ref="C216:D216"/>
+    <mergeCell ref="A217:B217"/>
+    <mergeCell ref="C217:D217"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="C218:D218"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="C213:D213"/>
+    <mergeCell ref="A214:B214"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="C215:D215"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="C210:D210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="C211:D211"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="A207:B207"/>
+    <mergeCell ref="C207:D207"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="C208:D208"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="C209:D209"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="C204:D204"/>
+    <mergeCell ref="A205:B205"/>
+    <mergeCell ref="C205:D205"/>
+    <mergeCell ref="A206:B206"/>
+    <mergeCell ref="C206:D206"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="C201:D201"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="C202:D202"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="C199:D199"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="C200:D200"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="C195:D195"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="C196:D196"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="C197:D197"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="C193:D193"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="C190:D190"/>
+    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="C191:D191"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="C186:D186"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="C188:D188"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="H181:H184"/>
+    <mergeCell ref="C181:G181"/>
+    <mergeCell ref="C182:G182"/>
+    <mergeCell ref="C183:G183"/>
+    <mergeCell ref="C184:G184"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A175:E175"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="G176:H176"/>
+    <mergeCell ref="A177:H177"/>
+    <mergeCell ref="C179:H180"/>
+    <mergeCell ref="A172:E172"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="A173:E173"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="A174:E174"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="A169:E169"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="A170:E170"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="A171:E171"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="A166:E166"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="A163:E163"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="A164:E164"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="A160:E160"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="A161:E161"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="A162:E162"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="A154:E154"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="A155:E155"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="A156:E156"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="A150:E150"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="A151:E151"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="A153:E153"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="A152:E152"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="A147:E147"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="A148:E148"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="A144:E144"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="A145:E145"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:E143"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="H139:H142"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="C142:G142"/>
+    <mergeCell ref="A133:E133"/>
+    <mergeCell ref="A134:E134"/>
+    <mergeCell ref="A135:H135"/>
+    <mergeCell ref="C137:H138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A127:E127"/>
+    <mergeCell ref="A128:E128"/>
+    <mergeCell ref="A129:E129"/>
+    <mergeCell ref="A130:E130"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="A132:E132"/>
+    <mergeCell ref="A121:E121"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A123:E123"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A125:E125"/>
+    <mergeCell ref="A126:E126"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="A117:E117"/>
+    <mergeCell ref="A118:E118"/>
+    <mergeCell ref="A119:E119"/>
+    <mergeCell ref="A120:E120"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A114:E114"/>
     <mergeCell ref="A98:B98"/>
     <mergeCell ref="A109:E109"/>
     <mergeCell ref="H97:H100"/>
@@ -6623,188 +6687,124 @@
     <mergeCell ref="A100:B100"/>
     <mergeCell ref="A101:E101"/>
     <mergeCell ref="A102:E102"/>
-    <mergeCell ref="A115:E115"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="A117:E117"/>
-    <mergeCell ref="A118:E118"/>
-    <mergeCell ref="A119:E119"/>
-    <mergeCell ref="A120:E120"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A114:E114"/>
-    <mergeCell ref="A127:E127"/>
-    <mergeCell ref="A128:E128"/>
-    <mergeCell ref="A129:E129"/>
-    <mergeCell ref="A130:E130"/>
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="A132:E132"/>
-    <mergeCell ref="A121:E121"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A123:E123"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A125:E125"/>
-    <mergeCell ref="A126:E126"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="H139:H142"/>
-    <mergeCell ref="C139:G139"/>
-    <mergeCell ref="C140:G140"/>
-    <mergeCell ref="C141:G141"/>
-    <mergeCell ref="C142:G142"/>
-    <mergeCell ref="A133:E133"/>
-    <mergeCell ref="A134:E134"/>
-    <mergeCell ref="A135:H135"/>
-    <mergeCell ref="C137:H138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A144:E144"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="A145:E145"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="C143:E143"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="A150:E150"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="A151:E151"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="A153:E153"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="A152:E152"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="A147:E147"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="A148:E148"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="A149:E149"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="A159:E159"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="A154:E154"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="A155:E155"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="A156:E156"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="A163:E163"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="A164:E164"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="A160:E160"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="A161:E161"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="A162:E162"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="A169:E169"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="A170:E170"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="A171:E171"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="A166:E166"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="A175:E175"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="A176:E176"/>
-    <mergeCell ref="G176:H176"/>
-    <mergeCell ref="A177:H177"/>
-    <mergeCell ref="C179:H180"/>
-    <mergeCell ref="A172:E172"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="A173:E173"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="A174:E174"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="C186:D186"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="C188:D188"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="H181:H184"/>
-    <mergeCell ref="C181:G181"/>
-    <mergeCell ref="C182:G182"/>
-    <mergeCell ref="C183:G183"/>
-    <mergeCell ref="C184:G184"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A193:B193"/>
-    <mergeCell ref="C193:D193"/>
-    <mergeCell ref="A194:B194"/>
-    <mergeCell ref="C194:D194"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="A190:B190"/>
-    <mergeCell ref="C190:D190"/>
-    <mergeCell ref="A191:B191"/>
-    <mergeCell ref="C191:D191"/>
-    <mergeCell ref="A198:B198"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="C199:D199"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="C200:D200"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="C195:D195"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="C196:D196"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="C197:D197"/>
-    <mergeCell ref="A204:B204"/>
-    <mergeCell ref="C204:D204"/>
-    <mergeCell ref="A205:B205"/>
-    <mergeCell ref="C205:D205"/>
-    <mergeCell ref="A206:B206"/>
-    <mergeCell ref="C206:D206"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="C201:D201"/>
-    <mergeCell ref="A202:B202"/>
-    <mergeCell ref="C202:D202"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="C210:D210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="C211:D211"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="C212:D212"/>
-    <mergeCell ref="A207:B207"/>
-    <mergeCell ref="C207:D207"/>
-    <mergeCell ref="A208:B208"/>
-    <mergeCell ref="C208:D208"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="C209:D209"/>
-    <mergeCell ref="A216:B216"/>
-    <mergeCell ref="C216:D216"/>
-    <mergeCell ref="A217:B217"/>
-    <mergeCell ref="C217:D217"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="C218:D218"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="C213:D213"/>
-    <mergeCell ref="A214:B214"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="C215:D215"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A64:E64"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="C56:H57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B21:H22"/>
+    <mergeCell ref="B23:H42"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A251:B251"/>
+    <mergeCell ref="A252:B252"/>
+    <mergeCell ref="A253:B253"/>
+    <mergeCell ref="A254:H254"/>
+    <mergeCell ref="A249:B249"/>
+    <mergeCell ref="A250:B250"/>
+    <mergeCell ref="H249:H252"/>
+    <mergeCell ref="C249:G249"/>
+    <mergeCell ref="C250:G250"/>
+    <mergeCell ref="C251:G251"/>
+    <mergeCell ref="C252:G252"/>
+    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A226:B226"/>
+    <mergeCell ref="A227:H227"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="H222:H225"/>
+    <mergeCell ref="C222:G222"/>
+    <mergeCell ref="C223:G223"/>
+    <mergeCell ref="C224:G224"/>
+    <mergeCell ref="C225:G225"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Compass.Wpf/bin/Release/net6.0-windows/publish/JobCard.xlsx
+++ b/Compass.Wpf/bin/Release/net6.0-windows/publish/JobCard.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\repos\Compass.Wasm\Compass.Wpf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EBBE7E-C010-4B40-99A0-46DD7434893F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C28177-46C0-4CCC-969C-F40C7ECF60BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="169">
   <si>
     <t>Order Number 订单编号</t>
   </si>
@@ -497,84 +497,6 @@
     <t>Conclusion 检验结论:</t>
   </si>
   <si>
-    <t>Key Components Batch No. Record 关键元器件批号记录表</t>
-  </si>
-  <si>
-    <t>关键元器件</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 产品</t>
-  </si>
-  <si>
-    <t>型号</t>
-  </si>
-  <si>
-    <t>批号</t>
-  </si>
-  <si>
-    <t>登记人</t>
-  </si>
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>Key Component</t>
-  </si>
-  <si>
-    <t>Proudct</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bath No. </t>
-  </si>
-  <si>
-    <t>Recorder</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>UVC控制器</t>
-  </si>
-  <si>
-    <t>Hood 烟罩</t>
-  </si>
-  <si>
-    <t>Mesh过滤器</t>
-  </si>
-  <si>
-    <t>KSA过滤器</t>
-  </si>
-  <si>
-    <t>UV灯</t>
-  </si>
-  <si>
-    <t>烟罩风机</t>
-  </si>
-  <si>
-    <t>控制器（包含镇流器）</t>
-  </si>
-  <si>
-    <t>Pollustop</t>
-  </si>
-  <si>
-    <t>袋式过滤单元</t>
-  </si>
-  <si>
-    <t>高效（HEAP）过滤单元</t>
-  </si>
-  <si>
-    <t>活性炭过滤单元</t>
-  </si>
-  <si>
-    <t>板式过滤单元</t>
-  </si>
-  <si>
-    <t>变频风机</t>
-  </si>
-  <si>
     <t>Insulation resistance between plates should be greater than or equal to 50MΩ. 极板间绝缘电阻≥50MΩ。</t>
   </si>
   <si>
@@ -582,89 +504,89 @@
   </si>
   <si>
     <t>The appearance of the hood is smooth, and the water washing hood is water collecting and flanging 烟罩外观打胶平整，水洗烟罩集水翻边内打防水胶。</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>If a project contains UV hoods,then all KSA filters and washing baffle plates of this project should be assemblied with magnets. 含UV烟罩的项目，所有KSA过滤器和水洗挡板上的磁铁已安装。</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Penetrant testing has been passed,no leakage. Washing pipes and spray nozzles are firmly assembled, the model of spray nozzles and angle are installed correctly. 水洗烟罩渗透剂已喷，无渗漏。水洗管及喷头装配牢固，喷头型号及角度安装正确。</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>The mounting bracket shooting pin of the UV Rack of the UV hood has been welded and reinforced. UV烟罩的UV Rack的安装支架 射钉已焊接加固。</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Tech. Special Notes </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>技术部
 特别注释</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>国内</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Accessories List </t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Production Order Cover Sheet</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Final Inspection最终检验</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Order Number 订单编号</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Project Name 项目名称</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Hood Item Number 烟罩项目号</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Model 型号</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Project Type 项目类型</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Product Description 产品描述</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Welding Inspection (welder) 焊接检验 (焊工)/Inspected Date 检查日期:</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Bending Inspection (bender) 折弯检验 (折弯操作员 /Inspected Date 检查日期:</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Assembly Inspection 组装检验 (team leader)/Inspected Date 检查日期:</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Polishing Inspection (polisher) 磨光检验 (磨光操作员) /Inspected Date 检查日期:</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Cutting Inspection (Laser &amp; punch breaker)下料检验 (激光切割/数控冲操作员)
  /Inspected Date 检查日期:</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -674,7 +596,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-10409]yyyy/m/d"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -757,14 +679,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -779,14 +693,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF002060"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -806,7 +712,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="66">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -1365,15 +1271,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1576,7 +1473,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1688,9 +1585,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1712,12 +1607,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1738,15 +1631,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1759,7 +1652,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1769,98 +1662,149 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
@@ -1869,12 +1813,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1893,158 +1837,80 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2052,58 +1918,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2298,13 +2152,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>246</xdr:row>
+      <xdr:row>205</xdr:row>
       <xdr:rowOff>39688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>514349</xdr:colOff>
-      <xdr:row>247</xdr:row>
+      <xdr:row>206</xdr:row>
       <xdr:rowOff>193553</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2340,13 +2194,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>514349</xdr:colOff>
-      <xdr:row>220</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>191965</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2369,48 +2223,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="38100" y="38100"/>
-          <a:ext cx="1057274" cy="363415"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>178</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>514349</xdr:colOff>
-      <xdr:row>179</xdr:row>
-      <xdr:rowOff>191965</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D280D2D-7A10-49B5-B5B2-89B01124673D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="38100" y="49406175"/>
           <a:ext cx="1057274" cy="363415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2689,10 +2501,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H273"/>
+  <dimension ref="A1:H232"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A220" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A222" sqref="A222:XFD226"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J186" sqref="J186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2709,96 +2521,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="45"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="78" t="s">
-        <v>182</v>
-      </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="95" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76" t="s">
-        <v>184</v>
-      </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="83" t="s">
+      <c r="A3" s="106" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="113"/>
+      <c r="C3" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="80"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="134"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="76" t="s">
-        <v>185</v>
-      </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="83" t="s">
+      <c r="A4" s="106" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="113"/>
+      <c r="C4" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="81"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="135"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="76" t="s">
-        <v>186</v>
-      </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="83" t="s">
+      <c r="A5" s="106" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="113"/>
+      <c r="C5" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="81"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="135"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="76" t="s">
-        <v>187</v>
-      </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="83" t="s">
+      <c r="A6" s="106" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="113"/>
+      <c r="C6" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="82"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="136"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="76" t="s">
-        <v>188</v>
-      </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="90" t="s">
-        <v>180</v>
-      </c>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
+      <c r="A7" s="106" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="113"/>
+      <c r="C7" s="128" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
@@ -2827,24 +2639,24 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="92"/>
-      <c r="C9" s="46" t="s">
+      <c r="B9" s="129"/>
+      <c r="C9" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="91" t="s">
+      <c r="D9" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="87"/>
+      <c r="E9" s="107"/>
       <c r="F9" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="93" t="s">
+      <c r="G9" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="94"/>
+      <c r="H9" s="131"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
@@ -2856,57 +2668,57 @@
       <c r="C10" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="87"/>
+      <c r="D10" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="107"/>
       <c r="F10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="95" t="s">
+      <c r="G10" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="96"/>
+      <c r="H10" s="133"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="86"/>
+      <c r="B11" s="125"/>
       <c r="C11" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="87"/>
+      <c r="D11" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="107"/>
       <c r="F11" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="88">
+      <c r="G11" s="126">
         <v>43826</v>
       </c>
-      <c r="H11" s="89"/>
+      <c r="H11" s="127"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="87"/>
+      <c r="B12" s="107"/>
       <c r="C12" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="87"/>
+      <c r="D12" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="107"/>
       <c r="F12" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="54" t="s">
+      <c r="G12" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="50" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2914,67 +2726,67 @@
       <c r="A13" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="41" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="87"/>
+      <c r="D13" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="107"/>
       <c r="F13" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="54"/>
+      <c r="G13" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="50"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="41" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="87"/>
+      <c r="D14" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="107"/>
       <c r="F14" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="54"/>
+      <c r="G14" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="50"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="41" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="87"/>
+      <c r="D15" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="107"/>
       <c r="F15" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="54"/>
+      <c r="G15" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="50"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
@@ -3003,11 +2815,11 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A17" s="100" t="s">
-        <v>189</v>
-      </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="48" t="s">
+      <c r="A17" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17" s="113"/>
+      <c r="C17" s="46" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="30" t="s">
@@ -3027,301 +2839,301 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="41" t="str">
+      <c r="A18" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="39" t="str">
         <f>$C$5</f>
         <v>71.6 M1</v>
       </c>
-      <c r="C18" s="42" t="str">
+      <c r="C18" s="40" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="51">
+      <c r="E18" s="47">
         <v>2050</v>
       </c>
-      <c r="F18" s="51">
+      <c r="F18" s="47">
         <v>1500</v>
       </c>
-      <c r="G18" s="51">
+      <c r="G18" s="47">
         <v>555</v>
       </c>
-      <c r="H18" s="52" t="s">
+      <c r="H18" s="48" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="101" t="s">
-        <v>181</v>
-      </c>
-      <c r="B19" s="102"/>
-      <c r="C19" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="103"/>
+      <c r="A19" s="114" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="115"/>
+      <c r="C19" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="116"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="101" t="s">
+      <c r="A20" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="102"/>
-      <c r="C20" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="103"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="113"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="116"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="104" t="s">
-        <v>178</v>
-      </c>
-      <c r="B21" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="107"/>
+      <c r="A21" s="117" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21" s="119" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="119"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="120"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="105"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="109"/>
+      <c r="A22" s="118"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="122"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="105"/>
-      <c r="B23" s="108"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="109"/>
+      <c r="A23" s="118"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="122"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="105"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="109"/>
+      <c r="A24" s="118"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="122"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="105" t="s">
-        <v>179</v>
-      </c>
-      <c r="B25" s="108"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="109"/>
+      <c r="A25" s="118" t="s">
+        <v>153</v>
+      </c>
+      <c r="B25" s="121"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="122"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="105"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="109"/>
+      <c r="A26" s="118"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="122"/>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="105"/>
-      <c r="B27" s="108"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="108"/>
-      <c r="H27" s="109"/>
+      <c r="A27" s="118"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="122"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="59"/>
-      <c r="B28" s="108"/>
-      <c r="C28" s="108"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="109"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="122"/>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="59"/>
-      <c r="B29" s="108"/>
-      <c r="C29" s="108"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="109"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="121"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="121"/>
+      <c r="H29" s="122"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="59"/>
-      <c r="B30" s="108"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="109"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="121"/>
+      <c r="G30" s="121"/>
+      <c r="H30" s="122"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="59"/>
-      <c r="B31" s="108"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="108"/>
-      <c r="G31" s="108"/>
-      <c r="H31" s="109"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="121"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="121"/>
+      <c r="F31" s="121"/>
+      <c r="G31" s="121"/>
+      <c r="H31" s="122"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="60"/>
-      <c r="B32" s="108"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="108"/>
-      <c r="H32" s="109"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="121"/>
+      <c r="F32" s="121"/>
+      <c r="G32" s="121"/>
+      <c r="H32" s="122"/>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="60"/>
-      <c r="B33" s="108"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="108"/>
-      <c r="G33" s="108"/>
-      <c r="H33" s="109"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="121"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="121"/>
+      <c r="H33" s="122"/>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="60"/>
-      <c r="B34" s="108"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="108"/>
-      <c r="E34" s="108"/>
-      <c r="F34" s="108"/>
-      <c r="G34" s="108"/>
-      <c r="H34" s="109"/>
+      <c r="A34" s="56"/>
+      <c r="B34" s="121"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="121"/>
+      <c r="F34" s="121"/>
+      <c r="G34" s="121"/>
+      <c r="H34" s="122"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="60"/>
-      <c r="B35" s="108"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="108"/>
-      <c r="E35" s="108"/>
-      <c r="F35" s="108"/>
-      <c r="G35" s="108"/>
-      <c r="H35" s="109"/>
+      <c r="A35" s="56"/>
+      <c r="B35" s="121"/>
+      <c r="C35" s="121"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="121"/>
+      <c r="F35" s="121"/>
+      <c r="G35" s="121"/>
+      <c r="H35" s="122"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="60"/>
-      <c r="B36" s="108"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="108"/>
-      <c r="E36" s="108"/>
-      <c r="F36" s="108"/>
-      <c r="G36" s="108"/>
-      <c r="H36" s="109"/>
+      <c r="A36" s="56"/>
+      <c r="B36" s="121"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="121"/>
+      <c r="F36" s="121"/>
+      <c r="G36" s="121"/>
+      <c r="H36" s="122"/>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="60"/>
-      <c r="B37" s="108"/>
-      <c r="C37" s="108"/>
-      <c r="D37" s="108"/>
-      <c r="E37" s="108"/>
-      <c r="F37" s="108"/>
-      <c r="G37" s="108"/>
-      <c r="H37" s="109"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="121"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="121"/>
+      <c r="F37" s="121"/>
+      <c r="G37" s="121"/>
+      <c r="H37" s="122"/>
     </row>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="60"/>
-      <c r="B38" s="108"/>
-      <c r="C38" s="108"/>
-      <c r="D38" s="108"/>
-      <c r="E38" s="108"/>
-      <c r="F38" s="108"/>
-      <c r="G38" s="108"/>
-      <c r="H38" s="109"/>
+      <c r="A38" s="56"/>
+      <c r="B38" s="121"/>
+      <c r="C38" s="121"/>
+      <c r="D38" s="121"/>
+      <c r="E38" s="121"/>
+      <c r="F38" s="121"/>
+      <c r="G38" s="121"/>
+      <c r="H38" s="122"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="60"/>
-      <c r="B39" s="108"/>
-      <c r="C39" s="108"/>
-      <c r="D39" s="108"/>
-      <c r="E39" s="108"/>
-      <c r="F39" s="108"/>
-      <c r="G39" s="108"/>
-      <c r="H39" s="109"/>
+      <c r="A39" s="56"/>
+      <c r="B39" s="121"/>
+      <c r="C39" s="121"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="121"/>
+      <c r="F39" s="121"/>
+      <c r="G39" s="121"/>
+      <c r="H39" s="122"/>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="60"/>
-      <c r="B40" s="108"/>
-      <c r="C40" s="108"/>
-      <c r="D40" s="108"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="108"/>
-      <c r="G40" s="108"/>
-      <c r="H40" s="109"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="121"/>
+      <c r="C40" s="121"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="121"/>
+      <c r="F40" s="121"/>
+      <c r="G40" s="121"/>
+      <c r="H40" s="122"/>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="60"/>
-      <c r="B41" s="108"/>
-      <c r="C41" s="108"/>
-      <c r="D41" s="108"/>
-      <c r="E41" s="108"/>
-      <c r="F41" s="108"/>
-      <c r="G41" s="108"/>
-      <c r="H41" s="109"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="121"/>
+      <c r="C41" s="121"/>
+      <c r="D41" s="121"/>
+      <c r="E41" s="121"/>
+      <c r="F41" s="121"/>
+      <c r="G41" s="121"/>
+      <c r="H41" s="122"/>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="61"/>
-      <c r="B42" s="110"/>
-      <c r="C42" s="110"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="110"/>
-      <c r="H42" s="111"/>
+      <c r="A42" s="57"/>
+      <c r="B42" s="123"/>
+      <c r="C42" s="123"/>
+      <c r="D42" s="123"/>
+      <c r="E42" s="123"/>
+      <c r="F42" s="123"/>
+      <c r="G42" s="123"/>
+      <c r="H42" s="124"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="91" t="s">
+      <c r="A43" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="87"/>
+      <c r="B43" s="107"/>
       <c r="C43" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="97" t="s">
+      <c r="D43" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="98"/>
-      <c r="F43" s="98"/>
-      <c r="G43" s="43" t="s">
+      <c r="E43" s="109"/>
+      <c r="F43" s="109"/>
+      <c r="G43" s="41" t="s">
         <v>38</v>
       </c>
       <c r="H43" s="32" t="s">
@@ -3329,331 +3141,331 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="76" t="s">
+      <c r="A44" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="87"/>
+      <c r="B44" s="107"/>
       <c r="C44" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="97" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="98"/>
-      <c r="F44" s="99"/>
-      <c r="G44" s="44"/>
+      <c r="D44" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="109"/>
+      <c r="F44" s="110"/>
+      <c r="G44" s="42"/>
       <c r="H44" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="76" t="s">
+      <c r="A45" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="87"/>
+      <c r="B45" s="107"/>
       <c r="C45" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="97" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="98"/>
-      <c r="F45" s="99"/>
-      <c r="G45" s="44"/>
+      <c r="D45" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="109"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="42"/>
       <c r="H45" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="76" t="s">
+      <c r="A46" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="87"/>
+      <c r="B46" s="107"/>
       <c r="C46" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="97" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="98"/>
-      <c r="F46" s="99"/>
-      <c r="G46" s="44"/>
+      <c r="D46" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="109"/>
+      <c r="F46" s="110"/>
+      <c r="G46" s="42"/>
       <c r="H46" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="76" t="s">
+      <c r="A47" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="87"/>
+      <c r="B47" s="107"/>
       <c r="C47" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="97" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="98"/>
-      <c r="F47" s="99"/>
-      <c r="G47" s="44"/>
+      <c r="D47" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="109"/>
+      <c r="F47" s="110"/>
+      <c r="G47" s="42"/>
       <c r="H47" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="76" t="s">
+      <c r="A48" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="87"/>
+      <c r="B48" s="107"/>
       <c r="C48" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="97" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="98"/>
-      <c r="F48" s="99"/>
-      <c r="G48" s="44"/>
+      <c r="D48" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="109"/>
+      <c r="F48" s="110"/>
+      <c r="G48" s="42"/>
       <c r="H48" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="76" t="s">
+      <c r="A49" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="87"/>
+      <c r="B49" s="107"/>
       <c r="C49" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="97" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="98"/>
-      <c r="F49" s="99"/>
-      <c r="G49" s="44"/>
+      <c r="D49" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="109"/>
+      <c r="F49" s="110"/>
+      <c r="G49" s="42"/>
       <c r="H49" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="76" t="s">
+      <c r="A50" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="87"/>
+      <c r="B50" s="107"/>
       <c r="C50" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="97" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="98"/>
-      <c r="F50" s="99"/>
-      <c r="G50" s="44"/>
+      <c r="D50" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="109"/>
+      <c r="F50" s="110"/>
+      <c r="G50" s="42"/>
       <c r="H50" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="76" t="s">
+      <c r="A51" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="87"/>
+      <c r="B51" s="107"/>
       <c r="C51" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="97" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="98"/>
-      <c r="F51" s="99"/>
-      <c r="G51" s="44"/>
+      <c r="D51" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="109"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="42"/>
       <c r="H51" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="76" t="s">
+      <c r="A52" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="87"/>
+      <c r="B52" s="107"/>
       <c r="C52" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="97" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="98"/>
-      <c r="F52" s="99"/>
-      <c r="G52" s="44"/>
+      <c r="D52" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="109"/>
+      <c r="F52" s="110"/>
+      <c r="G52" s="42"/>
       <c r="H52" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="76" t="s">
+      <c r="A53" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="87"/>
+      <c r="B53" s="107"/>
       <c r="C53" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="97" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" s="98"/>
-      <c r="F53" s="99"/>
-      <c r="G53" s="44"/>
+      <c r="D53" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="109"/>
+      <c r="F53" s="110"/>
+      <c r="G53" s="42"/>
       <c r="H53" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="76" t="s">
+      <c r="A54" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="87"/>
+      <c r="B54" s="107"/>
       <c r="C54" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="97" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="98"/>
-      <c r="F54" s="99"/>
-      <c r="G54" s="44"/>
+      <c r="D54" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="109"/>
+      <c r="F54" s="110"/>
+      <c r="G54" s="42"/>
       <c r="H54" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="54"/>
-      <c r="B55" s="56"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="54"/>
+      <c r="A55" s="50"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="50"/>
     </row>
     <row r="56" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="45"/>
-      <c r="B56" s="45"/>
-      <c r="C56" s="78" t="s">
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="D56" s="78"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="78"/>
-      <c r="G56" s="78"/>
-      <c r="H56" s="78"/>
+      <c r="D56" s="95"/>
+      <c r="E56" s="95"/>
+      <c r="F56" s="95"/>
+      <c r="G56" s="95"/>
+      <c r="H56" s="95"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="45"/>
-      <c r="B57" s="45"/>
-      <c r="C57" s="79"/>
-      <c r="D57" s="79"/>
-      <c r="E57" s="79"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="79"/>
-      <c r="H57" s="79"/>
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="96"/>
+      <c r="F57" s="96"/>
+      <c r="G57" s="96"/>
+      <c r="H57" s="96"/>
     </row>
     <row r="58" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="112" t="s">
+      <c r="A58" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="113"/>
-      <c r="C58" s="122" t="str">
+      <c r="B58" s="67"/>
+      <c r="C58" s="89" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D58" s="123"/>
-      <c r="E58" s="123"/>
-      <c r="F58" s="123"/>
-      <c r="G58" s="123"/>
-      <c r="H58" s="119"/>
+      <c r="D58" s="90"/>
+      <c r="E58" s="90"/>
+      <c r="F58" s="90"/>
+      <c r="G58" s="90"/>
+      <c r="H58" s="86"/>
     </row>
     <row r="59" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="112" t="s">
+      <c r="A59" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="113"/>
-      <c r="C59" s="124" t="str">
+      <c r="B59" s="67"/>
+      <c r="C59" s="97" t="str">
         <f>$C$4</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D59" s="125"/>
-      <c r="E59" s="125"/>
-      <c r="F59" s="125"/>
-      <c r="G59" s="125"/>
-      <c r="H59" s="120"/>
+      <c r="D59" s="98"/>
+      <c r="E59" s="98"/>
+      <c r="F59" s="98"/>
+      <c r="G59" s="98"/>
+      <c r="H59" s="87"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="112" t="s">
+      <c r="A60" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="113"/>
-      <c r="C60" s="124" t="str">
+      <c r="B60" s="67"/>
+      <c r="C60" s="97" t="str">
         <f>$C$5</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D60" s="125"/>
-      <c r="E60" s="125"/>
-      <c r="F60" s="125"/>
-      <c r="G60" s="125"/>
-      <c r="H60" s="120"/>
+      <c r="D60" s="98"/>
+      <c r="E60" s="98"/>
+      <c r="F60" s="98"/>
+      <c r="G60" s="98"/>
+      <c r="H60" s="87"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="114" t="s">
+      <c r="A61" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="115"/>
-      <c r="C61" s="126" t="str">
+      <c r="B61" s="105"/>
+      <c r="C61" s="100" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
-      <c r="D61" s="127"/>
-      <c r="E61" s="127"/>
-      <c r="F61" s="127"/>
-      <c r="G61" s="127"/>
-      <c r="H61" s="121"/>
+      <c r="D61" s="101"/>
+      <c r="E61" s="101"/>
+      <c r="F61" s="101"/>
+      <c r="G61" s="101"/>
+      <c r="H61" s="88"/>
     </row>
     <row r="62" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A62" s="116"/>
-      <c r="B62" s="116"/>
-      <c r="C62" s="116"/>
-      <c r="D62" s="116"/>
-      <c r="E62" s="116"/>
-      <c r="F62" s="47" t="s">
+      <c r="A62" s="85"/>
+      <c r="B62" s="85"/>
+      <c r="C62" s="85"/>
+      <c r="D62" s="85"/>
+      <c r="E62" s="85"/>
+      <c r="F62" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="G62" s="47" t="s">
+      <c r="G62" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="H62" s="47" t="s">
+      <c r="H62" s="45" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="117" t="s">
-        <v>194</v>
-      </c>
-      <c r="B63" s="117"/>
-      <c r="C63" s="117"/>
-      <c r="D63" s="117"/>
-      <c r="E63" s="117"/>
+      <c r="A63" s="103" t="s">
+        <v>168</v>
+      </c>
+      <c r="B63" s="103"/>
+      <c r="C63" s="103"/>
+      <c r="D63" s="103"/>
+      <c r="E63" s="103"/>
       <c r="F63" s="33"/>
       <c r="G63" s="33"/>
       <c r="H63" s="33"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="118" t="s">
+      <c r="A64" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="B64" s="118"/>
-      <c r="C64" s="118"/>
-      <c r="D64" s="118"/>
-      <c r="E64" s="118"/>
+      <c r="B64" s="92"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="92"/>
+      <c r="E64" s="92"/>
       <c r="F64" s="34" t="s">
         <v>12</v>
       </c>
@@ -3663,13 +3475,13 @@
       <c r="H64" s="34"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="118" t="s">
+      <c r="A65" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="B65" s="118"/>
-      <c r="C65" s="118"/>
-      <c r="D65" s="118"/>
-      <c r="E65" s="118"/>
+      <c r="B65" s="92"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="92"/>
+      <c r="E65" s="92"/>
       <c r="F65" s="34" t="s">
         <v>12</v>
       </c>
@@ -3679,13 +3491,13 @@
       <c r="H65" s="34"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="118" t="s">
+      <c r="A66" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="B66" s="118"/>
-      <c r="C66" s="118"/>
-      <c r="D66" s="118"/>
-      <c r="E66" s="118"/>
+      <c r="B66" s="92"/>
+      <c r="C66" s="92"/>
+      <c r="D66" s="92"/>
+      <c r="E66" s="92"/>
       <c r="F66" s="34" t="s">
         <v>12</v>
       </c>
@@ -3695,13 +3507,13 @@
       <c r="H66" s="34"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="118" t="s">
+      <c r="A67" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="B67" s="118"/>
-      <c r="C67" s="118"/>
-      <c r="D67" s="118"/>
-      <c r="E67" s="118"/>
+      <c r="B67" s="92"/>
+      <c r="C67" s="92"/>
+      <c r="D67" s="92"/>
+      <c r="E67" s="92"/>
       <c r="F67" s="34" t="s">
         <v>12</v>
       </c>
@@ -3711,13 +3523,13 @@
       <c r="H67" s="34"/>
     </row>
     <row r="68" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="118" t="s">
+      <c r="A68" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="B68" s="118"/>
-      <c r="C68" s="118"/>
-      <c r="D68" s="118"/>
-      <c r="E68" s="118"/>
+      <c r="B68" s="92"/>
+      <c r="C68" s="92"/>
+      <c r="D68" s="92"/>
+      <c r="E68" s="92"/>
       <c r="F68" s="34" t="s">
         <v>12</v>
       </c>
@@ -3727,13 +3539,13 @@
       <c r="H68" s="34"/>
     </row>
     <row r="69" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="117" t="s">
-        <v>191</v>
-      </c>
-      <c r="B69" s="117"/>
-      <c r="C69" s="117"/>
-      <c r="D69" s="117"/>
-      <c r="E69" s="117"/>
+      <c r="A69" s="103" t="s">
+        <v>165</v>
+      </c>
+      <c r="B69" s="103"/>
+      <c r="C69" s="103"/>
+      <c r="D69" s="103"/>
+      <c r="E69" s="103"/>
       <c r="F69" s="33"/>
       <c r="G69" s="33" t="s">
         <v>12</v>
@@ -3741,13 +3553,13 @@
       <c r="H69" s="33"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="118" t="s">
+      <c r="A70" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="B70" s="118"/>
-      <c r="C70" s="118"/>
-      <c r="D70" s="118"/>
-      <c r="E70" s="118"/>
+      <c r="B70" s="92"/>
+      <c r="C70" s="92"/>
+      <c r="D70" s="92"/>
+      <c r="E70" s="92"/>
       <c r="F70" s="34" t="s">
         <v>12</v>
       </c>
@@ -3757,13 +3569,13 @@
       <c r="H70" s="34"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="118" t="s">
+      <c r="A71" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="B71" s="118"/>
-      <c r="C71" s="118"/>
-      <c r="D71" s="118"/>
-      <c r="E71" s="118"/>
+      <c r="B71" s="92"/>
+      <c r="C71" s="92"/>
+      <c r="D71" s="92"/>
+      <c r="E71" s="92"/>
       <c r="F71" s="34" t="s">
         <v>12</v>
       </c>
@@ -3773,13 +3585,13 @@
       <c r="H71" s="34"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="118" t="s">
+      <c r="A72" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="B72" s="118"/>
-      <c r="C72" s="118"/>
-      <c r="D72" s="118"/>
-      <c r="E72" s="118"/>
+      <c r="B72" s="92"/>
+      <c r="C72" s="92"/>
+      <c r="D72" s="92"/>
+      <c r="E72" s="92"/>
       <c r="F72" s="34" t="s">
         <v>12</v>
       </c>
@@ -3789,13 +3601,13 @@
       <c r="H72" s="34"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="118" t="s">
+      <c r="A73" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="B73" s="118"/>
-      <c r="C73" s="118"/>
-      <c r="D73" s="118"/>
-      <c r="E73" s="118"/>
+      <c r="B73" s="92"/>
+      <c r="C73" s="92"/>
+      <c r="D73" s="92"/>
+      <c r="E73" s="92"/>
       <c r="F73" s="34" t="s">
         <v>12</v>
       </c>
@@ -3805,13 +3617,13 @@
       <c r="H73" s="34"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="118" t="s">
+      <c r="A74" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="B74" s="118"/>
-      <c r="C74" s="118"/>
-      <c r="D74" s="118"/>
-      <c r="E74" s="118"/>
+      <c r="B74" s="92"/>
+      <c r="C74" s="92"/>
+      <c r="D74" s="92"/>
+      <c r="E74" s="92"/>
       <c r="F74" s="34" t="s">
         <v>12</v>
       </c>
@@ -3821,13 +3633,13 @@
       <c r="H74" s="34"/>
     </row>
     <row r="75" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="118" t="s">
+      <c r="A75" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="B75" s="118"/>
-      <c r="C75" s="118"/>
-      <c r="D75" s="118"/>
-      <c r="E75" s="118"/>
+      <c r="B75" s="92"/>
+      <c r="C75" s="92"/>
+      <c r="D75" s="92"/>
+      <c r="E75" s="92"/>
       <c r="F75" s="34" t="s">
         <v>12</v>
       </c>
@@ -3837,13 +3649,13 @@
       <c r="H75" s="34"/>
     </row>
     <row r="76" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="117" t="s">
+      <c r="A76" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="B76" s="117"/>
-      <c r="C76" s="117"/>
-      <c r="D76" s="117"/>
-      <c r="E76" s="117"/>
+      <c r="B76" s="103"/>
+      <c r="C76" s="103"/>
+      <c r="D76" s="103"/>
+      <c r="E76" s="103"/>
       <c r="F76" s="33"/>
       <c r="G76" s="33" t="s">
         <v>12</v>
@@ -3851,13 +3663,13 @@
       <c r="H76" s="33"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="118" t="s">
+      <c r="A77" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="B77" s="118"/>
-      <c r="C77" s="118"/>
-      <c r="D77" s="118"/>
-      <c r="E77" s="118"/>
+      <c r="B77" s="92"/>
+      <c r="C77" s="92"/>
+      <c r="D77" s="92"/>
+      <c r="E77" s="92"/>
       <c r="F77" s="34" t="s">
         <v>12</v>
       </c>
@@ -3867,13 +3679,13 @@
       <c r="H77" s="34"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="118" t="s">
+      <c r="A78" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="B78" s="118"/>
-      <c r="C78" s="118"/>
-      <c r="D78" s="118"/>
-      <c r="E78" s="118"/>
+      <c r="B78" s="92"/>
+      <c r="C78" s="92"/>
+      <c r="D78" s="92"/>
+      <c r="E78" s="92"/>
       <c r="F78" s="34" t="s">
         <v>12</v>
       </c>
@@ -3883,13 +3695,13 @@
       <c r="H78" s="34"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="118" t="s">
+      <c r="A79" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="B79" s="118"/>
-      <c r="C79" s="118"/>
-      <c r="D79" s="118"/>
-      <c r="E79" s="118"/>
+      <c r="B79" s="92"/>
+      <c r="C79" s="92"/>
+      <c r="D79" s="92"/>
+      <c r="E79" s="92"/>
       <c r="F79" s="34" t="s">
         <v>12</v>
       </c>
@@ -3899,13 +3711,13 @@
       <c r="H79" s="34"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="118" t="s">
+      <c r="A80" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="B80" s="118"/>
-      <c r="C80" s="118"/>
-      <c r="D80" s="118"/>
-      <c r="E80" s="118"/>
+      <c r="B80" s="92"/>
+      <c r="C80" s="92"/>
+      <c r="D80" s="92"/>
+      <c r="E80" s="92"/>
       <c r="F80" s="34" t="s">
         <v>12</v>
       </c>
@@ -3915,13 +3727,13 @@
       <c r="H80" s="34"/>
     </row>
     <row r="81" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="117" t="s">
-        <v>190</v>
-      </c>
-      <c r="B81" s="117"/>
-      <c r="C81" s="117"/>
-      <c r="D81" s="117"/>
-      <c r="E81" s="117"/>
+      <c r="A81" s="103" t="s">
+        <v>164</v>
+      </c>
+      <c r="B81" s="103"/>
+      <c r="C81" s="103"/>
+      <c r="D81" s="103"/>
+      <c r="E81" s="103"/>
       <c r="F81" s="33"/>
       <c r="G81" s="33" t="s">
         <v>12</v>
@@ -3929,13 +3741,13 @@
       <c r="H81" s="33"/>
     </row>
     <row r="82" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="118" t="s">
+      <c r="A82" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="B82" s="118"/>
-      <c r="C82" s="118"/>
-      <c r="D82" s="118"/>
-      <c r="E82" s="118"/>
+      <c r="B82" s="92"/>
+      <c r="C82" s="92"/>
+      <c r="D82" s="92"/>
+      <c r="E82" s="92"/>
       <c r="F82" s="34" t="s">
         <v>12</v>
       </c>
@@ -3945,13 +3757,13 @@
       <c r="H82" s="34"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="118" t="s">
+      <c r="A83" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="B83" s="118"/>
-      <c r="C83" s="118"/>
-      <c r="D83" s="118"/>
-      <c r="E83" s="118"/>
+      <c r="B83" s="92"/>
+      <c r="C83" s="92"/>
+      <c r="D83" s="92"/>
+      <c r="E83" s="92"/>
       <c r="F83" s="34" t="s">
         <v>12</v>
       </c>
@@ -3961,13 +3773,13 @@
       <c r="H83" s="34"/>
     </row>
     <row r="84" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="118" t="s">
+      <c r="A84" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="B84" s="118"/>
-      <c r="C84" s="118"/>
-      <c r="D84" s="118"/>
-      <c r="E84" s="118"/>
+      <c r="B84" s="92"/>
+      <c r="C84" s="92"/>
+      <c r="D84" s="92"/>
+      <c r="E84" s="92"/>
       <c r="F84" s="34" t="s">
         <v>12</v>
       </c>
@@ -3977,13 +3789,13 @@
       <c r="H84" s="34"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="118" t="s">
+      <c r="A85" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="B85" s="118"/>
-      <c r="C85" s="118"/>
-      <c r="D85" s="118"/>
-      <c r="E85" s="118"/>
+      <c r="B85" s="92"/>
+      <c r="C85" s="92"/>
+      <c r="D85" s="92"/>
+      <c r="E85" s="92"/>
       <c r="F85" s="34" t="s">
         <v>12</v>
       </c>
@@ -3993,13 +3805,13 @@
       <c r="H85" s="34"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="118" t="s">
+      <c r="A86" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="B86" s="118"/>
-      <c r="C86" s="118"/>
-      <c r="D86" s="118"/>
-      <c r="E86" s="118"/>
+      <c r="B86" s="92"/>
+      <c r="C86" s="92"/>
+      <c r="D86" s="92"/>
+      <c r="E86" s="92"/>
       <c r="F86" s="34" t="s">
         <v>12</v>
       </c>
@@ -4009,13 +3821,13 @@
       <c r="H86" s="34"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="118" t="s">
+      <c r="A87" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="B87" s="118"/>
-      <c r="C87" s="118"/>
-      <c r="D87" s="118"/>
-      <c r="E87" s="118"/>
+      <c r="B87" s="92"/>
+      <c r="C87" s="92"/>
+      <c r="D87" s="92"/>
+      <c r="E87" s="92"/>
       <c r="F87" s="34" t="s">
         <v>12</v>
       </c>
@@ -4025,13 +3837,13 @@
       <c r="H87" s="34"/>
     </row>
     <row r="88" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="118" t="s">
+      <c r="A88" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="B88" s="118"/>
-      <c r="C88" s="118"/>
-      <c r="D88" s="118"/>
-      <c r="E88" s="118"/>
+      <c r="B88" s="92"/>
+      <c r="C88" s="92"/>
+      <c r="D88" s="92"/>
+      <c r="E88" s="92"/>
       <c r="F88" s="34" t="s">
         <v>12</v>
       </c>
@@ -4041,13 +3853,13 @@
       <c r="H88" s="34"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="118" t="s">
+      <c r="A89" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="B89" s="118"/>
-      <c r="C89" s="118"/>
-      <c r="D89" s="118"/>
-      <c r="E89" s="118"/>
+      <c r="B89" s="92"/>
+      <c r="C89" s="92"/>
+      <c r="D89" s="92"/>
+      <c r="E89" s="92"/>
       <c r="F89" s="34" t="s">
         <v>12</v>
       </c>
@@ -4057,13 +3869,13 @@
       <c r="H89" s="34"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="118" t="s">
+      <c r="A90" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="B90" s="118"/>
-      <c r="C90" s="118"/>
-      <c r="D90" s="118"/>
-      <c r="E90" s="118"/>
+      <c r="B90" s="92"/>
+      <c r="C90" s="92"/>
+      <c r="D90" s="92"/>
+      <c r="E90" s="92"/>
       <c r="F90" s="34" t="s">
         <v>12</v>
       </c>
@@ -4073,13 +3885,13 @@
       <c r="H90" s="34"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="118" t="s">
+      <c r="A91" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="B91" s="118"/>
-      <c r="C91" s="118"/>
-      <c r="D91" s="118"/>
-      <c r="E91" s="118"/>
+      <c r="B91" s="92"/>
+      <c r="C91" s="92"/>
+      <c r="D91" s="92"/>
+      <c r="E91" s="92"/>
       <c r="F91" s="34" t="s">
         <v>12</v>
       </c>
@@ -4089,13 +3901,13 @@
       <c r="H91" s="34"/>
     </row>
     <row r="92" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="118" t="s">
+      <c r="A92" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="B92" s="118"/>
-      <c r="C92" s="118"/>
-      <c r="D92" s="118"/>
-      <c r="E92" s="118"/>
+      <c r="B92" s="92"/>
+      <c r="C92" s="92"/>
+      <c r="D92" s="92"/>
+      <c r="E92" s="92"/>
       <c r="F92" s="34" t="s">
         <v>12</v>
       </c>
@@ -4105,13 +3917,13 @@
       <c r="H92" s="34"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="118" t="s">
+      <c r="A93" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="B93" s="118"/>
-      <c r="C93" s="118"/>
-      <c r="D93" s="118"/>
-      <c r="E93" s="118"/>
+      <c r="B93" s="92"/>
+      <c r="C93" s="92"/>
+      <c r="D93" s="92"/>
+      <c r="E93" s="92"/>
       <c r="F93" s="34" t="s">
         <v>12</v>
       </c>
@@ -4121,121 +3933,121 @@
       <c r="H93" s="34"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="57"/>
-      <c r="B94" s="57"/>
-      <c r="C94" s="57"/>
-      <c r="D94" s="57"/>
-      <c r="E94" s="57"/>
-      <c r="F94" s="54"/>
-      <c r="G94" s="54"/>
-      <c r="H94" s="54"/>
+      <c r="A94" s="53"/>
+      <c r="B94" s="53"/>
+      <c r="C94" s="53"/>
+      <c r="D94" s="53"/>
+      <c r="E94" s="53"/>
+      <c r="F94" s="50"/>
+      <c r="G94" s="50"/>
+      <c r="H94" s="50"/>
     </row>
     <row r="95" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="45"/>
-      <c r="B95" s="45"/>
-      <c r="C95" s="78" t="s">
+      <c r="A95" s="43"/>
+      <c r="B95" s="43"/>
+      <c r="C95" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="D95" s="78"/>
-      <c r="E95" s="78"/>
-      <c r="F95" s="78"/>
-      <c r="G95" s="78"/>
-      <c r="H95" s="78"/>
+      <c r="D95" s="95"/>
+      <c r="E95" s="95"/>
+      <c r="F95" s="95"/>
+      <c r="G95" s="95"/>
+      <c r="H95" s="95"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A96" s="45"/>
-      <c r="B96" s="45"/>
-      <c r="C96" s="79"/>
-      <c r="D96" s="79"/>
-      <c r="E96" s="79"/>
-      <c r="F96" s="79"/>
-      <c r="G96" s="79"/>
-      <c r="H96" s="79"/>
+      <c r="A96" s="43"/>
+      <c r="B96" s="43"/>
+      <c r="C96" s="96"/>
+      <c r="D96" s="96"/>
+      <c r="E96" s="96"/>
+      <c r="F96" s="96"/>
+      <c r="G96" s="96"/>
+      <c r="H96" s="96"/>
     </row>
     <row r="97" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="112" t="s">
+      <c r="A97" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B97" s="113"/>
-      <c r="C97" s="122" t="str">
+      <c r="B97" s="67"/>
+      <c r="C97" s="89" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D97" s="123"/>
-      <c r="E97" s="123"/>
-      <c r="F97" s="123"/>
-      <c r="G97" s="128"/>
-      <c r="H97" s="119"/>
+      <c r="D97" s="90"/>
+      <c r="E97" s="90"/>
+      <c r="F97" s="90"/>
+      <c r="G97" s="91"/>
+      <c r="H97" s="86"/>
     </row>
     <row r="98" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="112" t="s">
+      <c r="A98" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B98" s="113"/>
-      <c r="C98" s="124" t="str">
+      <c r="B98" s="67"/>
+      <c r="C98" s="97" t="str">
         <f>$C$4</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D98" s="125"/>
-      <c r="E98" s="125"/>
-      <c r="F98" s="125"/>
-      <c r="G98" s="129"/>
-      <c r="H98" s="120"/>
+      <c r="D98" s="98"/>
+      <c r="E98" s="98"/>
+      <c r="F98" s="98"/>
+      <c r="G98" s="99"/>
+      <c r="H98" s="87"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="112" t="s">
+      <c r="A99" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B99" s="113"/>
-      <c r="C99" s="124" t="str">
+      <c r="B99" s="67"/>
+      <c r="C99" s="97" t="str">
         <f>$C$5</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D99" s="125"/>
-      <c r="E99" s="125"/>
-      <c r="F99" s="125"/>
-      <c r="G99" s="129"/>
-      <c r="H99" s="120"/>
+      <c r="D99" s="98"/>
+      <c r="E99" s="98"/>
+      <c r="F99" s="98"/>
+      <c r="G99" s="99"/>
+      <c r="H99" s="87"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="114" t="s">
+      <c r="A100" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B100" s="115"/>
-      <c r="C100" s="126" t="str">
+      <c r="B100" s="105"/>
+      <c r="C100" s="100" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
-      <c r="D100" s="127"/>
-      <c r="E100" s="127"/>
-      <c r="F100" s="127"/>
-      <c r="G100" s="130"/>
-      <c r="H100" s="121"/>
+      <c r="D100" s="101"/>
+      <c r="E100" s="101"/>
+      <c r="F100" s="101"/>
+      <c r="G100" s="102"/>
+      <c r="H100" s="88"/>
     </row>
     <row r="101" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A101" s="116"/>
-      <c r="B101" s="116"/>
-      <c r="C101" s="116"/>
-      <c r="D101" s="116"/>
-      <c r="E101" s="116"/>
-      <c r="F101" s="47" t="s">
+      <c r="A101" s="85"/>
+      <c r="B101" s="85"/>
+      <c r="C101" s="85"/>
+      <c r="D101" s="85"/>
+      <c r="E101" s="85"/>
+      <c r="F101" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="G101" s="47" t="s">
+      <c r="G101" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="H101" s="47" t="s">
+      <c r="H101" s="45" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="117" t="s">
-        <v>193</v>
-      </c>
-      <c r="B102" s="117"/>
-      <c r="C102" s="117"/>
-      <c r="D102" s="117"/>
-      <c r="E102" s="117"/>
+      <c r="A102" s="103" t="s">
+        <v>167</v>
+      </c>
+      <c r="B102" s="103"/>
+      <c r="C102" s="103"/>
+      <c r="D102" s="103"/>
+      <c r="E102" s="103"/>
       <c r="F102" s="33"/>
       <c r="G102" s="33" t="s">
         <v>12</v>
@@ -4243,13 +4055,13 @@
       <c r="H102" s="33"/>
     </row>
     <row r="103" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="118" t="s">
+      <c r="A103" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="B103" s="118"/>
-      <c r="C103" s="118"/>
-      <c r="D103" s="118"/>
-      <c r="E103" s="118"/>
+      <c r="B103" s="92"/>
+      <c r="C103" s="92"/>
+      <c r="D103" s="92"/>
+      <c r="E103" s="92"/>
       <c r="F103" s="34" t="s">
         <v>12</v>
       </c>
@@ -4259,13 +4071,13 @@
       <c r="H103" s="34"/>
     </row>
     <row r="104" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="118" t="s">
+      <c r="A104" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="B104" s="118"/>
-      <c r="C104" s="118"/>
-      <c r="D104" s="118"/>
-      <c r="E104" s="118"/>
+      <c r="B104" s="92"/>
+      <c r="C104" s="92"/>
+      <c r="D104" s="92"/>
+      <c r="E104" s="92"/>
       <c r="F104" s="34" t="s">
         <v>12</v>
       </c>
@@ -4275,13 +4087,13 @@
       <c r="H104" s="34"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="118" t="s">
+      <c r="A105" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="B105" s="118"/>
-      <c r="C105" s="118"/>
-      <c r="D105" s="118"/>
-      <c r="E105" s="118"/>
+      <c r="B105" s="92"/>
+      <c r="C105" s="92"/>
+      <c r="D105" s="92"/>
+      <c r="E105" s="92"/>
       <c r="F105" s="34" t="s">
         <v>12</v>
       </c>
@@ -4291,13 +4103,13 @@
       <c r="H105" s="34"/>
     </row>
     <row r="106" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="117" t="s">
-        <v>192</v>
-      </c>
-      <c r="B106" s="117"/>
-      <c r="C106" s="117"/>
-      <c r="D106" s="117"/>
-      <c r="E106" s="117"/>
+      <c r="A106" s="103" t="s">
+        <v>166</v>
+      </c>
+      <c r="B106" s="103"/>
+      <c r="C106" s="103"/>
+      <c r="D106" s="103"/>
+      <c r="E106" s="103"/>
       <c r="F106" s="33"/>
       <c r="G106" s="33" t="s">
         <v>12</v>
@@ -4305,13 +4117,13 @@
       <c r="H106" s="33"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="118" t="s">
+      <c r="A107" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="B107" s="118"/>
-      <c r="C107" s="118"/>
-      <c r="D107" s="118"/>
-      <c r="E107" s="118"/>
+      <c r="B107" s="92"/>
+      <c r="C107" s="92"/>
+      <c r="D107" s="92"/>
+      <c r="E107" s="92"/>
       <c r="F107" s="34" t="s">
         <v>12</v>
       </c>
@@ -4321,13 +4133,13 @@
       <c r="H107" s="34"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="118" t="s">
+      <c r="A108" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="B108" s="118"/>
-      <c r="C108" s="118"/>
-      <c r="D108" s="118"/>
-      <c r="E108" s="118"/>
+      <c r="B108" s="92"/>
+      <c r="C108" s="92"/>
+      <c r="D108" s="92"/>
+      <c r="E108" s="92"/>
       <c r="F108" s="34" t="s">
         <v>12</v>
       </c>
@@ -4337,13 +4149,13 @@
       <c r="H108" s="34"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="118" t="s">
+      <c r="A109" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="B109" s="118"/>
-      <c r="C109" s="118"/>
-      <c r="D109" s="118"/>
-      <c r="E109" s="118"/>
+      <c r="B109" s="92"/>
+      <c r="C109" s="92"/>
+      <c r="D109" s="92"/>
+      <c r="E109" s="92"/>
       <c r="F109" s="34" t="s">
         <v>12</v>
       </c>
@@ -4353,13 +4165,13 @@
       <c r="H109" s="34"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" s="118" t="s">
+      <c r="A110" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="B110" s="118"/>
-      <c r="C110" s="118"/>
-      <c r="D110" s="118"/>
-      <c r="E110" s="118"/>
+      <c r="B110" s="92"/>
+      <c r="C110" s="92"/>
+      <c r="D110" s="92"/>
+      <c r="E110" s="92"/>
       <c r="F110" s="34" t="s">
         <v>12</v>
       </c>
@@ -4369,13 +4181,13 @@
       <c r="H110" s="34"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="118" t="s">
+      <c r="A111" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="B111" s="118"/>
-      <c r="C111" s="118"/>
-      <c r="D111" s="118"/>
-      <c r="E111" s="118"/>
+      <c r="B111" s="92"/>
+      <c r="C111" s="92"/>
+      <c r="D111" s="92"/>
+      <c r="E111" s="92"/>
       <c r="F111" s="34" t="s">
         <v>12</v>
       </c>
@@ -4385,13 +4197,13 @@
       <c r="H111" s="34"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="118" t="s">
+      <c r="A112" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="B112" s="118"/>
-      <c r="C112" s="118"/>
-      <c r="D112" s="118"/>
-      <c r="E112" s="118"/>
+      <c r="B112" s="92"/>
+      <c r="C112" s="92"/>
+      <c r="D112" s="92"/>
+      <c r="E112" s="92"/>
       <c r="F112" s="34" t="s">
         <v>12</v>
       </c>
@@ -4401,13 +4213,13 @@
       <c r="H112" s="34"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="118" t="s">
+      <c r="A113" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="B113" s="118"/>
-      <c r="C113" s="118"/>
-      <c r="D113" s="118"/>
-      <c r="E113" s="118"/>
+      <c r="B113" s="92"/>
+      <c r="C113" s="92"/>
+      <c r="D113" s="92"/>
+      <c r="E113" s="92"/>
       <c r="F113" s="34" t="s">
         <v>12</v>
       </c>
@@ -4417,13 +4229,13 @@
       <c r="H113" s="34"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="118" t="s">
+      <c r="A114" s="92" t="s">
         <v>90</v>
       </c>
-      <c r="B114" s="118"/>
-      <c r="C114" s="118"/>
-      <c r="D114" s="118"/>
-      <c r="E114" s="118"/>
+      <c r="B114" s="92"/>
+      <c r="C114" s="92"/>
+      <c r="D114" s="92"/>
+      <c r="E114" s="92"/>
       <c r="F114" s="34" t="s">
         <v>12</v>
       </c>
@@ -4433,13 +4245,13 @@
       <c r="H114" s="34"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="118" t="s">
+      <c r="A115" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="B115" s="118"/>
-      <c r="C115" s="118"/>
-      <c r="D115" s="118"/>
-      <c r="E115" s="118"/>
+      <c r="B115" s="92"/>
+      <c r="C115" s="92"/>
+      <c r="D115" s="92"/>
+      <c r="E115" s="92"/>
       <c r="F115" s="34" t="s">
         <v>12</v>
       </c>
@@ -4449,13 +4261,13 @@
       <c r="H115" s="34"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="118" t="s">
+      <c r="A116" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="B116" s="118"/>
-      <c r="C116" s="118"/>
-      <c r="D116" s="118"/>
-      <c r="E116" s="118"/>
+      <c r="B116" s="92"/>
+      <c r="C116" s="92"/>
+      <c r="D116" s="92"/>
+      <c r="E116" s="92"/>
       <c r="F116" s="34" t="s">
         <v>12</v>
       </c>
@@ -4465,13 +4277,13 @@
       <c r="H116" s="34"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="118" t="s">
+      <c r="A117" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="B117" s="118"/>
-      <c r="C117" s="118"/>
-      <c r="D117" s="118"/>
-      <c r="E117" s="118"/>
+      <c r="B117" s="92"/>
+      <c r="C117" s="92"/>
+      <c r="D117" s="92"/>
+      <c r="E117" s="92"/>
       <c r="F117" s="34" t="s">
         <v>12</v>
       </c>
@@ -4481,13 +4293,13 @@
       <c r="H117" s="34"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="118" t="s">
+      <c r="A118" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="B118" s="118"/>
-      <c r="C118" s="118"/>
-      <c r="D118" s="118"/>
-      <c r="E118" s="118"/>
+      <c r="B118" s="92"/>
+      <c r="C118" s="92"/>
+      <c r="D118" s="92"/>
+      <c r="E118" s="92"/>
       <c r="F118" s="34" t="s">
         <v>12</v>
       </c>
@@ -4497,13 +4309,13 @@
       <c r="H118" s="34"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="118" t="s">
+      <c r="A119" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="B119" s="118"/>
-      <c r="C119" s="118"/>
-      <c r="D119" s="118"/>
-      <c r="E119" s="118"/>
+      <c r="B119" s="92"/>
+      <c r="C119" s="92"/>
+      <c r="D119" s="92"/>
+      <c r="E119" s="92"/>
       <c r="F119" s="34" t="s">
         <v>12</v>
       </c>
@@ -4513,13 +4325,13 @@
       <c r="H119" s="34"/>
     </row>
     <row r="120" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="118" t="s">
+      <c r="A120" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="B120" s="118"/>
-      <c r="C120" s="118"/>
-      <c r="D120" s="118"/>
-      <c r="E120" s="118"/>
+      <c r="B120" s="92"/>
+      <c r="C120" s="92"/>
+      <c r="D120" s="92"/>
+      <c r="E120" s="92"/>
       <c r="F120" s="34" t="s">
         <v>12</v>
       </c>
@@ -4529,13 +4341,13 @@
       <c r="H120" s="34"/>
     </row>
     <row r="121" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="118" t="s">
+      <c r="A121" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="B121" s="118"/>
-      <c r="C121" s="118"/>
-      <c r="D121" s="118"/>
-      <c r="E121" s="118"/>
+      <c r="B121" s="92"/>
+      <c r="C121" s="92"/>
+      <c r="D121" s="92"/>
+      <c r="E121" s="92"/>
       <c r="F121" s="34" t="s">
         <v>12</v>
       </c>
@@ -4545,13 +4357,13 @@
       <c r="H121" s="34"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="118" t="s">
+      <c r="A122" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="B122" s="118"/>
-      <c r="C122" s="118"/>
-      <c r="D122" s="118"/>
-      <c r="E122" s="118"/>
+      <c r="B122" s="92"/>
+      <c r="C122" s="92"/>
+      <c r="D122" s="92"/>
+      <c r="E122" s="92"/>
       <c r="F122" s="34" t="s">
         <v>12</v>
       </c>
@@ -4561,13 +4373,13 @@
       <c r="H122" s="34"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="118" t="s">
+      <c r="A123" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="B123" s="118"/>
-      <c r="C123" s="118"/>
-      <c r="D123" s="118"/>
-      <c r="E123" s="118"/>
+      <c r="B123" s="92"/>
+      <c r="C123" s="92"/>
+      <c r="D123" s="92"/>
+      <c r="E123" s="92"/>
       <c r="F123" s="34" t="s">
         <v>12</v>
       </c>
@@ -4577,13 +4389,13 @@
       <c r="H123" s="34"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="118" t="s">
+      <c r="A124" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="B124" s="118"/>
-      <c r="C124" s="118"/>
-      <c r="D124" s="118"/>
-      <c r="E124" s="118"/>
+      <c r="B124" s="92"/>
+      <c r="C124" s="92"/>
+      <c r="D124" s="92"/>
+      <c r="E124" s="92"/>
       <c r="F124" s="34" t="s">
         <v>12</v>
       </c>
@@ -4593,13 +4405,13 @@
       <c r="H124" s="34"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" s="118" t="s">
+      <c r="A125" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="B125" s="118"/>
-      <c r="C125" s="118"/>
-      <c r="D125" s="118"/>
-      <c r="E125" s="118"/>
+      <c r="B125" s="92"/>
+      <c r="C125" s="92"/>
+      <c r="D125" s="92"/>
+      <c r="E125" s="92"/>
       <c r="F125" s="34" t="s">
         <v>12</v>
       </c>
@@ -4609,13 +4421,13 @@
       <c r="H125" s="34"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="118" t="s">
+      <c r="A126" s="92" t="s">
         <v>102</v>
       </c>
-      <c r="B126" s="118"/>
-      <c r="C126" s="118"/>
-      <c r="D126" s="118"/>
-      <c r="E126" s="118"/>
+      <c r="B126" s="92"/>
+      <c r="C126" s="92"/>
+      <c r="D126" s="92"/>
+      <c r="E126" s="92"/>
       <c r="F126" s="34" t="s">
         <v>12</v>
       </c>
@@ -4625,13 +4437,13 @@
       <c r="H126" s="34"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="118" t="s">
+      <c r="A127" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="B127" s="118"/>
-      <c r="C127" s="118"/>
-      <c r="D127" s="118"/>
-      <c r="E127" s="118"/>
+      <c r="B127" s="92"/>
+      <c r="C127" s="92"/>
+      <c r="D127" s="92"/>
+      <c r="E127" s="92"/>
       <c r="F127" s="34" t="s">
         <v>12</v>
       </c>
@@ -4641,13 +4453,13 @@
       <c r="H127" s="34"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="118" t="s">
+      <c r="A128" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="B128" s="118"/>
-      <c r="C128" s="118"/>
-      <c r="D128" s="118"/>
-      <c r="E128" s="118"/>
+      <c r="B128" s="92"/>
+      <c r="C128" s="92"/>
+      <c r="D128" s="92"/>
+      <c r="E128" s="92"/>
       <c r="F128" s="34" t="s">
         <v>12</v>
       </c>
@@ -4657,13 +4469,13 @@
       <c r="H128" s="34"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="118" t="s">
+      <c r="A129" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="B129" s="118"/>
-      <c r="C129" s="118"/>
-      <c r="D129" s="118"/>
-      <c r="E129" s="118"/>
+      <c r="B129" s="92"/>
+      <c r="C129" s="92"/>
+      <c r="D129" s="92"/>
+      <c r="E129" s="92"/>
       <c r="F129" s="34" t="s">
         <v>12</v>
       </c>
@@ -4673,13 +4485,13 @@
       <c r="H129" s="34"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="118" t="s">
+      <c r="A130" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="B130" s="118"/>
-      <c r="C130" s="118"/>
-      <c r="D130" s="118"/>
-      <c r="E130" s="118"/>
+      <c r="B130" s="92"/>
+      <c r="C130" s="92"/>
+      <c r="D130" s="92"/>
+      <c r="E130" s="92"/>
       <c r="F130" s="34" t="s">
         <v>12</v>
       </c>
@@ -4689,13 +4501,13 @@
       <c r="H130" s="34"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="118" t="s">
+      <c r="A131" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="B131" s="118"/>
-      <c r="C131" s="118"/>
-      <c r="D131" s="118"/>
-      <c r="E131" s="118"/>
+      <c r="B131" s="92"/>
+      <c r="C131" s="92"/>
+      <c r="D131" s="92"/>
+      <c r="E131" s="92"/>
       <c r="F131" s="34" t="s">
         <v>12</v>
       </c>
@@ -4705,13 +4517,13 @@
       <c r="H131" s="34"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="118" t="s">
+      <c r="A132" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="B132" s="118"/>
-      <c r="C132" s="118"/>
-      <c r="D132" s="118"/>
-      <c r="E132" s="118"/>
+      <c r="B132" s="92"/>
+      <c r="C132" s="92"/>
+      <c r="D132" s="92"/>
+      <c r="E132" s="92"/>
       <c r="F132" s="34" t="s">
         <v>12</v>
       </c>
@@ -4721,13 +4533,13 @@
       <c r="H132" s="34"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" s="118" t="s">
+      <c r="A133" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="B133" s="118"/>
-      <c r="C133" s="118"/>
-      <c r="D133" s="118"/>
-      <c r="E133" s="118"/>
+      <c r="B133" s="92"/>
+      <c r="C133" s="92"/>
+      <c r="D133" s="92"/>
+      <c r="E133" s="92"/>
       <c r="F133" s="34" t="s">
         <v>12</v>
       </c>
@@ -4737,13 +4549,13 @@
       <c r="H133" s="34"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="118" t="s">
+      <c r="A134" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="B134" s="118"/>
-      <c r="C134" s="118"/>
-      <c r="D134" s="118"/>
-      <c r="E134" s="118"/>
+      <c r="B134" s="92"/>
+      <c r="C134" s="92"/>
+      <c r="D134" s="92"/>
+      <c r="E134" s="92"/>
       <c r="F134" s="34" t="s">
         <v>12</v>
       </c>
@@ -4753,1917 +4565,1369 @@
       <c r="H134" s="34"/>
     </row>
     <row r="135" spans="1:8" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="131" t="s">
+      <c r="A135" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="B135" s="131"/>
-      <c r="C135" s="132"/>
-      <c r="D135" s="132"/>
-      <c r="E135" s="132"/>
-      <c r="F135" s="132"/>
-      <c r="G135" s="132"/>
-      <c r="H135" s="132"/>
+      <c r="B135" s="93"/>
+      <c r="C135" s="94"/>
+      <c r="D135" s="94"/>
+      <c r="E135" s="94"/>
+      <c r="F135" s="94"/>
+      <c r="G135" s="94"/>
+      <c r="H135" s="94"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="55"/>
-      <c r="B136" s="55"/>
-      <c r="C136" s="56"/>
-      <c r="D136" s="56"/>
-      <c r="E136" s="56"/>
-      <c r="F136" s="56"/>
-      <c r="G136" s="56"/>
-      <c r="H136" s="56"/>
+      <c r="A136" s="51"/>
+      <c r="B136" s="51"/>
+      <c r="C136" s="52"/>
+      <c r="D136" s="52"/>
+      <c r="E136" s="52"/>
+      <c r="F136" s="52"/>
+      <c r="G136" s="52"/>
+      <c r="H136" s="52"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A137" s="45"/>
-      <c r="B137" s="45"/>
-      <c r="C137" s="78" t="s">
-        <v>183</v>
-      </c>
-      <c r="D137" s="78"/>
-      <c r="E137" s="78"/>
-      <c r="F137" s="78"/>
-      <c r="G137" s="78"/>
-      <c r="H137" s="78"/>
+      <c r="A137" s="43"/>
+      <c r="B137" s="43"/>
+      <c r="C137" s="95" t="s">
+        <v>157</v>
+      </c>
+      <c r="D137" s="95"/>
+      <c r="E137" s="95"/>
+      <c r="F137" s="95"/>
+      <c r="G137" s="95"/>
+      <c r="H137" s="95"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A138" s="45"/>
-      <c r="B138" s="45"/>
-      <c r="C138" s="79"/>
-      <c r="D138" s="79"/>
-      <c r="E138" s="79"/>
-      <c r="F138" s="79"/>
-      <c r="G138" s="79"/>
-      <c r="H138" s="79"/>
+      <c r="A138" s="43"/>
+      <c r="B138" s="43"/>
+      <c r="C138" s="96"/>
+      <c r="D138" s="96"/>
+      <c r="E138" s="96"/>
+      <c r="F138" s="96"/>
+      <c r="G138" s="96"/>
+      <c r="H138" s="96"/>
     </row>
     <row r="139" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="112" t="s">
+      <c r="A139" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B139" s="113"/>
-      <c r="C139" s="122" t="str">
+      <c r="B139" s="67"/>
+      <c r="C139" s="89" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D139" s="123"/>
-      <c r="E139" s="123"/>
-      <c r="F139" s="123"/>
-      <c r="G139" s="128"/>
-      <c r="H139" s="119"/>
+      <c r="D139" s="90"/>
+      <c r="E139" s="90"/>
+      <c r="F139" s="90"/>
+      <c r="G139" s="91"/>
+      <c r="H139" s="86"/>
     </row>
     <row r="140" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="112" t="s">
+      <c r="A140" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B140" s="113"/>
-      <c r="C140" s="122" t="str">
+      <c r="B140" s="67"/>
+      <c r="C140" s="89" t="str">
         <f>$C$4</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D140" s="123"/>
-      <c r="E140" s="123"/>
-      <c r="F140" s="123"/>
-      <c r="G140" s="128"/>
-      <c r="H140" s="120"/>
+      <c r="D140" s="90"/>
+      <c r="E140" s="90"/>
+      <c r="F140" s="90"/>
+      <c r="G140" s="91"/>
+      <c r="H140" s="87"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="112" t="s">
+      <c r="A141" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B141" s="113"/>
-      <c r="C141" s="122" t="str">
+      <c r="B141" s="67"/>
+      <c r="C141" s="89" t="str">
         <f>$C$5</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D141" s="123"/>
-      <c r="E141" s="123"/>
-      <c r="F141" s="123"/>
-      <c r="G141" s="128"/>
-      <c r="H141" s="120"/>
+      <c r="D141" s="90"/>
+      <c r="E141" s="90"/>
+      <c r="F141" s="90"/>
+      <c r="G141" s="91"/>
+      <c r="H141" s="87"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="112" t="s">
+      <c r="A142" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B142" s="113"/>
-      <c r="C142" s="122" t="str">
+      <c r="B142" s="67"/>
+      <c r="C142" s="89" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
-      <c r="D142" s="123"/>
-      <c r="E142" s="123"/>
-      <c r="F142" s="123"/>
-      <c r="G142" s="128"/>
-      <c r="H142" s="121"/>
+      <c r="D142" s="90"/>
+      <c r="E142" s="90"/>
+      <c r="F142" s="90"/>
+      <c r="G142" s="91"/>
+      <c r="H142" s="88"/>
     </row>
     <row r="143" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="141" t="s">
+      <c r="A143" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="B143" s="142"/>
-      <c r="C143" s="141" t="s">
+      <c r="B143" s="83"/>
+      <c r="C143" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="D143" s="143"/>
-      <c r="E143" s="143"/>
+      <c r="D143" s="84"/>
+      <c r="E143" s="84"/>
       <c r="F143" s="35"/>
-      <c r="G143" s="116" t="s">
-        <v>12</v>
-      </c>
-      <c r="H143" s="116"/>
+      <c r="G143" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="H143" s="85"/>
     </row>
     <row r="144" spans="1:8" s="37" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="133" t="s">
+      <c r="A144" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="B144" s="134"/>
-      <c r="C144" s="134"/>
-      <c r="D144" s="134"/>
-      <c r="E144" s="135"/>
+      <c r="B144" s="79"/>
+      <c r="C144" s="79"/>
+      <c r="D144" s="79"/>
+      <c r="E144" s="80"/>
       <c r="F144" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="G144" s="136" t="s">
+      <c r="G144" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="H144" s="136"/>
+      <c r="H144" s="81"/>
     </row>
     <row r="145" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="137" t="s">
+      <c r="A145" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="B145" s="138"/>
-      <c r="C145" s="138"/>
-      <c r="D145" s="138"/>
-      <c r="E145" s="139"/>
+      <c r="B145" s="69"/>
+      <c r="C145" s="69"/>
+      <c r="D145" s="69"/>
+      <c r="E145" s="70"/>
       <c r="F145" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G145" s="140" t="s">
+      <c r="G145" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="H145" s="140"/>
+      <c r="H145" s="71"/>
     </row>
     <row r="146" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="137" t="s">
+      <c r="A146" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="B146" s="138"/>
-      <c r="C146" s="138"/>
-      <c r="D146" s="138"/>
-      <c r="E146" s="139"/>
+      <c r="B146" s="69"/>
+      <c r="C146" s="69"/>
+      <c r="D146" s="69"/>
+      <c r="E146" s="70"/>
       <c r="F146" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G146" s="140" t="s">
+      <c r="G146" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="H146" s="140"/>
+      <c r="H146" s="71"/>
     </row>
     <row r="147" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="137" t="s">
+      <c r="A147" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="B147" s="138"/>
-      <c r="C147" s="138"/>
-      <c r="D147" s="138"/>
-      <c r="E147" s="139"/>
+      <c r="B147" s="69"/>
+      <c r="C147" s="69"/>
+      <c r="D147" s="69"/>
+      <c r="E147" s="70"/>
       <c r="F147" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G147" s="140" t="s">
+      <c r="G147" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="H147" s="140"/>
+      <c r="H147" s="71"/>
     </row>
     <row r="148" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="137" t="s">
+      <c r="A148" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="B148" s="138"/>
-      <c r="C148" s="138"/>
-      <c r="D148" s="138"/>
-      <c r="E148" s="139"/>
+      <c r="B148" s="69"/>
+      <c r="C148" s="69"/>
+      <c r="D148" s="69"/>
+      <c r="E148" s="70"/>
       <c r="F148" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G148" s="140" t="s">
+      <c r="G148" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="H148" s="140"/>
+      <c r="H148" s="71"/>
     </row>
     <row r="149" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="137" t="s">
+      <c r="A149" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="B149" s="138"/>
-      <c r="C149" s="138"/>
-      <c r="D149" s="138"/>
-      <c r="E149" s="139"/>
+      <c r="B149" s="69"/>
+      <c r="C149" s="69"/>
+      <c r="D149" s="69"/>
+      <c r="E149" s="70"/>
       <c r="F149" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G149" s="140" t="s">
+      <c r="G149" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="H149" s="140"/>
+      <c r="H149" s="71"/>
     </row>
     <row r="150" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="137" t="s">
+      <c r="A150" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="B150" s="138"/>
-      <c r="C150" s="138"/>
-      <c r="D150" s="138"/>
-      <c r="E150" s="139"/>
+      <c r="B150" s="69"/>
+      <c r="C150" s="69"/>
+      <c r="D150" s="69"/>
+      <c r="E150" s="70"/>
       <c r="F150" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G150" s="140" t="s">
+      <c r="G150" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="H150" s="140"/>
+      <c r="H150" s="71"/>
     </row>
     <row r="151" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="137" t="s">
+      <c r="A151" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="B151" s="138"/>
-      <c r="C151" s="138"/>
-      <c r="D151" s="138"/>
-      <c r="E151" s="139"/>
+      <c r="B151" s="69"/>
+      <c r="C151" s="69"/>
+      <c r="D151" s="69"/>
+      <c r="E151" s="70"/>
       <c r="F151" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G151" s="140" t="s">
+      <c r="G151" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="H151" s="140"/>
+      <c r="H151" s="71"/>
     </row>
     <row r="152" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="137" t="s">
-        <v>174</v>
-      </c>
-      <c r="B152" s="138"/>
-      <c r="C152" s="138"/>
-      <c r="D152" s="138"/>
-      <c r="E152" s="139"/>
+      <c r="A152" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="B152" s="69"/>
+      <c r="C152" s="69"/>
+      <c r="D152" s="69"/>
+      <c r="E152" s="70"/>
       <c r="F152" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G152" s="140" t="s">
+      <c r="G152" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="H152" s="140"/>
+      <c r="H152" s="71"/>
     </row>
     <row r="153" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="137" t="s">
+      <c r="A153" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="B153" s="138"/>
-      <c r="C153" s="138"/>
-      <c r="D153" s="138"/>
-      <c r="E153" s="139"/>
+      <c r="B153" s="69"/>
+      <c r="C153" s="69"/>
+      <c r="D153" s="69"/>
+      <c r="E153" s="70"/>
       <c r="F153" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G153" s="140" t="s">
+      <c r="G153" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="H153" s="140"/>
+      <c r="H153" s="71"/>
     </row>
     <row r="154" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="137" t="s">
+      <c r="A154" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="B154" s="138"/>
-      <c r="C154" s="138"/>
-      <c r="D154" s="138"/>
-      <c r="E154" s="139"/>
+      <c r="B154" s="69"/>
+      <c r="C154" s="69"/>
+      <c r="D154" s="69"/>
+      <c r="E154" s="70"/>
       <c r="F154" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G154" s="140" t="s">
+      <c r="G154" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="H154" s="140"/>
+      <c r="H154" s="71"/>
     </row>
     <row r="155" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="137" t="s">
+      <c r="A155" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="B155" s="138"/>
-      <c r="C155" s="138"/>
-      <c r="D155" s="138"/>
-      <c r="E155" s="139"/>
+      <c r="B155" s="69"/>
+      <c r="C155" s="69"/>
+      <c r="D155" s="69"/>
+      <c r="E155" s="70"/>
       <c r="F155" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G155" s="140" t="s">
+      <c r="G155" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="H155" s="140"/>
+      <c r="H155" s="71"/>
     </row>
     <row r="156" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="137" t="s">
+      <c r="A156" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="B156" s="138"/>
-      <c r="C156" s="138"/>
-      <c r="D156" s="138"/>
-      <c r="E156" s="139"/>
+      <c r="B156" s="69"/>
+      <c r="C156" s="69"/>
+      <c r="D156" s="69"/>
+      <c r="E156" s="70"/>
       <c r="F156" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G156" s="140" t="s">
+      <c r="G156" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="H156" s="140"/>
+      <c r="H156" s="71"/>
     </row>
     <row r="157" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="137" t="s">
+      <c r="A157" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="B157" s="138"/>
-      <c r="C157" s="138"/>
-      <c r="D157" s="138"/>
-      <c r="E157" s="139"/>
+      <c r="B157" s="69"/>
+      <c r="C157" s="69"/>
+      <c r="D157" s="69"/>
+      <c r="E157" s="70"/>
       <c r="F157" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G157" s="140" t="s">
+      <c r="G157" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="H157" s="140"/>
+      <c r="H157" s="71"/>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="137" t="s">
+      <c r="A158" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="B158" s="138"/>
-      <c r="C158" s="138"/>
-      <c r="D158" s="138"/>
-      <c r="E158" s="139"/>
+      <c r="B158" s="69"/>
+      <c r="C158" s="69"/>
+      <c r="D158" s="69"/>
+      <c r="E158" s="70"/>
       <c r="F158" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G158" s="140" t="s">
+      <c r="G158" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="H158" s="140"/>
+      <c r="H158" s="71"/>
     </row>
     <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="137" t="s">
+      <c r="A159" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="B159" s="138"/>
-      <c r="C159" s="138"/>
-      <c r="D159" s="138"/>
-      <c r="E159" s="139"/>
+      <c r="B159" s="69"/>
+      <c r="C159" s="69"/>
+      <c r="D159" s="69"/>
+      <c r="E159" s="70"/>
       <c r="F159" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G159" s="140" t="s">
+      <c r="G159" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="H159" s="140"/>
+      <c r="H159" s="71"/>
     </row>
     <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="137" t="s">
+      <c r="A160" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="B160" s="138"/>
-      <c r="C160" s="138"/>
-      <c r="D160" s="138"/>
-      <c r="E160" s="139"/>
+      <c r="B160" s="69"/>
+      <c r="C160" s="69"/>
+      <c r="D160" s="69"/>
+      <c r="E160" s="70"/>
       <c r="F160" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G160" s="140" t="s">
+      <c r="G160" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="H160" s="140"/>
+      <c r="H160" s="71"/>
     </row>
     <row r="161" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="137" t="s">
+      <c r="A161" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="B161" s="138"/>
-      <c r="C161" s="138"/>
-      <c r="D161" s="138"/>
-      <c r="E161" s="139"/>
+      <c r="B161" s="69"/>
+      <c r="C161" s="69"/>
+      <c r="D161" s="69"/>
+      <c r="E161" s="70"/>
       <c r="F161" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G161" s="140" t="s">
+      <c r="G161" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="H161" s="140"/>
+      <c r="H161" s="71"/>
     </row>
     <row r="162" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="137" t="s">
+      <c r="A162" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="B162" s="138"/>
-      <c r="C162" s="138"/>
-      <c r="D162" s="138"/>
-      <c r="E162" s="139"/>
+      <c r="B162" s="69"/>
+      <c r="C162" s="69"/>
+      <c r="D162" s="69"/>
+      <c r="E162" s="70"/>
       <c r="F162" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G162" s="140" t="s">
+      <c r="G162" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="H162" s="140"/>
+      <c r="H162" s="71"/>
     </row>
     <row r="163" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="137" t="s">
-        <v>177</v>
-      </c>
-      <c r="B163" s="138"/>
-      <c r="C163" s="138"/>
-      <c r="D163" s="138"/>
-      <c r="E163" s="139"/>
+      <c r="A163" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="B163" s="69"/>
+      <c r="C163" s="69"/>
+      <c r="D163" s="69"/>
+      <c r="E163" s="70"/>
       <c r="F163" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G163" s="140" t="s">
+      <c r="G163" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="H163" s="140"/>
+      <c r="H163" s="71"/>
     </row>
     <row r="164" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="137" t="s">
+      <c r="A164" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="B164" s="138"/>
-      <c r="C164" s="138"/>
-      <c r="D164" s="138"/>
-      <c r="E164" s="139"/>
+      <c r="B164" s="69"/>
+      <c r="C164" s="69"/>
+      <c r="D164" s="69"/>
+      <c r="E164" s="70"/>
       <c r="F164" s="25"/>
-      <c r="G164" s="140" t="s">
+      <c r="G164" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="H164" s="140"/>
+      <c r="H164" s="71"/>
     </row>
     <row r="165" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="137" t="s">
-        <v>175</v>
-      </c>
-      <c r="B165" s="138"/>
-      <c r="C165" s="138"/>
-      <c r="D165" s="138"/>
-      <c r="E165" s="139"/>
+      <c r="A165" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="B165" s="69"/>
+      <c r="C165" s="69"/>
+      <c r="D165" s="69"/>
+      <c r="E165" s="70"/>
       <c r="F165" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G165" s="140" t="s">
+      <c r="G165" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="H165" s="140"/>
+      <c r="H165" s="71"/>
     </row>
     <row r="166" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="137" t="s">
+      <c r="A166" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="B166" s="138"/>
-      <c r="C166" s="138"/>
-      <c r="D166" s="138"/>
-      <c r="E166" s="139"/>
+      <c r="B166" s="69"/>
+      <c r="C166" s="69"/>
+      <c r="D166" s="69"/>
+      <c r="E166" s="70"/>
       <c r="F166" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G166" s="140" t="s">
+      <c r="G166" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="H166" s="140"/>
+      <c r="H166" s="71"/>
     </row>
     <row r="167" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="137" t="s">
+      <c r="A167" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="B167" s="138"/>
-      <c r="C167" s="138"/>
-      <c r="D167" s="138"/>
-      <c r="E167" s="139"/>
+      <c r="B167" s="69"/>
+      <c r="C167" s="69"/>
+      <c r="D167" s="69"/>
+      <c r="E167" s="70"/>
       <c r="F167" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G167" s="140" t="s">
+      <c r="G167" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="H167" s="140"/>
+      <c r="H167" s="71"/>
     </row>
     <row r="168" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="137" t="s">
-        <v>176</v>
-      </c>
-      <c r="B168" s="138"/>
-      <c r="C168" s="138"/>
-      <c r="D168" s="138"/>
-      <c r="E168" s="139"/>
+      <c r="A168" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="B168" s="69"/>
+      <c r="C168" s="69"/>
+      <c r="D168" s="69"/>
+      <c r="E168" s="70"/>
       <c r="F168" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G168" s="140" t="s">
+      <c r="G168" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="H168" s="140"/>
+      <c r="H168" s="71"/>
     </row>
     <row r="169" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="137" t="s">
+      <c r="A169" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="B169" s="138"/>
-      <c r="C169" s="138"/>
-      <c r="D169" s="138"/>
-      <c r="E169" s="139"/>
+      <c r="B169" s="69"/>
+      <c r="C169" s="69"/>
+      <c r="D169" s="69"/>
+      <c r="E169" s="70"/>
       <c r="F169" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G169" s="140" t="s">
+      <c r="G169" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="H169" s="140"/>
+      <c r="H169" s="71"/>
     </row>
     <row r="170" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="144" t="s">
+      <c r="A170" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="B170" s="145"/>
-      <c r="C170" s="145"/>
-      <c r="D170" s="145"/>
-      <c r="E170" s="146"/>
+      <c r="B170" s="76"/>
+      <c r="C170" s="76"/>
+      <c r="D170" s="76"/>
+      <c r="E170" s="77"/>
       <c r="F170" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G170" s="140" t="s">
+      <c r="G170" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="H170" s="140"/>
+      <c r="H170" s="71"/>
     </row>
     <row r="171" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="137" t="s">
+      <c r="A171" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="B171" s="138"/>
-      <c r="C171" s="138"/>
-      <c r="D171" s="138"/>
-      <c r="E171" s="139"/>
+      <c r="B171" s="69"/>
+      <c r="C171" s="69"/>
+      <c r="D171" s="69"/>
+      <c r="E171" s="70"/>
       <c r="F171" s="25"/>
-      <c r="G171" s="140" t="s">
+      <c r="G171" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="H171" s="140"/>
+      <c r="H171" s="71"/>
     </row>
     <row r="172" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="137" t="s">
+      <c r="A172" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="B172" s="138"/>
-      <c r="C172" s="138"/>
-      <c r="D172" s="138"/>
-      <c r="E172" s="139"/>
+      <c r="B172" s="69"/>
+      <c r="C172" s="69"/>
+      <c r="D172" s="69"/>
+      <c r="E172" s="70"/>
       <c r="F172" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="G172" s="140" t="s">
+      <c r="G172" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="H172" s="140"/>
+      <c r="H172" s="71"/>
     </row>
     <row r="173" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="137" t="s">
-        <v>172</v>
-      </c>
-      <c r="B173" s="138"/>
-      <c r="C173" s="138"/>
-      <c r="D173" s="138"/>
-      <c r="E173" s="139"/>
+      <c r="A173" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="B173" s="69"/>
+      <c r="C173" s="69"/>
+      <c r="D173" s="69"/>
+      <c r="E173" s="70"/>
       <c r="F173" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="G173" s="140" t="s">
+      <c r="G173" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="H173" s="140"/>
+      <c r="H173" s="71"/>
     </row>
     <row r="174" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="137" t="s">
-        <v>173</v>
-      </c>
-      <c r="B174" s="138"/>
-      <c r="C174" s="138"/>
-      <c r="D174" s="138"/>
-      <c r="E174" s="139"/>
+      <c r="A174" s="68" t="s">
+        <v>147</v>
+      </c>
+      <c r="B174" s="69"/>
+      <c r="C174" s="69"/>
+      <c r="D174" s="69"/>
+      <c r="E174" s="70"/>
       <c r="F174" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="G174" s="140" t="s">
+      <c r="G174" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="H174" s="140"/>
+      <c r="H174" s="71"/>
     </row>
     <row r="175" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="137" t="s">
+      <c r="A175" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="B175" s="138"/>
-      <c r="C175" s="138"/>
-      <c r="D175" s="138"/>
-      <c r="E175" s="139"/>
+      <c r="B175" s="69"/>
+      <c r="C175" s="69"/>
+      <c r="D175" s="69"/>
+      <c r="E175" s="70"/>
       <c r="F175" s="25"/>
-      <c r="G175" s="140" t="s">
+      <c r="G175" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="H175" s="140"/>
+      <c r="H175" s="71"/>
     </row>
     <row r="176" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="137" t="s">
+      <c r="A176" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="B176" s="138"/>
-      <c r="C176" s="138"/>
-      <c r="D176" s="138"/>
-      <c r="E176" s="139"/>
+      <c r="B176" s="69"/>
+      <c r="C176" s="69"/>
+      <c r="D176" s="69"/>
+      <c r="E176" s="70"/>
       <c r="F176" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G176" s="140" t="s">
+      <c r="G176" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="H176" s="140"/>
+      <c r="H176" s="71"/>
     </row>
     <row r="177" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="147" t="s">
+      <c r="A177" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="B177" s="148"/>
-      <c r="C177" s="148"/>
-      <c r="D177" s="148"/>
-      <c r="E177" s="148"/>
-      <c r="F177" s="148"/>
-      <c r="G177" s="148"/>
-      <c r="H177" s="149"/>
+      <c r="B177" s="73"/>
+      <c r="C177" s="73"/>
+      <c r="D177" s="73"/>
+      <c r="E177" s="73"/>
+      <c r="F177" s="73"/>
+      <c r="G177" s="73"/>
+      <c r="H177" s="74"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A178" s="55"/>
-      <c r="B178" s="55"/>
-      <c r="C178" s="55"/>
-      <c r="D178" s="55"/>
-      <c r="E178" s="55"/>
-      <c r="F178" s="55"/>
-      <c r="G178" s="55"/>
-      <c r="H178" s="55"/>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A179" s="45"/>
-      <c r="B179" s="45"/>
-      <c r="C179" s="150" t="s">
-        <v>146</v>
-      </c>
-      <c r="D179" s="150"/>
-      <c r="E179" s="150"/>
-      <c r="F179" s="150"/>
-      <c r="G179" s="150"/>
-      <c r="H179" s="150"/>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A180" s="45"/>
-      <c r="B180" s="45"/>
-      <c r="C180" s="151"/>
-      <c r="D180" s="151"/>
-      <c r="E180" s="151"/>
-      <c r="F180" s="151"/>
-      <c r="G180" s="151"/>
-      <c r="H180" s="151"/>
-    </row>
-    <row r="181" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="112" t="s">
+      <c r="A178" s="51"/>
+      <c r="B178" s="51"/>
+      <c r="C178" s="51"/>
+      <c r="D178" s="51"/>
+      <c r="E178" s="51"/>
+      <c r="F178" s="51"/>
+      <c r="G178" s="51"/>
+      <c r="H178" s="51"/>
+    </row>
+    <row r="180" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H180" s="63"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B181" s="113"/>
-      <c r="C181" s="163" t="str">
+      <c r="B181" s="151"/>
+      <c r="C181" s="155" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D181" s="164"/>
-      <c r="E181" s="164"/>
-      <c r="F181" s="164"/>
-      <c r="G181" s="165"/>
-      <c r="H181" s="160"/>
+      <c r="D181" s="151"/>
+      <c r="E181" s="151"/>
+      <c r="F181" s="151"/>
+      <c r="G181" s="156"/>
+      <c r="H181" s="164"/>
     </row>
     <row r="182" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="112" t="s">
+      <c r="A182" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="B182" s="113"/>
-      <c r="C182" s="163" t="str">
+      <c r="B182" s="141"/>
+      <c r="C182" s="157" t="str">
         <f>$C$4</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D182" s="164"/>
-      <c r="E182" s="164"/>
-      <c r="F182" s="164"/>
-      <c r="G182" s="165"/>
-      <c r="H182" s="161"/>
+      <c r="D182" s="158"/>
+      <c r="E182" s="158"/>
+      <c r="F182" s="158"/>
+      <c r="G182" s="159"/>
+      <c r="H182" s="164"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A183" s="112" t="s">
-        <v>9</v>
-      </c>
-      <c r="B183" s="113"/>
-      <c r="C183" s="163" t="str">
+      <c r="A183" s="140" t="s">
+        <v>2</v>
+      </c>
+      <c r="B183" s="141"/>
+      <c r="C183" s="160" t="str">
         <f>$C$5</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D183" s="164"/>
-      <c r="E183" s="164"/>
-      <c r="F183" s="164"/>
-      <c r="G183" s="165"/>
-      <c r="H183" s="161"/>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A184" s="112" t="s">
+      <c r="D183" s="141"/>
+      <c r="E183" s="141"/>
+      <c r="F183" s="141"/>
+      <c r="G183" s="161"/>
+      <c r="H183" s="164"/>
+    </row>
+    <row r="184" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="B184" s="159"/>
-      <c r="C184" s="163" t="str">
+      <c r="B184" s="143"/>
+      <c r="C184" s="162" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
-      <c r="D184" s="164"/>
-      <c r="E184" s="164"/>
-      <c r="F184" s="164"/>
-      <c r="G184" s="165"/>
-      <c r="H184" s="162"/>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A186" s="152" t="s">
-        <v>147</v>
-      </c>
-      <c r="B186" s="153"/>
-      <c r="C186" s="154" t="s">
-        <v>148</v>
-      </c>
-      <c r="D186" s="154"/>
-      <c r="E186" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="F186" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="G186" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="H186" s="39" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A187" s="155" t="s">
-        <v>153</v>
-      </c>
-      <c r="B187" s="156"/>
-      <c r="C187" s="157" t="s">
-        <v>154</v>
-      </c>
-      <c r="D187" s="157"/>
-      <c r="E187" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="F187" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="G187" s="50" t="s">
-        <v>157</v>
-      </c>
-      <c r="H187" s="40" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A188" s="158" t="s">
-        <v>159</v>
-      </c>
-      <c r="B188" s="158"/>
-      <c r="C188" s="158" t="s">
-        <v>160</v>
-      </c>
-      <c r="D188" s="158"/>
-      <c r="E188" s="33"/>
-      <c r="F188" s="33"/>
-      <c r="G188" s="33"/>
-      <c r="H188" s="33"/>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A189" s="158" t="s">
-        <v>161</v>
-      </c>
-      <c r="B189" s="158"/>
-      <c r="C189" s="158" t="s">
-        <v>160</v>
-      </c>
-      <c r="D189" s="158"/>
-      <c r="E189" s="33"/>
-      <c r="F189" s="33"/>
-      <c r="G189" s="33"/>
-      <c r="H189" s="33"/>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A190" s="158" t="s">
-        <v>162</v>
-      </c>
-      <c r="B190" s="158"/>
-      <c r="C190" s="158" t="s">
-        <v>160</v>
-      </c>
-      <c r="D190" s="158"/>
-      <c r="E190" s="33"/>
-      <c r="F190" s="33"/>
-      <c r="G190" s="33"/>
-      <c r="H190" s="33"/>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A191" s="158" t="s">
-        <v>163</v>
-      </c>
-      <c r="B191" s="158"/>
-      <c r="C191" s="158" t="s">
-        <v>160</v>
-      </c>
-      <c r="D191" s="158"/>
-      <c r="E191" s="33"/>
-      <c r="F191" s="33"/>
-      <c r="G191" s="33"/>
-      <c r="H191" s="33"/>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A192" s="158" t="s">
-        <v>164</v>
-      </c>
-      <c r="B192" s="158"/>
-      <c r="C192" s="158" t="s">
-        <v>160</v>
-      </c>
-      <c r="D192" s="158"/>
-      <c r="E192" s="33"/>
-      <c r="F192" s="33"/>
-      <c r="G192" s="33"/>
-      <c r="H192" s="33"/>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A193" s="158" t="s">
-        <v>165</v>
-      </c>
-      <c r="B193" s="158"/>
-      <c r="C193" s="158" t="s">
-        <v>160</v>
-      </c>
-      <c r="D193" s="158"/>
-      <c r="E193" s="33"/>
-      <c r="F193" s="33"/>
-      <c r="G193" s="33"/>
-      <c r="H193" s="33"/>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A194" s="158" t="s">
-        <v>163</v>
-      </c>
-      <c r="B194" s="158"/>
-      <c r="C194" s="158" t="s">
-        <v>166</v>
-      </c>
-      <c r="D194" s="158"/>
-      <c r="E194" s="33"/>
-      <c r="F194" s="33"/>
-      <c r="G194" s="33"/>
-      <c r="H194" s="33"/>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A195" s="158" t="s">
-        <v>167</v>
-      </c>
-      <c r="B195" s="158"/>
-      <c r="C195" s="158" t="s">
-        <v>166</v>
-      </c>
-      <c r="D195" s="158"/>
-      <c r="E195" s="33"/>
-      <c r="F195" s="33"/>
-      <c r="G195" s="33"/>
-      <c r="H195" s="33"/>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A196" s="158" t="s">
-        <v>168</v>
-      </c>
-      <c r="B196" s="158"/>
-      <c r="C196" s="158" t="s">
-        <v>166</v>
-      </c>
-      <c r="D196" s="158"/>
-      <c r="E196" s="33"/>
-      <c r="F196" s="33"/>
-      <c r="G196" s="33"/>
-      <c r="H196" s="33"/>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A197" s="158" t="s">
-        <v>169</v>
-      </c>
-      <c r="B197" s="158"/>
-      <c r="C197" s="158" t="s">
-        <v>166</v>
-      </c>
-      <c r="D197" s="158"/>
-      <c r="E197" s="33"/>
-      <c r="F197" s="33"/>
-      <c r="G197" s="33"/>
-      <c r="H197" s="33"/>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A198" s="158" t="s">
-        <v>170</v>
-      </c>
-      <c r="B198" s="158"/>
-      <c r="C198" s="158" t="s">
-        <v>166</v>
-      </c>
-      <c r="D198" s="158"/>
-      <c r="E198" s="33"/>
-      <c r="F198" s="33"/>
-      <c r="G198" s="33"/>
-      <c r="H198" s="33"/>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A199" s="158" t="s">
-        <v>171</v>
-      </c>
-      <c r="B199" s="158"/>
-      <c r="C199" s="158" t="s">
-        <v>166</v>
-      </c>
-      <c r="D199" s="158"/>
-      <c r="E199" s="33"/>
-      <c r="F199" s="33"/>
-      <c r="G199" s="33"/>
-      <c r="H199" s="33"/>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A200" s="166"/>
-      <c r="B200" s="166"/>
-      <c r="C200" s="166"/>
-      <c r="D200" s="166"/>
-      <c r="E200" s="33"/>
-      <c r="F200" s="33"/>
-      <c r="G200" s="33"/>
-      <c r="H200" s="33"/>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A201" s="166"/>
-      <c r="B201" s="166"/>
-      <c r="C201" s="166"/>
-      <c r="D201" s="166"/>
-      <c r="E201" s="33"/>
-      <c r="F201" s="33"/>
-      <c r="G201" s="33"/>
-      <c r="H201" s="33"/>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A202" s="166"/>
-      <c r="B202" s="166"/>
-      <c r="C202" s="166"/>
-      <c r="D202" s="166"/>
-      <c r="E202" s="33"/>
-      <c r="F202" s="33"/>
-      <c r="G202" s="33"/>
-      <c r="H202" s="33"/>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A203" s="166"/>
-      <c r="B203" s="166"/>
-      <c r="C203" s="166"/>
-      <c r="D203" s="166"/>
-      <c r="E203" s="33"/>
-      <c r="F203" s="33"/>
-      <c r="G203" s="33"/>
-      <c r="H203" s="33"/>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A204" s="166"/>
-      <c r="B204" s="166"/>
-      <c r="C204" s="166"/>
-      <c r="D204" s="166"/>
-      <c r="E204" s="33"/>
-      <c r="F204" s="33"/>
-      <c r="G204" s="33"/>
-      <c r="H204" s="33"/>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A205" s="166"/>
-      <c r="B205" s="166"/>
-      <c r="C205" s="166"/>
-      <c r="D205" s="166"/>
-      <c r="E205" s="33"/>
-      <c r="F205" s="33"/>
-      <c r="G205" s="33"/>
-      <c r="H205" s="33"/>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A206" s="166"/>
-      <c r="B206" s="166"/>
-      <c r="C206" s="166"/>
-      <c r="D206" s="166"/>
-      <c r="E206" s="33"/>
-      <c r="F206" s="33"/>
-      <c r="G206" s="33"/>
-      <c r="H206" s="33"/>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A207" s="166"/>
-      <c r="B207" s="166"/>
-      <c r="C207" s="166"/>
-      <c r="D207" s="166"/>
-      <c r="E207" s="33"/>
-      <c r="F207" s="33"/>
-      <c r="G207" s="33"/>
-      <c r="H207" s="33"/>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A208" s="166"/>
-      <c r="B208" s="166"/>
-      <c r="C208" s="166"/>
-      <c r="D208" s="166"/>
-      <c r="E208" s="33"/>
-      <c r="F208" s="33"/>
-      <c r="G208" s="33"/>
-      <c r="H208" s="33"/>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A209" s="166"/>
-      <c r="B209" s="166"/>
-      <c r="C209" s="166"/>
-      <c r="D209" s="166"/>
-      <c r="E209" s="33"/>
-      <c r="F209" s="33"/>
-      <c r="G209" s="33"/>
-      <c r="H209" s="33"/>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A210" s="166"/>
-      <c r="B210" s="166"/>
-      <c r="C210" s="166"/>
-      <c r="D210" s="166"/>
-      <c r="E210" s="33"/>
-      <c r="F210" s="33"/>
-      <c r="G210" s="33"/>
-      <c r="H210" s="33"/>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A211" s="166"/>
-      <c r="B211" s="166"/>
-      <c r="C211" s="166"/>
-      <c r="D211" s="166"/>
-      <c r="E211" s="33"/>
-      <c r="F211" s="33"/>
-      <c r="G211" s="33"/>
-      <c r="H211" s="33"/>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A212" s="166"/>
-      <c r="B212" s="166"/>
-      <c r="C212" s="166"/>
-      <c r="D212" s="166"/>
-      <c r="E212" s="33"/>
-      <c r="F212" s="33"/>
-      <c r="G212" s="33"/>
-      <c r="H212" s="33"/>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A213" s="166"/>
-      <c r="B213" s="166"/>
-      <c r="C213" s="166"/>
-      <c r="D213" s="166"/>
-      <c r="E213" s="33"/>
-      <c r="F213" s="33"/>
-      <c r="G213" s="33"/>
-      <c r="H213" s="33"/>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A214" s="166"/>
-      <c r="B214" s="166"/>
-      <c r="C214" s="166"/>
-      <c r="D214" s="166"/>
-      <c r="E214" s="33"/>
-      <c r="F214" s="33"/>
-      <c r="G214" s="33"/>
-      <c r="H214" s="33"/>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A215" s="166"/>
-      <c r="B215" s="166"/>
-      <c r="C215" s="166"/>
-      <c r="D215" s="166"/>
-      <c r="E215" s="33"/>
-      <c r="F215" s="33"/>
-      <c r="G215" s="33"/>
-      <c r="H215" s="33"/>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A216" s="166"/>
-      <c r="B216" s="166"/>
-      <c r="C216" s="166"/>
-      <c r="D216" s="166"/>
-      <c r="E216" s="33"/>
-      <c r="F216" s="33"/>
-      <c r="G216" s="33"/>
-      <c r="H216" s="33"/>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A217" s="166"/>
-      <c r="B217" s="166"/>
-      <c r="C217" s="166"/>
-      <c r="D217" s="166"/>
-      <c r="E217" s="33"/>
-      <c r="F217" s="33"/>
-      <c r="G217" s="33"/>
-      <c r="H217" s="33"/>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A218" s="166"/>
-      <c r="B218" s="166"/>
-      <c r="C218" s="166"/>
-      <c r="D218" s="166"/>
-      <c r="E218" s="33"/>
-      <c r="F218" s="33"/>
-      <c r="G218" s="33"/>
-      <c r="H218" s="33"/>
-    </row>
-    <row r="221" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H221" s="67"/>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A222" s="167" t="s">
+      <c r="D184" s="143"/>
+      <c r="E184" s="143"/>
+      <c r="F184" s="143"/>
+      <c r="G184" s="163"/>
+      <c r="H184" s="165"/>
+    </row>
+    <row r="185" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="144" t="s">
+        <v>4</v>
+      </c>
+      <c r="B185" s="145"/>
+      <c r="C185" s="3">
+        <f>$E$18</f>
+        <v>2050</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E185" s="3">
+        <f>$F$18</f>
+        <v>1500</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G185" s="3">
+        <f>$G$18</f>
+        <v>555</v>
+      </c>
+      <c r="H185" s="62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A186" s="146"/>
+      <c r="B186" s="147"/>
+      <c r="C186" s="147"/>
+      <c r="D186" s="148"/>
+      <c r="E186" s="148"/>
+      <c r="F186" s="148"/>
+      <c r="G186" s="148"/>
+      <c r="H186" s="149"/>
+    </row>
+    <row r="187" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="5"/>
+      <c r="B187" s="6"/>
+      <c r="C187" s="6"/>
+      <c r="D187" s="6"/>
+      <c r="E187" s="6"/>
+      <c r="F187" s="6"/>
+      <c r="G187" s="6"/>
+      <c r="H187" s="7"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A188" s="8"/>
+      <c r="B188" s="54"/>
+      <c r="C188" s="54"/>
+      <c r="D188" s="54"/>
+      <c r="E188" s="54"/>
+      <c r="F188" s="54"/>
+      <c r="G188" s="54"/>
+      <c r="H188" s="10"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189" s="8"/>
+      <c r="B189" s="9"/>
+      <c r="C189" s="9"/>
+      <c r="D189" s="9"/>
+      <c r="E189" s="9"/>
+      <c r="F189" s="9"/>
+      <c r="G189" s="9"/>
+      <c r="H189" s="10"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190" s="8"/>
+      <c r="B190" s="9"/>
+      <c r="C190" s="9"/>
+      <c r="D190" s="9"/>
+      <c r="E190" s="9"/>
+      <c r="F190" s="9"/>
+      <c r="G190" s="9"/>
+      <c r="H190" s="10"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191" s="8"/>
+      <c r="B191" s="9"/>
+      <c r="C191" s="9"/>
+      <c r="D191" s="9"/>
+      <c r="E191" s="9"/>
+      <c r="F191" s="9"/>
+      <c r="G191" s="9"/>
+      <c r="H191" s="10"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192" s="8"/>
+      <c r="B192" s="9"/>
+      <c r="C192" s="9"/>
+      <c r="D192" s="9"/>
+      <c r="E192" s="9"/>
+      <c r="F192" s="9"/>
+      <c r="G192" s="9"/>
+      <c r="H192" s="10"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193" s="8"/>
+      <c r="B193" s="9"/>
+      <c r="C193" s="9"/>
+      <c r="D193" s="9"/>
+      <c r="E193" s="9"/>
+      <c r="F193" s="9"/>
+      <c r="G193" s="9"/>
+      <c r="H193" s="10"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194" s="8"/>
+      <c r="B194" s="9"/>
+      <c r="C194" s="9"/>
+      <c r="D194" s="9"/>
+      <c r="E194" s="9"/>
+      <c r="F194" s="9"/>
+      <c r="G194" s="9"/>
+      <c r="H194" s="10"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195" s="8"/>
+      <c r="B195" s="9"/>
+      <c r="C195" s="9"/>
+      <c r="D195" s="9"/>
+      <c r="E195" s="9"/>
+      <c r="F195" s="9"/>
+      <c r="G195" s="9"/>
+      <c r="H195" s="10"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196" s="8"/>
+      <c r="B196" s="9"/>
+      <c r="C196" s="9"/>
+      <c r="D196" s="9"/>
+      <c r="E196" s="9"/>
+      <c r="F196" s="9"/>
+      <c r="G196" s="9"/>
+      <c r="H196" s="10"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197" s="8"/>
+      <c r="B197" s="9"/>
+      <c r="C197" s="9"/>
+      <c r="D197" s="9"/>
+      <c r="E197" s="9"/>
+      <c r="F197" s="9"/>
+      <c r="G197" s="9"/>
+      <c r="H197" s="10"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198" s="11"/>
+      <c r="B198" s="12"/>
+      <c r="C198" s="12"/>
+      <c r="D198" s="13"/>
+      <c r="E198" s="13"/>
+      <c r="F198" s="13"/>
+      <c r="G198" s="13"/>
+      <c r="H198" s="14"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" s="15"/>
+      <c r="B199" s="12"/>
+      <c r="C199" s="12"/>
+      <c r="D199" s="13"/>
+      <c r="E199" s="13"/>
+      <c r="F199" s="13"/>
+      <c r="G199" s="12"/>
+      <c r="H199" s="14"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200" s="15"/>
+      <c r="B200" s="12"/>
+      <c r="C200" s="12"/>
+      <c r="D200" s="13"/>
+      <c r="E200" s="13"/>
+      <c r="F200" s="13"/>
+      <c r="G200" s="12"/>
+      <c r="H200" s="14"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201" s="15"/>
+      <c r="B201" s="12"/>
+      <c r="C201" s="12"/>
+      <c r="D201" s="13"/>
+      <c r="E201" s="13"/>
+      <c r="F201" s="13"/>
+      <c r="G201" s="12"/>
+      <c r="H201" s="14"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202" s="15"/>
+      <c r="B202" s="12"/>
+      <c r="C202" s="12"/>
+      <c r="D202" s="13"/>
+      <c r="E202" s="13"/>
+      <c r="F202" s="13"/>
+      <c r="G202" s="12"/>
+      <c r="H202" s="14"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203" s="15"/>
+      <c r="B203" s="12"/>
+      <c r="C203" s="12"/>
+      <c r="D203" s="13"/>
+      <c r="E203" s="13"/>
+      <c r="F203" s="13"/>
+      <c r="G203" s="12"/>
+      <c r="H203" s="14"/>
+    </row>
+    <row r="204" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="16"/>
+      <c r="B204" s="17"/>
+      <c r="C204" s="17"/>
+      <c r="D204" s="18"/>
+      <c r="E204" s="18"/>
+      <c r="F204" s="18"/>
+      <c r="G204" s="17"/>
+      <c r="H204" s="19"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A205" s="58"/>
+      <c r="B205" s="59"/>
+      <c r="C205" s="59"/>
+      <c r="D205" s="60"/>
+      <c r="E205" s="60"/>
+      <c r="F205" s="60"/>
+      <c r="G205" s="59"/>
+      <c r="H205" s="61"/>
+    </row>
+    <row r="207" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H207" s="64"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B222" s="168"/>
-      <c r="C222" s="169" t="str">
+      <c r="B208" s="151"/>
+      <c r="C208" s="155" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D222" s="168"/>
-      <c r="E222" s="168"/>
-      <c r="F222" s="168"/>
-      <c r="G222" s="170"/>
-      <c r="H222" s="185"/>
-    </row>
-    <row r="223" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="172" t="s">
+      <c r="D208" s="151"/>
+      <c r="E208" s="151"/>
+      <c r="F208" s="151"/>
+      <c r="G208" s="156"/>
+      <c r="H208" s="152"/>
+    </row>
+    <row r="209" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="B223" s="173"/>
-      <c r="C223" s="174" t="str">
+      <c r="B209" s="141"/>
+      <c r="C209" s="157" t="str">
         <f>$C$4</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D223" s="175"/>
-      <c r="E223" s="175"/>
-      <c r="F223" s="175"/>
-      <c r="G223" s="176"/>
-      <c r="H223" s="185"/>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A224" s="172" t="s">
+      <c r="D209" s="158"/>
+      <c r="E209" s="158"/>
+      <c r="F209" s="158"/>
+      <c r="G209" s="159"/>
+      <c r="H209" s="153"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A210" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="B224" s="173"/>
-      <c r="C224" s="178" t="str">
+      <c r="B210" s="141"/>
+      <c r="C210" s="160" t="str">
         <f>$C$5</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D224" s="173"/>
-      <c r="E224" s="173"/>
-      <c r="F224" s="173"/>
-      <c r="G224" s="179"/>
-      <c r="H224" s="185"/>
-    </row>
-    <row r="225" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="180" t="s">
+      <c r="D210" s="141"/>
+      <c r="E210" s="141"/>
+      <c r="F210" s="141"/>
+      <c r="G210" s="161"/>
+      <c r="H210" s="153"/>
+    </row>
+    <row r="211" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="B225" s="181"/>
-      <c r="C225" s="182" t="str">
+      <c r="B211" s="143"/>
+      <c r="C211" s="162" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
-      <c r="D225" s="181"/>
-      <c r="E225" s="181"/>
-      <c r="F225" s="181"/>
-      <c r="G225" s="183"/>
-      <c r="H225" s="186"/>
-    </row>
-    <row r="226" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="70" t="s">
+      <c r="D211" s="143"/>
+      <c r="E211" s="143"/>
+      <c r="F211" s="143"/>
+      <c r="G211" s="163"/>
+      <c r="H211" s="154"/>
+    </row>
+    <row r="212" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="B226" s="71"/>
-      <c r="C226" s="3">
+      <c r="B212" s="145"/>
+      <c r="C212" s="3">
         <f>$E$18</f>
         <v>2050</v>
       </c>
-      <c r="D226" s="3" t="s">
+      <c r="D212" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E226" s="3">
+      <c r="E212" s="3">
         <f>$F$18</f>
         <v>1500</v>
       </c>
-      <c r="F226" s="3" t="s">
+      <c r="F212" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G226" s="3">
+      <c r="G212" s="3">
         <f>$G$18</f>
         <v>555</v>
       </c>
-      <c r="H226" s="66" t="s">
+      <c r="H212" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A227" s="72"/>
-      <c r="B227" s="73"/>
-      <c r="C227" s="73"/>
-      <c r="D227" s="74"/>
-      <c r="E227" s="74"/>
-      <c r="F227" s="74"/>
-      <c r="G227" s="74"/>
-      <c r="H227" s="75"/>
-    </row>
-    <row r="228" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="5"/>
-      <c r="B228" s="6"/>
-      <c r="C228" s="6"/>
-      <c r="D228" s="6"/>
-      <c r="E228" s="6"/>
-      <c r="F228" s="6"/>
-      <c r="G228" s="6"/>
-      <c r="H228" s="7"/>
+    <row r="213" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A213" s="146"/>
+      <c r="B213" s="147"/>
+      <c r="C213" s="147"/>
+      <c r="D213" s="148"/>
+      <c r="E213" s="148"/>
+      <c r="F213" s="148"/>
+      <c r="G213" s="148"/>
+      <c r="H213" s="149"/>
+    </row>
+    <row r="214" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="5"/>
+      <c r="B214" s="6"/>
+      <c r="C214" s="6"/>
+      <c r="D214" s="6"/>
+      <c r="E214" s="6"/>
+      <c r="F214" s="6"/>
+      <c r="G214" s="6"/>
+      <c r="H214" s="7"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A215" s="8"/>
+      <c r="B215" s="54"/>
+      <c r="C215" s="54"/>
+      <c r="D215" s="54"/>
+      <c r="E215" s="54"/>
+      <c r="F215" s="54"/>
+      <c r="G215" s="54"/>
+      <c r="H215" s="10"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A216" s="8"/>
+      <c r="B216" s="54"/>
+      <c r="C216" s="54"/>
+      <c r="D216" s="54"/>
+      <c r="E216" s="54"/>
+      <c r="F216" s="54"/>
+      <c r="G216" s="54"/>
+      <c r="H216" s="10"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A217" s="8"/>
+      <c r="B217" s="54"/>
+      <c r="C217" s="54"/>
+      <c r="D217" s="54"/>
+      <c r="E217" s="54"/>
+      <c r="F217" s="54"/>
+      <c r="G217" s="54"/>
+      <c r="H217" s="10"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A218" s="8"/>
+      <c r="B218" s="9"/>
+      <c r="C218" s="9"/>
+      <c r="D218" s="9"/>
+      <c r="E218" s="9"/>
+      <c r="F218" s="9"/>
+      <c r="G218" s="9"/>
+      <c r="H218" s="10"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A219" s="8"/>
+      <c r="B219" s="9"/>
+      <c r="C219" s="9"/>
+      <c r="D219" s="9"/>
+      <c r="E219" s="9"/>
+      <c r="F219" s="9"/>
+      <c r="G219" s="9"/>
+      <c r="H219" s="10"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A220" s="8"/>
+      <c r="B220" s="9"/>
+      <c r="C220" s="9"/>
+      <c r="D220" s="9"/>
+      <c r="E220" s="9"/>
+      <c r="F220" s="9"/>
+      <c r="G220" s="9"/>
+      <c r="H220" s="10"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A221" s="8"/>
+      <c r="B221" s="9"/>
+      <c r="C221" s="9"/>
+      <c r="D221" s="9"/>
+      <c r="E221" s="9"/>
+      <c r="F221" s="9"/>
+      <c r="G221" s="9"/>
+      <c r="H221" s="10"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A222" s="8"/>
+      <c r="B222" s="9"/>
+      <c r="C222" s="9"/>
+      <c r="D222" s="9"/>
+      <c r="E222" s="9"/>
+      <c r="F222" s="9"/>
+      <c r="G222" s="9"/>
+      <c r="H222" s="10"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A223" s="8"/>
+      <c r="B223" s="9"/>
+      <c r="C223" s="9"/>
+      <c r="D223" s="9"/>
+      <c r="E223" s="9"/>
+      <c r="F223" s="9"/>
+      <c r="G223" s="9"/>
+      <c r="H223" s="10"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A224" s="11"/>
+      <c r="B224" s="12"/>
+      <c r="C224" s="12"/>
+      <c r="D224" s="13"/>
+      <c r="E224" s="13"/>
+      <c r="F224" s="13"/>
+      <c r="G224" s="13"/>
+      <c r="H224" s="14"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A225" s="15"/>
+      <c r="B225" s="12"/>
+      <c r="C225" s="12"/>
+      <c r="D225" s="13"/>
+      <c r="E225" s="13"/>
+      <c r="F225" s="13"/>
+      <c r="G225" s="12"/>
+      <c r="H225" s="14"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A226" s="15"/>
+      <c r="B226" s="12"/>
+      <c r="C226" s="12"/>
+      <c r="D226" s="13"/>
+      <c r="E226" s="13"/>
+      <c r="F226" s="13"/>
+      <c r="G226" s="12"/>
+      <c r="H226" s="14"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A227" s="15"/>
+      <c r="B227" s="12"/>
+      <c r="C227" s="12"/>
+      <c r="D227" s="13"/>
+      <c r="E227" s="13"/>
+      <c r="F227" s="13"/>
+      <c r="G227" s="12"/>
+      <c r="H227" s="14"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A228" s="15"/>
+      <c r="B228" s="12"/>
+      <c r="C228" s="12"/>
+      <c r="D228" s="13"/>
+      <c r="E228" s="13"/>
+      <c r="F228" s="13"/>
+      <c r="G228" s="12"/>
+      <c r="H228" s="14"/>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A229" s="8"/>
-      <c r="B229" s="58"/>
-      <c r="C229" s="58"/>
-      <c r="D229" s="58"/>
-      <c r="E229" s="58"/>
-      <c r="F229" s="58"/>
-      <c r="G229" s="58"/>
-      <c r="H229" s="10"/>
+      <c r="A229" s="15"/>
+      <c r="B229" s="12"/>
+      <c r="C229" s="12"/>
+      <c r="D229" s="13"/>
+      <c r="E229" s="13"/>
+      <c r="F229" s="13"/>
+      <c r="G229" s="12"/>
+      <c r="H229" s="14"/>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A230" s="8"/>
-      <c r="B230" s="9"/>
-      <c r="C230" s="9"/>
-      <c r="D230" s="9"/>
-      <c r="E230" s="9"/>
-      <c r="F230" s="9"/>
-      <c r="G230" s="9"/>
-      <c r="H230" s="10"/>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A231" s="8"/>
-      <c r="B231" s="9"/>
-      <c r="C231" s="9"/>
-      <c r="D231" s="9"/>
-      <c r="E231" s="9"/>
-      <c r="F231" s="9"/>
-      <c r="G231" s="9"/>
-      <c r="H231" s="10"/>
+      <c r="A230" s="15"/>
+      <c r="B230" s="12"/>
+      <c r="C230" s="12"/>
+      <c r="D230" s="13"/>
+      <c r="E230" s="13"/>
+      <c r="F230" s="13"/>
+      <c r="G230" s="12"/>
+      <c r="H230" s="14"/>
+    </row>
+    <row r="231" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="16"/>
+      <c r="B231" s="17"/>
+      <c r="C231" s="17"/>
+      <c r="D231" s="18"/>
+      <c r="E231" s="18"/>
+      <c r="F231" s="18"/>
+      <c r="G231" s="17"/>
+      <c r="H231" s="19"/>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A232" s="8"/>
-      <c r="B232" s="9"/>
-      <c r="C232" s="9"/>
-      <c r="D232" s="9"/>
-      <c r="E232" s="9"/>
-      <c r="F232" s="9"/>
-      <c r="G232" s="9"/>
-      <c r="H232" s="10"/>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A233" s="8"/>
-      <c r="B233" s="9"/>
-      <c r="C233" s="9"/>
-      <c r="D233" s="9"/>
-      <c r="E233" s="9"/>
-      <c r="F233" s="9"/>
-      <c r="G233" s="9"/>
-      <c r="H233" s="10"/>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A234" s="8"/>
-      <c r="B234" s="9"/>
-      <c r="C234" s="9"/>
-      <c r="D234" s="9"/>
-      <c r="E234" s="9"/>
-      <c r="F234" s="9"/>
-      <c r="G234" s="9"/>
-      <c r="H234" s="10"/>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A235" s="8"/>
-      <c r="B235" s="9"/>
-      <c r="C235" s="9"/>
-      <c r="D235" s="9"/>
-      <c r="E235" s="9"/>
-      <c r="F235" s="9"/>
-      <c r="G235" s="9"/>
-      <c r="H235" s="10"/>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A236" s="8"/>
-      <c r="B236" s="9"/>
-      <c r="C236" s="9"/>
-      <c r="D236" s="9"/>
-      <c r="E236" s="9"/>
-      <c r="F236" s="9"/>
-      <c r="G236" s="9"/>
-      <c r="H236" s="10"/>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A237" s="8"/>
-      <c r="B237" s="9"/>
-      <c r="C237" s="9"/>
-      <c r="D237" s="9"/>
-      <c r="E237" s="9"/>
-      <c r="F237" s="9"/>
-      <c r="G237" s="9"/>
-      <c r="H237" s="10"/>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A238" s="8"/>
-      <c r="B238" s="9"/>
-      <c r="C238" s="9"/>
-      <c r="D238" s="9"/>
-      <c r="E238" s="9"/>
-      <c r="F238" s="9"/>
-      <c r="G238" s="9"/>
-      <c r="H238" s="10"/>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A239" s="11"/>
-      <c r="B239" s="12"/>
-      <c r="C239" s="12"/>
-      <c r="D239" s="13"/>
-      <c r="E239" s="13"/>
-      <c r="F239" s="13"/>
-      <c r="G239" s="13"/>
-      <c r="H239" s="14"/>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A240" s="15"/>
-      <c r="B240" s="12"/>
-      <c r="C240" s="12"/>
-      <c r="D240" s="13"/>
-      <c r="E240" s="13"/>
-      <c r="F240" s="13"/>
-      <c r="G240" s="12"/>
-      <c r="H240" s="14"/>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A241" s="15"/>
-      <c r="B241" s="12"/>
-      <c r="C241" s="12"/>
-      <c r="D241" s="13"/>
-      <c r="E241" s="13"/>
-      <c r="F241" s="13"/>
-      <c r="G241" s="12"/>
-      <c r="H241" s="14"/>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A242" s="15"/>
-      <c r="B242" s="12"/>
-      <c r="C242" s="12"/>
-      <c r="D242" s="13"/>
-      <c r="E242" s="13"/>
-      <c r="F242" s="13"/>
-      <c r="G242" s="12"/>
-      <c r="H242" s="14"/>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A243" s="15"/>
-      <c r="B243" s="12"/>
-      <c r="C243" s="12"/>
-      <c r="D243" s="13"/>
-      <c r="E243" s="13"/>
-      <c r="F243" s="13"/>
-      <c r="G243" s="12"/>
-      <c r="H243" s="14"/>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A244" s="15"/>
-      <c r="B244" s="12"/>
-      <c r="C244" s="12"/>
-      <c r="D244" s="13"/>
-      <c r="E244" s="13"/>
-      <c r="F244" s="13"/>
-      <c r="G244" s="12"/>
-      <c r="H244" s="14"/>
-    </row>
-    <row r="245" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="16"/>
-      <c r="B245" s="17"/>
-      <c r="C245" s="17"/>
-      <c r="D245" s="18"/>
-      <c r="E245" s="18"/>
-      <c r="F245" s="18"/>
-      <c r="G245" s="17"/>
-      <c r="H245" s="19"/>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A246" s="62"/>
-      <c r="B246" s="63"/>
-      <c r="C246" s="63"/>
-      <c r="D246" s="64"/>
-      <c r="E246" s="64"/>
-      <c r="F246" s="64"/>
-      <c r="G246" s="63"/>
-      <c r="H246" s="65"/>
-    </row>
-    <row r="248" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H248" s="68"/>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A249" s="167" t="s">
-        <v>0</v>
-      </c>
-      <c r="B249" s="168"/>
-      <c r="C249" s="169" t="str">
-        <f>$C$3</f>
-        <v>FSO190786</v>
-      </c>
-      <c r="D249" s="168"/>
-      <c r="E249" s="168"/>
-      <c r="F249" s="168"/>
-      <c r="G249" s="170"/>
-      <c r="H249" s="171"/>
-    </row>
-    <row r="250" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="172" t="s">
-        <v>1</v>
-      </c>
-      <c r="B250" s="173"/>
-      <c r="C250" s="174" t="str">
-        <f>$C$4</f>
-        <v>Jeju Dream Tower  III</v>
-      </c>
-      <c r="D250" s="175"/>
-      <c r="E250" s="175"/>
-      <c r="F250" s="175"/>
-      <c r="G250" s="176"/>
-      <c r="H250" s="177"/>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A251" s="172" t="s">
-        <v>2</v>
-      </c>
-      <c r="B251" s="173"/>
-      <c r="C251" s="178" t="str">
-        <f>$C$5</f>
-        <v>71.6 M1</v>
-      </c>
-      <c r="D251" s="173"/>
-      <c r="E251" s="173"/>
-      <c r="F251" s="173"/>
-      <c r="G251" s="179"/>
-      <c r="H251" s="177"/>
-    </row>
-    <row r="252" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="180" t="s">
-        <v>3</v>
-      </c>
-      <c r="B252" s="181"/>
-      <c r="C252" s="182" t="str">
-        <f>$C$6</f>
-        <v>KVI</v>
-      </c>
-      <c r="D252" s="181"/>
-      <c r="E252" s="181"/>
-      <c r="F252" s="181"/>
-      <c r="G252" s="183"/>
-      <c r="H252" s="184"/>
-    </row>
-    <row r="253" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="B253" s="71"/>
-      <c r="C253" s="3">
-        <f>$E$18</f>
-        <v>2050</v>
-      </c>
-      <c r="D253" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E253" s="3">
-        <f>$F$18</f>
-        <v>1500</v>
-      </c>
-      <c r="F253" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G253" s="3">
-        <f>$G$18</f>
-        <v>555</v>
-      </c>
-      <c r="H253" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A254" s="72"/>
-      <c r="B254" s="73"/>
-      <c r="C254" s="73"/>
-      <c r="D254" s="74"/>
-      <c r="E254" s="74"/>
-      <c r="F254" s="74"/>
-      <c r="G254" s="74"/>
-      <c r="H254" s="75"/>
-    </row>
-    <row r="255" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="5"/>
-      <c r="B255" s="6"/>
-      <c r="C255" s="6"/>
-      <c r="D255" s="6"/>
-      <c r="E255" s="6"/>
-      <c r="F255" s="6"/>
-      <c r="G255" s="6"/>
-      <c r="H255" s="7"/>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A256" s="8"/>
-      <c r="B256" s="58"/>
-      <c r="C256" s="58"/>
-      <c r="D256" s="58"/>
-      <c r="E256" s="58"/>
-      <c r="F256" s="58"/>
-      <c r="G256" s="58"/>
-      <c r="H256" s="10"/>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A257" s="8"/>
-      <c r="B257" s="58"/>
-      <c r="C257" s="58"/>
-      <c r="D257" s="58"/>
-      <c r="E257" s="58"/>
-      <c r="F257" s="58"/>
-      <c r="G257" s="58"/>
-      <c r="H257" s="10"/>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A258" s="8"/>
-      <c r="B258" s="58"/>
-      <c r="C258" s="58"/>
-      <c r="D258" s="58"/>
-      <c r="E258" s="58"/>
-      <c r="F258" s="58"/>
-      <c r="G258" s="58"/>
-      <c r="H258" s="10"/>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A259" s="8"/>
-      <c r="B259" s="9"/>
-      <c r="C259" s="9"/>
-      <c r="D259" s="9"/>
-      <c r="E259" s="9"/>
-      <c r="F259" s="9"/>
-      <c r="G259" s="9"/>
-      <c r="H259" s="10"/>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A260" s="8"/>
-      <c r="B260" s="9"/>
-      <c r="C260" s="9"/>
-      <c r="D260" s="9"/>
-      <c r="E260" s="9"/>
-      <c r="F260" s="9"/>
-      <c r="G260" s="9"/>
-      <c r="H260" s="10"/>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A261" s="8"/>
-      <c r="B261" s="9"/>
-      <c r="C261" s="9"/>
-      <c r="D261" s="9"/>
-      <c r="E261" s="9"/>
-      <c r="F261" s="9"/>
-      <c r="G261" s="9"/>
-      <c r="H261" s="10"/>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A262" s="8"/>
-      <c r="B262" s="9"/>
-      <c r="C262" s="9"/>
-      <c r="D262" s="9"/>
-      <c r="E262" s="9"/>
-      <c r="F262" s="9"/>
-      <c r="G262" s="9"/>
-      <c r="H262" s="10"/>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A263" s="8"/>
-      <c r="B263" s="9"/>
-      <c r="C263" s="9"/>
-      <c r="D263" s="9"/>
-      <c r="E263" s="9"/>
-      <c r="F263" s="9"/>
-      <c r="G263" s="9"/>
-      <c r="H263" s="10"/>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A264" s="8"/>
-      <c r="B264" s="9"/>
-      <c r="C264" s="9"/>
-      <c r="D264" s="9"/>
-      <c r="E264" s="9"/>
-      <c r="F264" s="9"/>
-      <c r="G264" s="9"/>
-      <c r="H264" s="10"/>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A265" s="11"/>
-      <c r="B265" s="12"/>
-      <c r="C265" s="12"/>
-      <c r="D265" s="13"/>
-      <c r="E265" s="13"/>
-      <c r="F265" s="13"/>
-      <c r="G265" s="13"/>
-      <c r="H265" s="14"/>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A266" s="15"/>
-      <c r="B266" s="12"/>
-      <c r="C266" s="12"/>
-      <c r="D266" s="13"/>
-      <c r="E266" s="13"/>
-      <c r="F266" s="13"/>
-      <c r="G266" s="12"/>
-      <c r="H266" s="14"/>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A267" s="15"/>
-      <c r="B267" s="12"/>
-      <c r="C267" s="12"/>
-      <c r="D267" s="13"/>
-      <c r="E267" s="13"/>
-      <c r="F267" s="13"/>
-      <c r="G267" s="12"/>
-      <c r="H267" s="14"/>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A268" s="15"/>
-      <c r="B268" s="12"/>
-      <c r="C268" s="12"/>
-      <c r="D268" s="13"/>
-      <c r="E268" s="13"/>
-      <c r="F268" s="13"/>
-      <c r="G268" s="12"/>
-      <c r="H268" s="14"/>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A269" s="15"/>
-      <c r="B269" s="12"/>
-      <c r="C269" s="12"/>
-      <c r="D269" s="13"/>
-      <c r="E269" s="13"/>
-      <c r="F269" s="13"/>
-      <c r="G269" s="12"/>
-      <c r="H269" s="14"/>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A270" s="15"/>
-      <c r="B270" s="12"/>
-      <c r="C270" s="12"/>
-      <c r="D270" s="13"/>
-      <c r="E270" s="13"/>
-      <c r="F270" s="13"/>
-      <c r="G270" s="12"/>
-      <c r="H270" s="14"/>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A271" s="15"/>
-      <c r="B271" s="12"/>
-      <c r="C271" s="12"/>
-      <c r="D271" s="13"/>
-      <c r="E271" s="13"/>
-      <c r="F271" s="13"/>
-      <c r="G271" s="12"/>
-      <c r="H271" s="14"/>
-    </row>
-    <row r="272" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="16"/>
-      <c r="B272" s="17"/>
-      <c r="C272" s="17"/>
-      <c r="D272" s="18"/>
-      <c r="E272" s="18"/>
-      <c r="F272" s="18"/>
-      <c r="G272" s="17"/>
-      <c r="H272" s="19"/>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A273" s="20"/>
-      <c r="B273" s="12"/>
-      <c r="C273" s="12"/>
-      <c r="D273" s="13"/>
-      <c r="E273" s="13"/>
-      <c r="F273" s="13"/>
-      <c r="G273" s="12"/>
-      <c r="H273" s="21"/>
+      <c r="A232" s="20"/>
+      <c r="B232" s="12"/>
+      <c r="C232" s="12"/>
+      <c r="D232" s="13"/>
+      <c r="E232" s="13"/>
+      <c r="F232" s="13"/>
+      <c r="G232" s="12"/>
+      <c r="H232" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="323">
-    <mergeCell ref="A216:B216"/>
-    <mergeCell ref="C216:D216"/>
-    <mergeCell ref="A217:B217"/>
-    <mergeCell ref="C217:D217"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="C218:D218"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="C213:D213"/>
-    <mergeCell ref="A214:B214"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="C215:D215"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="C210:D210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="C211:D211"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="C212:D212"/>
-    <mergeCell ref="A207:B207"/>
-    <mergeCell ref="C207:D207"/>
-    <mergeCell ref="A208:B208"/>
-    <mergeCell ref="C208:D208"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="C209:D209"/>
-    <mergeCell ref="A204:B204"/>
-    <mergeCell ref="C204:D204"/>
-    <mergeCell ref="A205:B205"/>
-    <mergeCell ref="C205:D205"/>
-    <mergeCell ref="A206:B206"/>
-    <mergeCell ref="C206:D206"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="C201:D201"/>
-    <mergeCell ref="A202:B202"/>
-    <mergeCell ref="C202:D202"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A198:B198"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="C199:D199"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="C200:D200"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="C195:D195"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="C196:D196"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="C197:D197"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="A193:B193"/>
-    <mergeCell ref="C193:D193"/>
-    <mergeCell ref="A194:B194"/>
-    <mergeCell ref="C194:D194"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="A190:B190"/>
-    <mergeCell ref="C190:D190"/>
-    <mergeCell ref="A191:B191"/>
-    <mergeCell ref="C191:D191"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="C186:D186"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="C188:D188"/>
+  <mergeCells count="247">
     <mergeCell ref="A183:B183"/>
     <mergeCell ref="A184:B184"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="A186:H186"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="A182:B182"/>
     <mergeCell ref="H181:H184"/>
     <mergeCell ref="C181:G181"/>
     <mergeCell ref="C182:G182"/>
     <mergeCell ref="C183:G183"/>
     <mergeCell ref="C184:G184"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="A175:E175"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="A176:E176"/>
-    <mergeCell ref="G176:H176"/>
-    <mergeCell ref="A177:H177"/>
-    <mergeCell ref="C179:H180"/>
-    <mergeCell ref="A172:E172"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="A173:E173"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="A174:E174"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="A169:E169"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="A170:E170"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="A171:E171"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="A166:E166"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="A163:E163"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="A164:E164"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="A160:E160"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="A161:E161"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="A162:E162"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="A159:E159"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="A154:E154"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="A155:E155"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="A156:E156"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="A150:E150"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="A151:E151"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="A153:E153"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="A152:E152"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="A147:E147"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="A148:E148"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="A149:E149"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="A144:E144"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="A145:E145"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="C143:E143"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="H139:H142"/>
-    <mergeCell ref="C139:G139"/>
-    <mergeCell ref="C140:G140"/>
-    <mergeCell ref="C141:G141"/>
-    <mergeCell ref="C142:G142"/>
-    <mergeCell ref="A133:E133"/>
-    <mergeCell ref="A134:E134"/>
-    <mergeCell ref="A135:H135"/>
-    <mergeCell ref="C137:H138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A127:E127"/>
-    <mergeCell ref="A128:E128"/>
-    <mergeCell ref="A129:E129"/>
-    <mergeCell ref="A130:E130"/>
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="A132:E132"/>
-    <mergeCell ref="A121:E121"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A123:E123"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A125:E125"/>
-    <mergeCell ref="A126:E126"/>
-    <mergeCell ref="A115:E115"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="A117:E117"/>
-    <mergeCell ref="A118:E118"/>
-    <mergeCell ref="A119:E119"/>
-    <mergeCell ref="A120:E120"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A114:E114"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="A213:H213"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="H208:H211"/>
+    <mergeCell ref="C208:G208"/>
+    <mergeCell ref="C209:G209"/>
+    <mergeCell ref="C210:G210"/>
+    <mergeCell ref="C211:G211"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B21:H22"/>
+    <mergeCell ref="B23:H42"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="C56:H57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A64:E64"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A83:E83"/>
     <mergeCell ref="A98:B98"/>
     <mergeCell ref="A109:E109"/>
     <mergeCell ref="H97:H100"/>
@@ -6687,134 +5951,121 @@
     <mergeCell ref="A100:B100"/>
     <mergeCell ref="A101:E101"/>
     <mergeCell ref="A102:E102"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="A75:E75"/>
-    <mergeCell ref="A76:E76"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A64:E64"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="C56:H57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B21:H22"/>
-    <mergeCell ref="B23:H42"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A251:B251"/>
-    <mergeCell ref="A252:B252"/>
-    <mergeCell ref="A253:B253"/>
-    <mergeCell ref="A254:H254"/>
-    <mergeCell ref="A249:B249"/>
-    <mergeCell ref="A250:B250"/>
-    <mergeCell ref="H249:H252"/>
-    <mergeCell ref="C249:G249"/>
-    <mergeCell ref="C250:G250"/>
-    <mergeCell ref="C251:G251"/>
-    <mergeCell ref="C252:G252"/>
-    <mergeCell ref="A224:B224"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="A226:B226"/>
-    <mergeCell ref="A227:H227"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="H222:H225"/>
-    <mergeCell ref="C222:G222"/>
-    <mergeCell ref="C223:G223"/>
-    <mergeCell ref="C224:G224"/>
-    <mergeCell ref="C225:G225"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="A117:E117"/>
+    <mergeCell ref="A118:E118"/>
+    <mergeCell ref="A119:E119"/>
+    <mergeCell ref="A120:E120"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A114:E114"/>
+    <mergeCell ref="A127:E127"/>
+    <mergeCell ref="A128:E128"/>
+    <mergeCell ref="A129:E129"/>
+    <mergeCell ref="A130:E130"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="A132:E132"/>
+    <mergeCell ref="A121:E121"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A123:E123"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A125:E125"/>
+    <mergeCell ref="A126:E126"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="H139:H142"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="C142:G142"/>
+    <mergeCell ref="A133:E133"/>
+    <mergeCell ref="A134:E134"/>
+    <mergeCell ref="A135:H135"/>
+    <mergeCell ref="C137:H138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A144:E144"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="A145:E145"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:E143"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="A150:E150"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="A151:E151"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="A153:E153"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="A152:E152"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="A147:E147"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="A148:E148"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="A154:E154"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="A155:E155"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="A156:E156"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="A163:E163"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="A164:E164"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="A160:E160"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="A161:E161"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="A162:E162"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="A169:E169"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="A170:E170"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="A171:E171"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="A166:E166"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="A175:E175"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="G176:H176"/>
+    <mergeCell ref="A177:H177"/>
+    <mergeCell ref="A172:E172"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="A173:E173"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="A174:E174"/>
+    <mergeCell ref="G174:H174"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="5" manualBreakCount="5">
+  <rowBreaks count="4" manualBreakCount="4">
     <brk id="55" max="7" man="1"/>
     <brk id="94" max="7" man="1"/>
     <brk id="136" max="7" man="1"/>
     <brk id="178" max="7" man="1"/>
-    <brk id="219" max="7" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/Compass.Wpf/bin/Release/net6.0-windows/publish/JobCard.xlsx
+++ b/Compass.Wpf/bin/Release/net6.0-windows/publish/JobCard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\repos\Compass.Wasm\Compass.Wpf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C28177-46C0-4CCC-969C-F40C7ECF60BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C90350-9EB2-4CE4-82CA-FE800098FBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JobCard" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="169">
   <si>
     <t>Order Number 订单编号</t>
   </si>
@@ -596,7 +596,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-10409]yyyy/m/d"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -697,6 +697,20 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1473,7 +1487,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1613,23 +1627,17 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1640,18 +1648,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1659,94 +1655,88 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1755,39 +1745,57 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1797,14 +1805,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
@@ -1819,13 +1821,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1837,128 +1833,137 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2503,8 +2508,8 @@
   </sheetPr>
   <dimension ref="A1:H232"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J186" sqref="J186"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2523,94 +2528,94 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="43"/>
       <c r="B1" s="43"/>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="87" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="85" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="137" t="s">
+      <c r="B3" s="86"/>
+      <c r="C3" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="134"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="89"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="113"/>
-      <c r="C4" s="137" t="s">
+      <c r="B4" s="86"/>
+      <c r="C4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="135"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="90"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="85" t="s">
         <v>160</v>
       </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="137" t="s">
+      <c r="B5" s="86"/>
+      <c r="C5" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="135"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="90"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="85" t="s">
         <v>161</v>
       </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="137" t="s">
+      <c r="B6" s="86"/>
+      <c r="C6" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="136"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="91"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="85" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="113"/>
-      <c r="C7" s="128" t="s">
+      <c r="B7" s="86"/>
+      <c r="C7" s="99" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
@@ -2639,24 +2644,24 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="111" t="s">
+      <c r="A9" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="129"/>
+      <c r="B9" s="101"/>
       <c r="C9" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="111" t="s">
+      <c r="D9" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="107"/>
+      <c r="E9" s="96"/>
       <c r="F9" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="130" t="s">
+      <c r="G9" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="131"/>
+      <c r="H9" s="103"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
@@ -2668,57 +2673,57 @@
       <c r="C10" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="107"/>
+      <c r="D10" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="96"/>
       <c r="F10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="132" t="s">
+      <c r="G10" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="133"/>
+      <c r="H10" s="105"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="106" t="s">
+      <c r="A11" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="125"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="107"/>
+      <c r="D11" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="96"/>
       <c r="F11" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="126">
+      <c r="G11" s="97">
         <v>43826</v>
       </c>
-      <c r="H11" s="127"/>
+      <c r="H11" s="98"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="107"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="107"/>
+      <c r="D12" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="96"/>
       <c r="F12" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="50" t="s">
+      <c r="G12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="22" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2732,17 +2737,17 @@
       <c r="C13" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="107"/>
+      <c r="D13" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="96"/>
       <c r="F13" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="50"/>
+      <c r="G13" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="22"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
@@ -2754,17 +2759,17 @@
       <c r="C14" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="107"/>
+      <c r="D14" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="96"/>
       <c r="F14" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="50"/>
+      <c r="G14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="22"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
@@ -2776,17 +2781,17 @@
       <c r="C15" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="107"/>
+      <c r="D15" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="96"/>
       <c r="F15" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="50"/>
+      <c r="G15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="22"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
@@ -2815,10 +2820,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A17" s="112" t="s">
+      <c r="A17" s="109" t="s">
         <v>163</v>
       </c>
-      <c r="B17" s="113"/>
+      <c r="B17" s="86"/>
       <c r="C17" s="46" t="s">
         <v>27</v>
       </c>
@@ -2867,272 +2872,270 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="114" t="s">
+      <c r="A19" s="110" t="s">
         <v>155</v>
       </c>
-      <c r="B19" s="115"/>
-      <c r="C19" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="116"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="112"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="114" t="s">
+      <c r="A20" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="115"/>
-      <c r="C20" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="116"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="112"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="117" t="s">
+      <c r="A21" s="113" t="s">
         <v>152</v>
       </c>
-      <c r="B21" s="119" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="119"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="120"/>
+      <c r="B21" s="161"/>
+      <c r="C21" s="157"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="157"/>
+      <c r="H21" s="158"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="118"/>
-      <c r="B22" s="121"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="121"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="122"/>
+      <c r="A22" s="114"/>
+      <c r="B22" s="159"/>
+      <c r="C22" s="159"/>
+      <c r="D22" s="159"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="160"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="118"/>
-      <c r="B23" s="121"/>
-      <c r="C23" s="121"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="121"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="121"/>
-      <c r="H23" s="122"/>
+      <c r="A23" s="114"/>
+      <c r="B23" s="162"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="116"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="118"/>
-      <c r="B24" s="121"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="122"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="116"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="118" t="s">
+      <c r="A25" s="114" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="121"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="122"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="116"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="118"/>
-      <c r="B26" s="121"/>
-      <c r="C26" s="121"/>
-      <c r="D26" s="121"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="122"/>
+      <c r="A26" s="114"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="116"/>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="118"/>
-      <c r="B27" s="121"/>
-      <c r="C27" s="121"/>
-      <c r="D27" s="121"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="121"/>
-      <c r="H27" s="122"/>
+      <c r="A27" s="114"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="116"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="55"/>
-      <c r="B28" s="121"/>
-      <c r="C28" s="121"/>
-      <c r="D28" s="121"/>
-      <c r="E28" s="121"/>
-      <c r="F28" s="121"/>
-      <c r="G28" s="121"/>
-      <c r="H28" s="122"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="115"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="116"/>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="55"/>
-      <c r="B29" s="121"/>
-      <c r="C29" s="121"/>
-      <c r="D29" s="121"/>
-      <c r="E29" s="121"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="121"/>
-      <c r="H29" s="122"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="116"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="55"/>
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="121"/>
-      <c r="G30" s="121"/>
-      <c r="H30" s="122"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="116"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="55"/>
-      <c r="B31" s="121"/>
-      <c r="C31" s="121"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="121"/>
-      <c r="F31" s="121"/>
-      <c r="G31" s="121"/>
-      <c r="H31" s="122"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="116"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="56"/>
-      <c r="B32" s="121"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="121"/>
-      <c r="G32" s="121"/>
-      <c r="H32" s="122"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="116"/>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="56"/>
-      <c r="B33" s="121"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="122"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="115"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="116"/>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="56"/>
-      <c r="B34" s="121"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="121"/>
-      <c r="F34" s="121"/>
-      <c r="G34" s="121"/>
-      <c r="H34" s="122"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="116"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="56"/>
-      <c r="B35" s="121"/>
-      <c r="C35" s="121"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="121"/>
-      <c r="F35" s="121"/>
-      <c r="G35" s="121"/>
-      <c r="H35" s="122"/>
+      <c r="A35" s="54"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="116"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="56"/>
-      <c r="B36" s="121"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="121"/>
-      <c r="F36" s="121"/>
-      <c r="G36" s="121"/>
-      <c r="H36" s="122"/>
+      <c r="A36" s="54"/>
+      <c r="B36" s="115"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="116"/>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="56"/>
-      <c r="B37" s="121"/>
-      <c r="C37" s="121"/>
-      <c r="D37" s="121"/>
-      <c r="E37" s="121"/>
-      <c r="F37" s="121"/>
-      <c r="G37" s="121"/>
-      <c r="H37" s="122"/>
+      <c r="A37" s="54"/>
+      <c r="B37" s="115"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="116"/>
     </row>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="56"/>
-      <c r="B38" s="121"/>
-      <c r="C38" s="121"/>
-      <c r="D38" s="121"/>
-      <c r="E38" s="121"/>
-      <c r="F38" s="121"/>
-      <c r="G38" s="121"/>
-      <c r="H38" s="122"/>
+      <c r="A38" s="54"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="115"/>
+      <c r="H38" s="116"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="56"/>
-      <c r="B39" s="121"/>
-      <c r="C39" s="121"/>
-      <c r="D39" s="121"/>
-      <c r="E39" s="121"/>
-      <c r="F39" s="121"/>
-      <c r="G39" s="121"/>
-      <c r="H39" s="122"/>
+      <c r="A39" s="54"/>
+      <c r="B39" s="115"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="116"/>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="56"/>
-      <c r="B40" s="121"/>
-      <c r="C40" s="121"/>
-      <c r="D40" s="121"/>
-      <c r="E40" s="121"/>
-      <c r="F40" s="121"/>
-      <c r="G40" s="121"/>
-      <c r="H40" s="122"/>
+      <c r="A40" s="54"/>
+      <c r="B40" s="115"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="115"/>
+      <c r="E40" s="115"/>
+      <c r="F40" s="115"/>
+      <c r="G40" s="115"/>
+      <c r="H40" s="116"/>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="56"/>
-      <c r="B41" s="121"/>
-      <c r="C41" s="121"/>
-      <c r="D41" s="121"/>
-      <c r="E41" s="121"/>
-      <c r="F41" s="121"/>
-      <c r="G41" s="121"/>
-      <c r="H41" s="122"/>
+      <c r="A41" s="54"/>
+      <c r="B41" s="115"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="115"/>
+      <c r="G41" s="115"/>
+      <c r="H41" s="116"/>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="57"/>
-      <c r="B42" s="123"/>
-      <c r="C42" s="123"/>
-      <c r="D42" s="123"/>
-      <c r="E42" s="123"/>
-      <c r="F42" s="123"/>
-      <c r="G42" s="123"/>
-      <c r="H42" s="124"/>
+      <c r="A42" s="55"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="117"/>
+      <c r="D42" s="117"/>
+      <c r="E42" s="117"/>
+      <c r="F42" s="117"/>
+      <c r="G42" s="117"/>
+      <c r="H42" s="118"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="111" t="s">
+      <c r="A43" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="107"/>
+      <c r="B43" s="96"/>
       <c r="C43" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="108" t="s">
+      <c r="D43" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="109"/>
-      <c r="F43" s="109"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="107"/>
       <c r="G43" s="41" t="s">
         <v>38</v>
       </c>
@@ -3141,301 +3144,301 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="106" t="s">
+      <c r="A44" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="107"/>
+      <c r="B44" s="96"/>
       <c r="C44" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="108" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="109"/>
-      <c r="F44" s="110"/>
+      <c r="D44" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="107"/>
+      <c r="F44" s="108"/>
       <c r="G44" s="42"/>
       <c r="H44" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="106" t="s">
+      <c r="A45" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="107"/>
+      <c r="B45" s="96"/>
       <c r="C45" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="108" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="109"/>
-      <c r="F45" s="110"/>
+      <c r="D45" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="107"/>
+      <c r="F45" s="108"/>
       <c r="G45" s="42"/>
       <c r="H45" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="106" t="s">
+      <c r="A46" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="107"/>
+      <c r="B46" s="96"/>
       <c r="C46" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="108" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="109"/>
-      <c r="F46" s="110"/>
+      <c r="D46" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="107"/>
+      <c r="F46" s="108"/>
       <c r="G46" s="42"/>
       <c r="H46" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="106" t="s">
+      <c r="A47" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="107"/>
+      <c r="B47" s="96"/>
       <c r="C47" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="108" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="109"/>
-      <c r="F47" s="110"/>
+      <c r="D47" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="107"/>
+      <c r="F47" s="108"/>
       <c r="G47" s="42"/>
       <c r="H47" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="106" t="s">
+      <c r="A48" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="107"/>
+      <c r="B48" s="96"/>
       <c r="C48" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="108" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="109"/>
-      <c r="F48" s="110"/>
+      <c r="D48" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="107"/>
+      <c r="F48" s="108"/>
       <c r="G48" s="42"/>
       <c r="H48" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="106" t="s">
+      <c r="A49" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="107"/>
+      <c r="B49" s="96"/>
       <c r="C49" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="108" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="109"/>
-      <c r="F49" s="110"/>
+      <c r="D49" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="107"/>
+      <c r="F49" s="108"/>
       <c r="G49" s="42"/>
       <c r="H49" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="106" t="s">
+      <c r="A50" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="107"/>
+      <c r="B50" s="96"/>
       <c r="C50" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="108" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="109"/>
-      <c r="F50" s="110"/>
+      <c r="D50" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="107"/>
+      <c r="F50" s="108"/>
       <c r="G50" s="42"/>
       <c r="H50" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="106" t="s">
+      <c r="A51" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="107"/>
+      <c r="B51" s="96"/>
       <c r="C51" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="108" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="109"/>
-      <c r="F51" s="110"/>
+      <c r="D51" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="107"/>
+      <c r="F51" s="108"/>
       <c r="G51" s="42"/>
       <c r="H51" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="106" t="s">
+      <c r="A52" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="107"/>
+      <c r="B52" s="96"/>
       <c r="C52" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="108" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="109"/>
-      <c r="F52" s="110"/>
+      <c r="D52" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="107"/>
+      <c r="F52" s="108"/>
       <c r="G52" s="42"/>
       <c r="H52" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="106" t="s">
+      <c r="A53" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="107"/>
+      <c r="B53" s="96"/>
       <c r="C53" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="108" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" s="109"/>
-      <c r="F53" s="110"/>
+      <c r="D53" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="107"/>
+      <c r="F53" s="108"/>
       <c r="G53" s="42"/>
       <c r="H53" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="106" t="s">
+      <c r="A54" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="107"/>
+      <c r="B54" s="96"/>
       <c r="C54" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="108" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="109"/>
-      <c r="F54" s="110"/>
+      <c r="D54" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="107"/>
+      <c r="F54" s="108"/>
       <c r="G54" s="42"/>
       <c r="H54" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="50"/>
-      <c r="B55" s="52"/>
-      <c r="C55" s="50"/>
+      <c r="A55" s="22"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="22"/>
       <c r="D55" s="49"/>
       <c r="E55" s="49"/>
       <c r="F55" s="49"/>
-      <c r="G55" s="52"/>
-      <c r="H55" s="50"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="22"/>
     </row>
     <row r="56" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="43"/>
       <c r="B56" s="43"/>
-      <c r="C56" s="95" t="s">
+      <c r="C56" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="D56" s="95"/>
-      <c r="E56" s="95"/>
-      <c r="F56" s="95"/>
-      <c r="G56" s="95"/>
-      <c r="H56" s="95"/>
+      <c r="D56" s="87"/>
+      <c r="E56" s="87"/>
+      <c r="F56" s="87"/>
+      <c r="G56" s="87"/>
+      <c r="H56" s="87"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="43"/>
       <c r="B57" s="43"/>
-      <c r="C57" s="96"/>
-      <c r="D57" s="96"/>
-      <c r="E57" s="96"/>
-      <c r="F57" s="96"/>
-      <c r="G57" s="96"/>
-      <c r="H57" s="96"/>
+      <c r="C57" s="88"/>
+      <c r="D57" s="88"/>
+      <c r="E57" s="88"/>
+      <c r="F57" s="88"/>
+      <c r="G57" s="88"/>
+      <c r="H57" s="88"/>
     </row>
     <row r="58" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="66" t="s">
+      <c r="A58" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="67"/>
-      <c r="C58" s="89" t="str">
+      <c r="B58" s="120"/>
+      <c r="C58" s="129" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D58" s="90"/>
-      <c r="E58" s="90"/>
-      <c r="F58" s="90"/>
-      <c r="G58" s="90"/>
-      <c r="H58" s="86"/>
+      <c r="D58" s="130"/>
+      <c r="E58" s="130"/>
+      <c r="F58" s="130"/>
+      <c r="G58" s="130"/>
+      <c r="H58" s="126"/>
     </row>
     <row r="59" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="66" t="s">
+      <c r="A59" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="67"/>
-      <c r="C59" s="97" t="str">
+      <c r="B59" s="120"/>
+      <c r="C59" s="131" t="str">
         <f>$C$4</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D59" s="98"/>
-      <c r="E59" s="98"/>
-      <c r="F59" s="98"/>
-      <c r="G59" s="98"/>
-      <c r="H59" s="87"/>
+      <c r="D59" s="132"/>
+      <c r="E59" s="132"/>
+      <c r="F59" s="132"/>
+      <c r="G59" s="132"/>
+      <c r="H59" s="127"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="66" t="s">
+      <c r="A60" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="67"/>
-      <c r="C60" s="97" t="str">
+      <c r="B60" s="120"/>
+      <c r="C60" s="131" t="str">
         <f>$C$5</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D60" s="98"/>
-      <c r="E60" s="98"/>
-      <c r="F60" s="98"/>
-      <c r="G60" s="98"/>
-      <c r="H60" s="87"/>
+      <c r="D60" s="132"/>
+      <c r="E60" s="132"/>
+      <c r="F60" s="132"/>
+      <c r="G60" s="132"/>
+      <c r="H60" s="127"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="104" t="s">
+      <c r="A61" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="105"/>
-      <c r="C61" s="100" t="str">
+      <c r="B61" s="122"/>
+      <c r="C61" s="133" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
-      <c r="D61" s="101"/>
-      <c r="E61" s="101"/>
-      <c r="F61" s="101"/>
-      <c r="G61" s="101"/>
-      <c r="H61" s="88"/>
+      <c r="D61" s="134"/>
+      <c r="E61" s="134"/>
+      <c r="F61" s="134"/>
+      <c r="G61" s="134"/>
+      <c r="H61" s="128"/>
     </row>
     <row r="62" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A62" s="85"/>
-      <c r="B62" s="85"/>
-      <c r="C62" s="85"/>
-      <c r="D62" s="85"/>
-      <c r="E62" s="85"/>
+      <c r="A62" s="123"/>
+      <c r="B62" s="123"/>
+      <c r="C62" s="123"/>
+      <c r="D62" s="123"/>
+      <c r="E62" s="123"/>
       <c r="F62" s="45" t="s">
         <v>52</v>
       </c>
@@ -3447,25 +3450,25 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="103" t="s">
+      <c r="A63" s="124" t="s">
         <v>168</v>
       </c>
-      <c r="B63" s="103"/>
-      <c r="C63" s="103"/>
-      <c r="D63" s="103"/>
-      <c r="E63" s="103"/>
+      <c r="B63" s="124"/>
+      <c r="C63" s="124"/>
+      <c r="D63" s="124"/>
+      <c r="E63" s="124"/>
       <c r="F63" s="33"/>
       <c r="G63" s="33"/>
       <c r="H63" s="33"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="92" t="s">
+      <c r="A64" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="B64" s="92"/>
-      <c r="C64" s="92"/>
-      <c r="D64" s="92"/>
-      <c r="E64" s="92"/>
+      <c r="B64" s="125"/>
+      <c r="C64" s="125"/>
+      <c r="D64" s="125"/>
+      <c r="E64" s="125"/>
       <c r="F64" s="34" t="s">
         <v>12</v>
       </c>
@@ -3475,13 +3478,13 @@
       <c r="H64" s="34"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="92" t="s">
+      <c r="A65" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="B65" s="92"/>
-      <c r="C65" s="92"/>
-      <c r="D65" s="92"/>
-      <c r="E65" s="92"/>
+      <c r="B65" s="125"/>
+      <c r="C65" s="125"/>
+      <c r="D65" s="125"/>
+      <c r="E65" s="125"/>
       <c r="F65" s="34" t="s">
         <v>12</v>
       </c>
@@ -3491,13 +3494,13 @@
       <c r="H65" s="34"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="92" t="s">
+      <c r="A66" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="B66" s="92"/>
-      <c r="C66" s="92"/>
-      <c r="D66" s="92"/>
-      <c r="E66" s="92"/>
+      <c r="B66" s="125"/>
+      <c r="C66" s="125"/>
+      <c r="D66" s="125"/>
+      <c r="E66" s="125"/>
       <c r="F66" s="34" t="s">
         <v>12</v>
       </c>
@@ -3507,13 +3510,13 @@
       <c r="H66" s="34"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="92" t="s">
+      <c r="A67" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="B67" s="92"/>
-      <c r="C67" s="92"/>
-      <c r="D67" s="92"/>
-      <c r="E67" s="92"/>
+      <c r="B67" s="125"/>
+      <c r="C67" s="125"/>
+      <c r="D67" s="125"/>
+      <c r="E67" s="125"/>
       <c r="F67" s="34" t="s">
         <v>12</v>
       </c>
@@ -3523,13 +3526,13 @@
       <c r="H67" s="34"/>
     </row>
     <row r="68" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="92" t="s">
+      <c r="A68" s="125" t="s">
         <v>59</v>
       </c>
-      <c r="B68" s="92"/>
-      <c r="C68" s="92"/>
-      <c r="D68" s="92"/>
-      <c r="E68" s="92"/>
+      <c r="B68" s="125"/>
+      <c r="C68" s="125"/>
+      <c r="D68" s="125"/>
+      <c r="E68" s="125"/>
       <c r="F68" s="34" t="s">
         <v>12</v>
       </c>
@@ -3539,13 +3542,13 @@
       <c r="H68" s="34"/>
     </row>
     <row r="69" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="103" t="s">
+      <c r="A69" s="124" t="s">
         <v>165</v>
       </c>
-      <c r="B69" s="103"/>
-      <c r="C69" s="103"/>
-      <c r="D69" s="103"/>
-      <c r="E69" s="103"/>
+      <c r="B69" s="124"/>
+      <c r="C69" s="124"/>
+      <c r="D69" s="124"/>
+      <c r="E69" s="124"/>
       <c r="F69" s="33"/>
       <c r="G69" s="33" t="s">
         <v>12</v>
@@ -3553,13 +3556,13 @@
       <c r="H69" s="33"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="92" t="s">
+      <c r="A70" s="125" t="s">
         <v>60</v>
       </c>
-      <c r="B70" s="92"/>
-      <c r="C70" s="92"/>
-      <c r="D70" s="92"/>
-      <c r="E70" s="92"/>
+      <c r="B70" s="125"/>
+      <c r="C70" s="125"/>
+      <c r="D70" s="125"/>
+      <c r="E70" s="125"/>
       <c r="F70" s="34" t="s">
         <v>12</v>
       </c>
@@ -3569,13 +3572,13 @@
       <c r="H70" s="34"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="92" t="s">
+      <c r="A71" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="B71" s="92"/>
-      <c r="C71" s="92"/>
-      <c r="D71" s="92"/>
-      <c r="E71" s="92"/>
+      <c r="B71" s="125"/>
+      <c r="C71" s="125"/>
+      <c r="D71" s="125"/>
+      <c r="E71" s="125"/>
       <c r="F71" s="34" t="s">
         <v>12</v>
       </c>
@@ -3585,13 +3588,13 @@
       <c r="H71" s="34"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="92" t="s">
+      <c r="A72" s="125" t="s">
         <v>62</v>
       </c>
-      <c r="B72" s="92"/>
-      <c r="C72" s="92"/>
-      <c r="D72" s="92"/>
-      <c r="E72" s="92"/>
+      <c r="B72" s="125"/>
+      <c r="C72" s="125"/>
+      <c r="D72" s="125"/>
+      <c r="E72" s="125"/>
       <c r="F72" s="34" t="s">
         <v>12</v>
       </c>
@@ -3601,13 +3604,13 @@
       <c r="H72" s="34"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="92" t="s">
+      <c r="A73" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="B73" s="92"/>
-      <c r="C73" s="92"/>
-      <c r="D73" s="92"/>
-      <c r="E73" s="92"/>
+      <c r="B73" s="125"/>
+      <c r="C73" s="125"/>
+      <c r="D73" s="125"/>
+      <c r="E73" s="125"/>
       <c r="F73" s="34" t="s">
         <v>12</v>
       </c>
@@ -3617,13 +3620,13 @@
       <c r="H73" s="34"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="92" t="s">
+      <c r="A74" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="B74" s="92"/>
-      <c r="C74" s="92"/>
-      <c r="D74" s="92"/>
-      <c r="E74" s="92"/>
+      <c r="B74" s="125"/>
+      <c r="C74" s="125"/>
+      <c r="D74" s="125"/>
+      <c r="E74" s="125"/>
       <c r="F74" s="34" t="s">
         <v>12</v>
       </c>
@@ -3633,13 +3636,13 @@
       <c r="H74" s="34"/>
     </row>
     <row r="75" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="92" t="s">
+      <c r="A75" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="B75" s="92"/>
-      <c r="C75" s="92"/>
-      <c r="D75" s="92"/>
-      <c r="E75" s="92"/>
+      <c r="B75" s="125"/>
+      <c r="C75" s="125"/>
+      <c r="D75" s="125"/>
+      <c r="E75" s="125"/>
       <c r="F75" s="34" t="s">
         <v>12</v>
       </c>
@@ -3649,13 +3652,13 @@
       <c r="H75" s="34"/>
     </row>
     <row r="76" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="103" t="s">
+      <c r="A76" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="B76" s="103"/>
-      <c r="C76" s="103"/>
-      <c r="D76" s="103"/>
-      <c r="E76" s="103"/>
+      <c r="B76" s="124"/>
+      <c r="C76" s="124"/>
+      <c r="D76" s="124"/>
+      <c r="E76" s="124"/>
       <c r="F76" s="33"/>
       <c r="G76" s="33" t="s">
         <v>12</v>
@@ -3663,13 +3666,13 @@
       <c r="H76" s="33"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="92" t="s">
+      <c r="A77" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="B77" s="92"/>
-      <c r="C77" s="92"/>
-      <c r="D77" s="92"/>
-      <c r="E77" s="92"/>
+      <c r="B77" s="125"/>
+      <c r="C77" s="125"/>
+      <c r="D77" s="125"/>
+      <c r="E77" s="125"/>
       <c r="F77" s="34" t="s">
         <v>12</v>
       </c>
@@ -3679,13 +3682,13 @@
       <c r="H77" s="34"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="92" t="s">
+      <c r="A78" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="B78" s="92"/>
-      <c r="C78" s="92"/>
-      <c r="D78" s="92"/>
-      <c r="E78" s="92"/>
+      <c r="B78" s="125"/>
+      <c r="C78" s="125"/>
+      <c r="D78" s="125"/>
+      <c r="E78" s="125"/>
       <c r="F78" s="34" t="s">
         <v>12</v>
       </c>
@@ -3695,13 +3698,13 @@
       <c r="H78" s="34"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="92" t="s">
+      <c r="A79" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="B79" s="92"/>
-      <c r="C79" s="92"/>
-      <c r="D79" s="92"/>
-      <c r="E79" s="92"/>
+      <c r="B79" s="125"/>
+      <c r="C79" s="125"/>
+      <c r="D79" s="125"/>
+      <c r="E79" s="125"/>
       <c r="F79" s="34" t="s">
         <v>12</v>
       </c>
@@ -3711,13 +3714,13 @@
       <c r="H79" s="34"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="92" t="s">
+      <c r="A80" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="B80" s="92"/>
-      <c r="C80" s="92"/>
-      <c r="D80" s="92"/>
-      <c r="E80" s="92"/>
+      <c r="B80" s="125"/>
+      <c r="C80" s="125"/>
+      <c r="D80" s="125"/>
+      <c r="E80" s="125"/>
       <c r="F80" s="34" t="s">
         <v>12</v>
       </c>
@@ -3727,13 +3730,13 @@
       <c r="H80" s="34"/>
     </row>
     <row r="81" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="103" t="s">
+      <c r="A81" s="124" t="s">
         <v>164</v>
       </c>
-      <c r="B81" s="103"/>
-      <c r="C81" s="103"/>
-      <c r="D81" s="103"/>
-      <c r="E81" s="103"/>
+      <c r="B81" s="124"/>
+      <c r="C81" s="124"/>
+      <c r="D81" s="124"/>
+      <c r="E81" s="124"/>
       <c r="F81" s="33"/>
       <c r="G81" s="33" t="s">
         <v>12</v>
@@ -3741,13 +3744,13 @@
       <c r="H81" s="33"/>
     </row>
     <row r="82" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="92" t="s">
+      <c r="A82" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="B82" s="92"/>
-      <c r="C82" s="92"/>
-      <c r="D82" s="92"/>
-      <c r="E82" s="92"/>
+      <c r="B82" s="125"/>
+      <c r="C82" s="125"/>
+      <c r="D82" s="125"/>
+      <c r="E82" s="125"/>
       <c r="F82" s="34" t="s">
         <v>12</v>
       </c>
@@ -3757,13 +3760,13 @@
       <c r="H82" s="34"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="92" t="s">
+      <c r="A83" s="125" t="s">
         <v>68</v>
       </c>
-      <c r="B83" s="92"/>
-      <c r="C83" s="92"/>
-      <c r="D83" s="92"/>
-      <c r="E83" s="92"/>
+      <c r="B83" s="125"/>
+      <c r="C83" s="125"/>
+      <c r="D83" s="125"/>
+      <c r="E83" s="125"/>
       <c r="F83" s="34" t="s">
         <v>12</v>
       </c>
@@ -3773,13 +3776,13 @@
       <c r="H83" s="34"/>
     </row>
     <row r="84" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="92" t="s">
+      <c r="A84" s="125" t="s">
         <v>69</v>
       </c>
-      <c r="B84" s="92"/>
-      <c r="C84" s="92"/>
-      <c r="D84" s="92"/>
-      <c r="E84" s="92"/>
+      <c r="B84" s="125"/>
+      <c r="C84" s="125"/>
+      <c r="D84" s="125"/>
+      <c r="E84" s="125"/>
       <c r="F84" s="34" t="s">
         <v>12</v>
       </c>
@@ -3789,13 +3792,13 @@
       <c r="H84" s="34"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="92" t="s">
+      <c r="A85" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="B85" s="92"/>
-      <c r="C85" s="92"/>
-      <c r="D85" s="92"/>
-      <c r="E85" s="92"/>
+      <c r="B85" s="125"/>
+      <c r="C85" s="125"/>
+      <c r="D85" s="125"/>
+      <c r="E85" s="125"/>
       <c r="F85" s="34" t="s">
         <v>12</v>
       </c>
@@ -3805,13 +3808,13 @@
       <c r="H85" s="34"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="92" t="s">
+      <c r="A86" s="125" t="s">
         <v>71</v>
       </c>
-      <c r="B86" s="92"/>
-      <c r="C86" s="92"/>
-      <c r="D86" s="92"/>
-      <c r="E86" s="92"/>
+      <c r="B86" s="125"/>
+      <c r="C86" s="125"/>
+      <c r="D86" s="125"/>
+      <c r="E86" s="125"/>
       <c r="F86" s="34" t="s">
         <v>12</v>
       </c>
@@ -3821,13 +3824,13 @@
       <c r="H86" s="34"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="92" t="s">
+      <c r="A87" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="B87" s="92"/>
-      <c r="C87" s="92"/>
-      <c r="D87" s="92"/>
-      <c r="E87" s="92"/>
+      <c r="B87" s="125"/>
+      <c r="C87" s="125"/>
+      <c r="D87" s="125"/>
+      <c r="E87" s="125"/>
       <c r="F87" s="34" t="s">
         <v>12</v>
       </c>
@@ -3837,13 +3840,13 @@
       <c r="H87" s="34"/>
     </row>
     <row r="88" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="92" t="s">
+      <c r="A88" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="B88" s="92"/>
-      <c r="C88" s="92"/>
-      <c r="D88" s="92"/>
-      <c r="E88" s="92"/>
+      <c r="B88" s="125"/>
+      <c r="C88" s="125"/>
+      <c r="D88" s="125"/>
+      <c r="E88" s="125"/>
       <c r="F88" s="34" t="s">
         <v>12</v>
       </c>
@@ -3853,13 +3856,13 @@
       <c r="H88" s="34"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="92" t="s">
+      <c r="A89" s="125" t="s">
         <v>74</v>
       </c>
-      <c r="B89" s="92"/>
-      <c r="C89" s="92"/>
-      <c r="D89" s="92"/>
-      <c r="E89" s="92"/>
+      <c r="B89" s="125"/>
+      <c r="C89" s="125"/>
+      <c r="D89" s="125"/>
+      <c r="E89" s="125"/>
       <c r="F89" s="34" t="s">
         <v>12</v>
       </c>
@@ -3869,13 +3872,13 @@
       <c r="H89" s="34"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="92" t="s">
+      <c r="A90" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="B90" s="92"/>
-      <c r="C90" s="92"/>
-      <c r="D90" s="92"/>
-      <c r="E90" s="92"/>
+      <c r="B90" s="125"/>
+      <c r="C90" s="125"/>
+      <c r="D90" s="125"/>
+      <c r="E90" s="125"/>
       <c r="F90" s="34" t="s">
         <v>12</v>
       </c>
@@ -3885,13 +3888,13 @@
       <c r="H90" s="34"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="92" t="s">
+      <c r="A91" s="125" t="s">
         <v>76</v>
       </c>
-      <c r="B91" s="92"/>
-      <c r="C91" s="92"/>
-      <c r="D91" s="92"/>
-      <c r="E91" s="92"/>
+      <c r="B91" s="125"/>
+      <c r="C91" s="125"/>
+      <c r="D91" s="125"/>
+      <c r="E91" s="125"/>
       <c r="F91" s="34" t="s">
         <v>12</v>
       </c>
@@ -3901,13 +3904,13 @@
       <c r="H91" s="34"/>
     </row>
     <row r="92" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="92" t="s">
+      <c r="A92" s="125" t="s">
         <v>77</v>
       </c>
-      <c r="B92" s="92"/>
-      <c r="C92" s="92"/>
-      <c r="D92" s="92"/>
-      <c r="E92" s="92"/>
+      <c r="B92" s="125"/>
+      <c r="C92" s="125"/>
+      <c r="D92" s="125"/>
+      <c r="E92" s="125"/>
       <c r="F92" s="34" t="s">
         <v>12</v>
       </c>
@@ -3917,13 +3920,13 @@
       <c r="H92" s="34"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="92" t="s">
+      <c r="A93" s="125" t="s">
         <v>78</v>
       </c>
-      <c r="B93" s="92"/>
-      <c r="C93" s="92"/>
-      <c r="D93" s="92"/>
-      <c r="E93" s="92"/>
+      <c r="B93" s="125"/>
+      <c r="C93" s="125"/>
+      <c r="D93" s="125"/>
+      <c r="E93" s="125"/>
       <c r="F93" s="34" t="s">
         <v>12</v>
       </c>
@@ -3933,103 +3936,103 @@
       <c r="H93" s="34"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="53"/>
-      <c r="B94" s="53"/>
-      <c r="C94" s="53"/>
-      <c r="D94" s="53"/>
-      <c r="E94" s="53"/>
-      <c r="F94" s="50"/>
-      <c r="G94" s="50"/>
-      <c r="H94" s="50"/>
+      <c r="A94" s="52"/>
+      <c r="B94" s="52"/>
+      <c r="C94" s="52"/>
+      <c r="D94" s="52"/>
+      <c r="E94" s="52"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="22"/>
     </row>
     <row r="95" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="43"/>
       <c r="B95" s="43"/>
-      <c r="C95" s="95" t="s">
+      <c r="C95" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="D95" s="95"/>
-      <c r="E95" s="95"/>
-      <c r="F95" s="95"/>
-      <c r="G95" s="95"/>
-      <c r="H95" s="95"/>
+      <c r="D95" s="87"/>
+      <c r="E95" s="87"/>
+      <c r="F95" s="87"/>
+      <c r="G95" s="87"/>
+      <c r="H95" s="87"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="43"/>
       <c r="B96" s="43"/>
-      <c r="C96" s="96"/>
-      <c r="D96" s="96"/>
-      <c r="E96" s="96"/>
-      <c r="F96" s="96"/>
-      <c r="G96" s="96"/>
-      <c r="H96" s="96"/>
+      <c r="C96" s="88"/>
+      <c r="D96" s="88"/>
+      <c r="E96" s="88"/>
+      <c r="F96" s="88"/>
+      <c r="G96" s="88"/>
+      <c r="H96" s="88"/>
     </row>
     <row r="97" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="66" t="s">
+      <c r="A97" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B97" s="67"/>
-      <c r="C97" s="89" t="str">
+      <c r="B97" s="120"/>
+      <c r="C97" s="129" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D97" s="90"/>
-      <c r="E97" s="90"/>
-      <c r="F97" s="90"/>
-      <c r="G97" s="91"/>
-      <c r="H97" s="86"/>
+      <c r="D97" s="130"/>
+      <c r="E97" s="130"/>
+      <c r="F97" s="130"/>
+      <c r="G97" s="135"/>
+      <c r="H97" s="126"/>
     </row>
     <row r="98" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="66" t="s">
+      <c r="A98" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B98" s="67"/>
-      <c r="C98" s="97" t="str">
+      <c r="B98" s="120"/>
+      <c r="C98" s="131" t="str">
         <f>$C$4</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D98" s="98"/>
-      <c r="E98" s="98"/>
-      <c r="F98" s="98"/>
-      <c r="G98" s="99"/>
-      <c r="H98" s="87"/>
+      <c r="D98" s="132"/>
+      <c r="E98" s="132"/>
+      <c r="F98" s="132"/>
+      <c r="G98" s="136"/>
+      <c r="H98" s="127"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="66" t="s">
+      <c r="A99" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="B99" s="67"/>
-      <c r="C99" s="97" t="str">
+      <c r="B99" s="120"/>
+      <c r="C99" s="131" t="str">
         <f>$C$5</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D99" s="98"/>
-      <c r="E99" s="98"/>
-      <c r="F99" s="98"/>
-      <c r="G99" s="99"/>
-      <c r="H99" s="87"/>
+      <c r="D99" s="132"/>
+      <c r="E99" s="132"/>
+      <c r="F99" s="132"/>
+      <c r="G99" s="136"/>
+      <c r="H99" s="127"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="104" t="s">
+      <c r="A100" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="B100" s="105"/>
-      <c r="C100" s="100" t="str">
+      <c r="B100" s="122"/>
+      <c r="C100" s="133" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
-      <c r="D100" s="101"/>
-      <c r="E100" s="101"/>
-      <c r="F100" s="101"/>
-      <c r="G100" s="102"/>
-      <c r="H100" s="88"/>
+      <c r="D100" s="134"/>
+      <c r="E100" s="134"/>
+      <c r="F100" s="134"/>
+      <c r="G100" s="137"/>
+      <c r="H100" s="128"/>
     </row>
     <row r="101" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A101" s="85"/>
-      <c r="B101" s="85"/>
-      <c r="C101" s="85"/>
-      <c r="D101" s="85"/>
-      <c r="E101" s="85"/>
+      <c r="A101" s="123"/>
+      <c r="B101" s="123"/>
+      <c r="C101" s="123"/>
+      <c r="D101" s="123"/>
+      <c r="E101" s="123"/>
       <c r="F101" s="45" t="s">
         <v>52</v>
       </c>
@@ -4041,13 +4044,13 @@
       </c>
     </row>
     <row r="102" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="103" t="s">
+      <c r="A102" s="124" t="s">
         <v>167</v>
       </c>
-      <c r="B102" s="103"/>
-      <c r="C102" s="103"/>
-      <c r="D102" s="103"/>
-      <c r="E102" s="103"/>
+      <c r="B102" s="124"/>
+      <c r="C102" s="124"/>
+      <c r="D102" s="124"/>
+      <c r="E102" s="124"/>
       <c r="F102" s="33"/>
       <c r="G102" s="33" t="s">
         <v>12</v>
@@ -4055,13 +4058,13 @@
       <c r="H102" s="33"/>
     </row>
     <row r="103" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="92" t="s">
+      <c r="A103" s="125" t="s">
         <v>80</v>
       </c>
-      <c r="B103" s="92"/>
-      <c r="C103" s="92"/>
-      <c r="D103" s="92"/>
-      <c r="E103" s="92"/>
+      <c r="B103" s="125"/>
+      <c r="C103" s="125"/>
+      <c r="D103" s="125"/>
+      <c r="E103" s="125"/>
       <c r="F103" s="34" t="s">
         <v>12</v>
       </c>
@@ -4071,13 +4074,13 @@
       <c r="H103" s="34"/>
     </row>
     <row r="104" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="92" t="s">
+      <c r="A104" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="B104" s="92"/>
-      <c r="C104" s="92"/>
-      <c r="D104" s="92"/>
-      <c r="E104" s="92"/>
+      <c r="B104" s="125"/>
+      <c r="C104" s="125"/>
+      <c r="D104" s="125"/>
+      <c r="E104" s="125"/>
       <c r="F104" s="34" t="s">
         <v>12</v>
       </c>
@@ -4087,13 +4090,13 @@
       <c r="H104" s="34"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="92" t="s">
+      <c r="A105" s="125" t="s">
         <v>82</v>
       </c>
-      <c r="B105" s="92"/>
-      <c r="C105" s="92"/>
-      <c r="D105" s="92"/>
-      <c r="E105" s="92"/>
+      <c r="B105" s="125"/>
+      <c r="C105" s="125"/>
+      <c r="D105" s="125"/>
+      <c r="E105" s="125"/>
       <c r="F105" s="34" t="s">
         <v>12</v>
       </c>
@@ -4103,13 +4106,13 @@
       <c r="H105" s="34"/>
     </row>
     <row r="106" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="103" t="s">
+      <c r="A106" s="124" t="s">
         <v>166</v>
       </c>
-      <c r="B106" s="103"/>
-      <c r="C106" s="103"/>
-      <c r="D106" s="103"/>
-      <c r="E106" s="103"/>
+      <c r="B106" s="124"/>
+      <c r="C106" s="124"/>
+      <c r="D106" s="124"/>
+      <c r="E106" s="124"/>
       <c r="F106" s="33"/>
       <c r="G106" s="33" t="s">
         <v>12</v>
@@ -4117,13 +4120,13 @@
       <c r="H106" s="33"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="92" t="s">
+      <c r="A107" s="125" t="s">
         <v>83</v>
       </c>
-      <c r="B107" s="92"/>
-      <c r="C107" s="92"/>
-      <c r="D107" s="92"/>
-      <c r="E107" s="92"/>
+      <c r="B107" s="125"/>
+      <c r="C107" s="125"/>
+      <c r="D107" s="125"/>
+      <c r="E107" s="125"/>
       <c r="F107" s="34" t="s">
         <v>12</v>
       </c>
@@ -4133,13 +4136,13 @@
       <c r="H107" s="34"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="92" t="s">
+      <c r="A108" s="125" t="s">
         <v>84</v>
       </c>
-      <c r="B108" s="92"/>
-      <c r="C108" s="92"/>
-      <c r="D108" s="92"/>
-      <c r="E108" s="92"/>
+      <c r="B108" s="125"/>
+      <c r="C108" s="125"/>
+      <c r="D108" s="125"/>
+      <c r="E108" s="125"/>
       <c r="F108" s="34" t="s">
         <v>12</v>
       </c>
@@ -4149,13 +4152,13 @@
       <c r="H108" s="34"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="92" t="s">
+      <c r="A109" s="125" t="s">
         <v>85</v>
       </c>
-      <c r="B109" s="92"/>
-      <c r="C109" s="92"/>
-      <c r="D109" s="92"/>
-      <c r="E109" s="92"/>
+      <c r="B109" s="125"/>
+      <c r="C109" s="125"/>
+      <c r="D109" s="125"/>
+      <c r="E109" s="125"/>
       <c r="F109" s="34" t="s">
         <v>12</v>
       </c>
@@ -4165,13 +4168,13 @@
       <c r="H109" s="34"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" s="92" t="s">
+      <c r="A110" s="125" t="s">
         <v>86</v>
       </c>
-      <c r="B110" s="92"/>
-      <c r="C110" s="92"/>
-      <c r="D110" s="92"/>
-      <c r="E110" s="92"/>
+      <c r="B110" s="125"/>
+      <c r="C110" s="125"/>
+      <c r="D110" s="125"/>
+      <c r="E110" s="125"/>
       <c r="F110" s="34" t="s">
         <v>12</v>
       </c>
@@ -4181,13 +4184,13 @@
       <c r="H110" s="34"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="92" t="s">
+      <c r="A111" s="125" t="s">
         <v>87</v>
       </c>
-      <c r="B111" s="92"/>
-      <c r="C111" s="92"/>
-      <c r="D111" s="92"/>
-      <c r="E111" s="92"/>
+      <c r="B111" s="125"/>
+      <c r="C111" s="125"/>
+      <c r="D111" s="125"/>
+      <c r="E111" s="125"/>
       <c r="F111" s="34" t="s">
         <v>12</v>
       </c>
@@ -4197,13 +4200,13 @@
       <c r="H111" s="34"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="92" t="s">
+      <c r="A112" s="125" t="s">
         <v>88</v>
       </c>
-      <c r="B112" s="92"/>
-      <c r="C112" s="92"/>
-      <c r="D112" s="92"/>
-      <c r="E112" s="92"/>
+      <c r="B112" s="125"/>
+      <c r="C112" s="125"/>
+      <c r="D112" s="125"/>
+      <c r="E112" s="125"/>
       <c r="F112" s="34" t="s">
         <v>12</v>
       </c>
@@ -4213,13 +4216,13 @@
       <c r="H112" s="34"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="92" t="s">
+      <c r="A113" s="125" t="s">
         <v>89</v>
       </c>
-      <c r="B113" s="92"/>
-      <c r="C113" s="92"/>
-      <c r="D113" s="92"/>
-      <c r="E113" s="92"/>
+      <c r="B113" s="125"/>
+      <c r="C113" s="125"/>
+      <c r="D113" s="125"/>
+      <c r="E113" s="125"/>
       <c r="F113" s="34" t="s">
         <v>12</v>
       </c>
@@ -4229,13 +4232,13 @@
       <c r="H113" s="34"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="92" t="s">
+      <c r="A114" s="125" t="s">
         <v>90</v>
       </c>
-      <c r="B114" s="92"/>
-      <c r="C114" s="92"/>
-      <c r="D114" s="92"/>
-      <c r="E114" s="92"/>
+      <c r="B114" s="125"/>
+      <c r="C114" s="125"/>
+      <c r="D114" s="125"/>
+      <c r="E114" s="125"/>
       <c r="F114" s="34" t="s">
         <v>12</v>
       </c>
@@ -4245,13 +4248,13 @@
       <c r="H114" s="34"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="92" t="s">
+      <c r="A115" s="125" t="s">
         <v>91</v>
       </c>
-      <c r="B115" s="92"/>
-      <c r="C115" s="92"/>
-      <c r="D115" s="92"/>
-      <c r="E115" s="92"/>
+      <c r="B115" s="125"/>
+      <c r="C115" s="125"/>
+      <c r="D115" s="125"/>
+      <c r="E115" s="125"/>
       <c r="F115" s="34" t="s">
         <v>12</v>
       </c>
@@ -4261,13 +4264,13 @@
       <c r="H115" s="34"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="92" t="s">
+      <c r="A116" s="125" t="s">
         <v>92</v>
       </c>
-      <c r="B116" s="92"/>
-      <c r="C116" s="92"/>
-      <c r="D116" s="92"/>
-      <c r="E116" s="92"/>
+      <c r="B116" s="125"/>
+      <c r="C116" s="125"/>
+      <c r="D116" s="125"/>
+      <c r="E116" s="125"/>
       <c r="F116" s="34" t="s">
         <v>12</v>
       </c>
@@ -4277,13 +4280,13 @@
       <c r="H116" s="34"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="92" t="s">
+      <c r="A117" s="125" t="s">
         <v>93</v>
       </c>
-      <c r="B117" s="92"/>
-      <c r="C117" s="92"/>
-      <c r="D117" s="92"/>
-      <c r="E117" s="92"/>
+      <c r="B117" s="125"/>
+      <c r="C117" s="125"/>
+      <c r="D117" s="125"/>
+      <c r="E117" s="125"/>
       <c r="F117" s="34" t="s">
         <v>12</v>
       </c>
@@ -4293,13 +4296,13 @@
       <c r="H117" s="34"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="92" t="s">
+      <c r="A118" s="125" t="s">
         <v>94</v>
       </c>
-      <c r="B118" s="92"/>
-      <c r="C118" s="92"/>
-      <c r="D118" s="92"/>
-      <c r="E118" s="92"/>
+      <c r="B118" s="125"/>
+      <c r="C118" s="125"/>
+      <c r="D118" s="125"/>
+      <c r="E118" s="125"/>
       <c r="F118" s="34" t="s">
         <v>12</v>
       </c>
@@ -4309,13 +4312,13 @@
       <c r="H118" s="34"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="92" t="s">
+      <c r="A119" s="125" t="s">
         <v>95</v>
       </c>
-      <c r="B119" s="92"/>
-      <c r="C119" s="92"/>
-      <c r="D119" s="92"/>
-      <c r="E119" s="92"/>
+      <c r="B119" s="125"/>
+      <c r="C119" s="125"/>
+      <c r="D119" s="125"/>
+      <c r="E119" s="125"/>
       <c r="F119" s="34" t="s">
         <v>12</v>
       </c>
@@ -4325,13 +4328,13 @@
       <c r="H119" s="34"/>
     </row>
     <row r="120" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="92" t="s">
+      <c r="A120" s="125" t="s">
         <v>96</v>
       </c>
-      <c r="B120" s="92"/>
-      <c r="C120" s="92"/>
-      <c r="D120" s="92"/>
-      <c r="E120" s="92"/>
+      <c r="B120" s="125"/>
+      <c r="C120" s="125"/>
+      <c r="D120" s="125"/>
+      <c r="E120" s="125"/>
       <c r="F120" s="34" t="s">
         <v>12</v>
       </c>
@@ -4341,13 +4344,13 @@
       <c r="H120" s="34"/>
     </row>
     <row r="121" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="92" t="s">
+      <c r="A121" s="125" t="s">
         <v>97</v>
       </c>
-      <c r="B121" s="92"/>
-      <c r="C121" s="92"/>
-      <c r="D121" s="92"/>
-      <c r="E121" s="92"/>
+      <c r="B121" s="125"/>
+      <c r="C121" s="125"/>
+      <c r="D121" s="125"/>
+      <c r="E121" s="125"/>
       <c r="F121" s="34" t="s">
         <v>12</v>
       </c>
@@ -4357,13 +4360,13 @@
       <c r="H121" s="34"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="92" t="s">
+      <c r="A122" s="125" t="s">
         <v>98</v>
       </c>
-      <c r="B122" s="92"/>
-      <c r="C122" s="92"/>
-      <c r="D122" s="92"/>
-      <c r="E122" s="92"/>
+      <c r="B122" s="125"/>
+      <c r="C122" s="125"/>
+      <c r="D122" s="125"/>
+      <c r="E122" s="125"/>
       <c r="F122" s="34" t="s">
         <v>12</v>
       </c>
@@ -4373,13 +4376,13 @@
       <c r="H122" s="34"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="92" t="s">
+      <c r="A123" s="125" t="s">
         <v>99</v>
       </c>
-      <c r="B123" s="92"/>
-      <c r="C123" s="92"/>
-      <c r="D123" s="92"/>
-      <c r="E123" s="92"/>
+      <c r="B123" s="125"/>
+      <c r="C123" s="125"/>
+      <c r="D123" s="125"/>
+      <c r="E123" s="125"/>
       <c r="F123" s="34" t="s">
         <v>12</v>
       </c>
@@ -4389,13 +4392,13 @@
       <c r="H123" s="34"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="92" t="s">
+      <c r="A124" s="125" t="s">
         <v>100</v>
       </c>
-      <c r="B124" s="92"/>
-      <c r="C124" s="92"/>
-      <c r="D124" s="92"/>
-      <c r="E124" s="92"/>
+      <c r="B124" s="125"/>
+      <c r="C124" s="125"/>
+      <c r="D124" s="125"/>
+      <c r="E124" s="125"/>
       <c r="F124" s="34" t="s">
         <v>12</v>
       </c>
@@ -4405,13 +4408,13 @@
       <c r="H124" s="34"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" s="92" t="s">
+      <c r="A125" s="125" t="s">
         <v>101</v>
       </c>
-      <c r="B125" s="92"/>
-      <c r="C125" s="92"/>
-      <c r="D125" s="92"/>
-      <c r="E125" s="92"/>
+      <c r="B125" s="125"/>
+      <c r="C125" s="125"/>
+      <c r="D125" s="125"/>
+      <c r="E125" s="125"/>
       <c r="F125" s="34" t="s">
         <v>12</v>
       </c>
@@ -4421,13 +4424,13 @@
       <c r="H125" s="34"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="92" t="s">
+      <c r="A126" s="125" t="s">
         <v>102</v>
       </c>
-      <c r="B126" s="92"/>
-      <c r="C126" s="92"/>
-      <c r="D126" s="92"/>
-      <c r="E126" s="92"/>
+      <c r="B126" s="125"/>
+      <c r="C126" s="125"/>
+      <c r="D126" s="125"/>
+      <c r="E126" s="125"/>
       <c r="F126" s="34" t="s">
         <v>12</v>
       </c>
@@ -4437,13 +4440,13 @@
       <c r="H126" s="34"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="92" t="s">
+      <c r="A127" s="125" t="s">
         <v>103</v>
       </c>
-      <c r="B127" s="92"/>
-      <c r="C127" s="92"/>
-      <c r="D127" s="92"/>
-      <c r="E127" s="92"/>
+      <c r="B127" s="125"/>
+      <c r="C127" s="125"/>
+      <c r="D127" s="125"/>
+      <c r="E127" s="125"/>
       <c r="F127" s="34" t="s">
         <v>12</v>
       </c>
@@ -4453,13 +4456,13 @@
       <c r="H127" s="34"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="92" t="s">
+      <c r="A128" s="125" t="s">
         <v>104</v>
       </c>
-      <c r="B128" s="92"/>
-      <c r="C128" s="92"/>
-      <c r="D128" s="92"/>
-      <c r="E128" s="92"/>
+      <c r="B128" s="125"/>
+      <c r="C128" s="125"/>
+      <c r="D128" s="125"/>
+      <c r="E128" s="125"/>
       <c r="F128" s="34" t="s">
         <v>12</v>
       </c>
@@ -4469,13 +4472,13 @@
       <c r="H128" s="34"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="92" t="s">
+      <c r="A129" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="B129" s="92"/>
-      <c r="C129" s="92"/>
-      <c r="D129" s="92"/>
-      <c r="E129" s="92"/>
+      <c r="B129" s="125"/>
+      <c r="C129" s="125"/>
+      <c r="D129" s="125"/>
+      <c r="E129" s="125"/>
       <c r="F129" s="34" t="s">
         <v>12</v>
       </c>
@@ -4485,13 +4488,13 @@
       <c r="H129" s="34"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="92" t="s">
+      <c r="A130" s="125" t="s">
         <v>106</v>
       </c>
-      <c r="B130" s="92"/>
-      <c r="C130" s="92"/>
-      <c r="D130" s="92"/>
-      <c r="E130" s="92"/>
+      <c r="B130" s="125"/>
+      <c r="C130" s="125"/>
+      <c r="D130" s="125"/>
+      <c r="E130" s="125"/>
       <c r="F130" s="34" t="s">
         <v>12</v>
       </c>
@@ -4501,13 +4504,13 @@
       <c r="H130" s="34"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="92" t="s">
+      <c r="A131" s="125" t="s">
         <v>107</v>
       </c>
-      <c r="B131" s="92"/>
-      <c r="C131" s="92"/>
-      <c r="D131" s="92"/>
-      <c r="E131" s="92"/>
+      <c r="B131" s="125"/>
+      <c r="C131" s="125"/>
+      <c r="D131" s="125"/>
+      <c r="E131" s="125"/>
       <c r="F131" s="34" t="s">
         <v>12</v>
       </c>
@@ -4517,13 +4520,13 @@
       <c r="H131" s="34"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="92" t="s">
+      <c r="A132" s="125" t="s">
         <v>108</v>
       </c>
-      <c r="B132" s="92"/>
-      <c r="C132" s="92"/>
-      <c r="D132" s="92"/>
-      <c r="E132" s="92"/>
+      <c r="B132" s="125"/>
+      <c r="C132" s="125"/>
+      <c r="D132" s="125"/>
+      <c r="E132" s="125"/>
       <c r="F132" s="34" t="s">
         <v>12</v>
       </c>
@@ -4533,13 +4536,13 @@
       <c r="H132" s="34"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" s="92" t="s">
+      <c r="A133" s="125" t="s">
         <v>109</v>
       </c>
-      <c r="B133" s="92"/>
-      <c r="C133" s="92"/>
-      <c r="D133" s="92"/>
-      <c r="E133" s="92"/>
+      <c r="B133" s="125"/>
+      <c r="C133" s="125"/>
+      <c r="D133" s="125"/>
+      <c r="E133" s="125"/>
       <c r="F133" s="34" t="s">
         <v>12</v>
       </c>
@@ -4549,13 +4552,13 @@
       <c r="H133" s="34"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="92" t="s">
+      <c r="A134" s="125" t="s">
         <v>110</v>
       </c>
-      <c r="B134" s="92"/>
-      <c r="C134" s="92"/>
-      <c r="D134" s="92"/>
-      <c r="E134" s="92"/>
+      <c r="B134" s="125"/>
+      <c r="C134" s="125"/>
+      <c r="D134" s="125"/>
+      <c r="E134" s="125"/>
       <c r="F134" s="34" t="s">
         <v>12</v>
       </c>
@@ -4565,737 +4568,737 @@
       <c r="H134" s="34"/>
     </row>
     <row r="135" spans="1:8" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="93" t="s">
+      <c r="A135" s="138" t="s">
         <v>111</v>
       </c>
-      <c r="B135" s="93"/>
-      <c r="C135" s="94"/>
-      <c r="D135" s="94"/>
-      <c r="E135" s="94"/>
-      <c r="F135" s="94"/>
-      <c r="G135" s="94"/>
-      <c r="H135" s="94"/>
+      <c r="B135" s="138"/>
+      <c r="C135" s="139"/>
+      <c r="D135" s="139"/>
+      <c r="E135" s="139"/>
+      <c r="F135" s="139"/>
+      <c r="G135" s="139"/>
+      <c r="H135" s="139"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="51"/>
-      <c r="B136" s="51"/>
-      <c r="C136" s="52"/>
-      <c r="D136" s="52"/>
-      <c r="E136" s="52"/>
-      <c r="F136" s="52"/>
-      <c r="G136" s="52"/>
-      <c r="H136" s="52"/>
+      <c r="A136" s="50"/>
+      <c r="B136" s="50"/>
+      <c r="C136" s="51"/>
+      <c r="D136" s="51"/>
+      <c r="E136" s="51"/>
+      <c r="F136" s="51"/>
+      <c r="G136" s="51"/>
+      <c r="H136" s="51"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="43"/>
       <c r="B137" s="43"/>
-      <c r="C137" s="95" t="s">
+      <c r="C137" s="87" t="s">
         <v>157</v>
       </c>
-      <c r="D137" s="95"/>
-      <c r="E137" s="95"/>
-      <c r="F137" s="95"/>
-      <c r="G137" s="95"/>
-      <c r="H137" s="95"/>
+      <c r="D137" s="87"/>
+      <c r="E137" s="87"/>
+      <c r="F137" s="87"/>
+      <c r="G137" s="87"/>
+      <c r="H137" s="87"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="43"/>
       <c r="B138" s="43"/>
-      <c r="C138" s="96"/>
-      <c r="D138" s="96"/>
-      <c r="E138" s="96"/>
-      <c r="F138" s="96"/>
-      <c r="G138" s="96"/>
-      <c r="H138" s="96"/>
+      <c r="C138" s="88"/>
+      <c r="D138" s="88"/>
+      <c r="E138" s="88"/>
+      <c r="F138" s="88"/>
+      <c r="G138" s="88"/>
+      <c r="H138" s="88"/>
     </row>
     <row r="139" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="66" t="s">
+      <c r="A139" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B139" s="67"/>
-      <c r="C139" s="89" t="str">
+      <c r="B139" s="120"/>
+      <c r="C139" s="129" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D139" s="90"/>
-      <c r="E139" s="90"/>
-      <c r="F139" s="90"/>
-      <c r="G139" s="91"/>
-      <c r="H139" s="86"/>
+      <c r="D139" s="130"/>
+      <c r="E139" s="130"/>
+      <c r="F139" s="130"/>
+      <c r="G139" s="135"/>
+      <c r="H139" s="126"/>
     </row>
     <row r="140" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="66" t="s">
+      <c r="A140" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B140" s="67"/>
-      <c r="C140" s="89" t="str">
+      <c r="B140" s="120"/>
+      <c r="C140" s="129" t="str">
         <f>$C$4</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D140" s="90"/>
-      <c r="E140" s="90"/>
-      <c r="F140" s="90"/>
-      <c r="G140" s="91"/>
-      <c r="H140" s="87"/>
+      <c r="D140" s="130"/>
+      <c r="E140" s="130"/>
+      <c r="F140" s="130"/>
+      <c r="G140" s="135"/>
+      <c r="H140" s="127"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="66" t="s">
+      <c r="A141" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="B141" s="67"/>
-      <c r="C141" s="89" t="str">
+      <c r="B141" s="120"/>
+      <c r="C141" s="129" t="str">
         <f>$C$5</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D141" s="90"/>
-      <c r="E141" s="90"/>
-      <c r="F141" s="90"/>
-      <c r="G141" s="91"/>
-      <c r="H141" s="87"/>
+      <c r="D141" s="130"/>
+      <c r="E141" s="130"/>
+      <c r="F141" s="130"/>
+      <c r="G141" s="135"/>
+      <c r="H141" s="127"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="66" t="s">
+      <c r="A142" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="B142" s="67"/>
-      <c r="C142" s="89" t="str">
+      <c r="B142" s="120"/>
+      <c r="C142" s="129" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
-      <c r="D142" s="90"/>
-      <c r="E142" s="90"/>
-      <c r="F142" s="90"/>
-      <c r="G142" s="91"/>
-      <c r="H142" s="88"/>
+      <c r="D142" s="130"/>
+      <c r="E142" s="130"/>
+      <c r="F142" s="130"/>
+      <c r="G142" s="135"/>
+      <c r="H142" s="128"/>
     </row>
     <row r="143" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="82" t="s">
+      <c r="A143" s="148" t="s">
         <v>112</v>
       </c>
-      <c r="B143" s="83"/>
-      <c r="C143" s="82" t="s">
+      <c r="B143" s="149"/>
+      <c r="C143" s="148" t="s">
         <v>113</v>
       </c>
-      <c r="D143" s="84"/>
-      <c r="E143" s="84"/>
+      <c r="D143" s="150"/>
+      <c r="E143" s="150"/>
       <c r="F143" s="35"/>
-      <c r="G143" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="H143" s="85"/>
+      <c r="G143" s="123" t="s">
+        <v>12</v>
+      </c>
+      <c r="H143" s="123"/>
     </row>
     <row r="144" spans="1:8" s="37" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="78" t="s">
+      <c r="A144" s="140" t="s">
         <v>114</v>
       </c>
-      <c r="B144" s="79"/>
-      <c r="C144" s="79"/>
-      <c r="D144" s="79"/>
-      <c r="E144" s="80"/>
+      <c r="B144" s="141"/>
+      <c r="C144" s="141"/>
+      <c r="D144" s="141"/>
+      <c r="E144" s="142"/>
       <c r="F144" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="G144" s="81" t="s">
+      <c r="G144" s="143" t="s">
         <v>116</v>
       </c>
-      <c r="H144" s="81"/>
+      <c r="H144" s="143"/>
     </row>
     <row r="145" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="68" t="s">
+      <c r="A145" s="144" t="s">
         <v>117</v>
       </c>
-      <c r="B145" s="69"/>
-      <c r="C145" s="69"/>
-      <c r="D145" s="69"/>
-      <c r="E145" s="70"/>
+      <c r="B145" s="145"/>
+      <c r="C145" s="145"/>
+      <c r="D145" s="145"/>
+      <c r="E145" s="146"/>
       <c r="F145" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G145" s="71" t="s">
+      <c r="G145" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="H145" s="71"/>
+      <c r="H145" s="147"/>
     </row>
     <row r="146" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="68" t="s">
+      <c r="A146" s="144" t="s">
         <v>119</v>
       </c>
-      <c r="B146" s="69"/>
-      <c r="C146" s="69"/>
-      <c r="D146" s="69"/>
-      <c r="E146" s="70"/>
+      <c r="B146" s="145"/>
+      <c r="C146" s="145"/>
+      <c r="D146" s="145"/>
+      <c r="E146" s="146"/>
       <c r="F146" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G146" s="71" t="s">
+      <c r="G146" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="H146" s="71"/>
+      <c r="H146" s="147"/>
     </row>
     <row r="147" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="68" t="s">
+      <c r="A147" s="144" t="s">
         <v>120</v>
       </c>
-      <c r="B147" s="69"/>
-      <c r="C147" s="69"/>
-      <c r="D147" s="69"/>
-      <c r="E147" s="70"/>
+      <c r="B147" s="145"/>
+      <c r="C147" s="145"/>
+      <c r="D147" s="145"/>
+      <c r="E147" s="146"/>
       <c r="F147" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G147" s="71" t="s">
+      <c r="G147" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="H147" s="71"/>
+      <c r="H147" s="147"/>
     </row>
     <row r="148" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="68" t="s">
+      <c r="A148" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="B148" s="69"/>
-      <c r="C148" s="69"/>
-      <c r="D148" s="69"/>
-      <c r="E148" s="70"/>
+      <c r="B148" s="145"/>
+      <c r="C148" s="145"/>
+      <c r="D148" s="145"/>
+      <c r="E148" s="146"/>
       <c r="F148" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G148" s="71" t="s">
+      <c r="G148" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="H148" s="71"/>
+      <c r="H148" s="147"/>
     </row>
     <row r="149" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="68" t="s">
+      <c r="A149" s="144" t="s">
         <v>122</v>
       </c>
-      <c r="B149" s="69"/>
-      <c r="C149" s="69"/>
-      <c r="D149" s="69"/>
-      <c r="E149" s="70"/>
+      <c r="B149" s="145"/>
+      <c r="C149" s="145"/>
+      <c r="D149" s="145"/>
+      <c r="E149" s="146"/>
       <c r="F149" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G149" s="71" t="s">
+      <c r="G149" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="H149" s="71"/>
+      <c r="H149" s="147"/>
     </row>
     <row r="150" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="68" t="s">
+      <c r="A150" s="144" t="s">
         <v>123</v>
       </c>
-      <c r="B150" s="69"/>
-      <c r="C150" s="69"/>
-      <c r="D150" s="69"/>
-      <c r="E150" s="70"/>
+      <c r="B150" s="145"/>
+      <c r="C150" s="145"/>
+      <c r="D150" s="145"/>
+      <c r="E150" s="146"/>
       <c r="F150" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G150" s="71" t="s">
+      <c r="G150" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="H150" s="71"/>
+      <c r="H150" s="147"/>
     </row>
     <row r="151" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="68" t="s">
+      <c r="A151" s="144" t="s">
         <v>124</v>
       </c>
-      <c r="B151" s="69"/>
-      <c r="C151" s="69"/>
-      <c r="D151" s="69"/>
-      <c r="E151" s="70"/>
+      <c r="B151" s="145"/>
+      <c r="C151" s="145"/>
+      <c r="D151" s="145"/>
+      <c r="E151" s="146"/>
       <c r="F151" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G151" s="71" t="s">
+      <c r="G151" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="H151" s="71"/>
+      <c r="H151" s="147"/>
     </row>
     <row r="152" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="68" t="s">
+      <c r="A152" s="144" t="s">
         <v>148</v>
       </c>
-      <c r="B152" s="69"/>
-      <c r="C152" s="69"/>
-      <c r="D152" s="69"/>
-      <c r="E152" s="70"/>
+      <c r="B152" s="145"/>
+      <c r="C152" s="145"/>
+      <c r="D152" s="145"/>
+      <c r="E152" s="146"/>
       <c r="F152" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G152" s="71" t="s">
+      <c r="G152" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="H152" s="71"/>
+      <c r="H152" s="147"/>
     </row>
     <row r="153" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="68" t="s">
+      <c r="A153" s="144" t="s">
         <v>125</v>
       </c>
-      <c r="B153" s="69"/>
-      <c r="C153" s="69"/>
-      <c r="D153" s="69"/>
-      <c r="E153" s="70"/>
+      <c r="B153" s="145"/>
+      <c r="C153" s="145"/>
+      <c r="D153" s="145"/>
+      <c r="E153" s="146"/>
       <c r="F153" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G153" s="71" t="s">
+      <c r="G153" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="H153" s="71"/>
+      <c r="H153" s="147"/>
     </row>
     <row r="154" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="68" t="s">
+      <c r="A154" s="144" t="s">
         <v>126</v>
       </c>
-      <c r="B154" s="69"/>
-      <c r="C154" s="69"/>
-      <c r="D154" s="69"/>
-      <c r="E154" s="70"/>
+      <c r="B154" s="145"/>
+      <c r="C154" s="145"/>
+      <c r="D154" s="145"/>
+      <c r="E154" s="146"/>
       <c r="F154" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G154" s="71" t="s">
+      <c r="G154" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="H154" s="71"/>
+      <c r="H154" s="147"/>
     </row>
     <row r="155" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="68" t="s">
+      <c r="A155" s="144" t="s">
         <v>127</v>
       </c>
-      <c r="B155" s="69"/>
-      <c r="C155" s="69"/>
-      <c r="D155" s="69"/>
-      <c r="E155" s="70"/>
+      <c r="B155" s="145"/>
+      <c r="C155" s="145"/>
+      <c r="D155" s="145"/>
+      <c r="E155" s="146"/>
       <c r="F155" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G155" s="71" t="s">
+      <c r="G155" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="H155" s="71"/>
+      <c r="H155" s="147"/>
     </row>
     <row r="156" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="68" t="s">
+      <c r="A156" s="144" t="s">
         <v>128</v>
       </c>
-      <c r="B156" s="69"/>
-      <c r="C156" s="69"/>
-      <c r="D156" s="69"/>
-      <c r="E156" s="70"/>
+      <c r="B156" s="145"/>
+      <c r="C156" s="145"/>
+      <c r="D156" s="145"/>
+      <c r="E156" s="146"/>
       <c r="F156" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G156" s="71" t="s">
+      <c r="G156" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="H156" s="71"/>
+      <c r="H156" s="147"/>
     </row>
     <row r="157" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="68" t="s">
+      <c r="A157" s="144" t="s">
         <v>129</v>
       </c>
-      <c r="B157" s="69"/>
-      <c r="C157" s="69"/>
-      <c r="D157" s="69"/>
-      <c r="E157" s="70"/>
+      <c r="B157" s="145"/>
+      <c r="C157" s="145"/>
+      <c r="D157" s="145"/>
+      <c r="E157" s="146"/>
       <c r="F157" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G157" s="71" t="s">
+      <c r="G157" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="H157" s="71"/>
+      <c r="H157" s="147"/>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="68" t="s">
+      <c r="A158" s="144" t="s">
         <v>130</v>
       </c>
-      <c r="B158" s="69"/>
-      <c r="C158" s="69"/>
-      <c r="D158" s="69"/>
-      <c r="E158" s="70"/>
+      <c r="B158" s="145"/>
+      <c r="C158" s="145"/>
+      <c r="D158" s="145"/>
+      <c r="E158" s="146"/>
       <c r="F158" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G158" s="71" t="s">
+      <c r="G158" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="H158" s="71"/>
+      <c r="H158" s="147"/>
     </row>
     <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="68" t="s">
+      <c r="A159" s="144" t="s">
         <v>131</v>
       </c>
-      <c r="B159" s="69"/>
-      <c r="C159" s="69"/>
-      <c r="D159" s="69"/>
-      <c r="E159" s="70"/>
+      <c r="B159" s="145"/>
+      <c r="C159" s="145"/>
+      <c r="D159" s="145"/>
+      <c r="E159" s="146"/>
       <c r="F159" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G159" s="71" t="s">
+      <c r="G159" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="H159" s="71"/>
+      <c r="H159" s="147"/>
     </row>
     <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="68" t="s">
+      <c r="A160" s="144" t="s">
         <v>132</v>
       </c>
-      <c r="B160" s="69"/>
-      <c r="C160" s="69"/>
-      <c r="D160" s="69"/>
-      <c r="E160" s="70"/>
+      <c r="B160" s="145"/>
+      <c r="C160" s="145"/>
+      <c r="D160" s="145"/>
+      <c r="E160" s="146"/>
       <c r="F160" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G160" s="71" t="s">
+      <c r="G160" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="H160" s="71"/>
+      <c r="H160" s="147"/>
     </row>
     <row r="161" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="68" t="s">
+      <c r="A161" s="144" t="s">
         <v>133</v>
       </c>
-      <c r="B161" s="69"/>
-      <c r="C161" s="69"/>
-      <c r="D161" s="69"/>
-      <c r="E161" s="70"/>
+      <c r="B161" s="145"/>
+      <c r="C161" s="145"/>
+      <c r="D161" s="145"/>
+      <c r="E161" s="146"/>
       <c r="F161" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G161" s="71" t="s">
+      <c r="G161" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="H161" s="71"/>
+      <c r="H161" s="147"/>
     </row>
     <row r="162" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="68" t="s">
+      <c r="A162" s="144" t="s">
         <v>134</v>
       </c>
-      <c r="B162" s="69"/>
-      <c r="C162" s="69"/>
-      <c r="D162" s="69"/>
-      <c r="E162" s="70"/>
+      <c r="B162" s="145"/>
+      <c r="C162" s="145"/>
+      <c r="D162" s="145"/>
+      <c r="E162" s="146"/>
       <c r="F162" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G162" s="71" t="s">
+      <c r="G162" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="H162" s="71"/>
+      <c r="H162" s="147"/>
     </row>
     <row r="163" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="68" t="s">
+      <c r="A163" s="144" t="s">
         <v>151</v>
       </c>
-      <c r="B163" s="69"/>
-      <c r="C163" s="69"/>
-      <c r="D163" s="69"/>
-      <c r="E163" s="70"/>
+      <c r="B163" s="145"/>
+      <c r="C163" s="145"/>
+      <c r="D163" s="145"/>
+      <c r="E163" s="146"/>
       <c r="F163" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G163" s="71" t="s">
+      <c r="G163" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="H163" s="71"/>
+      <c r="H163" s="147"/>
     </row>
     <row r="164" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="68" t="s">
+      <c r="A164" s="144" t="s">
         <v>135</v>
       </c>
-      <c r="B164" s="69"/>
-      <c r="C164" s="69"/>
-      <c r="D164" s="69"/>
-      <c r="E164" s="70"/>
+      <c r="B164" s="145"/>
+      <c r="C164" s="145"/>
+      <c r="D164" s="145"/>
+      <c r="E164" s="146"/>
       <c r="F164" s="25"/>
-      <c r="G164" s="71" t="s">
+      <c r="G164" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="H164" s="71"/>
+      <c r="H164" s="147"/>
     </row>
     <row r="165" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="68" t="s">
+      <c r="A165" s="144" t="s">
         <v>149</v>
       </c>
-      <c r="B165" s="69"/>
-      <c r="C165" s="69"/>
-      <c r="D165" s="69"/>
-      <c r="E165" s="70"/>
+      <c r="B165" s="145"/>
+      <c r="C165" s="145"/>
+      <c r="D165" s="145"/>
+      <c r="E165" s="146"/>
       <c r="F165" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G165" s="71" t="s">
+      <c r="G165" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="H165" s="71"/>
+      <c r="H165" s="147"/>
     </row>
     <row r="166" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="68" t="s">
+      <c r="A166" s="144" t="s">
         <v>136</v>
       </c>
-      <c r="B166" s="69"/>
-      <c r="C166" s="69"/>
-      <c r="D166" s="69"/>
-      <c r="E166" s="70"/>
+      <c r="B166" s="145"/>
+      <c r="C166" s="145"/>
+      <c r="D166" s="145"/>
+      <c r="E166" s="146"/>
       <c r="F166" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G166" s="71" t="s">
+      <c r="G166" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="H166" s="71"/>
+      <c r="H166" s="147"/>
     </row>
     <row r="167" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="68" t="s">
+      <c r="A167" s="144" t="s">
         <v>137</v>
       </c>
-      <c r="B167" s="69"/>
-      <c r="C167" s="69"/>
-      <c r="D167" s="69"/>
-      <c r="E167" s="70"/>
+      <c r="B167" s="145"/>
+      <c r="C167" s="145"/>
+      <c r="D167" s="145"/>
+      <c r="E167" s="146"/>
       <c r="F167" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G167" s="71" t="s">
+      <c r="G167" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="H167" s="71"/>
+      <c r="H167" s="147"/>
     </row>
     <row r="168" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="68" t="s">
+      <c r="A168" s="144" t="s">
         <v>150</v>
       </c>
-      <c r="B168" s="69"/>
-      <c r="C168" s="69"/>
-      <c r="D168" s="69"/>
-      <c r="E168" s="70"/>
+      <c r="B168" s="145"/>
+      <c r="C168" s="145"/>
+      <c r="D168" s="145"/>
+      <c r="E168" s="146"/>
       <c r="F168" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G168" s="71" t="s">
+      <c r="G168" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="H168" s="71"/>
+      <c r="H168" s="147"/>
     </row>
     <row r="169" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="68" t="s">
+      <c r="A169" s="144" t="s">
         <v>138</v>
       </c>
-      <c r="B169" s="69"/>
-      <c r="C169" s="69"/>
-      <c r="D169" s="69"/>
-      <c r="E169" s="70"/>
+      <c r="B169" s="145"/>
+      <c r="C169" s="145"/>
+      <c r="D169" s="145"/>
+      <c r="E169" s="146"/>
       <c r="F169" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G169" s="71" t="s">
+      <c r="G169" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="H169" s="71"/>
+      <c r="H169" s="147"/>
     </row>
     <row r="170" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="75" t="s">
+      <c r="A170" s="151" t="s">
         <v>139</v>
       </c>
-      <c r="B170" s="76"/>
-      <c r="C170" s="76"/>
-      <c r="D170" s="76"/>
-      <c r="E170" s="77"/>
+      <c r="B170" s="152"/>
+      <c r="C170" s="152"/>
+      <c r="D170" s="152"/>
+      <c r="E170" s="153"/>
       <c r="F170" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G170" s="71" t="s">
+      <c r="G170" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="H170" s="71"/>
+      <c r="H170" s="147"/>
     </row>
     <row r="171" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="68" t="s">
+      <c r="A171" s="144" t="s">
         <v>140</v>
       </c>
-      <c r="B171" s="69"/>
-      <c r="C171" s="69"/>
-      <c r="D171" s="69"/>
-      <c r="E171" s="70"/>
+      <c r="B171" s="145"/>
+      <c r="C171" s="145"/>
+      <c r="D171" s="145"/>
+      <c r="E171" s="146"/>
       <c r="F171" s="25"/>
-      <c r="G171" s="71" t="s">
+      <c r="G171" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="H171" s="71"/>
+      <c r="H171" s="147"/>
     </row>
     <row r="172" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="68" t="s">
+      <c r="A172" s="144" t="s">
         <v>141</v>
       </c>
-      <c r="B172" s="69"/>
-      <c r="C172" s="69"/>
-      <c r="D172" s="69"/>
-      <c r="E172" s="70"/>
+      <c r="B172" s="145"/>
+      <c r="C172" s="145"/>
+      <c r="D172" s="145"/>
+      <c r="E172" s="146"/>
       <c r="F172" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="G172" s="71" t="s">
+      <c r="G172" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="H172" s="71"/>
+      <c r="H172" s="147"/>
     </row>
     <row r="173" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="68" t="s">
+      <c r="A173" s="144" t="s">
         <v>146</v>
       </c>
-      <c r="B173" s="69"/>
-      <c r="C173" s="69"/>
-      <c r="D173" s="69"/>
-      <c r="E173" s="70"/>
+      <c r="B173" s="145"/>
+      <c r="C173" s="145"/>
+      <c r="D173" s="145"/>
+      <c r="E173" s="146"/>
       <c r="F173" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="G173" s="71" t="s">
+      <c r="G173" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="H173" s="71"/>
+      <c r="H173" s="147"/>
     </row>
     <row r="174" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="68" t="s">
+      <c r="A174" s="144" t="s">
         <v>147</v>
       </c>
-      <c r="B174" s="69"/>
-      <c r="C174" s="69"/>
-      <c r="D174" s="69"/>
-      <c r="E174" s="70"/>
+      <c r="B174" s="145"/>
+      <c r="C174" s="145"/>
+      <c r="D174" s="145"/>
+      <c r="E174" s="146"/>
       <c r="F174" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="G174" s="71" t="s">
+      <c r="G174" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="H174" s="71"/>
+      <c r="H174" s="147"/>
     </row>
     <row r="175" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="68" t="s">
+      <c r="A175" s="144" t="s">
         <v>143</v>
       </c>
-      <c r="B175" s="69"/>
-      <c r="C175" s="69"/>
-      <c r="D175" s="69"/>
-      <c r="E175" s="70"/>
+      <c r="B175" s="145"/>
+      <c r="C175" s="145"/>
+      <c r="D175" s="145"/>
+      <c r="E175" s="146"/>
       <c r="F175" s="25"/>
-      <c r="G175" s="71" t="s">
+      <c r="G175" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="H175" s="71"/>
+      <c r="H175" s="147"/>
     </row>
     <row r="176" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="68" t="s">
+      <c r="A176" s="144" t="s">
         <v>144</v>
       </c>
-      <c r="B176" s="69"/>
-      <c r="C176" s="69"/>
-      <c r="D176" s="69"/>
-      <c r="E176" s="70"/>
+      <c r="B176" s="145"/>
+      <c r="C176" s="145"/>
+      <c r="D176" s="145"/>
+      <c r="E176" s="146"/>
       <c r="F176" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G176" s="71" t="s">
+      <c r="G176" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="H176" s="71"/>
+      <c r="H176" s="147"/>
     </row>
     <row r="177" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="72" t="s">
+      <c r="A177" s="154" t="s">
         <v>145</v>
       </c>
-      <c r="B177" s="73"/>
-      <c r="C177" s="73"/>
-      <c r="D177" s="73"/>
-      <c r="E177" s="73"/>
-      <c r="F177" s="73"/>
-      <c r="G177" s="73"/>
-      <c r="H177" s="74"/>
+      <c r="B177" s="155"/>
+      <c r="C177" s="155"/>
+      <c r="D177" s="155"/>
+      <c r="E177" s="155"/>
+      <c r="F177" s="155"/>
+      <c r="G177" s="155"/>
+      <c r="H177" s="156"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A178" s="51"/>
-      <c r="B178" s="51"/>
-      <c r="C178" s="51"/>
-      <c r="D178" s="51"/>
-      <c r="E178" s="51"/>
-      <c r="F178" s="51"/>
-      <c r="G178" s="51"/>
-      <c r="H178" s="51"/>
+      <c r="A178" s="50"/>
+      <c r="B178" s="50"/>
+      <c r="C178" s="50"/>
+      <c r="D178" s="50"/>
+      <c r="E178" s="50"/>
+      <c r="F178" s="50"/>
+      <c r="G178" s="50"/>
+      <c r="H178" s="50"/>
     </row>
     <row r="180" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H180" s="63"/>
+      <c r="H180" s="57"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A181" s="150" t="s">
+      <c r="A181" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B181" s="151"/>
-      <c r="C181" s="155" t="str">
+      <c r="B181" s="70"/>
+      <c r="C181" s="73" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D181" s="151"/>
-      <c r="E181" s="151"/>
-      <c r="F181" s="151"/>
-      <c r="G181" s="156"/>
-      <c r="H181" s="164"/>
+      <c r="D181" s="70"/>
+      <c r="E181" s="70"/>
+      <c r="F181" s="70"/>
+      <c r="G181" s="74"/>
+      <c r="H181" s="71"/>
     </row>
     <row r="182" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="140" t="s">
+      <c r="A182" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B182" s="141"/>
-      <c r="C182" s="157" t="str">
+      <c r="B182" s="60"/>
+      <c r="C182" s="75" t="str">
         <f>$C$4</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D182" s="158"/>
-      <c r="E182" s="158"/>
-      <c r="F182" s="158"/>
-      <c r="G182" s="159"/>
-      <c r="H182" s="164"/>
+      <c r="D182" s="76"/>
+      <c r="E182" s="76"/>
+      <c r="F182" s="76"/>
+      <c r="G182" s="77"/>
+      <c r="H182" s="71"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A183" s="140" t="s">
+      <c r="A183" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B183" s="141"/>
-      <c r="C183" s="160" t="str">
+      <c r="B183" s="60"/>
+      <c r="C183" s="78" t="str">
         <f>$C$5</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D183" s="141"/>
-      <c r="E183" s="141"/>
-      <c r="F183" s="141"/>
-      <c r="G183" s="161"/>
-      <c r="H183" s="164"/>
+      <c r="D183" s="60"/>
+      <c r="E183" s="60"/>
+      <c r="F183" s="60"/>
+      <c r="G183" s="79"/>
+      <c r="H183" s="71"/>
     </row>
     <row r="184" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="142" t="s">
+      <c r="A184" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B184" s="143"/>
-      <c r="C184" s="162" t="str">
+      <c r="B184" s="62"/>
+      <c r="C184" s="80" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
-      <c r="D184" s="143"/>
-      <c r="E184" s="143"/>
-      <c r="F184" s="143"/>
-      <c r="G184" s="163"/>
-      <c r="H184" s="165"/>
+      <c r="D184" s="62"/>
+      <c r="E184" s="62"/>
+      <c r="F184" s="62"/>
+      <c r="G184" s="81"/>
+      <c r="H184" s="72"/>
     </row>
     <row r="185" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="144" t="s">
+      <c r="A185" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B185" s="145"/>
+      <c r="B185" s="64"/>
       <c r="C185" s="3">
         <f>$E$18</f>
         <v>2050</v>
@@ -5314,19 +5317,19 @@
         <f>$G$18</f>
         <v>555</v>
       </c>
-      <c r="H185" s="62" t="s">
+      <c r="H185" s="56" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A186" s="146"/>
-      <c r="B186" s="147"/>
-      <c r="C186" s="147"/>
-      <c r="D186" s="148"/>
-      <c r="E186" s="148"/>
-      <c r="F186" s="148"/>
-      <c r="G186" s="148"/>
-      <c r="H186" s="149"/>
+      <c r="A186" s="65"/>
+      <c r="B186" s="66"/>
+      <c r="C186" s="66"/>
+      <c r="D186" s="67"/>
+      <c r="E186" s="67"/>
+      <c r="F186" s="67"/>
+      <c r="G186" s="67"/>
+      <c r="H186" s="68"/>
     </row>
     <row r="187" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A187" s="5"/>
@@ -5340,12 +5343,12 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="8"/>
-      <c r="B188" s="54"/>
-      <c r="C188" s="54"/>
-      <c r="D188" s="54"/>
-      <c r="E188" s="54"/>
-      <c r="F188" s="54"/>
-      <c r="G188" s="54"/>
+      <c r="B188" s="9"/>
+      <c r="C188" s="9"/>
+      <c r="D188" s="9"/>
+      <c r="E188" s="9"/>
+      <c r="F188" s="9"/>
+      <c r="G188" s="9"/>
       <c r="H188" s="10"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
@@ -5509,83 +5512,83 @@
       <c r="H204" s="19"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A205" s="58"/>
-      <c r="B205" s="59"/>
-      <c r="C205" s="59"/>
-      <c r="D205" s="60"/>
-      <c r="E205" s="60"/>
-      <c r="F205" s="60"/>
-      <c r="G205" s="59"/>
-      <c r="H205" s="61"/>
+      <c r="A205" s="20"/>
+      <c r="B205" s="12"/>
+      <c r="C205" s="12"/>
+      <c r="D205" s="13"/>
+      <c r="E205" s="13"/>
+      <c r="F205" s="13"/>
+      <c r="G205" s="12"/>
+      <c r="H205" s="21"/>
     </row>
     <row r="207" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H207" s="64"/>
+      <c r="H207" s="58"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A208" s="150" t="s">
+      <c r="A208" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B208" s="151"/>
-      <c r="C208" s="155" t="str">
+      <c r="B208" s="70"/>
+      <c r="C208" s="73" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D208" s="151"/>
-      <c r="E208" s="151"/>
-      <c r="F208" s="151"/>
-      <c r="G208" s="156"/>
-      <c r="H208" s="152"/>
+      <c r="D208" s="70"/>
+      <c r="E208" s="70"/>
+      <c r="F208" s="70"/>
+      <c r="G208" s="74"/>
+      <c r="H208" s="82"/>
     </row>
     <row r="209" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="140" t="s">
+      <c r="A209" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B209" s="141"/>
-      <c r="C209" s="157" t="str">
+      <c r="B209" s="60"/>
+      <c r="C209" s="75" t="str">
         <f>$C$4</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D209" s="158"/>
-      <c r="E209" s="158"/>
-      <c r="F209" s="158"/>
-      <c r="G209" s="159"/>
-      <c r="H209" s="153"/>
+      <c r="D209" s="76"/>
+      <c r="E209" s="76"/>
+      <c r="F209" s="76"/>
+      <c r="G209" s="77"/>
+      <c r="H209" s="83"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A210" s="140" t="s">
+      <c r="A210" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B210" s="141"/>
-      <c r="C210" s="160" t="str">
+      <c r="B210" s="60"/>
+      <c r="C210" s="78" t="str">
         <f>$C$5</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D210" s="141"/>
-      <c r="E210" s="141"/>
-      <c r="F210" s="141"/>
-      <c r="G210" s="161"/>
-      <c r="H210" s="153"/>
+      <c r="D210" s="60"/>
+      <c r="E210" s="60"/>
+      <c r="F210" s="60"/>
+      <c r="G210" s="79"/>
+      <c r="H210" s="83"/>
     </row>
     <row r="211" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="142" t="s">
+      <c r="A211" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B211" s="143"/>
-      <c r="C211" s="162" t="str">
+      <c r="B211" s="62"/>
+      <c r="C211" s="80" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
-      <c r="D211" s="143"/>
-      <c r="E211" s="143"/>
-      <c r="F211" s="143"/>
-      <c r="G211" s="163"/>
-      <c r="H211" s="154"/>
+      <c r="D211" s="62"/>
+      <c r="E211" s="62"/>
+      <c r="F211" s="62"/>
+      <c r="G211" s="81"/>
+      <c r="H211" s="84"/>
     </row>
     <row r="212" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="144" t="s">
+      <c r="A212" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B212" s="145"/>
+      <c r="B212" s="64"/>
       <c r="C212" s="3">
         <f>$E$18</f>
         <v>2050</v>
@@ -5609,14 +5612,14 @@
       </c>
     </row>
     <row r="213" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A213" s="146"/>
-      <c r="B213" s="147"/>
-      <c r="C213" s="147"/>
-      <c r="D213" s="148"/>
-      <c r="E213" s="148"/>
-      <c r="F213" s="148"/>
-      <c r="G213" s="148"/>
-      <c r="H213" s="149"/>
+      <c r="A213" s="65"/>
+      <c r="B213" s="66"/>
+      <c r="C213" s="66"/>
+      <c r="D213" s="67"/>
+      <c r="E213" s="67"/>
+      <c r="F213" s="67"/>
+      <c r="G213" s="67"/>
+      <c r="H213" s="68"/>
     </row>
     <row r="214" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A214" s="5"/>
@@ -5630,32 +5633,32 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="8"/>
-      <c r="B215" s="54"/>
-      <c r="C215" s="54"/>
-      <c r="D215" s="54"/>
-      <c r="E215" s="54"/>
-      <c r="F215" s="54"/>
-      <c r="G215" s="54"/>
+      <c r="B215" s="9"/>
+      <c r="C215" s="9"/>
+      <c r="D215" s="9"/>
+      <c r="E215" s="9"/>
+      <c r="F215" s="9"/>
+      <c r="G215" s="9"/>
       <c r="H215" s="10"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="8"/>
-      <c r="B216" s="54"/>
-      <c r="C216" s="54"/>
-      <c r="D216" s="54"/>
-      <c r="E216" s="54"/>
-      <c r="F216" s="54"/>
-      <c r="G216" s="54"/>
+      <c r="B216" s="9"/>
+      <c r="C216" s="9"/>
+      <c r="D216" s="9"/>
+      <c r="E216" s="9"/>
+      <c r="F216" s="9"/>
+      <c r="G216" s="9"/>
       <c r="H216" s="10"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="8"/>
-      <c r="B217" s="54"/>
-      <c r="C217" s="54"/>
-      <c r="D217" s="54"/>
-      <c r="E217" s="54"/>
-      <c r="F217" s="54"/>
-      <c r="G217" s="54"/>
+      <c r="B217" s="9"/>
+      <c r="C217" s="9"/>
+      <c r="D217" s="9"/>
+      <c r="E217" s="9"/>
+      <c r="F217" s="9"/>
+      <c r="G217" s="9"/>
       <c r="H217" s="10"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
@@ -5810,124 +5813,112 @@
     </row>
   </sheetData>
   <mergeCells count="247">
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="A186:H186"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="H181:H184"/>
-    <mergeCell ref="C181:G181"/>
-    <mergeCell ref="C182:G182"/>
-    <mergeCell ref="C183:G183"/>
-    <mergeCell ref="C184:G184"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="A213:H213"/>
-    <mergeCell ref="A208:B208"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="H208:H211"/>
-    <mergeCell ref="C208:G208"/>
-    <mergeCell ref="C209:G209"/>
-    <mergeCell ref="C210:G210"/>
-    <mergeCell ref="C211:G211"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B21:H22"/>
-    <mergeCell ref="B23:H42"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="C56:H57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A64:E64"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="A75:E75"/>
-    <mergeCell ref="A76:E76"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A175:E175"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="G176:H176"/>
+    <mergeCell ref="A177:H177"/>
+    <mergeCell ref="A172:E172"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="A173:E173"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="A174:E174"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="A169:E169"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="A170:E170"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="A171:E171"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="A166:E166"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="A163:E163"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="A164:E164"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="A160:E160"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="A161:E161"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="A162:E162"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="A154:E154"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="A155:E155"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="A156:E156"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="A150:E150"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="A151:E151"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="A153:E153"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="A152:E152"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="A147:E147"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="A148:E148"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="A144:E144"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="A145:E145"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:E143"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="H139:H142"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="C142:G142"/>
+    <mergeCell ref="A133:E133"/>
+    <mergeCell ref="A134:E134"/>
+    <mergeCell ref="A135:H135"/>
+    <mergeCell ref="C137:H138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A127:E127"/>
+    <mergeCell ref="A128:E128"/>
+    <mergeCell ref="A129:E129"/>
+    <mergeCell ref="A130:E130"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="A132:E132"/>
+    <mergeCell ref="A121:E121"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A123:E123"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A125:E125"/>
+    <mergeCell ref="A126:E126"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="A117:E117"/>
+    <mergeCell ref="A118:E118"/>
+    <mergeCell ref="A119:E119"/>
+    <mergeCell ref="A120:E120"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A114:E114"/>
     <mergeCell ref="A98:B98"/>
     <mergeCell ref="A109:E109"/>
     <mergeCell ref="H97:H100"/>
@@ -5951,112 +5942,124 @@
     <mergeCell ref="A100:B100"/>
     <mergeCell ref="A101:E101"/>
     <mergeCell ref="A102:E102"/>
-    <mergeCell ref="A115:E115"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="A117:E117"/>
-    <mergeCell ref="A118:E118"/>
-    <mergeCell ref="A119:E119"/>
-    <mergeCell ref="A120:E120"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A114:E114"/>
-    <mergeCell ref="A127:E127"/>
-    <mergeCell ref="A128:E128"/>
-    <mergeCell ref="A129:E129"/>
-    <mergeCell ref="A130:E130"/>
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="A132:E132"/>
-    <mergeCell ref="A121:E121"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A123:E123"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A125:E125"/>
-    <mergeCell ref="A126:E126"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="H139:H142"/>
-    <mergeCell ref="C139:G139"/>
-    <mergeCell ref="C140:G140"/>
-    <mergeCell ref="C141:G141"/>
-    <mergeCell ref="C142:G142"/>
-    <mergeCell ref="A133:E133"/>
-    <mergeCell ref="A134:E134"/>
-    <mergeCell ref="A135:H135"/>
-    <mergeCell ref="C137:H138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A144:E144"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="A145:E145"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="C143:E143"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="A150:E150"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="A151:E151"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="A153:E153"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="A152:E152"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="A147:E147"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="A148:E148"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="A149:E149"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="A159:E159"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="A154:E154"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="A155:E155"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="A156:E156"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="A163:E163"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="A164:E164"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="A160:E160"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="A161:E161"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="A162:E162"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="A169:E169"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="A170:E170"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="A171:E171"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="A166:E166"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="A175:E175"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="A176:E176"/>
-    <mergeCell ref="G176:H176"/>
-    <mergeCell ref="A177:H177"/>
-    <mergeCell ref="A172:E172"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="A173:E173"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="A174:E174"/>
-    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A64:E64"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="C56:H57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B21:H22"/>
+    <mergeCell ref="B23:H42"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="A213:H213"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="H208:H211"/>
+    <mergeCell ref="C208:G208"/>
+    <mergeCell ref="C209:G209"/>
+    <mergeCell ref="C210:G210"/>
+    <mergeCell ref="C211:G211"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="A186:H186"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="H181:H184"/>
+    <mergeCell ref="C181:G181"/>
+    <mergeCell ref="C182:G182"/>
+    <mergeCell ref="C183:G183"/>
+    <mergeCell ref="C184:G184"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Compass.Wpf/bin/Release/net6.0-windows/publish/JobCard.xlsx
+++ b/Compass.Wpf/bin/Release/net6.0-windows/publish/JobCard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\repos\Compass.Wasm\Compass.Wpf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C90350-9EB2-4CE4-82CA-FE800098FBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE57A4AC-49C2-4C48-9683-F5A74107C743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JobCard" sheetId="1" r:id="rId1"/>
@@ -1487,7 +1487,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1655,158 +1655,149 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
@@ -1821,131 +1812,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
@@ -1959,11 +1827,140 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2528,94 +2525,94 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="43"/>
       <c r="B1" s="43"/>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="88" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="99" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="92" t="s">
+      <c r="B3" s="106"/>
+      <c r="C3" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="89"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="126"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="99" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="92" t="s">
+      <c r="B4" s="106"/>
+      <c r="C4" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="90"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="127"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="99" t="s">
         <v>160</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="92" t="s">
+      <c r="B5" s="106"/>
+      <c r="C5" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="90"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="127"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="99" t="s">
         <v>161</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="92" t="s">
+      <c r="B6" s="106"/>
+      <c r="C6" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="91"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="128"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="99" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="99" t="s">
+      <c r="B7" s="106"/>
+      <c r="C7" s="120" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
@@ -2644,24 +2641,24 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="100" t="s">
+      <c r="A9" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="101"/>
+      <c r="B9" s="121"/>
       <c r="C9" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="100" t="s">
+      <c r="D9" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="96"/>
+      <c r="E9" s="100"/>
       <c r="F9" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="102" t="s">
+      <c r="G9" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="103"/>
+      <c r="H9" s="123"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
@@ -2673,50 +2670,50 @@
       <c r="C10" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="96"/>
+      <c r="D10" s="99" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="100"/>
       <c r="F10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="104" t="s">
+      <c r="G10" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="105"/>
+      <c r="H10" s="125"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="95"/>
+      <c r="B11" s="117"/>
       <c r="C11" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="96"/>
+      <c r="D11" s="99" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="100"/>
       <c r="F11" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="97">
+      <c r="G11" s="118">
         <v>43826</v>
       </c>
-      <c r="H11" s="98"/>
+      <c r="H11" s="119"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="96"/>
+      <c r="B12" s="100"/>
       <c r="C12" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="96"/>
+      <c r="D12" s="99" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="100"/>
       <c r="F12" s="24" t="s">
         <v>12</v>
       </c>
@@ -2737,10 +2734,10 @@
       <c r="C13" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="96"/>
+      <c r="D13" s="99" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="100"/>
       <c r="F13" s="24" t="s">
         <v>12</v>
       </c>
@@ -2759,10 +2756,10 @@
       <c r="C14" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="96"/>
+      <c r="D14" s="99" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="100"/>
       <c r="F14" s="24" t="s">
         <v>12</v>
       </c>
@@ -2781,10 +2778,10 @@
       <c r="C15" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="96"/>
+      <c r="D15" s="99" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="100"/>
       <c r="F15" s="24" t="s">
         <v>12</v>
       </c>
@@ -2820,10 +2817,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A17" s="109" t="s">
+      <c r="A17" s="105" t="s">
         <v>163</v>
       </c>
-      <c r="B17" s="86"/>
+      <c r="B17" s="106"/>
       <c r="C17" s="46" t="s">
         <v>27</v>
       </c>
@@ -2872,270 +2869,270 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="110" t="s">
+      <c r="A19" s="107" t="s">
         <v>155</v>
       </c>
-      <c r="B19" s="111"/>
-      <c r="C19" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="112"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="99" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="109"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="110" t="s">
+      <c r="A20" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="111"/>
-      <c r="C20" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="112"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="99" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="109"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="113" t="s">
+      <c r="A21" s="110" t="s">
         <v>152</v>
       </c>
-      <c r="B21" s="161"/>
-      <c r="C21" s="157"/>
-      <c r="D21" s="157"/>
-      <c r="E21" s="157"/>
-      <c r="F21" s="157"/>
-      <c r="G21" s="157"/>
-      <c r="H21" s="158"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="114"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="114"/>
-      <c r="B22" s="159"/>
-      <c r="C22" s="159"/>
-      <c r="D22" s="159"/>
-      <c r="E22" s="159"/>
-      <c r="F22" s="159"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="160"/>
+      <c r="A22" s="111"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="116"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="114"/>
-      <c r="B23" s="162"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="116"/>
+      <c r="A23" s="111"/>
+      <c r="B23" s="158"/>
+      <c r="C23" s="158"/>
+      <c r="D23" s="158"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="159"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="114"/>
-      <c r="B24" s="115"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="116"/>
+      <c r="A24" s="111"/>
+      <c r="B24" s="158"/>
+      <c r="C24" s="158"/>
+      <c r="D24" s="158"/>
+      <c r="E24" s="158"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="158"/>
+      <c r="H24" s="159"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="114" t="s">
+      <c r="A25" s="111" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="115"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="116"/>
+      <c r="B25" s="158"/>
+      <c r="C25" s="158"/>
+      <c r="D25" s="158"/>
+      <c r="E25" s="158"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="159"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="114"/>
-      <c r="B26" s="115"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="116"/>
+      <c r="A26" s="111"/>
+      <c r="B26" s="158"/>
+      <c r="C26" s="158"/>
+      <c r="D26" s="158"/>
+      <c r="E26" s="158"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="159"/>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="114"/>
-      <c r="B27" s="115"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="116"/>
+      <c r="A27" s="111"/>
+      <c r="B27" s="158"/>
+      <c r="C27" s="158"/>
+      <c r="D27" s="158"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="158"/>
+      <c r="H27" s="159"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="53"/>
-      <c r="B28" s="115"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="115"/>
-      <c r="H28" s="116"/>
+      <c r="B28" s="158"/>
+      <c r="C28" s="158"/>
+      <c r="D28" s="158"/>
+      <c r="E28" s="158"/>
+      <c r="F28" s="158"/>
+      <c r="G28" s="158"/>
+      <c r="H28" s="159"/>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="53"/>
-      <c r="B29" s="115"/>
-      <c r="C29" s="115"/>
-      <c r="D29" s="115"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="115"/>
-      <c r="H29" s="116"/>
+      <c r="B29" s="158"/>
+      <c r="C29" s="158"/>
+      <c r="D29" s="158"/>
+      <c r="E29" s="158"/>
+      <c r="F29" s="158"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="159"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="53"/>
-      <c r="B30" s="115"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="116"/>
+      <c r="B30" s="158"/>
+      <c r="C30" s="158"/>
+      <c r="D30" s="158"/>
+      <c r="E30" s="158"/>
+      <c r="F30" s="158"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="159"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="53"/>
-      <c r="B31" s="115"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="115"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="115"/>
-      <c r="H31" s="116"/>
+      <c r="B31" s="158"/>
+      <c r="C31" s="158"/>
+      <c r="D31" s="158"/>
+      <c r="E31" s="158"/>
+      <c r="F31" s="158"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="159"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="54"/>
-      <c r="B32" s="115"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="116"/>
+      <c r="B32" s="158"/>
+      <c r="C32" s="158"/>
+      <c r="D32" s="158"/>
+      <c r="E32" s="158"/>
+      <c r="F32" s="158"/>
+      <c r="G32" s="158"/>
+      <c r="H32" s="159"/>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="54"/>
-      <c r="B33" s="115"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="116"/>
+      <c r="B33" s="158"/>
+      <c r="C33" s="158"/>
+      <c r="D33" s="158"/>
+      <c r="E33" s="158"/>
+      <c r="F33" s="158"/>
+      <c r="G33" s="158"/>
+      <c r="H33" s="159"/>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="54"/>
-      <c r="B34" s="115"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="116"/>
+      <c r="B34" s="158"/>
+      <c r="C34" s="158"/>
+      <c r="D34" s="158"/>
+      <c r="E34" s="158"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="158"/>
+      <c r="H34" s="159"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="54"/>
-      <c r="B35" s="115"/>
-      <c r="C35" s="115"/>
-      <c r="D35" s="115"/>
-      <c r="E35" s="115"/>
-      <c r="F35" s="115"/>
-      <c r="G35" s="115"/>
-      <c r="H35" s="116"/>
+      <c r="B35" s="158"/>
+      <c r="C35" s="158"/>
+      <c r="D35" s="158"/>
+      <c r="E35" s="158"/>
+      <c r="F35" s="158"/>
+      <c r="G35" s="158"/>
+      <c r="H35" s="159"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="54"/>
-      <c r="B36" s="115"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="115"/>
-      <c r="H36" s="116"/>
+      <c r="B36" s="158"/>
+      <c r="C36" s="158"/>
+      <c r="D36" s="158"/>
+      <c r="E36" s="158"/>
+      <c r="F36" s="158"/>
+      <c r="G36" s="158"/>
+      <c r="H36" s="159"/>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="54"/>
-      <c r="B37" s="115"/>
-      <c r="C37" s="115"/>
-      <c r="D37" s="115"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="115"/>
-      <c r="G37" s="115"/>
-      <c r="H37" s="116"/>
+      <c r="B37" s="158"/>
+      <c r="C37" s="158"/>
+      <c r="D37" s="158"/>
+      <c r="E37" s="158"/>
+      <c r="F37" s="158"/>
+      <c r="G37" s="158"/>
+      <c r="H37" s="159"/>
     </row>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="54"/>
-      <c r="B38" s="115"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="115"/>
-      <c r="E38" s="115"/>
-      <c r="F38" s="115"/>
-      <c r="G38" s="115"/>
-      <c r="H38" s="116"/>
+      <c r="B38" s="158"/>
+      <c r="C38" s="158"/>
+      <c r="D38" s="158"/>
+      <c r="E38" s="158"/>
+      <c r="F38" s="158"/>
+      <c r="G38" s="158"/>
+      <c r="H38" s="159"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="54"/>
-      <c r="B39" s="115"/>
-      <c r="C39" s="115"/>
-      <c r="D39" s="115"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="115"/>
-      <c r="G39" s="115"/>
-      <c r="H39" s="116"/>
+      <c r="B39" s="158"/>
+      <c r="C39" s="158"/>
+      <c r="D39" s="158"/>
+      <c r="E39" s="158"/>
+      <c r="F39" s="158"/>
+      <c r="G39" s="158"/>
+      <c r="H39" s="159"/>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="54"/>
-      <c r="B40" s="115"/>
-      <c r="C40" s="115"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="115"/>
-      <c r="G40" s="115"/>
-      <c r="H40" s="116"/>
+      <c r="B40" s="158"/>
+      <c r="C40" s="158"/>
+      <c r="D40" s="158"/>
+      <c r="E40" s="158"/>
+      <c r="F40" s="158"/>
+      <c r="G40" s="158"/>
+      <c r="H40" s="159"/>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="54"/>
-      <c r="B41" s="115"/>
-      <c r="C41" s="115"/>
-      <c r="D41" s="115"/>
-      <c r="E41" s="115"/>
-      <c r="F41" s="115"/>
-      <c r="G41" s="115"/>
-      <c r="H41" s="116"/>
+      <c r="B41" s="158"/>
+      <c r="C41" s="158"/>
+      <c r="D41" s="158"/>
+      <c r="E41" s="158"/>
+      <c r="F41" s="158"/>
+      <c r="G41" s="158"/>
+      <c r="H41" s="159"/>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="55"/>
-      <c r="B42" s="117"/>
-      <c r="C42" s="117"/>
-      <c r="D42" s="117"/>
-      <c r="E42" s="117"/>
-      <c r="F42" s="117"/>
-      <c r="G42" s="117"/>
-      <c r="H42" s="118"/>
+      <c r="B42" s="160"/>
+      <c r="C42" s="160"/>
+      <c r="D42" s="160"/>
+      <c r="E42" s="160"/>
+      <c r="F42" s="160"/>
+      <c r="G42" s="160"/>
+      <c r="H42" s="161"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="100" t="s">
+      <c r="A43" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="96"/>
+      <c r="B43" s="100"/>
       <c r="C43" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="106" t="s">
+      <c r="D43" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="107"/>
-      <c r="F43" s="107"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="102"/>
       <c r="G43" s="41" t="s">
         <v>38</v>
       </c>
@@ -3144,198 +3141,198 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="85" t="s">
+      <c r="A44" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="96"/>
+      <c r="B44" s="100"/>
       <c r="C44" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="107"/>
-      <c r="F44" s="108"/>
+      <c r="D44" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="102"/>
+      <c r="F44" s="103"/>
       <c r="G44" s="42"/>
       <c r="H44" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="85" t="s">
+      <c r="A45" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="96"/>
+      <c r="B45" s="100"/>
       <c r="C45" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="107"/>
-      <c r="F45" s="108"/>
+      <c r="D45" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="102"/>
+      <c r="F45" s="103"/>
       <c r="G45" s="42"/>
       <c r="H45" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="85" t="s">
+      <c r="A46" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="96"/>
+      <c r="B46" s="100"/>
       <c r="C46" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="107"/>
-      <c r="F46" s="108"/>
+      <c r="D46" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="102"/>
+      <c r="F46" s="103"/>
       <c r="G46" s="42"/>
       <c r="H46" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="85" t="s">
+      <c r="A47" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="96"/>
+      <c r="B47" s="100"/>
       <c r="C47" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="107"/>
-      <c r="F47" s="108"/>
+      <c r="D47" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="102"/>
+      <c r="F47" s="103"/>
       <c r="G47" s="42"/>
       <c r="H47" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="85" t="s">
+      <c r="A48" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="96"/>
+      <c r="B48" s="100"/>
       <c r="C48" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="107"/>
-      <c r="F48" s="108"/>
+      <c r="D48" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="102"/>
+      <c r="F48" s="103"/>
       <c r="G48" s="42"/>
       <c r="H48" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="85" t="s">
+      <c r="A49" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="96"/>
+      <c r="B49" s="100"/>
       <c r="C49" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="107"/>
-      <c r="F49" s="108"/>
+      <c r="D49" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="102"/>
+      <c r="F49" s="103"/>
       <c r="G49" s="42"/>
       <c r="H49" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="85" t="s">
+      <c r="A50" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="96"/>
+      <c r="B50" s="100"/>
       <c r="C50" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="107"/>
-      <c r="F50" s="108"/>
+      <c r="D50" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="102"/>
+      <c r="F50" s="103"/>
       <c r="G50" s="42"/>
       <c r="H50" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="85" t="s">
+      <c r="A51" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="96"/>
+      <c r="B51" s="100"/>
       <c r="C51" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="107"/>
-      <c r="F51" s="108"/>
+      <c r="D51" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="102"/>
+      <c r="F51" s="103"/>
       <c r="G51" s="42"/>
       <c r="H51" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="85" t="s">
+      <c r="A52" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="96"/>
+      <c r="B52" s="100"/>
       <c r="C52" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="107"/>
-      <c r="F52" s="108"/>
+      <c r="D52" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="102"/>
+      <c r="F52" s="103"/>
       <c r="G52" s="42"/>
       <c r="H52" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="85" t="s">
+      <c r="A53" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="96"/>
+      <c r="B53" s="100"/>
       <c r="C53" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" s="107"/>
-      <c r="F53" s="108"/>
+      <c r="D53" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="102"/>
+      <c r="F53" s="103"/>
       <c r="G53" s="42"/>
       <c r="H53" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="85" t="s">
+      <c r="A54" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="96"/>
+      <c r="B54" s="100"/>
       <c r="C54" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="107"/>
-      <c r="F54" s="108"/>
+      <c r="D54" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="102"/>
+      <c r="F54" s="103"/>
       <c r="G54" s="42"/>
       <c r="H54" s="32" t="s">
         <v>12</v>
@@ -3354,91 +3351,91 @@
     <row r="56" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="43"/>
       <c r="B56" s="43"/>
-      <c r="C56" s="87" t="s">
+      <c r="C56" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="D56" s="87"/>
-      <c r="E56" s="87"/>
-      <c r="F56" s="87"/>
-      <c r="G56" s="87"/>
-      <c r="H56" s="87"/>
+      <c r="D56" s="88"/>
+      <c r="E56" s="88"/>
+      <c r="F56" s="88"/>
+      <c r="G56" s="88"/>
+      <c r="H56" s="88"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="43"/>
       <c r="B57" s="43"/>
-      <c r="C57" s="88"/>
-      <c r="D57" s="88"/>
-      <c r="E57" s="88"/>
-      <c r="F57" s="88"/>
-      <c r="G57" s="88"/>
-      <c r="H57" s="88"/>
+      <c r="C57" s="89"/>
+      <c r="D57" s="89"/>
+      <c r="E57" s="89"/>
+      <c r="F57" s="89"/>
+      <c r="G57" s="89"/>
+      <c r="H57" s="89"/>
     </row>
     <row r="58" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="119" t="s">
+      <c r="A58" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="120"/>
-      <c r="C58" s="129" t="str">
+      <c r="B58" s="74"/>
+      <c r="C58" s="82" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D58" s="130"/>
-      <c r="E58" s="130"/>
-      <c r="F58" s="130"/>
-      <c r="G58" s="130"/>
-      <c r="H58" s="126"/>
+      <c r="D58" s="83"/>
+      <c r="E58" s="83"/>
+      <c r="F58" s="83"/>
+      <c r="G58" s="83"/>
+      <c r="H58" s="79"/>
     </row>
     <row r="59" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="119" t="s">
+      <c r="A59" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="120"/>
-      <c r="C59" s="131" t="str">
+      <c r="B59" s="74"/>
+      <c r="C59" s="90" t="str">
         <f>$C$4</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D59" s="132"/>
-      <c r="E59" s="132"/>
-      <c r="F59" s="132"/>
-      <c r="G59" s="132"/>
-      <c r="H59" s="127"/>
+      <c r="D59" s="91"/>
+      <c r="E59" s="91"/>
+      <c r="F59" s="91"/>
+      <c r="G59" s="91"/>
+      <c r="H59" s="80"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="119" t="s">
+      <c r="A60" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="120"/>
-      <c r="C60" s="131" t="str">
+      <c r="B60" s="74"/>
+      <c r="C60" s="90" t="str">
         <f>$C$5</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D60" s="132"/>
-      <c r="E60" s="132"/>
-      <c r="F60" s="132"/>
-      <c r="G60" s="132"/>
-      <c r="H60" s="127"/>
+      <c r="D60" s="91"/>
+      <c r="E60" s="91"/>
+      <c r="F60" s="91"/>
+      <c r="G60" s="91"/>
+      <c r="H60" s="80"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="121" t="s">
+      <c r="A61" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="122"/>
-      <c r="C61" s="133" t="str">
+      <c r="B61" s="98"/>
+      <c r="C61" s="93" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
-      <c r="D61" s="134"/>
-      <c r="E61" s="134"/>
-      <c r="F61" s="134"/>
-      <c r="G61" s="134"/>
-      <c r="H61" s="128"/>
+      <c r="D61" s="94"/>
+      <c r="E61" s="94"/>
+      <c r="F61" s="94"/>
+      <c r="G61" s="94"/>
+      <c r="H61" s="81"/>
     </row>
     <row r="62" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A62" s="123"/>
-      <c r="B62" s="123"/>
-      <c r="C62" s="123"/>
-      <c r="D62" s="123"/>
-      <c r="E62" s="123"/>
+      <c r="A62" s="78"/>
+      <c r="B62" s="78"/>
+      <c r="C62" s="78"/>
+      <c r="D62" s="78"/>
+      <c r="E62" s="78"/>
       <c r="F62" s="45" t="s">
         <v>52</v>
       </c>
@@ -3450,25 +3447,25 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="124" t="s">
+      <c r="A63" s="96" t="s">
         <v>168</v>
       </c>
-      <c r="B63" s="124"/>
-      <c r="C63" s="124"/>
-      <c r="D63" s="124"/>
-      <c r="E63" s="124"/>
+      <c r="B63" s="96"/>
+      <c r="C63" s="96"/>
+      <c r="D63" s="96"/>
+      <c r="E63" s="96"/>
       <c r="F63" s="33"/>
       <c r="G63" s="33"/>
       <c r="H63" s="33"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="125" t="s">
+      <c r="A64" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="B64" s="125"/>
-      <c r="C64" s="125"/>
-      <c r="D64" s="125"/>
-      <c r="E64" s="125"/>
+      <c r="B64" s="85"/>
+      <c r="C64" s="85"/>
+      <c r="D64" s="85"/>
+      <c r="E64" s="85"/>
       <c r="F64" s="34" t="s">
         <v>12</v>
       </c>
@@ -3478,13 +3475,13 @@
       <c r="H64" s="34"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="125" t="s">
+      <c r="A65" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="B65" s="125"/>
-      <c r="C65" s="125"/>
-      <c r="D65" s="125"/>
-      <c r="E65" s="125"/>
+      <c r="B65" s="85"/>
+      <c r="C65" s="85"/>
+      <c r="D65" s="85"/>
+      <c r="E65" s="85"/>
       <c r="F65" s="34" t="s">
         <v>12</v>
       </c>
@@ -3494,13 +3491,13 @@
       <c r="H65" s="34"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="125" t="s">
+      <c r="A66" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="B66" s="125"/>
-      <c r="C66" s="125"/>
-      <c r="D66" s="125"/>
-      <c r="E66" s="125"/>
+      <c r="B66" s="85"/>
+      <c r="C66" s="85"/>
+      <c r="D66" s="85"/>
+      <c r="E66" s="85"/>
       <c r="F66" s="34" t="s">
         <v>12</v>
       </c>
@@ -3510,13 +3507,13 @@
       <c r="H66" s="34"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="125" t="s">
+      <c r="A67" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="B67" s="125"/>
-      <c r="C67" s="125"/>
-      <c r="D67" s="125"/>
-      <c r="E67" s="125"/>
+      <c r="B67" s="85"/>
+      <c r="C67" s="85"/>
+      <c r="D67" s="85"/>
+      <c r="E67" s="85"/>
       <c r="F67" s="34" t="s">
         <v>12</v>
       </c>
@@ -3526,13 +3523,13 @@
       <c r="H67" s="34"/>
     </row>
     <row r="68" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="125" t="s">
+      <c r="A68" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="B68" s="125"/>
-      <c r="C68" s="125"/>
-      <c r="D68" s="125"/>
-      <c r="E68" s="125"/>
+      <c r="B68" s="85"/>
+      <c r="C68" s="85"/>
+      <c r="D68" s="85"/>
+      <c r="E68" s="85"/>
       <c r="F68" s="34" t="s">
         <v>12</v>
       </c>
@@ -3542,13 +3539,13 @@
       <c r="H68" s="34"/>
     </row>
     <row r="69" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="124" t="s">
+      <c r="A69" s="96" t="s">
         <v>165</v>
       </c>
-      <c r="B69" s="124"/>
-      <c r="C69" s="124"/>
-      <c r="D69" s="124"/>
-      <c r="E69" s="124"/>
+      <c r="B69" s="96"/>
+      <c r="C69" s="96"/>
+      <c r="D69" s="96"/>
+      <c r="E69" s="96"/>
       <c r="F69" s="33"/>
       <c r="G69" s="33" t="s">
         <v>12</v>
@@ -3556,13 +3553,13 @@
       <c r="H69" s="33"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="125" t="s">
+      <c r="A70" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="B70" s="125"/>
-      <c r="C70" s="125"/>
-      <c r="D70" s="125"/>
-      <c r="E70" s="125"/>
+      <c r="B70" s="85"/>
+      <c r="C70" s="85"/>
+      <c r="D70" s="85"/>
+      <c r="E70" s="85"/>
       <c r="F70" s="34" t="s">
         <v>12</v>
       </c>
@@ -3572,13 +3569,13 @@
       <c r="H70" s="34"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="125" t="s">
+      <c r="A71" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="B71" s="125"/>
-      <c r="C71" s="125"/>
-      <c r="D71" s="125"/>
-      <c r="E71" s="125"/>
+      <c r="B71" s="85"/>
+      <c r="C71" s="85"/>
+      <c r="D71" s="85"/>
+      <c r="E71" s="85"/>
       <c r="F71" s="34" t="s">
         <v>12</v>
       </c>
@@ -3588,13 +3585,13 @@
       <c r="H71" s="34"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="125" t="s">
+      <c r="A72" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="B72" s="125"/>
-      <c r="C72" s="125"/>
-      <c r="D72" s="125"/>
-      <c r="E72" s="125"/>
+      <c r="B72" s="85"/>
+      <c r="C72" s="85"/>
+      <c r="D72" s="85"/>
+      <c r="E72" s="85"/>
       <c r="F72" s="34" t="s">
         <v>12</v>
       </c>
@@ -3604,13 +3601,13 @@
       <c r="H72" s="34"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="125" t="s">
+      <c r="A73" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="B73" s="125"/>
-      <c r="C73" s="125"/>
-      <c r="D73" s="125"/>
-      <c r="E73" s="125"/>
+      <c r="B73" s="85"/>
+      <c r="C73" s="85"/>
+      <c r="D73" s="85"/>
+      <c r="E73" s="85"/>
       <c r="F73" s="34" t="s">
         <v>12</v>
       </c>
@@ -3620,13 +3617,13 @@
       <c r="H73" s="34"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="125" t="s">
+      <c r="A74" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="B74" s="125"/>
-      <c r="C74" s="125"/>
-      <c r="D74" s="125"/>
-      <c r="E74" s="125"/>
+      <c r="B74" s="85"/>
+      <c r="C74" s="85"/>
+      <c r="D74" s="85"/>
+      <c r="E74" s="85"/>
       <c r="F74" s="34" t="s">
         <v>12</v>
       </c>
@@ -3636,13 +3633,13 @@
       <c r="H74" s="34"/>
     </row>
     <row r="75" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="125" t="s">
+      <c r="A75" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="B75" s="125"/>
-      <c r="C75" s="125"/>
-      <c r="D75" s="125"/>
-      <c r="E75" s="125"/>
+      <c r="B75" s="85"/>
+      <c r="C75" s="85"/>
+      <c r="D75" s="85"/>
+      <c r="E75" s="85"/>
       <c r="F75" s="34" t="s">
         <v>12</v>
       </c>
@@ -3652,13 +3649,13 @@
       <c r="H75" s="34"/>
     </row>
     <row r="76" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="124" t="s">
+      <c r="A76" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="B76" s="124"/>
-      <c r="C76" s="124"/>
-      <c r="D76" s="124"/>
-      <c r="E76" s="124"/>
+      <c r="B76" s="96"/>
+      <c r="C76" s="96"/>
+      <c r="D76" s="96"/>
+      <c r="E76" s="96"/>
       <c r="F76" s="33"/>
       <c r="G76" s="33" t="s">
         <v>12</v>
@@ -3666,13 +3663,13 @@
       <c r="H76" s="33"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="125" t="s">
+      <c r="A77" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="B77" s="125"/>
-      <c r="C77" s="125"/>
-      <c r="D77" s="125"/>
-      <c r="E77" s="125"/>
+      <c r="B77" s="85"/>
+      <c r="C77" s="85"/>
+      <c r="D77" s="85"/>
+      <c r="E77" s="85"/>
       <c r="F77" s="34" t="s">
         <v>12</v>
       </c>
@@ -3682,13 +3679,13 @@
       <c r="H77" s="34"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="125" t="s">
+      <c r="A78" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="B78" s="125"/>
-      <c r="C78" s="125"/>
-      <c r="D78" s="125"/>
-      <c r="E78" s="125"/>
+      <c r="B78" s="85"/>
+      <c r="C78" s="85"/>
+      <c r="D78" s="85"/>
+      <c r="E78" s="85"/>
       <c r="F78" s="34" t="s">
         <v>12</v>
       </c>
@@ -3698,13 +3695,13 @@
       <c r="H78" s="34"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="125" t="s">
+      <c r="A79" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="B79" s="125"/>
-      <c r="C79" s="125"/>
-      <c r="D79" s="125"/>
-      <c r="E79" s="125"/>
+      <c r="B79" s="85"/>
+      <c r="C79" s="85"/>
+      <c r="D79" s="85"/>
+      <c r="E79" s="85"/>
       <c r="F79" s="34" t="s">
         <v>12</v>
       </c>
@@ -3714,13 +3711,13 @@
       <c r="H79" s="34"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="125" t="s">
+      <c r="A80" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="B80" s="125"/>
-      <c r="C80" s="125"/>
-      <c r="D80" s="125"/>
-      <c r="E80" s="125"/>
+      <c r="B80" s="85"/>
+      <c r="C80" s="85"/>
+      <c r="D80" s="85"/>
+      <c r="E80" s="85"/>
       <c r="F80" s="34" t="s">
         <v>12</v>
       </c>
@@ -3730,13 +3727,13 @@
       <c r="H80" s="34"/>
     </row>
     <row r="81" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="124" t="s">
+      <c r="A81" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="B81" s="124"/>
-      <c r="C81" s="124"/>
-      <c r="D81" s="124"/>
-      <c r="E81" s="124"/>
+      <c r="B81" s="96"/>
+      <c r="C81" s="96"/>
+      <c r="D81" s="96"/>
+      <c r="E81" s="96"/>
       <c r="F81" s="33"/>
       <c r="G81" s="33" t="s">
         <v>12</v>
@@ -3744,13 +3741,13 @@
       <c r="H81" s="33"/>
     </row>
     <row r="82" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="125" t="s">
+      <c r="A82" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="B82" s="125"/>
-      <c r="C82" s="125"/>
-      <c r="D82" s="125"/>
-      <c r="E82" s="125"/>
+      <c r="B82" s="85"/>
+      <c r="C82" s="85"/>
+      <c r="D82" s="85"/>
+      <c r="E82" s="85"/>
       <c r="F82" s="34" t="s">
         <v>12</v>
       </c>
@@ -3760,13 +3757,13 @@
       <c r="H82" s="34"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="125" t="s">
+      <c r="A83" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B83" s="125"/>
-      <c r="C83" s="125"/>
-      <c r="D83" s="125"/>
-      <c r="E83" s="125"/>
+      <c r="B83" s="85"/>
+      <c r="C83" s="85"/>
+      <c r="D83" s="85"/>
+      <c r="E83" s="85"/>
       <c r="F83" s="34" t="s">
         <v>12</v>
       </c>
@@ -3776,13 +3773,13 @@
       <c r="H83" s="34"/>
     </row>
     <row r="84" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="125" t="s">
+      <c r="A84" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="B84" s="125"/>
-      <c r="C84" s="125"/>
-      <c r="D84" s="125"/>
-      <c r="E84" s="125"/>
+      <c r="B84" s="85"/>
+      <c r="C84" s="85"/>
+      <c r="D84" s="85"/>
+      <c r="E84" s="85"/>
       <c r="F84" s="34" t="s">
         <v>12</v>
       </c>
@@ -3792,13 +3789,13 @@
       <c r="H84" s="34"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="125" t="s">
+      <c r="A85" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="B85" s="125"/>
-      <c r="C85" s="125"/>
-      <c r="D85" s="125"/>
-      <c r="E85" s="125"/>
+      <c r="B85" s="85"/>
+      <c r="C85" s="85"/>
+      <c r="D85" s="85"/>
+      <c r="E85" s="85"/>
       <c r="F85" s="34" t="s">
         <v>12</v>
       </c>
@@ -3808,13 +3805,13 @@
       <c r="H85" s="34"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="125" t="s">
+      <c r="A86" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="B86" s="125"/>
-      <c r="C86" s="125"/>
-      <c r="D86" s="125"/>
-      <c r="E86" s="125"/>
+      <c r="B86" s="85"/>
+      <c r="C86" s="85"/>
+      <c r="D86" s="85"/>
+      <c r="E86" s="85"/>
       <c r="F86" s="34" t="s">
         <v>12</v>
       </c>
@@ -3824,13 +3821,13 @@
       <c r="H86" s="34"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="125" t="s">
+      <c r="A87" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="B87" s="125"/>
-      <c r="C87" s="125"/>
-      <c r="D87" s="125"/>
-      <c r="E87" s="125"/>
+      <c r="B87" s="85"/>
+      <c r="C87" s="85"/>
+      <c r="D87" s="85"/>
+      <c r="E87" s="85"/>
       <c r="F87" s="34" t="s">
         <v>12</v>
       </c>
@@ -3840,13 +3837,13 @@
       <c r="H87" s="34"/>
     </row>
     <row r="88" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="125" t="s">
+      <c r="A88" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="B88" s="125"/>
-      <c r="C88" s="125"/>
-      <c r="D88" s="125"/>
-      <c r="E88" s="125"/>
+      <c r="B88" s="85"/>
+      <c r="C88" s="85"/>
+      <c r="D88" s="85"/>
+      <c r="E88" s="85"/>
       <c r="F88" s="34" t="s">
         <v>12</v>
       </c>
@@ -3856,13 +3853,13 @@
       <c r="H88" s="34"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="125" t="s">
+      <c r="A89" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="B89" s="125"/>
-      <c r="C89" s="125"/>
-      <c r="D89" s="125"/>
-      <c r="E89" s="125"/>
+      <c r="B89" s="85"/>
+      <c r="C89" s="85"/>
+      <c r="D89" s="85"/>
+      <c r="E89" s="85"/>
       <c r="F89" s="34" t="s">
         <v>12</v>
       </c>
@@ -3872,13 +3869,13 @@
       <c r="H89" s="34"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="125" t="s">
+      <c r="A90" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="B90" s="125"/>
-      <c r="C90" s="125"/>
-      <c r="D90" s="125"/>
-      <c r="E90" s="125"/>
+      <c r="B90" s="85"/>
+      <c r="C90" s="85"/>
+      <c r="D90" s="85"/>
+      <c r="E90" s="85"/>
       <c r="F90" s="34" t="s">
         <v>12</v>
       </c>
@@ -3888,13 +3885,13 @@
       <c r="H90" s="34"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="125" t="s">
+      <c r="A91" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="B91" s="125"/>
-      <c r="C91" s="125"/>
-      <c r="D91" s="125"/>
-      <c r="E91" s="125"/>
+      <c r="B91" s="85"/>
+      <c r="C91" s="85"/>
+      <c r="D91" s="85"/>
+      <c r="E91" s="85"/>
       <c r="F91" s="34" t="s">
         <v>12</v>
       </c>
@@ -3904,13 +3901,13 @@
       <c r="H91" s="34"/>
     </row>
     <row r="92" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="125" t="s">
+      <c r="A92" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="B92" s="125"/>
-      <c r="C92" s="125"/>
-      <c r="D92" s="125"/>
-      <c r="E92" s="125"/>
+      <c r="B92" s="85"/>
+      <c r="C92" s="85"/>
+      <c r="D92" s="85"/>
+      <c r="E92" s="85"/>
       <c r="F92" s="34" t="s">
         <v>12</v>
       </c>
@@ -3920,13 +3917,13 @@
       <c r="H92" s="34"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="125" t="s">
+      <c r="A93" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="B93" s="125"/>
-      <c r="C93" s="125"/>
-      <c r="D93" s="125"/>
-      <c r="E93" s="125"/>
+      <c r="B93" s="85"/>
+      <c r="C93" s="85"/>
+      <c r="D93" s="85"/>
+      <c r="E93" s="85"/>
       <c r="F93" s="34" t="s">
         <v>12</v>
       </c>
@@ -3948,91 +3945,91 @@
     <row r="95" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="43"/>
       <c r="B95" s="43"/>
-      <c r="C95" s="87" t="s">
+      <c r="C95" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="D95" s="87"/>
-      <c r="E95" s="87"/>
-      <c r="F95" s="87"/>
-      <c r="G95" s="87"/>
-      <c r="H95" s="87"/>
+      <c r="D95" s="88"/>
+      <c r="E95" s="88"/>
+      <c r="F95" s="88"/>
+      <c r="G95" s="88"/>
+      <c r="H95" s="88"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="43"/>
       <c r="B96" s="43"/>
-      <c r="C96" s="88"/>
-      <c r="D96" s="88"/>
-      <c r="E96" s="88"/>
-      <c r="F96" s="88"/>
-      <c r="G96" s="88"/>
-      <c r="H96" s="88"/>
+      <c r="C96" s="89"/>
+      <c r="D96" s="89"/>
+      <c r="E96" s="89"/>
+      <c r="F96" s="89"/>
+      <c r="G96" s="89"/>
+      <c r="H96" s="89"/>
     </row>
     <row r="97" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="119" t="s">
+      <c r="A97" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B97" s="120"/>
-      <c r="C97" s="129" t="str">
+      <c r="B97" s="74"/>
+      <c r="C97" s="82" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D97" s="130"/>
-      <c r="E97" s="130"/>
-      <c r="F97" s="130"/>
-      <c r="G97" s="135"/>
-      <c r="H97" s="126"/>
+      <c r="D97" s="83"/>
+      <c r="E97" s="83"/>
+      <c r="F97" s="83"/>
+      <c r="G97" s="84"/>
+      <c r="H97" s="79"/>
     </row>
     <row r="98" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="119" t="s">
+      <c r="A98" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B98" s="120"/>
-      <c r="C98" s="131" t="str">
+      <c r="B98" s="74"/>
+      <c r="C98" s="90" t="str">
         <f>$C$4</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D98" s="132"/>
-      <c r="E98" s="132"/>
-      <c r="F98" s="132"/>
-      <c r="G98" s="136"/>
-      <c r="H98" s="127"/>
+      <c r="D98" s="91"/>
+      <c r="E98" s="91"/>
+      <c r="F98" s="91"/>
+      <c r="G98" s="92"/>
+      <c r="H98" s="80"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="119" t="s">
+      <c r="A99" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B99" s="120"/>
-      <c r="C99" s="131" t="str">
+      <c r="B99" s="74"/>
+      <c r="C99" s="90" t="str">
         <f>$C$5</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D99" s="132"/>
-      <c r="E99" s="132"/>
-      <c r="F99" s="132"/>
-      <c r="G99" s="136"/>
-      <c r="H99" s="127"/>
+      <c r="D99" s="91"/>
+      <c r="E99" s="91"/>
+      <c r="F99" s="91"/>
+      <c r="G99" s="92"/>
+      <c r="H99" s="80"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="121" t="s">
+      <c r="A100" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="B100" s="122"/>
-      <c r="C100" s="133" t="str">
+      <c r="B100" s="98"/>
+      <c r="C100" s="93" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
-      <c r="D100" s="134"/>
-      <c r="E100" s="134"/>
-      <c r="F100" s="134"/>
-      <c r="G100" s="137"/>
-      <c r="H100" s="128"/>
+      <c r="D100" s="94"/>
+      <c r="E100" s="94"/>
+      <c r="F100" s="94"/>
+      <c r="G100" s="95"/>
+      <c r="H100" s="81"/>
     </row>
     <row r="101" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A101" s="123"/>
-      <c r="B101" s="123"/>
-      <c r="C101" s="123"/>
-      <c r="D101" s="123"/>
-      <c r="E101" s="123"/>
+      <c r="A101" s="78"/>
+      <c r="B101" s="78"/>
+      <c r="C101" s="78"/>
+      <c r="D101" s="78"/>
+      <c r="E101" s="78"/>
       <c r="F101" s="45" t="s">
         <v>52</v>
       </c>
@@ -4044,13 +4041,13 @@
       </c>
     </row>
     <row r="102" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="124" t="s">
+      <c r="A102" s="96" t="s">
         <v>167</v>
       </c>
-      <c r="B102" s="124"/>
-      <c r="C102" s="124"/>
-      <c r="D102" s="124"/>
-      <c r="E102" s="124"/>
+      <c r="B102" s="96"/>
+      <c r="C102" s="96"/>
+      <c r="D102" s="96"/>
+      <c r="E102" s="96"/>
       <c r="F102" s="33"/>
       <c r="G102" s="33" t="s">
         <v>12</v>
@@ -4058,13 +4055,13 @@
       <c r="H102" s="33"/>
     </row>
     <row r="103" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="125" t="s">
+      <c r="A103" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="B103" s="125"/>
-      <c r="C103" s="125"/>
-      <c r="D103" s="125"/>
-      <c r="E103" s="125"/>
+      <c r="B103" s="85"/>
+      <c r="C103" s="85"/>
+      <c r="D103" s="85"/>
+      <c r="E103" s="85"/>
       <c r="F103" s="34" t="s">
         <v>12</v>
       </c>
@@ -4074,13 +4071,13 @@
       <c r="H103" s="34"/>
     </row>
     <row r="104" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="125" t="s">
+      <c r="A104" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="B104" s="125"/>
-      <c r="C104" s="125"/>
-      <c r="D104" s="125"/>
-      <c r="E104" s="125"/>
+      <c r="B104" s="85"/>
+      <c r="C104" s="85"/>
+      <c r="D104" s="85"/>
+      <c r="E104" s="85"/>
       <c r="F104" s="34" t="s">
         <v>12</v>
       </c>
@@ -4090,13 +4087,13 @@
       <c r="H104" s="34"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="125" t="s">
+      <c r="A105" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="B105" s="125"/>
-      <c r="C105" s="125"/>
-      <c r="D105" s="125"/>
-      <c r="E105" s="125"/>
+      <c r="B105" s="85"/>
+      <c r="C105" s="85"/>
+      <c r="D105" s="85"/>
+      <c r="E105" s="85"/>
       <c r="F105" s="34" t="s">
         <v>12</v>
       </c>
@@ -4106,13 +4103,13 @@
       <c r="H105" s="34"/>
     </row>
     <row r="106" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="124" t="s">
+      <c r="A106" s="96" t="s">
         <v>166</v>
       </c>
-      <c r="B106" s="124"/>
-      <c r="C106" s="124"/>
-      <c r="D106" s="124"/>
-      <c r="E106" s="124"/>
+      <c r="B106" s="96"/>
+      <c r="C106" s="96"/>
+      <c r="D106" s="96"/>
+      <c r="E106" s="96"/>
       <c r="F106" s="33"/>
       <c r="G106" s="33" t="s">
         <v>12</v>
@@ -4120,13 +4117,13 @@
       <c r="H106" s="33"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="125" t="s">
+      <c r="A107" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="B107" s="125"/>
-      <c r="C107" s="125"/>
-      <c r="D107" s="125"/>
-      <c r="E107" s="125"/>
+      <c r="B107" s="85"/>
+      <c r="C107" s="85"/>
+      <c r="D107" s="85"/>
+      <c r="E107" s="85"/>
       <c r="F107" s="34" t="s">
         <v>12</v>
       </c>
@@ -4136,13 +4133,13 @@
       <c r="H107" s="34"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="125" t="s">
+      <c r="A108" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="B108" s="125"/>
-      <c r="C108" s="125"/>
-      <c r="D108" s="125"/>
-      <c r="E108" s="125"/>
+      <c r="B108" s="85"/>
+      <c r="C108" s="85"/>
+      <c r="D108" s="85"/>
+      <c r="E108" s="85"/>
       <c r="F108" s="34" t="s">
         <v>12</v>
       </c>
@@ -4152,13 +4149,13 @@
       <c r="H108" s="34"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="125" t="s">
+      <c r="A109" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="B109" s="125"/>
-      <c r="C109" s="125"/>
-      <c r="D109" s="125"/>
-      <c r="E109" s="125"/>
+      <c r="B109" s="85"/>
+      <c r="C109" s="85"/>
+      <c r="D109" s="85"/>
+      <c r="E109" s="85"/>
       <c r="F109" s="34" t="s">
         <v>12</v>
       </c>
@@ -4168,13 +4165,13 @@
       <c r="H109" s="34"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" s="125" t="s">
+      <c r="A110" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="B110" s="125"/>
-      <c r="C110" s="125"/>
-      <c r="D110" s="125"/>
-      <c r="E110" s="125"/>
+      <c r="B110" s="85"/>
+      <c r="C110" s="85"/>
+      <c r="D110" s="85"/>
+      <c r="E110" s="85"/>
       <c r="F110" s="34" t="s">
         <v>12</v>
       </c>
@@ -4184,13 +4181,13 @@
       <c r="H110" s="34"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="125" t="s">
+      <c r="A111" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="B111" s="125"/>
-      <c r="C111" s="125"/>
-      <c r="D111" s="125"/>
-      <c r="E111" s="125"/>
+      <c r="B111" s="85"/>
+      <c r="C111" s="85"/>
+      <c r="D111" s="85"/>
+      <c r="E111" s="85"/>
       <c r="F111" s="34" t="s">
         <v>12</v>
       </c>
@@ -4200,13 +4197,13 @@
       <c r="H111" s="34"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="125" t="s">
+      <c r="A112" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="B112" s="125"/>
-      <c r="C112" s="125"/>
-      <c r="D112" s="125"/>
-      <c r="E112" s="125"/>
+      <c r="B112" s="85"/>
+      <c r="C112" s="85"/>
+      <c r="D112" s="85"/>
+      <c r="E112" s="85"/>
       <c r="F112" s="34" t="s">
         <v>12</v>
       </c>
@@ -4216,13 +4213,13 @@
       <c r="H112" s="34"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="125" t="s">
+      <c r="A113" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="B113" s="125"/>
-      <c r="C113" s="125"/>
-      <c r="D113" s="125"/>
-      <c r="E113" s="125"/>
+      <c r="B113" s="85"/>
+      <c r="C113" s="85"/>
+      <c r="D113" s="85"/>
+      <c r="E113" s="85"/>
       <c r="F113" s="34" t="s">
         <v>12</v>
       </c>
@@ -4232,13 +4229,13 @@
       <c r="H113" s="34"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="125" t="s">
+      <c r="A114" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="B114" s="125"/>
-      <c r="C114" s="125"/>
-      <c r="D114" s="125"/>
-      <c r="E114" s="125"/>
+      <c r="B114" s="85"/>
+      <c r="C114" s="85"/>
+      <c r="D114" s="85"/>
+      <c r="E114" s="85"/>
       <c r="F114" s="34" t="s">
         <v>12</v>
       </c>
@@ -4248,13 +4245,13 @@
       <c r="H114" s="34"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="125" t="s">
+      <c r="A115" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="B115" s="125"/>
-      <c r="C115" s="125"/>
-      <c r="D115" s="125"/>
-      <c r="E115" s="125"/>
+      <c r="B115" s="85"/>
+      <c r="C115" s="85"/>
+      <c r="D115" s="85"/>
+      <c r="E115" s="85"/>
       <c r="F115" s="34" t="s">
         <v>12</v>
       </c>
@@ -4264,13 +4261,13 @@
       <c r="H115" s="34"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="125" t="s">
+      <c r="A116" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="B116" s="125"/>
-      <c r="C116" s="125"/>
-      <c r="D116" s="125"/>
-      <c r="E116" s="125"/>
+      <c r="B116" s="85"/>
+      <c r="C116" s="85"/>
+      <c r="D116" s="85"/>
+      <c r="E116" s="85"/>
       <c r="F116" s="34" t="s">
         <v>12</v>
       </c>
@@ -4280,13 +4277,13 @@
       <c r="H116" s="34"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="125" t="s">
+      <c r="A117" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="B117" s="125"/>
-      <c r="C117" s="125"/>
-      <c r="D117" s="125"/>
-      <c r="E117" s="125"/>
+      <c r="B117" s="85"/>
+      <c r="C117" s="85"/>
+      <c r="D117" s="85"/>
+      <c r="E117" s="85"/>
       <c r="F117" s="34" t="s">
         <v>12</v>
       </c>
@@ -4296,13 +4293,13 @@
       <c r="H117" s="34"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="125" t="s">
+      <c r="A118" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="B118" s="125"/>
-      <c r="C118" s="125"/>
-      <c r="D118" s="125"/>
-      <c r="E118" s="125"/>
+      <c r="B118" s="85"/>
+      <c r="C118" s="85"/>
+      <c r="D118" s="85"/>
+      <c r="E118" s="85"/>
       <c r="F118" s="34" t="s">
         <v>12</v>
       </c>
@@ -4312,13 +4309,13 @@
       <c r="H118" s="34"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="125" t="s">
+      <c r="A119" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="B119" s="125"/>
-      <c r="C119" s="125"/>
-      <c r="D119" s="125"/>
-      <c r="E119" s="125"/>
+      <c r="B119" s="85"/>
+      <c r="C119" s="85"/>
+      <c r="D119" s="85"/>
+      <c r="E119" s="85"/>
       <c r="F119" s="34" t="s">
         <v>12</v>
       </c>
@@ -4328,13 +4325,13 @@
       <c r="H119" s="34"/>
     </row>
     <row r="120" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="125" t="s">
+      <c r="A120" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="B120" s="125"/>
-      <c r="C120" s="125"/>
-      <c r="D120" s="125"/>
-      <c r="E120" s="125"/>
+      <c r="B120" s="85"/>
+      <c r="C120" s="85"/>
+      <c r="D120" s="85"/>
+      <c r="E120" s="85"/>
       <c r="F120" s="34" t="s">
         <v>12</v>
       </c>
@@ -4344,13 +4341,13 @@
       <c r="H120" s="34"/>
     </row>
     <row r="121" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="125" t="s">
+      <c r="A121" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="B121" s="125"/>
-      <c r="C121" s="125"/>
-      <c r="D121" s="125"/>
-      <c r="E121" s="125"/>
+      <c r="B121" s="85"/>
+      <c r="C121" s="85"/>
+      <c r="D121" s="85"/>
+      <c r="E121" s="85"/>
       <c r="F121" s="34" t="s">
         <v>12</v>
       </c>
@@ -4360,13 +4357,13 @@
       <c r="H121" s="34"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="125" t="s">
+      <c r="A122" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="B122" s="125"/>
-      <c r="C122" s="125"/>
-      <c r="D122" s="125"/>
-      <c r="E122" s="125"/>
+      <c r="B122" s="85"/>
+      <c r="C122" s="85"/>
+      <c r="D122" s="85"/>
+      <c r="E122" s="85"/>
       <c r="F122" s="34" t="s">
         <v>12</v>
       </c>
@@ -4376,13 +4373,13 @@
       <c r="H122" s="34"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="125" t="s">
+      <c r="A123" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="B123" s="125"/>
-      <c r="C123" s="125"/>
-      <c r="D123" s="125"/>
-      <c r="E123" s="125"/>
+      <c r="B123" s="85"/>
+      <c r="C123" s="85"/>
+      <c r="D123" s="85"/>
+      <c r="E123" s="85"/>
       <c r="F123" s="34" t="s">
         <v>12</v>
       </c>
@@ -4392,13 +4389,13 @@
       <c r="H123" s="34"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="125" t="s">
+      <c r="A124" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="B124" s="125"/>
-      <c r="C124" s="125"/>
-      <c r="D124" s="125"/>
-      <c r="E124" s="125"/>
+      <c r="B124" s="85"/>
+      <c r="C124" s="85"/>
+      <c r="D124" s="85"/>
+      <c r="E124" s="85"/>
       <c r="F124" s="34" t="s">
         <v>12</v>
       </c>
@@ -4408,13 +4405,13 @@
       <c r="H124" s="34"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" s="125" t="s">
+      <c r="A125" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="B125" s="125"/>
-      <c r="C125" s="125"/>
-      <c r="D125" s="125"/>
-      <c r="E125" s="125"/>
+      <c r="B125" s="85"/>
+      <c r="C125" s="85"/>
+      <c r="D125" s="85"/>
+      <c r="E125" s="85"/>
       <c r="F125" s="34" t="s">
         <v>12</v>
       </c>
@@ -4424,13 +4421,13 @@
       <c r="H125" s="34"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="125" t="s">
+      <c r="A126" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="B126" s="125"/>
-      <c r="C126" s="125"/>
-      <c r="D126" s="125"/>
-      <c r="E126" s="125"/>
+      <c r="B126" s="85"/>
+      <c r="C126" s="85"/>
+      <c r="D126" s="85"/>
+      <c r="E126" s="85"/>
       <c r="F126" s="34" t="s">
         <v>12</v>
       </c>
@@ -4440,13 +4437,13 @@
       <c r="H126" s="34"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="125" t="s">
+      <c r="A127" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="B127" s="125"/>
-      <c r="C127" s="125"/>
-      <c r="D127" s="125"/>
-      <c r="E127" s="125"/>
+      <c r="B127" s="85"/>
+      <c r="C127" s="85"/>
+      <c r="D127" s="85"/>
+      <c r="E127" s="85"/>
       <c r="F127" s="34" t="s">
         <v>12</v>
       </c>
@@ -4456,13 +4453,13 @@
       <c r="H127" s="34"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="125" t="s">
+      <c r="A128" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="B128" s="125"/>
-      <c r="C128" s="125"/>
-      <c r="D128" s="125"/>
-      <c r="E128" s="125"/>
+      <c r="B128" s="85"/>
+      <c r="C128" s="85"/>
+      <c r="D128" s="85"/>
+      <c r="E128" s="85"/>
       <c r="F128" s="34" t="s">
         <v>12</v>
       </c>
@@ -4472,13 +4469,13 @@
       <c r="H128" s="34"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="125" t="s">
+      <c r="A129" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="B129" s="125"/>
-      <c r="C129" s="125"/>
-      <c r="D129" s="125"/>
-      <c r="E129" s="125"/>
+      <c r="B129" s="85"/>
+      <c r="C129" s="85"/>
+      <c r="D129" s="85"/>
+      <c r="E129" s="85"/>
       <c r="F129" s="34" t="s">
         <v>12</v>
       </c>
@@ -4488,13 +4485,13 @@
       <c r="H129" s="34"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="125" t="s">
+      <c r="A130" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="B130" s="125"/>
-      <c r="C130" s="125"/>
-      <c r="D130" s="125"/>
-      <c r="E130" s="125"/>
+      <c r="B130" s="85"/>
+      <c r="C130" s="85"/>
+      <c r="D130" s="85"/>
+      <c r="E130" s="85"/>
       <c r="F130" s="34" t="s">
         <v>12</v>
       </c>
@@ -4504,13 +4501,13 @@
       <c r="H130" s="34"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="125" t="s">
+      <c r="A131" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="B131" s="125"/>
-      <c r="C131" s="125"/>
-      <c r="D131" s="125"/>
-      <c r="E131" s="125"/>
+      <c r="B131" s="85"/>
+      <c r="C131" s="85"/>
+      <c r="D131" s="85"/>
+      <c r="E131" s="85"/>
       <c r="F131" s="34" t="s">
         <v>12</v>
       </c>
@@ -4520,13 +4517,13 @@
       <c r="H131" s="34"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="125" t="s">
+      <c r="A132" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="B132" s="125"/>
-      <c r="C132" s="125"/>
-      <c r="D132" s="125"/>
-      <c r="E132" s="125"/>
+      <c r="B132" s="85"/>
+      <c r="C132" s="85"/>
+      <c r="D132" s="85"/>
+      <c r="E132" s="85"/>
       <c r="F132" s="34" t="s">
         <v>12</v>
       </c>
@@ -4536,13 +4533,13 @@
       <c r="H132" s="34"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" s="125" t="s">
+      <c r="A133" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="B133" s="125"/>
-      <c r="C133" s="125"/>
-      <c r="D133" s="125"/>
-      <c r="E133" s="125"/>
+      <c r="B133" s="85"/>
+      <c r="C133" s="85"/>
+      <c r="D133" s="85"/>
+      <c r="E133" s="85"/>
       <c r="F133" s="34" t="s">
         <v>12</v>
       </c>
@@ -4552,13 +4549,13 @@
       <c r="H133" s="34"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="125" t="s">
+      <c r="A134" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="B134" s="125"/>
-      <c r="C134" s="125"/>
-      <c r="D134" s="125"/>
-      <c r="E134" s="125"/>
+      <c r="B134" s="85"/>
+      <c r="C134" s="85"/>
+      <c r="D134" s="85"/>
+      <c r="E134" s="85"/>
       <c r="F134" s="34" t="s">
         <v>12</v>
       </c>
@@ -4568,16 +4565,16 @@
       <c r="H134" s="34"/>
     </row>
     <row r="135" spans="1:8" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="138" t="s">
+      <c r="A135" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="B135" s="138"/>
-      <c r="C135" s="139"/>
-      <c r="D135" s="139"/>
-      <c r="E135" s="139"/>
-      <c r="F135" s="139"/>
-      <c r="G135" s="139"/>
-      <c r="H135" s="139"/>
+      <c r="B135" s="86"/>
+      <c r="C135" s="87"/>
+      <c r="D135" s="87"/>
+      <c r="E135" s="87"/>
+      <c r="F135" s="87"/>
+      <c r="G135" s="87"/>
+      <c r="H135" s="87"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="50"/>
@@ -4592,634 +4589,634 @@
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="43"/>
       <c r="B137" s="43"/>
-      <c r="C137" s="87" t="s">
+      <c r="C137" s="88" t="s">
         <v>157</v>
       </c>
-      <c r="D137" s="87"/>
-      <c r="E137" s="87"/>
-      <c r="F137" s="87"/>
-      <c r="G137" s="87"/>
-      <c r="H137" s="87"/>
+      <c r="D137" s="88"/>
+      <c r="E137" s="88"/>
+      <c r="F137" s="88"/>
+      <c r="G137" s="88"/>
+      <c r="H137" s="88"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="43"/>
       <c r="B138" s="43"/>
-      <c r="C138" s="88"/>
-      <c r="D138" s="88"/>
-      <c r="E138" s="88"/>
-      <c r="F138" s="88"/>
-      <c r="G138" s="88"/>
-      <c r="H138" s="88"/>
+      <c r="C138" s="89"/>
+      <c r="D138" s="89"/>
+      <c r="E138" s="89"/>
+      <c r="F138" s="89"/>
+      <c r="G138" s="89"/>
+      <c r="H138" s="89"/>
     </row>
     <row r="139" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="119" t="s">
+      <c r="A139" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B139" s="120"/>
-      <c r="C139" s="129" t="str">
+      <c r="B139" s="74"/>
+      <c r="C139" s="82" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D139" s="130"/>
-      <c r="E139" s="130"/>
-      <c r="F139" s="130"/>
-      <c r="G139" s="135"/>
-      <c r="H139" s="126"/>
+      <c r="D139" s="83"/>
+      <c r="E139" s="83"/>
+      <c r="F139" s="83"/>
+      <c r="G139" s="84"/>
+      <c r="H139" s="79"/>
     </row>
     <row r="140" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="119" t="s">
+      <c r="A140" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B140" s="120"/>
-      <c r="C140" s="129" t="str">
+      <c r="B140" s="74"/>
+      <c r="C140" s="82" t="str">
         <f>$C$4</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D140" s="130"/>
-      <c r="E140" s="130"/>
-      <c r="F140" s="130"/>
-      <c r="G140" s="135"/>
-      <c r="H140" s="127"/>
+      <c r="D140" s="83"/>
+      <c r="E140" s="83"/>
+      <c r="F140" s="83"/>
+      <c r="G140" s="84"/>
+      <c r="H140" s="80"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="119" t="s">
+      <c r="A141" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B141" s="120"/>
-      <c r="C141" s="129" t="str">
+      <c r="B141" s="74"/>
+      <c r="C141" s="82" t="str">
         <f>$C$5</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D141" s="130"/>
-      <c r="E141" s="130"/>
-      <c r="F141" s="130"/>
-      <c r="G141" s="135"/>
-      <c r="H141" s="127"/>
+      <c r="D141" s="83"/>
+      <c r="E141" s="83"/>
+      <c r="F141" s="83"/>
+      <c r="G141" s="84"/>
+      <c r="H141" s="80"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="119" t="s">
+      <c r="A142" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B142" s="120"/>
-      <c r="C142" s="129" t="str">
+      <c r="B142" s="74"/>
+      <c r="C142" s="82" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
-      <c r="D142" s="130"/>
-      <c r="E142" s="130"/>
-      <c r="F142" s="130"/>
-      <c r="G142" s="135"/>
-      <c r="H142" s="128"/>
+      <c r="D142" s="83"/>
+      <c r="E142" s="83"/>
+      <c r="F142" s="83"/>
+      <c r="G142" s="84"/>
+      <c r="H142" s="81"/>
     </row>
     <row r="143" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="148" t="s">
+      <c r="A143" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="B143" s="149"/>
-      <c r="C143" s="148" t="s">
+      <c r="B143" s="76"/>
+      <c r="C143" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="D143" s="150"/>
-      <c r="E143" s="150"/>
+      <c r="D143" s="77"/>
+      <c r="E143" s="77"/>
       <c r="F143" s="35"/>
-      <c r="G143" s="123" t="s">
-        <v>12</v>
-      </c>
-      <c r="H143" s="123"/>
+      <c r="G143" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="H143" s="78"/>
     </row>
     <row r="144" spans="1:8" s="37" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="140" t="s">
+      <c r="A144" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="B144" s="141"/>
-      <c r="C144" s="141"/>
-      <c r="D144" s="141"/>
-      <c r="E144" s="142"/>
+      <c r="B144" s="70"/>
+      <c r="C144" s="70"/>
+      <c r="D144" s="70"/>
+      <c r="E144" s="71"/>
       <c r="F144" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="G144" s="143" t="s">
+      <c r="G144" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="H144" s="143"/>
+      <c r="H144" s="72"/>
     </row>
     <row r="145" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="144" t="s">
+      <c r="A145" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="B145" s="145"/>
-      <c r="C145" s="145"/>
-      <c r="D145" s="145"/>
-      <c r="E145" s="146"/>
+      <c r="B145" s="60"/>
+      <c r="C145" s="60"/>
+      <c r="D145" s="60"/>
+      <c r="E145" s="61"/>
       <c r="F145" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G145" s="147" t="s">
+      <c r="G145" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="H145" s="147"/>
+      <c r="H145" s="62"/>
     </row>
     <row r="146" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="144" t="s">
+      <c r="A146" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="B146" s="145"/>
-      <c r="C146" s="145"/>
-      <c r="D146" s="145"/>
-      <c r="E146" s="146"/>
+      <c r="B146" s="60"/>
+      <c r="C146" s="60"/>
+      <c r="D146" s="60"/>
+      <c r="E146" s="61"/>
       <c r="F146" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G146" s="147" t="s">
+      <c r="G146" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="H146" s="147"/>
+      <c r="H146" s="62"/>
     </row>
     <row r="147" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="144" t="s">
+      <c r="A147" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="B147" s="145"/>
-      <c r="C147" s="145"/>
-      <c r="D147" s="145"/>
-      <c r="E147" s="146"/>
+      <c r="B147" s="60"/>
+      <c r="C147" s="60"/>
+      <c r="D147" s="60"/>
+      <c r="E147" s="61"/>
       <c r="F147" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G147" s="147" t="s">
+      <c r="G147" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="H147" s="147"/>
+      <c r="H147" s="62"/>
     </row>
     <row r="148" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="144" t="s">
+      <c r="A148" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="B148" s="145"/>
-      <c r="C148" s="145"/>
-      <c r="D148" s="145"/>
-      <c r="E148" s="146"/>
+      <c r="B148" s="60"/>
+      <c r="C148" s="60"/>
+      <c r="D148" s="60"/>
+      <c r="E148" s="61"/>
       <c r="F148" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G148" s="147" t="s">
+      <c r="G148" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="H148" s="147"/>
+      <c r="H148" s="62"/>
     </row>
     <row r="149" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="144" t="s">
+      <c r="A149" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="B149" s="145"/>
-      <c r="C149" s="145"/>
-      <c r="D149" s="145"/>
-      <c r="E149" s="146"/>
+      <c r="B149" s="60"/>
+      <c r="C149" s="60"/>
+      <c r="D149" s="60"/>
+      <c r="E149" s="61"/>
       <c r="F149" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G149" s="147" t="s">
+      <c r="G149" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="H149" s="147"/>
+      <c r="H149" s="62"/>
     </row>
     <row r="150" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="144" t="s">
+      <c r="A150" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="B150" s="145"/>
-      <c r="C150" s="145"/>
-      <c r="D150" s="145"/>
-      <c r="E150" s="146"/>
+      <c r="B150" s="60"/>
+      <c r="C150" s="60"/>
+      <c r="D150" s="60"/>
+      <c r="E150" s="61"/>
       <c r="F150" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G150" s="147" t="s">
+      <c r="G150" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="H150" s="147"/>
+      <c r="H150" s="62"/>
     </row>
     <row r="151" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="144" t="s">
+      <c r="A151" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="B151" s="145"/>
-      <c r="C151" s="145"/>
-      <c r="D151" s="145"/>
-      <c r="E151" s="146"/>
+      <c r="B151" s="60"/>
+      <c r="C151" s="60"/>
+      <c r="D151" s="60"/>
+      <c r="E151" s="61"/>
       <c r="F151" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G151" s="147" t="s">
+      <c r="G151" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="H151" s="147"/>
+      <c r="H151" s="62"/>
     </row>
     <row r="152" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="144" t="s">
+      <c r="A152" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="B152" s="145"/>
-      <c r="C152" s="145"/>
-      <c r="D152" s="145"/>
-      <c r="E152" s="146"/>
+      <c r="B152" s="60"/>
+      <c r="C152" s="60"/>
+      <c r="D152" s="60"/>
+      <c r="E152" s="61"/>
       <c r="F152" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G152" s="147" t="s">
+      <c r="G152" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="H152" s="147"/>
+      <c r="H152" s="62"/>
     </row>
     <row r="153" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="144" t="s">
+      <c r="A153" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="B153" s="145"/>
-      <c r="C153" s="145"/>
-      <c r="D153" s="145"/>
-      <c r="E153" s="146"/>
+      <c r="B153" s="60"/>
+      <c r="C153" s="60"/>
+      <c r="D153" s="60"/>
+      <c r="E153" s="61"/>
       <c r="F153" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G153" s="147" t="s">
+      <c r="G153" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="H153" s="147"/>
+      <c r="H153" s="62"/>
     </row>
     <row r="154" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="144" t="s">
+      <c r="A154" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="B154" s="145"/>
-      <c r="C154" s="145"/>
-      <c r="D154" s="145"/>
-      <c r="E154" s="146"/>
+      <c r="B154" s="60"/>
+      <c r="C154" s="60"/>
+      <c r="D154" s="60"/>
+      <c r="E154" s="61"/>
       <c r="F154" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G154" s="147" t="s">
+      <c r="G154" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="H154" s="147"/>
+      <c r="H154" s="62"/>
     </row>
     <row r="155" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="144" t="s">
+      <c r="A155" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="B155" s="145"/>
-      <c r="C155" s="145"/>
-      <c r="D155" s="145"/>
-      <c r="E155" s="146"/>
+      <c r="B155" s="60"/>
+      <c r="C155" s="60"/>
+      <c r="D155" s="60"/>
+      <c r="E155" s="61"/>
       <c r="F155" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G155" s="147" t="s">
+      <c r="G155" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="H155" s="147"/>
+      <c r="H155" s="62"/>
     </row>
     <row r="156" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="144" t="s">
+      <c r="A156" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="B156" s="145"/>
-      <c r="C156" s="145"/>
-      <c r="D156" s="145"/>
-      <c r="E156" s="146"/>
+      <c r="B156" s="60"/>
+      <c r="C156" s="60"/>
+      <c r="D156" s="60"/>
+      <c r="E156" s="61"/>
       <c r="F156" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G156" s="147" t="s">
+      <c r="G156" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="H156" s="147"/>
+      <c r="H156" s="62"/>
     </row>
     <row r="157" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="144" t="s">
+      <c r="A157" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="B157" s="145"/>
-      <c r="C157" s="145"/>
-      <c r="D157" s="145"/>
-      <c r="E157" s="146"/>
+      <c r="B157" s="60"/>
+      <c r="C157" s="60"/>
+      <c r="D157" s="60"/>
+      <c r="E157" s="61"/>
       <c r="F157" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G157" s="147" t="s">
+      <c r="G157" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="H157" s="147"/>
+      <c r="H157" s="62"/>
     </row>
     <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="144" t="s">
+      <c r="A158" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="B158" s="145"/>
-      <c r="C158" s="145"/>
-      <c r="D158" s="145"/>
-      <c r="E158" s="146"/>
+      <c r="B158" s="60"/>
+      <c r="C158" s="60"/>
+      <c r="D158" s="60"/>
+      <c r="E158" s="61"/>
       <c r="F158" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G158" s="147" t="s">
+      <c r="G158" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="H158" s="147"/>
+      <c r="H158" s="62"/>
     </row>
     <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="144" t="s">
+      <c r="A159" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="B159" s="145"/>
-      <c r="C159" s="145"/>
-      <c r="D159" s="145"/>
-      <c r="E159" s="146"/>
+      <c r="B159" s="60"/>
+      <c r="C159" s="60"/>
+      <c r="D159" s="60"/>
+      <c r="E159" s="61"/>
       <c r="F159" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G159" s="147" t="s">
+      <c r="G159" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="H159" s="147"/>
+      <c r="H159" s="62"/>
     </row>
     <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="144" t="s">
+      <c r="A160" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="B160" s="145"/>
-      <c r="C160" s="145"/>
-      <c r="D160" s="145"/>
-      <c r="E160" s="146"/>
+      <c r="B160" s="60"/>
+      <c r="C160" s="60"/>
+      <c r="D160" s="60"/>
+      <c r="E160" s="61"/>
       <c r="F160" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G160" s="147" t="s">
+      <c r="G160" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="H160" s="147"/>
+      <c r="H160" s="62"/>
     </row>
     <row r="161" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="144" t="s">
+      <c r="A161" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="B161" s="145"/>
-      <c r="C161" s="145"/>
-      <c r="D161" s="145"/>
-      <c r="E161" s="146"/>
+      <c r="B161" s="60"/>
+      <c r="C161" s="60"/>
+      <c r="D161" s="60"/>
+      <c r="E161" s="61"/>
       <c r="F161" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G161" s="147" t="s">
+      <c r="G161" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="H161" s="147"/>
+      <c r="H161" s="62"/>
     </row>
     <row r="162" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="144" t="s">
+      <c r="A162" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="B162" s="145"/>
-      <c r="C162" s="145"/>
-      <c r="D162" s="145"/>
-      <c r="E162" s="146"/>
+      <c r="B162" s="60"/>
+      <c r="C162" s="60"/>
+      <c r="D162" s="60"/>
+      <c r="E162" s="61"/>
       <c r="F162" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G162" s="147" t="s">
+      <c r="G162" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="H162" s="147"/>
+      <c r="H162" s="62"/>
     </row>
     <row r="163" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="144" t="s">
+      <c r="A163" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="B163" s="145"/>
-      <c r="C163" s="145"/>
-      <c r="D163" s="145"/>
-      <c r="E163" s="146"/>
+      <c r="B163" s="60"/>
+      <c r="C163" s="60"/>
+      <c r="D163" s="60"/>
+      <c r="E163" s="61"/>
       <c r="F163" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G163" s="147" t="s">
+      <c r="G163" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="H163" s="147"/>
+      <c r="H163" s="62"/>
     </row>
     <row r="164" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="144" t="s">
+      <c r="A164" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="B164" s="145"/>
-      <c r="C164" s="145"/>
-      <c r="D164" s="145"/>
-      <c r="E164" s="146"/>
+      <c r="B164" s="60"/>
+      <c r="C164" s="60"/>
+      <c r="D164" s="60"/>
+      <c r="E164" s="61"/>
       <c r="F164" s="25"/>
-      <c r="G164" s="147" t="s">
+      <c r="G164" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="H164" s="147"/>
+      <c r="H164" s="62"/>
     </row>
     <row r="165" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="144" t="s">
+      <c r="A165" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="B165" s="145"/>
-      <c r="C165" s="145"/>
-      <c r="D165" s="145"/>
-      <c r="E165" s="146"/>
+      <c r="B165" s="60"/>
+      <c r="C165" s="60"/>
+      <c r="D165" s="60"/>
+      <c r="E165" s="61"/>
       <c r="F165" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G165" s="147" t="s">
+      <c r="G165" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="H165" s="147"/>
+      <c r="H165" s="62"/>
     </row>
     <row r="166" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="144" t="s">
+      <c r="A166" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="B166" s="145"/>
-      <c r="C166" s="145"/>
-      <c r="D166" s="145"/>
-      <c r="E166" s="146"/>
+      <c r="B166" s="60"/>
+      <c r="C166" s="60"/>
+      <c r="D166" s="60"/>
+      <c r="E166" s="61"/>
       <c r="F166" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G166" s="147" t="s">
+      <c r="G166" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="H166" s="147"/>
+      <c r="H166" s="62"/>
     </row>
     <row r="167" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="144" t="s">
+      <c r="A167" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="B167" s="145"/>
-      <c r="C167" s="145"/>
-      <c r="D167" s="145"/>
-      <c r="E167" s="146"/>
+      <c r="B167" s="60"/>
+      <c r="C167" s="60"/>
+      <c r="D167" s="60"/>
+      <c r="E167" s="61"/>
       <c r="F167" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G167" s="147" t="s">
+      <c r="G167" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="H167" s="147"/>
+      <c r="H167" s="62"/>
     </row>
     <row r="168" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="144" t="s">
+      <c r="A168" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="B168" s="145"/>
-      <c r="C168" s="145"/>
-      <c r="D168" s="145"/>
-      <c r="E168" s="146"/>
+      <c r="B168" s="60"/>
+      <c r="C168" s="60"/>
+      <c r="D168" s="60"/>
+      <c r="E168" s="61"/>
       <c r="F168" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G168" s="147" t="s">
+      <c r="G168" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="H168" s="147"/>
+      <c r="H168" s="62"/>
     </row>
     <row r="169" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="144" t="s">
+      <c r="A169" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="B169" s="145"/>
-      <c r="C169" s="145"/>
-      <c r="D169" s="145"/>
-      <c r="E169" s="146"/>
+      <c r="B169" s="60"/>
+      <c r="C169" s="60"/>
+      <c r="D169" s="60"/>
+      <c r="E169" s="61"/>
       <c r="F169" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G169" s="147" t="s">
+      <c r="G169" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="H169" s="147"/>
+      <c r="H169" s="62"/>
     </row>
     <row r="170" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="151" t="s">
+      <c r="A170" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="B170" s="152"/>
-      <c r="C170" s="152"/>
-      <c r="D170" s="152"/>
-      <c r="E170" s="153"/>
+      <c r="B170" s="67"/>
+      <c r="C170" s="67"/>
+      <c r="D170" s="67"/>
+      <c r="E170" s="68"/>
       <c r="F170" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G170" s="147" t="s">
+      <c r="G170" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="H170" s="147"/>
+      <c r="H170" s="62"/>
     </row>
     <row r="171" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="144" t="s">
+      <c r="A171" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="B171" s="145"/>
-      <c r="C171" s="145"/>
-      <c r="D171" s="145"/>
-      <c r="E171" s="146"/>
+      <c r="B171" s="60"/>
+      <c r="C171" s="60"/>
+      <c r="D171" s="60"/>
+      <c r="E171" s="61"/>
       <c r="F171" s="25"/>
-      <c r="G171" s="147" t="s">
+      <c r="G171" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="H171" s="147"/>
+      <c r="H171" s="62"/>
     </row>
     <row r="172" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="144" t="s">
+      <c r="A172" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="B172" s="145"/>
-      <c r="C172" s="145"/>
-      <c r="D172" s="145"/>
-      <c r="E172" s="146"/>
+      <c r="B172" s="60"/>
+      <c r="C172" s="60"/>
+      <c r="D172" s="60"/>
+      <c r="E172" s="61"/>
       <c r="F172" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="G172" s="147" t="s">
+      <c r="G172" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="H172" s="147"/>
+      <c r="H172" s="62"/>
     </row>
     <row r="173" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="144" t="s">
+      <c r="A173" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="B173" s="145"/>
-      <c r="C173" s="145"/>
-      <c r="D173" s="145"/>
-      <c r="E173" s="146"/>
+      <c r="B173" s="60"/>
+      <c r="C173" s="60"/>
+      <c r="D173" s="60"/>
+      <c r="E173" s="61"/>
       <c r="F173" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="G173" s="147" t="s">
+      <c r="G173" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="H173" s="147"/>
+      <c r="H173" s="62"/>
     </row>
     <row r="174" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="144" t="s">
+      <c r="A174" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="B174" s="145"/>
-      <c r="C174" s="145"/>
-      <c r="D174" s="145"/>
-      <c r="E174" s="146"/>
+      <c r="B174" s="60"/>
+      <c r="C174" s="60"/>
+      <c r="D174" s="60"/>
+      <c r="E174" s="61"/>
       <c r="F174" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="G174" s="147" t="s">
+      <c r="G174" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="H174" s="147"/>
+      <c r="H174" s="62"/>
     </row>
     <row r="175" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="144" t="s">
+      <c r="A175" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="B175" s="145"/>
-      <c r="C175" s="145"/>
-      <c r="D175" s="145"/>
-      <c r="E175" s="146"/>
+      <c r="B175" s="60"/>
+      <c r="C175" s="60"/>
+      <c r="D175" s="60"/>
+      <c r="E175" s="61"/>
       <c r="F175" s="25"/>
-      <c r="G175" s="147" t="s">
+      <c r="G175" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="H175" s="147"/>
+      <c r="H175" s="62"/>
     </row>
     <row r="176" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="144" t="s">
+      <c r="A176" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="B176" s="145"/>
-      <c r="C176" s="145"/>
-      <c r="D176" s="145"/>
-      <c r="E176" s="146"/>
+      <c r="B176" s="60"/>
+      <c r="C176" s="60"/>
+      <c r="D176" s="60"/>
+      <c r="E176" s="61"/>
       <c r="F176" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G176" s="147" t="s">
+      <c r="G176" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="H176" s="147"/>
+      <c r="H176" s="62"/>
     </row>
     <row r="177" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="154" t="s">
+      <c r="A177" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="B177" s="155"/>
-      <c r="C177" s="155"/>
-      <c r="D177" s="155"/>
-      <c r="E177" s="155"/>
-      <c r="F177" s="155"/>
-      <c r="G177" s="155"/>
-      <c r="H177" s="156"/>
+      <c r="B177" s="64"/>
+      <c r="C177" s="64"/>
+      <c r="D177" s="64"/>
+      <c r="E177" s="64"/>
+      <c r="F177" s="64"/>
+      <c r="G177" s="64"/>
+      <c r="H177" s="65"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="50"/>
@@ -5235,70 +5232,70 @@
       <c r="H180" s="57"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A181" s="69" t="s">
+      <c r="A181" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B181" s="70"/>
-      <c r="C181" s="73" t="str">
+      <c r="B181" s="143"/>
+      <c r="C181" s="147" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D181" s="70"/>
-      <c r="E181" s="70"/>
-      <c r="F181" s="70"/>
-      <c r="G181" s="74"/>
-      <c r="H181" s="71"/>
+      <c r="D181" s="143"/>
+      <c r="E181" s="143"/>
+      <c r="F181" s="143"/>
+      <c r="G181" s="148"/>
+      <c r="H181" s="156"/>
     </row>
     <row r="182" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="59" t="s">
+      <c r="A182" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="B182" s="60"/>
-      <c r="C182" s="75" t="str">
+      <c r="B182" s="133"/>
+      <c r="C182" s="149" t="str">
         <f>$C$4</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D182" s="76"/>
-      <c r="E182" s="76"/>
-      <c r="F182" s="76"/>
-      <c r="G182" s="77"/>
-      <c r="H182" s="71"/>
+      <c r="D182" s="150"/>
+      <c r="E182" s="150"/>
+      <c r="F182" s="150"/>
+      <c r="G182" s="151"/>
+      <c r="H182" s="156"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A183" s="59" t="s">
+      <c r="A183" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="B183" s="60"/>
-      <c r="C183" s="78" t="str">
+      <c r="B183" s="133"/>
+      <c r="C183" s="152" t="str">
         <f>$C$5</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D183" s="60"/>
-      <c r="E183" s="60"/>
-      <c r="F183" s="60"/>
-      <c r="G183" s="79"/>
-      <c r="H183" s="71"/>
+      <c r="D183" s="133"/>
+      <c r="E183" s="133"/>
+      <c r="F183" s="133"/>
+      <c r="G183" s="153"/>
+      <c r="H183" s="156"/>
     </row>
     <row r="184" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="61" t="s">
+      <c r="A184" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="B184" s="62"/>
-      <c r="C184" s="80" t="str">
+      <c r="B184" s="135"/>
+      <c r="C184" s="154" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
-      <c r="D184" s="62"/>
-      <c r="E184" s="62"/>
-      <c r="F184" s="62"/>
-      <c r="G184" s="81"/>
-      <c r="H184" s="72"/>
+      <c r="D184" s="135"/>
+      <c r="E184" s="135"/>
+      <c r="F184" s="135"/>
+      <c r="G184" s="155"/>
+      <c r="H184" s="157"/>
     </row>
     <row r="185" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="63" t="s">
+      <c r="A185" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="B185" s="64"/>
+      <c r="B185" s="137"/>
       <c r="C185" s="3">
         <f>$E$18</f>
         <v>2050</v>
@@ -5322,14 +5319,14 @@
       </c>
     </row>
     <row r="186" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A186" s="65"/>
-      <c r="B186" s="66"/>
-      <c r="C186" s="66"/>
-      <c r="D186" s="67"/>
-      <c r="E186" s="67"/>
-      <c r="F186" s="67"/>
-      <c r="G186" s="67"/>
-      <c r="H186" s="68"/>
+      <c r="A186" s="138"/>
+      <c r="B186" s="139"/>
+      <c r="C186" s="139"/>
+      <c r="D186" s="140"/>
+      <c r="E186" s="140"/>
+      <c r="F186" s="140"/>
+      <c r="G186" s="140"/>
+      <c r="H186" s="141"/>
     </row>
     <row r="187" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A187" s="5"/>
@@ -5525,70 +5522,70 @@
       <c r="H207" s="58"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A208" s="69" t="s">
+      <c r="A208" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B208" s="70"/>
-      <c r="C208" s="73" t="str">
+      <c r="B208" s="143"/>
+      <c r="C208" s="147" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D208" s="70"/>
-      <c r="E208" s="70"/>
-      <c r="F208" s="70"/>
-      <c r="G208" s="74"/>
-      <c r="H208" s="82"/>
+      <c r="D208" s="143"/>
+      <c r="E208" s="143"/>
+      <c r="F208" s="143"/>
+      <c r="G208" s="148"/>
+      <c r="H208" s="144"/>
     </row>
     <row r="209" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="59" t="s">
+      <c r="A209" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="B209" s="60"/>
-      <c r="C209" s="75" t="str">
+      <c r="B209" s="133"/>
+      <c r="C209" s="149" t="str">
         <f>$C$4</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D209" s="76"/>
-      <c r="E209" s="76"/>
-      <c r="F209" s="76"/>
-      <c r="G209" s="77"/>
-      <c r="H209" s="83"/>
+      <c r="D209" s="150"/>
+      <c r="E209" s="150"/>
+      <c r="F209" s="150"/>
+      <c r="G209" s="151"/>
+      <c r="H209" s="145"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A210" s="59" t="s">
+      <c r="A210" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="B210" s="60"/>
-      <c r="C210" s="78" t="str">
+      <c r="B210" s="133"/>
+      <c r="C210" s="152" t="str">
         <f>$C$5</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D210" s="60"/>
-      <c r="E210" s="60"/>
-      <c r="F210" s="60"/>
-      <c r="G210" s="79"/>
-      <c r="H210" s="83"/>
+      <c r="D210" s="133"/>
+      <c r="E210" s="133"/>
+      <c r="F210" s="133"/>
+      <c r="G210" s="153"/>
+      <c r="H210" s="145"/>
     </row>
     <row r="211" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="61" t="s">
+      <c r="A211" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="B211" s="62"/>
-      <c r="C211" s="80" t="str">
+      <c r="B211" s="135"/>
+      <c r="C211" s="154" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
-      <c r="D211" s="62"/>
-      <c r="E211" s="62"/>
-      <c r="F211" s="62"/>
-      <c r="G211" s="81"/>
-      <c r="H211" s="84"/>
+      <c r="D211" s="135"/>
+      <c r="E211" s="135"/>
+      <c r="F211" s="135"/>
+      <c r="G211" s="155"/>
+      <c r="H211" s="146"/>
     </row>
     <row r="212" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="63" t="s">
+      <c r="A212" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="B212" s="64"/>
+      <c r="B212" s="137"/>
       <c r="C212" s="3">
         <f>$E$18</f>
         <v>2050</v>
@@ -5612,14 +5609,14 @@
       </c>
     </row>
     <row r="213" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A213" s="65"/>
-      <c r="B213" s="66"/>
-      <c r="C213" s="66"/>
-      <c r="D213" s="67"/>
-      <c r="E213" s="67"/>
-      <c r="F213" s="67"/>
-      <c r="G213" s="67"/>
-      <c r="H213" s="68"/>
+      <c r="A213" s="138"/>
+      <c r="B213" s="139"/>
+      <c r="C213" s="139"/>
+      <c r="D213" s="140"/>
+      <c r="E213" s="140"/>
+      <c r="F213" s="140"/>
+      <c r="G213" s="140"/>
+      <c r="H213" s="141"/>
     </row>
     <row r="214" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A214" s="5"/>
@@ -5813,112 +5810,124 @@
     </row>
   </sheetData>
   <mergeCells count="247">
-    <mergeCell ref="A175:E175"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="A176:E176"/>
-    <mergeCell ref="G176:H176"/>
-    <mergeCell ref="A177:H177"/>
-    <mergeCell ref="A172:E172"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="A173:E173"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="A174:E174"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="A169:E169"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="A170:E170"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="A171:E171"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="A166:E166"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="A163:E163"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="A164:E164"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="A160:E160"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="A161:E161"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="A162:E162"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="A159:E159"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="A154:E154"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="A155:E155"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="A156:E156"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="A150:E150"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="A151:E151"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="A153:E153"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="A152:E152"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="A147:E147"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="A148:E148"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="A149:E149"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="A144:E144"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="A145:E145"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="C143:E143"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="H139:H142"/>
-    <mergeCell ref="C139:G139"/>
-    <mergeCell ref="C140:G140"/>
-    <mergeCell ref="C141:G141"/>
-    <mergeCell ref="C142:G142"/>
-    <mergeCell ref="A133:E133"/>
-    <mergeCell ref="A134:E134"/>
-    <mergeCell ref="A135:H135"/>
-    <mergeCell ref="C137:H138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A127:E127"/>
-    <mergeCell ref="A128:E128"/>
-    <mergeCell ref="A129:E129"/>
-    <mergeCell ref="A130:E130"/>
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="A132:E132"/>
-    <mergeCell ref="A121:E121"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A123:E123"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A125:E125"/>
-    <mergeCell ref="A126:E126"/>
-    <mergeCell ref="A115:E115"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="A117:E117"/>
-    <mergeCell ref="A118:E118"/>
-    <mergeCell ref="A119:E119"/>
-    <mergeCell ref="A120:E120"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A114:E114"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="A186:H186"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="H181:H184"/>
+    <mergeCell ref="C181:G181"/>
+    <mergeCell ref="C182:G182"/>
+    <mergeCell ref="C183:G183"/>
+    <mergeCell ref="C184:G184"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="A213:H213"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="H208:H211"/>
+    <mergeCell ref="C208:G208"/>
+    <mergeCell ref="C209:G209"/>
+    <mergeCell ref="C210:G210"/>
+    <mergeCell ref="C211:G211"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B21:H22"/>
+    <mergeCell ref="B23:H42"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="C56:H57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A64:E64"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A83:E83"/>
     <mergeCell ref="A98:B98"/>
     <mergeCell ref="A109:E109"/>
     <mergeCell ref="H97:H100"/>
@@ -5942,124 +5951,112 @@
     <mergeCell ref="A100:B100"/>
     <mergeCell ref="A101:E101"/>
     <mergeCell ref="A102:E102"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="A75:E75"/>
-    <mergeCell ref="A76:E76"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A64:E64"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="C56:H57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B21:H22"/>
-    <mergeCell ref="B23:H42"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="A213:H213"/>
-    <mergeCell ref="A208:B208"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="H208:H211"/>
-    <mergeCell ref="C208:G208"/>
-    <mergeCell ref="C209:G209"/>
-    <mergeCell ref="C210:G210"/>
-    <mergeCell ref="C211:G211"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="A186:H186"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="H181:H184"/>
-    <mergeCell ref="C181:G181"/>
-    <mergeCell ref="C182:G182"/>
-    <mergeCell ref="C183:G183"/>
-    <mergeCell ref="C184:G184"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="A117:E117"/>
+    <mergeCell ref="A118:E118"/>
+    <mergeCell ref="A119:E119"/>
+    <mergeCell ref="A120:E120"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A114:E114"/>
+    <mergeCell ref="A127:E127"/>
+    <mergeCell ref="A128:E128"/>
+    <mergeCell ref="A129:E129"/>
+    <mergeCell ref="A130:E130"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="A132:E132"/>
+    <mergeCell ref="A121:E121"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A123:E123"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A125:E125"/>
+    <mergeCell ref="A126:E126"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="H139:H142"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="C142:G142"/>
+    <mergeCell ref="A133:E133"/>
+    <mergeCell ref="A134:E134"/>
+    <mergeCell ref="A135:H135"/>
+    <mergeCell ref="C137:H138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A144:E144"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="A145:E145"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:E143"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="A150:E150"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="A151:E151"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="A153:E153"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="A152:E152"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="A147:E147"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="A148:E148"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="A154:E154"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="A155:E155"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="A156:E156"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="A163:E163"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="A164:E164"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="A160:E160"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="A161:E161"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="A162:E162"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="A169:E169"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="A170:E170"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="A171:E171"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="A166:E166"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="A175:E175"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="G176:H176"/>
+    <mergeCell ref="A177:H177"/>
+    <mergeCell ref="A172:E172"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="A173:E173"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="A174:E174"/>
+    <mergeCell ref="G174:H174"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Compass.Wpf/bin/Release/net6.0-windows/publish/JobCard.xlsx
+++ b/Compass.Wpf/bin/Release/net6.0-windows/publish/JobCard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\repos\Compass.Wasm\Compass.Wpf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE57A4AC-49C2-4C48-9683-F5A74107C743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDDCB78-6F39-46E0-887F-B77BB745D391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JobCard" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="170">
   <si>
     <t>Order Number 订单编号</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>Hood Item Number 烟罩项目号</t>
-  </si>
-  <si>
-    <t>71.6 M1</t>
   </si>
   <si>
     <t>KVI</t>
@@ -586,6 +583,14 @@
   <si>
     <t>Cutting Inspection (Laser &amp; punch breaker)下料检验 (激光切割/数控冲操作员)
  /Inspected Date 检查日期:</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>71.6 M1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>71.6 M1(KVI_FR_555)</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -596,7 +601,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-10409]yyyy/m/d"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1827,6 +1832,18 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1950,22 +1967,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{2409072B-DE74-4AFE-9068-FB6263D77CF0}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2505,11 +2510,11 @@
   </sheetPr>
   <dimension ref="A1:H232"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:H42"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.375" style="1" bestFit="1" customWidth="1"/>
@@ -2522,11 +2527,11 @@
     <col min="9" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="43"/>
       <c r="B1" s="43"/>
       <c r="C1" s="88" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D1" s="88"/>
       <c r="E1" s="88"/>
@@ -2534,7 +2539,7 @@
       <c r="G1" s="88"/>
       <c r="H1" s="88"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
       <c r="C2" s="89"/>
@@ -2544,316 +2549,315 @@
       <c r="G2" s="89"/>
       <c r="H2" s="89"/>
     </row>
-    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="16.5" customHeight="1">
       <c r="A3" s="99" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="106"/>
+      <c r="C3" s="133" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="130"/>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A4" s="99" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="129" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="126"/>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="99" t="s">
+      <c r="B4" s="106"/>
+      <c r="C4" s="133" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="131"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="99" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="106"/>
-      <c r="C4" s="129" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="127"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="99" t="s">
+      <c r="B5" s="106"/>
+      <c r="C5" s="133" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="131"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="99" t="s">
         <v>160</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="129" t="s">
+      <c r="B6" s="106"/>
+      <c r="C6" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="127"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="99" t="s">
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="132"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="99" t="s">
         <v>161</v>
       </c>
-      <c r="B6" s="106"/>
-      <c r="C6" s="129" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="128"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="99" t="s">
-        <v>162</v>
-      </c>
       <c r="B7" s="106"/>
-      <c r="C7" s="120" t="s">
-        <v>154</v>
-      </c>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="124" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="104" t="s">
+      <c r="B9" s="125"/>
+      <c r="C9" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="121"/>
-      <c r="C9" s="44" t="s">
+      <c r="D9" s="104" t="s">
         <v>14</v>
-      </c>
-      <c r="D9" s="104" t="s">
-        <v>15</v>
       </c>
       <c r="E9" s="100"/>
       <c r="F9" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="122" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="126" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="127"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="123"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+      <c r="B10" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>18</v>
-      </c>
       <c r="C10" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="100"/>
       <c r="F10" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="124" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="129"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="125"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="117"/>
+      <c r="B11" s="121"/>
       <c r="C11" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="100"/>
       <c r="F11" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="118">
+        <v>11</v>
+      </c>
+      <c r="G11" s="122">
         <v>43826</v>
       </c>
-      <c r="H11" s="119"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H11" s="123"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="99" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="100"/>
       <c r="C12" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="100"/>
       <c r="F12" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="100"/>
       <c r="F13" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="22"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="41" t="s">
-        <v>24</v>
-      </c>
       <c r="C14" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="100"/>
       <c r="F14" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="22"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="41" t="s">
-        <v>26</v>
-      </c>
       <c r="C15" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="100"/>
       <c r="F15" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" s="22"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="33" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="33">
       <c r="A17" s="105" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B17" s="106"/>
       <c r="C17" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="E17" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="F17" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="G17" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="H17" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="39" t="str">
-        <f>$C$5</f>
-        <v>71.6 M1</v>
+        <v>11</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>169</v>
       </c>
       <c r="C18" s="40" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
       <c r="D18" s="47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" s="47">
         <v>2050</v>
@@ -2865,16 +2869,16 @@
         <v>555</v>
       </c>
       <c r="H18" s="48" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="107" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B19" s="108"/>
       <c r="C19" s="99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="106"/>
       <c r="E19" s="106"/>
@@ -2882,13 +2886,13 @@
       <c r="G19" s="106"/>
       <c r="H19" s="109"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8">
       <c r="A20" s="107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="108"/>
       <c r="C20" s="99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" s="106"/>
       <c r="E20" s="106"/>
@@ -2896,9 +2900,9 @@
       <c r="G20" s="106"/>
       <c r="H20" s="109"/>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="15" customHeight="1">
       <c r="A21" s="110" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B21" s="112"/>
       <c r="C21" s="113"/>
@@ -2908,7 +2912,7 @@
       <c r="G21" s="113"/>
       <c r="H21" s="114"/>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="15" customHeight="1">
       <c r="A22" s="111"/>
       <c r="B22" s="115"/>
       <c r="C22" s="115"/>
@@ -2918,427 +2922,427 @@
       <c r="G22" s="115"/>
       <c r="H22" s="116"/>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="15" customHeight="1">
       <c r="A23" s="111"/>
-      <c r="B23" s="158"/>
-      <c r="C23" s="158"/>
-      <c r="D23" s="158"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="159"/>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="117"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="118"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1">
       <c r="A24" s="111"/>
-      <c r="B24" s="158"/>
-      <c r="C24" s="158"/>
-      <c r="D24" s="158"/>
-      <c r="E24" s="158"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="159"/>
-    </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="117"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="118"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1">
       <c r="A25" s="111" t="s">
-        <v>153</v>
-      </c>
-      <c r="B25" s="158"/>
-      <c r="C25" s="158"/>
-      <c r="D25" s="158"/>
-      <c r="E25" s="158"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="159"/>
-    </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="B25" s="117"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="118"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1">
       <c r="A26" s="111"/>
-      <c r="B26" s="158"/>
-      <c r="C26" s="158"/>
-      <c r="D26" s="158"/>
-      <c r="E26" s="158"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="159"/>
-    </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="117"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="118"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1">
       <c r="A27" s="111"/>
-      <c r="B27" s="158"/>
-      <c r="C27" s="158"/>
-      <c r="D27" s="158"/>
-      <c r="E27" s="158"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="159"/>
-    </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="117"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="117"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="118"/>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1">
       <c r="A28" s="53"/>
-      <c r="B28" s="158"/>
-      <c r="C28" s="158"/>
-      <c r="D28" s="158"/>
-      <c r="E28" s="158"/>
-      <c r="F28" s="158"/>
-      <c r="G28" s="158"/>
-      <c r="H28" s="159"/>
-    </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="117"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="118"/>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1">
       <c r="A29" s="53"/>
-      <c r="B29" s="158"/>
-      <c r="C29" s="158"/>
-      <c r="D29" s="158"/>
-      <c r="E29" s="158"/>
-      <c r="F29" s="158"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="159"/>
-    </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="117"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="118"/>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1">
       <c r="A30" s="53"/>
-      <c r="B30" s="158"/>
-      <c r="C30" s="158"/>
-      <c r="D30" s="158"/>
-      <c r="E30" s="158"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="159"/>
-    </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="117"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="118"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1">
       <c r="A31" s="53"/>
-      <c r="B31" s="158"/>
-      <c r="C31" s="158"/>
-      <c r="D31" s="158"/>
-      <c r="E31" s="158"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="159"/>
-    </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="117"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="118"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1">
       <c r="A32" s="54"/>
-      <c r="B32" s="158"/>
-      <c r="C32" s="158"/>
-      <c r="D32" s="158"/>
-      <c r="E32" s="158"/>
-      <c r="F32" s="158"/>
-      <c r="G32" s="158"/>
-      <c r="H32" s="159"/>
-    </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="117"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="118"/>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1">
       <c r="A33" s="54"/>
-      <c r="B33" s="158"/>
-      <c r="C33" s="158"/>
-      <c r="D33" s="158"/>
-      <c r="E33" s="158"/>
-      <c r="F33" s="158"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="159"/>
-    </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="117"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="118"/>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1">
       <c r="A34" s="54"/>
-      <c r="B34" s="158"/>
-      <c r="C34" s="158"/>
-      <c r="D34" s="158"/>
-      <c r="E34" s="158"/>
-      <c r="F34" s="158"/>
-      <c r="G34" s="158"/>
-      <c r="H34" s="159"/>
-    </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="117"/>
+      <c r="C34" s="117"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="117"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="118"/>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1">
       <c r="A35" s="54"/>
-      <c r="B35" s="158"/>
-      <c r="C35" s="158"/>
-      <c r="D35" s="158"/>
-      <c r="E35" s="158"/>
-      <c r="F35" s="158"/>
-      <c r="G35" s="158"/>
-      <c r="H35" s="159"/>
-    </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="117"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="117"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="117"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="118"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1">
       <c r="A36" s="54"/>
-      <c r="B36" s="158"/>
-      <c r="C36" s="158"/>
-      <c r="D36" s="158"/>
-      <c r="E36" s="158"/>
-      <c r="F36" s="158"/>
-      <c r="G36" s="158"/>
-      <c r="H36" s="159"/>
-    </row>
-    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="117"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="117"/>
+      <c r="F36" s="117"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="118"/>
+    </row>
+    <row r="37" spans="1:8" ht="15" customHeight="1">
       <c r="A37" s="54"/>
-      <c r="B37" s="158"/>
-      <c r="C37" s="158"/>
-      <c r="D37" s="158"/>
-      <c r="E37" s="158"/>
-      <c r="F37" s="158"/>
-      <c r="G37" s="158"/>
-      <c r="H37" s="159"/>
-    </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="117"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="117"/>
+      <c r="E37" s="117"/>
+      <c r="F37" s="117"/>
+      <c r="G37" s="117"/>
+      <c r="H37" s="118"/>
+    </row>
+    <row r="38" spans="1:8" ht="15" customHeight="1">
       <c r="A38" s="54"/>
-      <c r="B38" s="158"/>
-      <c r="C38" s="158"/>
-      <c r="D38" s="158"/>
-      <c r="E38" s="158"/>
-      <c r="F38" s="158"/>
-      <c r="G38" s="158"/>
-      <c r="H38" s="159"/>
-    </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="117"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="117"/>
+      <c r="E38" s="117"/>
+      <c r="F38" s="117"/>
+      <c r="G38" s="117"/>
+      <c r="H38" s="118"/>
+    </row>
+    <row r="39" spans="1:8" ht="15" customHeight="1">
       <c r="A39" s="54"/>
-      <c r="B39" s="158"/>
-      <c r="C39" s="158"/>
-      <c r="D39" s="158"/>
-      <c r="E39" s="158"/>
-      <c r="F39" s="158"/>
-      <c r="G39" s="158"/>
-      <c r="H39" s="159"/>
-    </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="117"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="117"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="117"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="118"/>
+    </row>
+    <row r="40" spans="1:8" ht="15" customHeight="1">
       <c r="A40" s="54"/>
-      <c r="B40" s="158"/>
-      <c r="C40" s="158"/>
-      <c r="D40" s="158"/>
-      <c r="E40" s="158"/>
-      <c r="F40" s="158"/>
-      <c r="G40" s="158"/>
-      <c r="H40" s="159"/>
-    </row>
-    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="117"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="117"/>
+      <c r="E40" s="117"/>
+      <c r="F40" s="117"/>
+      <c r="G40" s="117"/>
+      <c r="H40" s="118"/>
+    </row>
+    <row r="41" spans="1:8" ht="15" customHeight="1">
       <c r="A41" s="54"/>
-      <c r="B41" s="158"/>
-      <c r="C41" s="158"/>
-      <c r="D41" s="158"/>
-      <c r="E41" s="158"/>
-      <c r="F41" s="158"/>
-      <c r="G41" s="158"/>
-      <c r="H41" s="159"/>
-    </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="117"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="117"/>
+      <c r="E41" s="117"/>
+      <c r="F41" s="117"/>
+      <c r="G41" s="117"/>
+      <c r="H41" s="118"/>
+    </row>
+    <row r="42" spans="1:8" ht="15" customHeight="1">
       <c r="A42" s="55"/>
-      <c r="B42" s="160"/>
-      <c r="C42" s="160"/>
-      <c r="D42" s="160"/>
-      <c r="E42" s="160"/>
-      <c r="F42" s="160"/>
-      <c r="G42" s="160"/>
-      <c r="H42" s="161"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="119"/>
+      <c r="C42" s="119"/>
+      <c r="D42" s="119"/>
+      <c r="E42" s="119"/>
+      <c r="F42" s="119"/>
+      <c r="G42" s="119"/>
+      <c r="H42" s="120"/>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43" s="100"/>
       <c r="C43" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D43" s="101" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E43" s="102"/>
       <c r="F43" s="102"/>
       <c r="G43" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H43" s="32" t="s">
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="99" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="99" t="s">
-        <v>40</v>
       </c>
       <c r="B44" s="100"/>
       <c r="C44" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D44" s="101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E44" s="102"/>
       <c r="F44" s="103"/>
       <c r="G44" s="42"/>
       <c r="H44" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="99" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45" s="100"/>
       <c r="C45" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D45" s="101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E45" s="102"/>
       <c r="F45" s="103"/>
       <c r="G45" s="42"/>
       <c r="H45" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B46" s="100"/>
       <c r="C46" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D46" s="101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E46" s="102"/>
       <c r="F46" s="103"/>
       <c r="G46" s="42"/>
       <c r="H46" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47" s="100"/>
       <c r="C47" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D47" s="101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E47" s="102"/>
       <c r="F47" s="103"/>
       <c r="G47" s="42"/>
       <c r="H47" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="99" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" s="100"/>
       <c r="C48" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D48" s="101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E48" s="102"/>
       <c r="F48" s="103"/>
       <c r="G48" s="42"/>
       <c r="H48" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="99" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" s="100"/>
       <c r="C49" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D49" s="101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E49" s="102"/>
       <c r="F49" s="103"/>
       <c r="G49" s="42"/>
       <c r="H49" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="99" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50" s="100"/>
       <c r="C50" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D50" s="101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E50" s="102"/>
       <c r="F50" s="103"/>
       <c r="G50" s="42"/>
       <c r="H50" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="99" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B51" s="100"/>
       <c r="C51" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D51" s="101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E51" s="102"/>
       <c r="F51" s="103"/>
       <c r="G51" s="42"/>
       <c r="H51" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="99" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B52" s="100"/>
       <c r="C52" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D52" s="101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E52" s="102"/>
       <c r="F52" s="103"/>
       <c r="G52" s="42"/>
       <c r="H52" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="99" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B53" s="100"/>
       <c r="C53" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D53" s="101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E53" s="102"/>
       <c r="F53" s="103"/>
       <c r="G53" s="42"/>
       <c r="H53" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="99" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B54" s="100"/>
       <c r="C54" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D54" s="101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E54" s="102"/>
       <c r="F54" s="103"/>
       <c r="G54" s="42"/>
       <c r="H54" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="22"/>
       <c r="B55" s="51"/>
       <c r="C55" s="22"/>
@@ -3348,11 +3352,11 @@
       <c r="G55" s="51"/>
       <c r="H55" s="22"/>
     </row>
-    <row r="56" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" ht="16.5" customHeight="1">
       <c r="A56" s="43"/>
       <c r="B56" s="43"/>
       <c r="C56" s="88" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D56" s="88"/>
       <c r="E56" s="88"/>
@@ -3360,7 +3364,7 @@
       <c r="G56" s="88"/>
       <c r="H56" s="88"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8">
       <c r="A57" s="43"/>
       <c r="B57" s="43"/>
       <c r="C57" s="89"/>
@@ -3370,7 +3374,7 @@
       <c r="G57" s="89"/>
       <c r="H57" s="89"/>
     </row>
-    <row r="58" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="16.5" customHeight="1">
       <c r="A58" s="73" t="s">
         <v>0</v>
       </c>
@@ -3385,7 +3389,7 @@
       <c r="G58" s="83"/>
       <c r="H58" s="79"/>
     </row>
-    <row r="59" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="16.5" customHeight="1">
       <c r="A59" s="73" t="s">
         <v>1</v>
       </c>
@@ -3400,7 +3404,7 @@
       <c r="G59" s="91"/>
       <c r="H59" s="80"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60" s="73" t="s">
         <v>9</v>
       </c>
@@ -3415,7 +3419,7 @@
       <c r="G60" s="91"/>
       <c r="H60" s="80"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61" s="97" t="s">
         <v>3</v>
       </c>
@@ -3430,25 +3434,25 @@
       <c r="G61" s="94"/>
       <c r="H61" s="81"/>
     </row>
-    <row r="62" spans="1:8" ht="33" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="33">
       <c r="A62" s="78"/>
       <c r="B62" s="78"/>
       <c r="C62" s="78"/>
       <c r="D62" s="78"/>
       <c r="E62" s="78"/>
       <c r="F62" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G62" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="G62" s="45" t="s">
+      <c r="H62" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="H62" s="45" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:8" ht="32.1" customHeight="1">
       <c r="A63" s="96" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B63" s="96"/>
       <c r="C63" s="96"/>
@@ -3458,89 +3462,89 @@
       <c r="G63" s="33"/>
       <c r="H63" s="33"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="A64" s="85" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B64" s="85"/>
       <c r="C64" s="85"/>
       <c r="D64" s="85"/>
       <c r="E64" s="85"/>
       <c r="F64" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G64" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H64" s="34"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8">
       <c r="A65" s="85" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B65" s="85"/>
       <c r="C65" s="85"/>
       <c r="D65" s="85"/>
       <c r="E65" s="85"/>
       <c r="F65" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G65" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H65" s="34"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8">
       <c r="A66" s="85" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B66" s="85"/>
       <c r="C66" s="85"/>
       <c r="D66" s="85"/>
       <c r="E66" s="85"/>
       <c r="F66" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G66" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H66" s="34"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8">
       <c r="A67" s="85" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B67" s="85"/>
       <c r="C67" s="85"/>
       <c r="D67" s="85"/>
       <c r="E67" s="85"/>
       <c r="F67" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G67" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H67" s="34"/>
     </row>
-    <row r="68" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="32.1" customHeight="1">
       <c r="A68" s="85" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B68" s="85"/>
       <c r="C68" s="85"/>
       <c r="D68" s="85"/>
       <c r="E68" s="85"/>
       <c r="F68" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G68" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H68" s="34"/>
     </row>
-    <row r="69" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" ht="32.1" customHeight="1">
       <c r="A69" s="96" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B69" s="96"/>
       <c r="C69" s="96"/>
@@ -3548,109 +3552,109 @@
       <c r="E69" s="96"/>
       <c r="F69" s="33"/>
       <c r="G69" s="33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H69" s="33"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8">
       <c r="A70" s="85" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B70" s="85"/>
       <c r="C70" s="85"/>
       <c r="D70" s="85"/>
       <c r="E70" s="85"/>
       <c r="F70" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G70" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H70" s="34"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8">
       <c r="A71" s="85" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B71" s="85"/>
       <c r="C71" s="85"/>
       <c r="D71" s="85"/>
       <c r="E71" s="85"/>
       <c r="F71" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G71" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H71" s="34"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8">
       <c r="A72" s="85" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B72" s="85"/>
       <c r="C72" s="85"/>
       <c r="D72" s="85"/>
       <c r="E72" s="85"/>
       <c r="F72" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G72" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H72" s="34"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8">
       <c r="A73" s="85" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B73" s="85"/>
       <c r="C73" s="85"/>
       <c r="D73" s="85"/>
       <c r="E73" s="85"/>
       <c r="F73" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G73" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H73" s="34"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8">
       <c r="A74" s="85" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B74" s="85"/>
       <c r="C74" s="85"/>
       <c r="D74" s="85"/>
       <c r="E74" s="85"/>
       <c r="F74" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G74" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H74" s="34"/>
     </row>
-    <row r="75" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="32.1" customHeight="1">
       <c r="A75" s="85" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B75" s="85"/>
       <c r="C75" s="85"/>
       <c r="D75" s="85"/>
       <c r="E75" s="85"/>
       <c r="F75" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G75" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H75" s="34"/>
     </row>
-    <row r="76" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" ht="32.1" customHeight="1">
       <c r="A76" s="96" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B76" s="96"/>
       <c r="C76" s="96"/>
@@ -3658,77 +3662,77 @@
       <c r="E76" s="96"/>
       <c r="F76" s="33"/>
       <c r="G76" s="33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H76" s="33"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8">
       <c r="A77" s="85" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B77" s="85"/>
       <c r="C77" s="85"/>
       <c r="D77" s="85"/>
       <c r="E77" s="85"/>
       <c r="F77" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G77" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H77" s="34"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8">
       <c r="A78" s="85" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B78" s="85"/>
       <c r="C78" s="85"/>
       <c r="D78" s="85"/>
       <c r="E78" s="85"/>
       <c r="F78" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G78" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H78" s="34"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8">
       <c r="A79" s="85" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B79" s="85"/>
       <c r="C79" s="85"/>
       <c r="D79" s="85"/>
       <c r="E79" s="85"/>
       <c r="F79" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G79" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H79" s="34"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8">
       <c r="A80" s="85" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B80" s="85"/>
       <c r="C80" s="85"/>
       <c r="D80" s="85"/>
       <c r="E80" s="85"/>
       <c r="F80" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G80" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H80" s="34"/>
     </row>
-    <row r="81" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" ht="32.1" customHeight="1">
       <c r="A81" s="96" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B81" s="96"/>
       <c r="C81" s="96"/>
@@ -3736,203 +3740,203 @@
       <c r="E81" s="96"/>
       <c r="F81" s="33"/>
       <c r="G81" s="33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H81" s="33"/>
     </row>
-    <row r="82" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="32.1" customHeight="1">
       <c r="A82" s="85" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B82" s="85"/>
       <c r="C82" s="85"/>
       <c r="D82" s="85"/>
       <c r="E82" s="85"/>
       <c r="F82" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G82" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H82" s="34"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8">
       <c r="A83" s="85" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B83" s="85"/>
       <c r="C83" s="85"/>
       <c r="D83" s="85"/>
       <c r="E83" s="85"/>
       <c r="F83" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G83" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H83" s="34"/>
     </row>
-    <row r="84" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="32.1" customHeight="1">
       <c r="A84" s="85" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B84" s="85"/>
       <c r="C84" s="85"/>
       <c r="D84" s="85"/>
       <c r="E84" s="85"/>
       <c r="F84" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G84" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H84" s="34"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8">
       <c r="A85" s="85" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B85" s="85"/>
       <c r="C85" s="85"/>
       <c r="D85" s="85"/>
       <c r="E85" s="85"/>
       <c r="F85" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G85" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H85" s="34"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8">
       <c r="A86" s="85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B86" s="85"/>
       <c r="C86" s="85"/>
       <c r="D86" s="85"/>
       <c r="E86" s="85"/>
       <c r="F86" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G86" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H86" s="34"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8">
       <c r="A87" s="85" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B87" s="85"/>
       <c r="C87" s="85"/>
       <c r="D87" s="85"/>
       <c r="E87" s="85"/>
       <c r="F87" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G87" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H87" s="34"/>
     </row>
-    <row r="88" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="32.1" customHeight="1">
       <c r="A88" s="85" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B88" s="85"/>
       <c r="C88" s="85"/>
       <c r="D88" s="85"/>
       <c r="E88" s="85"/>
       <c r="F88" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G88" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H88" s="34"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8">
       <c r="A89" s="85" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B89" s="85"/>
       <c r="C89" s="85"/>
       <c r="D89" s="85"/>
       <c r="E89" s="85"/>
       <c r="F89" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G89" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H89" s="34"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8">
       <c r="A90" s="85" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B90" s="85"/>
       <c r="C90" s="85"/>
       <c r="D90" s="85"/>
       <c r="E90" s="85"/>
       <c r="F90" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G90" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H90" s="34"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8">
       <c r="A91" s="85" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B91" s="85"/>
       <c r="C91" s="85"/>
       <c r="D91" s="85"/>
       <c r="E91" s="85"/>
       <c r="F91" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G91" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H91" s="34"/>
     </row>
-    <row r="92" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="32.1" customHeight="1">
       <c r="A92" s="85" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B92" s="85"/>
       <c r="C92" s="85"/>
       <c r="D92" s="85"/>
       <c r="E92" s="85"/>
       <c r="F92" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G92" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H92" s="34"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8">
       <c r="A93" s="85" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B93" s="85"/>
       <c r="C93" s="85"/>
       <c r="D93" s="85"/>
       <c r="E93" s="85"/>
       <c r="F93" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G93" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H93" s="34"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8">
       <c r="A94" s="52"/>
       <c r="B94" s="52"/>
       <c r="C94" s="52"/>
@@ -3942,11 +3946,11 @@
       <c r="G94" s="22"/>
       <c r="H94" s="22"/>
     </row>
-    <row r="95" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" ht="16.5" customHeight="1">
       <c r="A95" s="43"/>
       <c r="B95" s="43"/>
       <c r="C95" s="88" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D95" s="88"/>
       <c r="E95" s="88"/>
@@ -3954,7 +3958,7 @@
       <c r="G95" s="88"/>
       <c r="H95" s="88"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8">
       <c r="A96" s="43"/>
       <c r="B96" s="43"/>
       <c r="C96" s="89"/>
@@ -3964,7 +3968,7 @@
       <c r="G96" s="89"/>
       <c r="H96" s="89"/>
     </row>
-    <row r="97" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="16.5" customHeight="1">
       <c r="A97" s="73" t="s">
         <v>0</v>
       </c>
@@ -3979,7 +3983,7 @@
       <c r="G97" s="84"/>
       <c r="H97" s="79"/>
     </row>
-    <row r="98" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="16.5" customHeight="1">
       <c r="A98" s="73" t="s">
         <v>1</v>
       </c>
@@ -3994,7 +3998,7 @@
       <c r="G98" s="92"/>
       <c r="H98" s="80"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8">
       <c r="A99" s="73" t="s">
         <v>9</v>
       </c>
@@ -4009,7 +4013,7 @@
       <c r="G99" s="92"/>
       <c r="H99" s="80"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8">
       <c r="A100" s="97" t="s">
         <v>3</v>
       </c>
@@ -4024,25 +4028,25 @@
       <c r="G100" s="95"/>
       <c r="H100" s="81"/>
     </row>
-    <row r="101" spans="1:8" ht="33" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" ht="33">
       <c r="A101" s="78"/>
       <c r="B101" s="78"/>
       <c r="C101" s="78"/>
       <c r="D101" s="78"/>
       <c r="E101" s="78"/>
       <c r="F101" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G101" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="G101" s="45" t="s">
+      <c r="H101" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="H101" s="45" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:8" ht="32.1" customHeight="1">
       <c r="A102" s="96" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B102" s="96"/>
       <c r="C102" s="96"/>
@@ -4050,61 +4054,61 @@
       <c r="E102" s="96"/>
       <c r="F102" s="33"/>
       <c r="G102" s="33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H102" s="33"/>
     </row>
-    <row r="103" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" ht="32.1" customHeight="1">
       <c r="A103" s="85" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B103" s="85"/>
       <c r="C103" s="85"/>
       <c r="D103" s="85"/>
       <c r="E103" s="85"/>
       <c r="F103" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G103" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H103" s="34"/>
     </row>
-    <row r="104" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" ht="32.1" customHeight="1">
       <c r="A104" s="85" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B104" s="85"/>
       <c r="C104" s="85"/>
       <c r="D104" s="85"/>
       <c r="E104" s="85"/>
       <c r="F104" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G104" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H104" s="34"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8">
       <c r="A105" s="85" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B105" s="85"/>
       <c r="C105" s="85"/>
       <c r="D105" s="85"/>
       <c r="E105" s="85"/>
       <c r="F105" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G105" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H105" s="34"/>
     </row>
-    <row r="106" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" ht="32.1" customHeight="1">
       <c r="A106" s="96" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B106" s="96"/>
       <c r="C106" s="96"/>
@@ -4112,461 +4116,461 @@
       <c r="E106" s="96"/>
       <c r="F106" s="33"/>
       <c r="G106" s="33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H106" s="33"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8">
       <c r="A107" s="85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B107" s="85"/>
       <c r="C107" s="85"/>
       <c r="D107" s="85"/>
       <c r="E107" s="85"/>
       <c r="F107" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G107" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H107" s="34"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8">
       <c r="A108" s="85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B108" s="85"/>
       <c r="C108" s="85"/>
       <c r="D108" s="85"/>
       <c r="E108" s="85"/>
       <c r="F108" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G108" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H108" s="34"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8">
       <c r="A109" s="85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B109" s="85"/>
       <c r="C109" s="85"/>
       <c r="D109" s="85"/>
       <c r="E109" s="85"/>
       <c r="F109" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G109" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H109" s="34"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8">
       <c r="A110" s="85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B110" s="85"/>
       <c r="C110" s="85"/>
       <c r="D110" s="85"/>
       <c r="E110" s="85"/>
       <c r="F110" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G110" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H110" s="34"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8">
       <c r="A111" s="85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B111" s="85"/>
       <c r="C111" s="85"/>
       <c r="D111" s="85"/>
       <c r="E111" s="85"/>
       <c r="F111" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G111" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H111" s="34"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8">
       <c r="A112" s="85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B112" s="85"/>
       <c r="C112" s="85"/>
       <c r="D112" s="85"/>
       <c r="E112" s="85"/>
       <c r="F112" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G112" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H112" s="34"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8">
       <c r="A113" s="85" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B113" s="85"/>
       <c r="C113" s="85"/>
       <c r="D113" s="85"/>
       <c r="E113" s="85"/>
       <c r="F113" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G113" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H113" s="34"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8">
       <c r="A114" s="85" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B114" s="85"/>
       <c r="C114" s="85"/>
       <c r="D114" s="85"/>
       <c r="E114" s="85"/>
       <c r="F114" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G114" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H114" s="34"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8">
       <c r="A115" s="85" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B115" s="85"/>
       <c r="C115" s="85"/>
       <c r="D115" s="85"/>
       <c r="E115" s="85"/>
       <c r="F115" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G115" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H115" s="34"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8">
       <c r="A116" s="85" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B116" s="85"/>
       <c r="C116" s="85"/>
       <c r="D116" s="85"/>
       <c r="E116" s="85"/>
       <c r="F116" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G116" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H116" s="34"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8">
       <c r="A117" s="85" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B117" s="85"/>
       <c r="C117" s="85"/>
       <c r="D117" s="85"/>
       <c r="E117" s="85"/>
       <c r="F117" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G117" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H117" s="34"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8">
       <c r="A118" s="85" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B118" s="85"/>
       <c r="C118" s="85"/>
       <c r="D118" s="85"/>
       <c r="E118" s="85"/>
       <c r="F118" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G118" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H118" s="34"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8">
       <c r="A119" s="85" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B119" s="85"/>
       <c r="C119" s="85"/>
       <c r="D119" s="85"/>
       <c r="E119" s="85"/>
       <c r="F119" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G119" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H119" s="34"/>
     </row>
-    <row r="120" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" ht="32.1" customHeight="1">
       <c r="A120" s="85" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B120" s="85"/>
       <c r="C120" s="85"/>
       <c r="D120" s="85"/>
       <c r="E120" s="85"/>
       <c r="F120" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G120" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H120" s="34"/>
     </row>
-    <row r="121" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" ht="32.1" customHeight="1">
       <c r="A121" s="85" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B121" s="85"/>
       <c r="C121" s="85"/>
       <c r="D121" s="85"/>
       <c r="E121" s="85"/>
       <c r="F121" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G121" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H121" s="34"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8">
       <c r="A122" s="85" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B122" s="85"/>
       <c r="C122" s="85"/>
       <c r="D122" s="85"/>
       <c r="E122" s="85"/>
       <c r="F122" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G122" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H122" s="34"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8">
       <c r="A123" s="85" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B123" s="85"/>
       <c r="C123" s="85"/>
       <c r="D123" s="85"/>
       <c r="E123" s="85"/>
       <c r="F123" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G123" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H123" s="34"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8">
       <c r="A124" s="85" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B124" s="85"/>
       <c r="C124" s="85"/>
       <c r="D124" s="85"/>
       <c r="E124" s="85"/>
       <c r="F124" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G124" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H124" s="34"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8">
       <c r="A125" s="85" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B125" s="85"/>
       <c r="C125" s="85"/>
       <c r="D125" s="85"/>
       <c r="E125" s="85"/>
       <c r="F125" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G125" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H125" s="34"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8">
       <c r="A126" s="85" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B126" s="85"/>
       <c r="C126" s="85"/>
       <c r="D126" s="85"/>
       <c r="E126" s="85"/>
       <c r="F126" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G126" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H126" s="34"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8">
       <c r="A127" s="85" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B127" s="85"/>
       <c r="C127" s="85"/>
       <c r="D127" s="85"/>
       <c r="E127" s="85"/>
       <c r="F127" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G127" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H127" s="34"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8">
       <c r="A128" s="85" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B128" s="85"/>
       <c r="C128" s="85"/>
       <c r="D128" s="85"/>
       <c r="E128" s="85"/>
       <c r="F128" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G128" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H128" s="34"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8">
       <c r="A129" s="85" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B129" s="85"/>
       <c r="C129" s="85"/>
       <c r="D129" s="85"/>
       <c r="E129" s="85"/>
       <c r="F129" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G129" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H129" s="34"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8">
       <c r="A130" s="85" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B130" s="85"/>
       <c r="C130" s="85"/>
       <c r="D130" s="85"/>
       <c r="E130" s="85"/>
       <c r="F130" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G130" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H130" s="34"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8">
       <c r="A131" s="85" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B131" s="85"/>
       <c r="C131" s="85"/>
       <c r="D131" s="85"/>
       <c r="E131" s="85"/>
       <c r="F131" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G131" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H131" s="34"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8">
       <c r="A132" s="85" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B132" s="85"/>
       <c r="C132" s="85"/>
       <c r="D132" s="85"/>
       <c r="E132" s="85"/>
       <c r="F132" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G132" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H132" s="34"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8">
       <c r="A133" s="85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B133" s="85"/>
       <c r="C133" s="85"/>
       <c r="D133" s="85"/>
       <c r="E133" s="85"/>
       <c r="F133" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G133" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H133" s="34"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8">
       <c r="A134" s="85" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B134" s="85"/>
       <c r="C134" s="85"/>
       <c r="D134" s="85"/>
       <c r="E134" s="85"/>
       <c r="F134" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G134" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H134" s="34"/>
     </row>
-    <row r="135" spans="1:8" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" ht="45.95" customHeight="1">
       <c r="A135" s="86" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B135" s="86"/>
       <c r="C135" s="87"/>
@@ -4576,7 +4580,7 @@
       <c r="G135" s="87"/>
       <c r="H135" s="87"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8">
       <c r="A136" s="50"/>
       <c r="B136" s="50"/>
       <c r="C136" s="51"/>
@@ -4586,11 +4590,11 @@
       <c r="G136" s="51"/>
       <c r="H136" s="51"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8">
       <c r="A137" s="43"/>
       <c r="B137" s="43"/>
       <c r="C137" s="88" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D137" s="88"/>
       <c r="E137" s="88"/>
@@ -4598,7 +4602,7 @@
       <c r="G137" s="88"/>
       <c r="H137" s="88"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8">
       <c r="A138" s="43"/>
       <c r="B138" s="43"/>
       <c r="C138" s="89"/>
@@ -4608,7 +4612,7 @@
       <c r="G138" s="89"/>
       <c r="H138" s="89"/>
     </row>
-    <row r="139" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" ht="16.5" customHeight="1">
       <c r="A139" s="73" t="s">
         <v>0</v>
       </c>
@@ -4623,7 +4627,7 @@
       <c r="G139" s="84"/>
       <c r="H139" s="79"/>
     </row>
-    <row r="140" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" ht="16.5" customHeight="1">
       <c r="A140" s="73" t="s">
         <v>1</v>
       </c>
@@ -4638,7 +4642,7 @@
       <c r="G140" s="84"/>
       <c r="H140" s="80"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8">
       <c r="A141" s="73" t="s">
         <v>9</v>
       </c>
@@ -4653,7 +4657,7 @@
       <c r="G141" s="84"/>
       <c r="H141" s="80"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8">
       <c r="A142" s="73" t="s">
         <v>3</v>
       </c>
@@ -4668,345 +4672,345 @@
       <c r="G142" s="84"/>
       <c r="H142" s="81"/>
     </row>
-    <row r="143" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" ht="15.95" customHeight="1">
       <c r="A143" s="75" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B143" s="76"/>
       <c r="C143" s="75" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D143" s="77"/>
       <c r="E143" s="77"/>
       <c r="F143" s="35"/>
       <c r="G143" s="78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H143" s="78"/>
     </row>
-    <row r="144" spans="1:8" s="37" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" s="37" customFormat="1" ht="26.1" customHeight="1">
       <c r="A144" s="69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B144" s="70"/>
       <c r="C144" s="70"/>
       <c r="D144" s="70"/>
       <c r="E144" s="71"/>
       <c r="F144" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="G144" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="G144" s="72" t="s">
+      <c r="H144" s="72"/>
+    </row>
+    <row r="145" spans="1:8" ht="32.1" customHeight="1">
+      <c r="A145" s="59" t="s">
         <v>116</v>
-      </c>
-      <c r="H144" s="72"/>
-    </row>
-    <row r="145" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="59" t="s">
-        <v>117</v>
       </c>
       <c r="B145" s="60"/>
       <c r="C145" s="60"/>
       <c r="D145" s="60"/>
       <c r="E145" s="61"/>
       <c r="F145" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G145" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="H145" s="62"/>
+    </row>
+    <row r="146" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A146" s="59" t="s">
         <v>118</v>
-      </c>
-      <c r="H145" s="62"/>
-    </row>
-    <row r="146" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="59" t="s">
-        <v>119</v>
       </c>
       <c r="B146" s="60"/>
       <c r="C146" s="60"/>
       <c r="D146" s="60"/>
       <c r="E146" s="61"/>
       <c r="F146" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G146" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H146" s="62"/>
     </row>
-    <row r="147" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" ht="16.5" customHeight="1">
       <c r="A147" s="59" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B147" s="60"/>
       <c r="C147" s="60"/>
       <c r="D147" s="60"/>
       <c r="E147" s="61"/>
       <c r="F147" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G147" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H147" s="62"/>
     </row>
-    <row r="148" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" ht="16.5" customHeight="1">
       <c r="A148" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B148" s="60"/>
       <c r="C148" s="60"/>
       <c r="D148" s="60"/>
       <c r="E148" s="61"/>
       <c r="F148" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G148" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H148" s="62"/>
     </row>
-    <row r="149" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" ht="16.5" customHeight="1">
       <c r="A149" s="59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B149" s="60"/>
       <c r="C149" s="60"/>
       <c r="D149" s="60"/>
       <c r="E149" s="61"/>
       <c r="F149" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G149" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H149" s="62"/>
     </row>
-    <row r="150" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" ht="30" customHeight="1">
       <c r="A150" s="59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B150" s="60"/>
       <c r="C150" s="60"/>
       <c r="D150" s="60"/>
       <c r="E150" s="61"/>
       <c r="F150" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G150" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H150" s="62"/>
     </row>
-    <row r="151" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" ht="16.5" customHeight="1">
       <c r="A151" s="59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B151" s="60"/>
       <c r="C151" s="60"/>
       <c r="D151" s="60"/>
       <c r="E151" s="61"/>
       <c r="F151" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G151" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H151" s="62"/>
     </row>
-    <row r="152" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" ht="30" customHeight="1">
       <c r="A152" s="59" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B152" s="60"/>
       <c r="C152" s="60"/>
       <c r="D152" s="60"/>
       <c r="E152" s="61"/>
       <c r="F152" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G152" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H152" s="62"/>
     </row>
-    <row r="153" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" ht="16.5" customHeight="1">
       <c r="A153" s="59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B153" s="60"/>
       <c r="C153" s="60"/>
       <c r="D153" s="60"/>
       <c r="E153" s="61"/>
       <c r="F153" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G153" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H153" s="62"/>
     </row>
-    <row r="154" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" ht="30" customHeight="1">
       <c r="A154" s="59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B154" s="60"/>
       <c r="C154" s="60"/>
       <c r="D154" s="60"/>
       <c r="E154" s="61"/>
       <c r="F154" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G154" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H154" s="62"/>
     </row>
-    <row r="155" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" ht="16.5" customHeight="1">
       <c r="A155" s="59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B155" s="60"/>
       <c r="C155" s="60"/>
       <c r="D155" s="60"/>
       <c r="E155" s="61"/>
       <c r="F155" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G155" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H155" s="62"/>
     </row>
-    <row r="156" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" ht="16.5" customHeight="1">
       <c r="A156" s="59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B156" s="60"/>
       <c r="C156" s="60"/>
       <c r="D156" s="60"/>
       <c r="E156" s="61"/>
       <c r="F156" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G156" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H156" s="62"/>
     </row>
-    <row r="157" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" ht="32.1" customHeight="1">
       <c r="A157" s="59" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B157" s="60"/>
       <c r="C157" s="60"/>
       <c r="D157" s="60"/>
       <c r="E157" s="61"/>
       <c r="F157" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G157" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H157" s="62"/>
     </row>
-    <row r="158" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" ht="16.5" customHeight="1">
       <c r="A158" s="59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B158" s="60"/>
       <c r="C158" s="60"/>
       <c r="D158" s="60"/>
       <c r="E158" s="61"/>
       <c r="F158" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G158" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H158" s="62"/>
     </row>
-    <row r="159" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" ht="16.5" customHeight="1">
       <c r="A159" s="59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B159" s="60"/>
       <c r="C159" s="60"/>
       <c r="D159" s="60"/>
       <c r="E159" s="61"/>
       <c r="F159" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G159" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H159" s="62"/>
     </row>
-    <row r="160" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" ht="16.5" customHeight="1">
       <c r="A160" s="59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B160" s="60"/>
       <c r="C160" s="60"/>
       <c r="D160" s="60"/>
       <c r="E160" s="61"/>
       <c r="F160" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G160" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H160" s="62"/>
     </row>
-    <row r="161" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" ht="16.5" customHeight="1">
       <c r="A161" s="59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B161" s="60"/>
       <c r="C161" s="60"/>
       <c r="D161" s="60"/>
       <c r="E161" s="61"/>
       <c r="F161" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G161" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H161" s="62"/>
     </row>
-    <row r="162" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" ht="30" customHeight="1">
       <c r="A162" s="59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B162" s="60"/>
       <c r="C162" s="60"/>
       <c r="D162" s="60"/>
       <c r="E162" s="61"/>
       <c r="F162" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G162" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H162" s="62"/>
     </row>
-    <row r="163" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" ht="30" customHeight="1">
       <c r="A163" s="59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B163" s="60"/>
       <c r="C163" s="60"/>
       <c r="D163" s="60"/>
       <c r="E163" s="61"/>
       <c r="F163" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G163" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H163" s="62"/>
     </row>
-    <row r="164" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" ht="16.5" customHeight="1">
       <c r="A164" s="59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B164" s="60"/>
       <c r="C164" s="60"/>
@@ -5014,109 +5018,109 @@
       <c r="E164" s="61"/>
       <c r="F164" s="25"/>
       <c r="G164" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H164" s="62"/>
     </row>
-    <row r="165" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" ht="30" customHeight="1">
       <c r="A165" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B165" s="60"/>
       <c r="C165" s="60"/>
       <c r="D165" s="60"/>
       <c r="E165" s="61"/>
       <c r="F165" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G165" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H165" s="62"/>
     </row>
-    <row r="166" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" ht="30" customHeight="1">
       <c r="A166" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B166" s="60"/>
       <c r="C166" s="60"/>
       <c r="D166" s="60"/>
       <c r="E166" s="61"/>
       <c r="F166" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G166" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H166" s="62"/>
     </row>
-    <row r="167" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" ht="16.5" customHeight="1">
       <c r="A167" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B167" s="60"/>
       <c r="C167" s="60"/>
       <c r="D167" s="60"/>
       <c r="E167" s="61"/>
       <c r="F167" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G167" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H167" s="62"/>
     </row>
-    <row r="168" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" ht="30" customHeight="1">
       <c r="A168" s="59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B168" s="60"/>
       <c r="C168" s="60"/>
       <c r="D168" s="60"/>
       <c r="E168" s="61"/>
       <c r="F168" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G168" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H168" s="62"/>
     </row>
-    <row r="169" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" ht="32.1" customHeight="1">
       <c r="A169" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B169" s="60"/>
       <c r="C169" s="60"/>
       <c r="D169" s="60"/>
       <c r="E169" s="61"/>
       <c r="F169" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G169" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H169" s="62"/>
     </row>
-    <row r="170" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" ht="16.5" customHeight="1">
       <c r="A170" s="66" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B170" s="67"/>
       <c r="C170" s="67"/>
       <c r="D170" s="67"/>
       <c r="E170" s="68"/>
       <c r="F170" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G170" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H170" s="62"/>
     </row>
-    <row r="171" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" ht="30" customHeight="1">
       <c r="A171" s="59" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B171" s="60"/>
       <c r="C171" s="60"/>
@@ -5124,61 +5128,61 @@
       <c r="E171" s="61"/>
       <c r="F171" s="25"/>
       <c r="G171" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H171" s="62"/>
     </row>
-    <row r="172" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" ht="16.5" customHeight="1">
       <c r="A172" s="59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B172" s="60"/>
       <c r="C172" s="60"/>
       <c r="D172" s="60"/>
       <c r="E172" s="61"/>
       <c r="F172" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G172" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H172" s="62"/>
     </row>
-    <row r="173" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" ht="16.5" customHeight="1">
       <c r="A173" s="59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B173" s="60"/>
       <c r="C173" s="60"/>
       <c r="D173" s="60"/>
       <c r="E173" s="61"/>
       <c r="F173" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G173" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H173" s="62"/>
     </row>
-    <row r="174" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" ht="16.5" customHeight="1">
       <c r="A174" s="59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B174" s="60"/>
       <c r="C174" s="60"/>
       <c r="D174" s="60"/>
       <c r="E174" s="61"/>
       <c r="F174" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="G174" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="H174" s="62"/>
+    </row>
+    <row r="175" spans="1:8" ht="38.1" customHeight="1">
+      <c r="A175" s="59" t="s">
         <v>142</v>
-      </c>
-      <c r="G174" s="62" t="s">
-        <v>118</v>
-      </c>
-      <c r="H174" s="62"/>
-    </row>
-    <row r="175" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="59" t="s">
-        <v>143</v>
       </c>
       <c r="B175" s="60"/>
       <c r="C175" s="60"/>
@@ -5186,29 +5190,29 @@
       <c r="E175" s="61"/>
       <c r="F175" s="25"/>
       <c r="G175" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H175" s="62"/>
     </row>
-    <row r="176" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" ht="16.5" customHeight="1">
       <c r="A176" s="59" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B176" s="60"/>
       <c r="C176" s="60"/>
       <c r="D176" s="60"/>
       <c r="E176" s="61"/>
       <c r="F176" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G176" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H176" s="62"/>
     </row>
-    <row r="177" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" ht="17.25" thickBot="1">
       <c r="A177" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B177" s="64"/>
       <c r="C177" s="64"/>
@@ -5218,7 +5222,7 @@
       <c r="G177" s="64"/>
       <c r="H177" s="65"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8">
       <c r="A178" s="50"/>
       <c r="B178" s="50"/>
       <c r="C178" s="50"/>
@@ -5228,74 +5232,74 @@
       <c r="G178" s="50"/>
       <c r="H178" s="50"/>
     </row>
-    <row r="180" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:8" ht="17.25" thickBot="1">
       <c r="H180" s="57"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A181" s="142" t="s">
+    <row r="181" spans="1:8">
+      <c r="A181" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="B181" s="143"/>
-      <c r="C181" s="147" t="str">
+      <c r="B181" s="147"/>
+      <c r="C181" s="151" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D181" s="143"/>
-      <c r="E181" s="143"/>
-      <c r="F181" s="143"/>
-      <c r="G181" s="148"/>
-      <c r="H181" s="156"/>
-    </row>
-    <row r="182" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="132" t="s">
+      <c r="D181" s="147"/>
+      <c r="E181" s="147"/>
+      <c r="F181" s="147"/>
+      <c r="G181" s="152"/>
+      <c r="H181" s="160"/>
+    </row>
+    <row r="182" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A182" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="B182" s="133"/>
-      <c r="C182" s="149" t="str">
+      <c r="B182" s="137"/>
+      <c r="C182" s="153" t="str">
         <f>$C$4</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D182" s="150"/>
-      <c r="E182" s="150"/>
-      <c r="F182" s="150"/>
-      <c r="G182" s="151"/>
-      <c r="H182" s="156"/>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A183" s="132" t="s">
+      <c r="D182" s="154"/>
+      <c r="E182" s="154"/>
+      <c r="F182" s="154"/>
+      <c r="G182" s="155"/>
+      <c r="H182" s="160"/>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="B183" s="133"/>
-      <c r="C183" s="152" t="str">
+      <c r="B183" s="137"/>
+      <c r="C183" s="156" t="str">
         <f>$C$5</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D183" s="133"/>
-      <c r="E183" s="133"/>
-      <c r="F183" s="133"/>
-      <c r="G183" s="153"/>
-      <c r="H183" s="156"/>
-    </row>
-    <row r="184" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="134" t="s">
+      <c r="D183" s="137"/>
+      <c r="E183" s="137"/>
+      <c r="F183" s="137"/>
+      <c r="G183" s="157"/>
+      <c r="H183" s="160"/>
+    </row>
+    <row r="184" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A184" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="B184" s="135"/>
-      <c r="C184" s="154" t="str">
+      <c r="B184" s="139"/>
+      <c r="C184" s="158" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
-      <c r="D184" s="135"/>
-      <c r="E184" s="135"/>
-      <c r="F184" s="135"/>
-      <c r="G184" s="155"/>
-      <c r="H184" s="157"/>
-    </row>
-    <row r="185" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="136" t="s">
+      <c r="D184" s="139"/>
+      <c r="E184" s="139"/>
+      <c r="F184" s="139"/>
+      <c r="G184" s="159"/>
+      <c r="H184" s="161"/>
+    </row>
+    <row r="185" spans="1:8" ht="18" thickTop="1" thickBot="1">
+      <c r="A185" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="B185" s="137"/>
+      <c r="B185" s="141"/>
       <c r="C185" s="3">
         <f>$E$18</f>
         <v>2050</v>
@@ -5318,17 +5322,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A186" s="138"/>
-      <c r="B186" s="139"/>
-      <c r="C186" s="139"/>
-      <c r="D186" s="140"/>
-      <c r="E186" s="140"/>
-      <c r="F186" s="140"/>
-      <c r="G186" s="140"/>
-      <c r="H186" s="141"/>
-    </row>
-    <row r="187" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" ht="18" thickTop="1" thickBot="1">
+      <c r="A186" s="142"/>
+      <c r="B186" s="143"/>
+      <c r="C186" s="143"/>
+      <c r="D186" s="144"/>
+      <c r="E186" s="144"/>
+      <c r="F186" s="144"/>
+      <c r="G186" s="144"/>
+      <c r="H186" s="145"/>
+    </row>
+    <row r="187" spans="1:8" ht="17.25" thickTop="1">
       <c r="A187" s="5"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
@@ -5338,7 +5342,7 @@
       <c r="G187" s="6"/>
       <c r="H187" s="7"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8">
       <c r="A188" s="8"/>
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
@@ -5348,7 +5352,7 @@
       <c r="G188" s="9"/>
       <c r="H188" s="10"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8">
       <c r="A189" s="8"/>
       <c r="B189" s="9"/>
       <c r="C189" s="9"/>
@@ -5358,7 +5362,7 @@
       <c r="G189" s="9"/>
       <c r="H189" s="10"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8">
       <c r="A190" s="8"/>
       <c r="B190" s="9"/>
       <c r="C190" s="9"/>
@@ -5368,7 +5372,7 @@
       <c r="G190" s="9"/>
       <c r="H190" s="10"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8">
       <c r="A191" s="8"/>
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
@@ -5378,7 +5382,7 @@
       <c r="G191" s="9"/>
       <c r="H191" s="10"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8">
       <c r="A192" s="8"/>
       <c r="B192" s="9"/>
       <c r="C192" s="9"/>
@@ -5388,7 +5392,7 @@
       <c r="G192" s="9"/>
       <c r="H192" s="10"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8">
       <c r="A193" s="8"/>
       <c r="B193" s="9"/>
       <c r="C193" s="9"/>
@@ -5398,7 +5402,7 @@
       <c r="G193" s="9"/>
       <c r="H193" s="10"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8">
       <c r="A194" s="8"/>
       <c r="B194" s="9"/>
       <c r="C194" s="9"/>
@@ -5408,7 +5412,7 @@
       <c r="G194" s="9"/>
       <c r="H194" s="10"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8">
       <c r="A195" s="8"/>
       <c r="B195" s="9"/>
       <c r="C195" s="9"/>
@@ -5418,7 +5422,7 @@
       <c r="G195" s="9"/>
       <c r="H195" s="10"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8">
       <c r="A196" s="8"/>
       <c r="B196" s="9"/>
       <c r="C196" s="9"/>
@@ -5428,7 +5432,7 @@
       <c r="G196" s="9"/>
       <c r="H196" s="10"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8">
       <c r="A197" s="8"/>
       <c r="B197" s="9"/>
       <c r="C197" s="9"/>
@@ -5438,7 +5442,7 @@
       <c r="G197" s="9"/>
       <c r="H197" s="10"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8">
       <c r="A198" s="11"/>
       <c r="B198" s="12"/>
       <c r="C198" s="12"/>
@@ -5448,7 +5452,7 @@
       <c r="G198" s="13"/>
       <c r="H198" s="14"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8">
       <c r="A199" s="15"/>
       <c r="B199" s="12"/>
       <c r="C199" s="12"/>
@@ -5458,7 +5462,7 @@
       <c r="G199" s="12"/>
       <c r="H199" s="14"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8">
       <c r="A200" s="15"/>
       <c r="B200" s="12"/>
       <c r="C200" s="12"/>
@@ -5468,7 +5472,7 @@
       <c r="G200" s="12"/>
       <c r="H200" s="14"/>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8">
       <c r="A201" s="15"/>
       <c r="B201" s="12"/>
       <c r="C201" s="12"/>
@@ -5478,7 +5482,7 @@
       <c r="G201" s="12"/>
       <c r="H201" s="14"/>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8">
       <c r="A202" s="15"/>
       <c r="B202" s="12"/>
       <c r="C202" s="12"/>
@@ -5488,7 +5492,7 @@
       <c r="G202" s="12"/>
       <c r="H202" s="14"/>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8">
       <c r="A203" s="15"/>
       <c r="B203" s="12"/>
       <c r="C203" s="12"/>
@@ -5498,7 +5502,7 @@
       <c r="G203" s="12"/>
       <c r="H203" s="14"/>
     </row>
-    <row r="204" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" ht="17.25" thickBot="1">
       <c r="A204" s="16"/>
       <c r="B204" s="17"/>
       <c r="C204" s="17"/>
@@ -5508,7 +5512,7 @@
       <c r="G204" s="17"/>
       <c r="H204" s="19"/>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8">
       <c r="A205" s="20"/>
       <c r="B205" s="12"/>
       <c r="C205" s="12"/>
@@ -5518,74 +5522,74 @@
       <c r="G205" s="12"/>
       <c r="H205" s="21"/>
     </row>
-    <row r="207" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:8" ht="17.25" thickBot="1">
       <c r="H207" s="58"/>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A208" s="142" t="s">
+    <row r="208" spans="1:8">
+      <c r="A208" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="B208" s="143"/>
-      <c r="C208" s="147" t="str">
+      <c r="B208" s="147"/>
+      <c r="C208" s="151" t="str">
         <f>$C$3</f>
         <v>FSO190786</v>
       </c>
-      <c r="D208" s="143"/>
-      <c r="E208" s="143"/>
-      <c r="F208" s="143"/>
-      <c r="G208" s="148"/>
-      <c r="H208" s="144"/>
-    </row>
-    <row r="209" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="132" t="s">
+      <c r="D208" s="147"/>
+      <c r="E208" s="147"/>
+      <c r="F208" s="147"/>
+      <c r="G208" s="152"/>
+      <c r="H208" s="148"/>
+    </row>
+    <row r="209" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A209" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="B209" s="133"/>
-      <c r="C209" s="149" t="str">
+      <c r="B209" s="137"/>
+      <c r="C209" s="153" t="str">
         <f>$C$4</f>
         <v>Jeju Dream Tower  III</v>
       </c>
-      <c r="D209" s="150"/>
-      <c r="E209" s="150"/>
-      <c r="F209" s="150"/>
-      <c r="G209" s="151"/>
-      <c r="H209" s="145"/>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A210" s="132" t="s">
+      <c r="D209" s="154"/>
+      <c r="E209" s="154"/>
+      <c r="F209" s="154"/>
+      <c r="G209" s="155"/>
+      <c r="H209" s="149"/>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="B210" s="133"/>
-      <c r="C210" s="152" t="str">
+      <c r="B210" s="137"/>
+      <c r="C210" s="156" t="str">
         <f>$C$5</f>
         <v>71.6 M1</v>
       </c>
-      <c r="D210" s="133"/>
-      <c r="E210" s="133"/>
-      <c r="F210" s="133"/>
-      <c r="G210" s="153"/>
-      <c r="H210" s="145"/>
-    </row>
-    <row r="211" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="134" t="s">
+      <c r="D210" s="137"/>
+      <c r="E210" s="137"/>
+      <c r="F210" s="137"/>
+      <c r="G210" s="157"/>
+      <c r="H210" s="149"/>
+    </row>
+    <row r="211" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A211" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="B211" s="135"/>
-      <c r="C211" s="154" t="str">
+      <c r="B211" s="139"/>
+      <c r="C211" s="158" t="str">
         <f>$C$6</f>
         <v>KVI</v>
       </c>
-      <c r="D211" s="135"/>
-      <c r="E211" s="135"/>
-      <c r="F211" s="135"/>
-      <c r="G211" s="155"/>
-      <c r="H211" s="146"/>
-    </row>
-    <row r="212" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="136" t="s">
+      <c r="D211" s="139"/>
+      <c r="E211" s="139"/>
+      <c r="F211" s="139"/>
+      <c r="G211" s="159"/>
+      <c r="H211" s="150"/>
+    </row>
+    <row r="212" spans="1:8" ht="18" thickTop="1" thickBot="1">
+      <c r="A212" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="B212" s="137"/>
+      <c r="B212" s="141"/>
       <c r="C212" s="3">
         <f>$E$18</f>
         <v>2050</v>
@@ -5608,17 +5612,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A213" s="138"/>
-      <c r="B213" s="139"/>
-      <c r="C213" s="139"/>
-      <c r="D213" s="140"/>
-      <c r="E213" s="140"/>
-      <c r="F213" s="140"/>
-      <c r="G213" s="140"/>
-      <c r="H213" s="141"/>
-    </row>
-    <row r="214" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" ht="18" thickTop="1" thickBot="1">
+      <c r="A213" s="142"/>
+      <c r="B213" s="143"/>
+      <c r="C213" s="143"/>
+      <c r="D213" s="144"/>
+      <c r="E213" s="144"/>
+      <c r="F213" s="144"/>
+      <c r="G213" s="144"/>
+      <c r="H213" s="145"/>
+    </row>
+    <row r="214" spans="1:8" ht="17.25" thickTop="1">
       <c r="A214" s="5"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
@@ -5628,7 +5632,7 @@
       <c r="G214" s="6"/>
       <c r="H214" s="7"/>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8">
       <c r="A215" s="8"/>
       <c r="B215" s="9"/>
       <c r="C215" s="9"/>
@@ -5638,7 +5642,7 @@
       <c r="G215" s="9"/>
       <c r="H215" s="10"/>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8">
       <c r="A216" s="8"/>
       <c r="B216" s="9"/>
       <c r="C216" s="9"/>
@@ -5648,7 +5652,7 @@
       <c r="G216" s="9"/>
       <c r="H216" s="10"/>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8">
       <c r="A217" s="8"/>
       <c r="B217" s="9"/>
       <c r="C217" s="9"/>
@@ -5658,7 +5662,7 @@
       <c r="G217" s="9"/>
       <c r="H217" s="10"/>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8">
       <c r="A218" s="8"/>
       <c r="B218" s="9"/>
       <c r="C218" s="9"/>
@@ -5668,7 +5672,7 @@
       <c r="G218" s="9"/>
       <c r="H218" s="10"/>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8">
       <c r="A219" s="8"/>
       <c r="B219" s="9"/>
       <c r="C219" s="9"/>
@@ -5678,7 +5682,7 @@
       <c r="G219" s="9"/>
       <c r="H219" s="10"/>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8">
       <c r="A220" s="8"/>
       <c r="B220" s="9"/>
       <c r="C220" s="9"/>
@@ -5688,7 +5692,7 @@
       <c r="G220" s="9"/>
       <c r="H220" s="10"/>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8">
       <c r="A221" s="8"/>
       <c r="B221" s="9"/>
       <c r="C221" s="9"/>
@@ -5698,7 +5702,7 @@
       <c r="G221" s="9"/>
       <c r="H221" s="10"/>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8">
       <c r="A222" s="8"/>
       <c r="B222" s="9"/>
       <c r="C222" s="9"/>
@@ -5708,7 +5712,7 @@
       <c r="G222" s="9"/>
       <c r="H222" s="10"/>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8">
       <c r="A223" s="8"/>
       <c r="B223" s="9"/>
       <c r="C223" s="9"/>
@@ -5718,7 +5722,7 @@
       <c r="G223" s="9"/>
       <c r="H223" s="10"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8">
       <c r="A224" s="11"/>
       <c r="B224" s="12"/>
       <c r="C224" s="12"/>
@@ -5728,7 +5732,7 @@
       <c r="G224" s="13"/>
       <c r="H224" s="14"/>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8">
       <c r="A225" s="15"/>
       <c r="B225" s="12"/>
       <c r="C225" s="12"/>
@@ -5738,7 +5742,7 @@
       <c r="G225" s="12"/>
       <c r="H225" s="14"/>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8">
       <c r="A226" s="15"/>
       <c r="B226" s="12"/>
       <c r="C226" s="12"/>
@@ -5748,7 +5752,7 @@
       <c r="G226" s="12"/>
       <c r="H226" s="14"/>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8">
       <c r="A227" s="15"/>
       <c r="B227" s="12"/>
       <c r="C227" s="12"/>
@@ -5758,7 +5762,7 @@
       <c r="G227" s="12"/>
       <c r="H227" s="14"/>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8">
       <c r="A228" s="15"/>
       <c r="B228" s="12"/>
       <c r="C228" s="12"/>
@@ -5768,7 +5772,7 @@
       <c r="G228" s="12"/>
       <c r="H228" s="14"/>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8">
       <c r="A229" s="15"/>
       <c r="B229" s="12"/>
       <c r="C229" s="12"/>
@@ -5778,7 +5782,7 @@
       <c r="G229" s="12"/>
       <c r="H229" s="14"/>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8">
       <c r="A230" s="15"/>
       <c r="B230" s="12"/>
       <c r="C230" s="12"/>
@@ -5788,7 +5792,7 @@
       <c r="G230" s="12"/>
       <c r="H230" s="14"/>
     </row>
-    <row r="231" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" ht="17.25" thickBot="1">
       <c r="A231" s="16"/>
       <c r="B231" s="17"/>
       <c r="C231" s="17"/>
@@ -5798,7 +5802,7 @@
       <c r="G231" s="17"/>
       <c r="H231" s="19"/>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8">
       <c r="A232" s="20"/>
       <c r="B232" s="12"/>
       <c r="C232" s="12"/>
